--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -458,6990 +458,6990 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29738</v>
+        <v>29830</v>
       </c>
       <c r="B2" t="n">
-        <v>155501000000</v>
+        <v>162542000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29768</v>
+        <v>29860</v>
       </c>
       <c r="B3" t="n">
-        <v>157808000000</v>
+        <v>164334000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29799</v>
+        <v>29891</v>
       </c>
       <c r="B4" t="n">
-        <v>160540000000</v>
+        <v>161706000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B5" t="n">
-        <v>162542000000</v>
+        <v>161526000000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8285690612312535</v>
+        <v>0.8429570934839418</v>
       </c>
       <c r="D5" t="n">
-        <v>134677272350.6504</v>
+        <v>136159487482.0872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B6" t="n">
-        <v>164334000000</v>
+        <v>163705000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8312551953449708</v>
+        <v>0.8356313194618533</v>
       </c>
       <c r="D6" t="n">
-        <v>136603491271.8204</v>
+        <v>136797025152.5027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B7" t="n">
-        <v>161706000000</v>
+        <v>165199000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8499065102838687</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D7" t="n">
-        <v>137434982151.9633</v>
+        <v>134417412530.5126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B8" t="n">
-        <v>161526000000</v>
+        <v>166100000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8429570934839418</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D8" t="n">
-        <v>136159487482.0872</v>
+        <v>134985778138.9679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B9" t="n">
-        <v>163705000000</v>
+        <v>167174000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8356313194618533</v>
+        <v>0.8198737394441256</v>
       </c>
       <c r="D9" t="n">
-        <v>136797025152.5027</v>
+        <v>137061572517.8322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B10" t="n">
-        <v>165199000000</v>
+        <v>168519000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="D10" t="n">
-        <v>134417412530.5126</v>
+        <v>135465434083.6013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B11" t="n">
-        <v>166100000000</v>
+        <v>169410000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.7734550235903782</v>
       </c>
       <c r="D11" t="n">
-        <v>134985778138.9679</v>
+        <v>131031015546.446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B12" t="n">
-        <v>167174000000</v>
+        <v>169601000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8198737394441256</v>
+        <v>0.7964319847085058</v>
       </c>
       <c r="D12" t="n">
-        <v>137061572517.8322</v>
+        <v>135075661038.5473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B13" t="n">
-        <v>168519000000</v>
+        <v>170129000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D13" t="n">
-        <v>135465434083.6013</v>
+        <v>137289380245.3195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B14" t="n">
-        <v>169410000000</v>
+        <v>170650000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7734550235903782</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D14" t="n">
-        <v>131031015546.446</v>
+        <v>138032839925.5844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B15" t="n">
-        <v>169601000000</v>
+        <v>171675000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7964319847085058</v>
+        <v>0.8155941603458119</v>
       </c>
       <c r="D15" t="n">
-        <v>135075661038.5473</v>
+        <v>140017127477.3672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B16" t="n">
-        <v>170129000000</v>
+        <v>173598000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8082114281095935</v>
       </c>
       <c r="D16" t="n">
-        <v>137289380245.3195</v>
+        <v>140303887496.9692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B17" t="n">
-        <v>170650000000</v>
+        <v>173574000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.813206473123526</v>
       </c>
       <c r="D17" t="n">
-        <v>138032839925.5844</v>
+        <v>141151500365.9429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B18" t="n">
-        <v>171675000000</v>
+        <v>175486000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8155941603458119</v>
+        <v>0.8086035416835127</v>
       </c>
       <c r="D18" t="n">
-        <v>140017127477.3672</v>
+        <v>141898601115.8729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B19" t="n">
-        <v>173598000000</v>
+        <v>176731000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8082114281095935</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D19" t="n">
-        <v>140303887496.9692</v>
+        <v>143800650935.7201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B20" t="n">
-        <v>173574000000</v>
+        <v>177360000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.813206473123526</v>
+        <v>0.810307106393323</v>
       </c>
       <c r="D20" t="n">
-        <v>141151500365.9429</v>
+        <v>143716068389.9198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B21" t="n">
-        <v>175486000000</v>
+        <v>178209000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8086035416835127</v>
+        <v>0.8155276463872125</v>
       </c>
       <c r="D21" t="n">
-        <v>141898601115.8729</v>
+        <v>145334366335.0188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B22" t="n">
-        <v>176731000000</v>
+        <v>178032000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8130081300813008</v>
       </c>
       <c r="D22" t="n">
-        <v>143800650935.7201</v>
+        <v>144741463414.6342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B23" t="n">
-        <v>177360000000</v>
+        <v>178843000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.810307106393323</v>
+        <v>0.8145975887911372</v>
       </c>
       <c r="D23" t="n">
-        <v>143716068389.9198</v>
+        <v>145685076572.1733</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B24" t="n">
-        <v>178209000000</v>
+        <v>179993000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8155276463872125</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D24" t="n">
-        <v>145334366335.0188</v>
+        <v>145861426256.0778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B25" t="n">
-        <v>178032000000</v>
+        <v>181429000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8130081300813008</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D25" t="n">
-        <v>144741463414.6342</v>
+        <v>147025121555.9157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B26" t="n">
-        <v>178843000000</v>
+        <v>182607000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8145975887911372</v>
+        <v>0.8110300081103</v>
       </c>
       <c r="D26" t="n">
-        <v>145685076572.1733</v>
+        <v>148099756690.9976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B27" t="n">
-        <v>179993000000</v>
+        <v>183116000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8112932013629727</v>
       </c>
       <c r="D27" t="n">
-        <v>145861426256.0778</v>
+        <v>148560765860.7821</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B28" t="n">
-        <v>181429000000</v>
+        <v>184078000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D28" t="n">
-        <v>147025121555.9157</v>
+        <v>148545836023.2408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B29" t="n">
-        <v>182607000000</v>
+        <v>183902000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8035355564483729</v>
       </c>
       <c r="D29" t="n">
-        <v>148099756690.9976</v>
+        <v>147771795901.9687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B30" t="n">
-        <v>183116000000</v>
+        <v>184450000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8112932013629727</v>
+        <v>0.8004482510205715</v>
       </c>
       <c r="D30" t="n">
-        <v>148560765860.7821</v>
+        <v>147642679900.7444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B31" t="n">
-        <v>184078000000</v>
+        <v>185166000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.7987858455148175</v>
       </c>
       <c r="D31" t="n">
-        <v>148545836023.2408</v>
+        <v>147907979870.5967</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B32" t="n">
-        <v>183902000000</v>
+        <v>186527000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8035355564483729</v>
+        <v>0.7833307222309259</v>
       </c>
       <c r="D32" t="n">
-        <v>147771795901.9687</v>
+        <v>146112329625.5679</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B33" t="n">
-        <v>184450000000</v>
+        <v>187527000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8004482510205715</v>
+        <v>0.7785130400934216</v>
       </c>
       <c r="D33" t="n">
-        <v>147642679900.7444</v>
+        <v>145992214869.5991</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B34" t="n">
-        <v>185166000000</v>
+        <v>188986000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7987858455148175</v>
+        <v>0.7724393635099644</v>
       </c>
       <c r="D34" t="n">
-        <v>147907979870.5967</v>
+        <v>145980225552.2941</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B35" t="n">
-        <v>186527000000</v>
+        <v>190555000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7833307222309259</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D35" t="n">
-        <v>146112329625.5679</v>
+        <v>144370785665.5807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B36" t="n">
-        <v>187527000000</v>
+        <v>191983000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7785130400934216</v>
+        <v>0.7624857033930613</v>
       </c>
       <c r="D36" t="n">
-        <v>145992214869.5991</v>
+        <v>146384292794.5101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B37" t="n">
-        <v>188986000000</v>
+        <v>192900000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7724393635099644</v>
+        <v>0.7707723138584861</v>
       </c>
       <c r="D37" t="n">
-        <v>145980225552.2941</v>
+        <v>148681979343.302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B38" t="n">
-        <v>190555000000</v>
+        <v>194221000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D38" t="n">
-        <v>144370785665.5807</v>
+        <v>147326860350.4513</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B39" t="n">
-        <v>191983000000</v>
+        <v>195997000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7624857033930613</v>
+        <v>0.7604562737642586</v>
       </c>
       <c r="D39" t="n">
-        <v>146384292794.5101</v>
+        <v>149047148288.9734</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B40" t="n">
-        <v>192900000000</v>
+        <v>197099000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7707723138584861</v>
+        <v>0.7551729346020238</v>
       </c>
       <c r="D40" t="n">
-        <v>148681979343.302</v>
+        <v>148843830237.1243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B41" t="n">
-        <v>194221000000</v>
+        <v>198799000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D41" t="n">
-        <v>147326860350.4513</v>
+        <v>150411591132.6322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B42" t="n">
-        <v>195997000000</v>
+        <v>200776000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7604562737642586</v>
+        <v>0.7534659433393611</v>
       </c>
       <c r="D42" t="n">
-        <v>149047148288.9734</v>
+        <v>151277878239.9036</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B43" t="n">
-        <v>197099000000</v>
+        <v>202240000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7551729346020238</v>
+        <v>0.7228044813877846</v>
       </c>
       <c r="D43" t="n">
-        <v>148843830237.1243</v>
+        <v>146179978315.8656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B44" t="n">
-        <v>198799000000</v>
+        <v>203587000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7312614259597806</v>
       </c>
       <c r="D44" t="n">
-        <v>150411591132.6322</v>
+        <v>148875319926.8738</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B45" t="n">
-        <v>200776000000</v>
+        <v>205233000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7534659433393611</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D45" t="n">
-        <v>151277878239.9036</v>
+        <v>150133869787.8566</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B46" t="n">
-        <v>202240000000</v>
+        <v>207225000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7228044813877846</v>
+        <v>0.7275372862859221</v>
       </c>
       <c r="D46" t="n">
-        <v>146179978315.8656</v>
+        <v>150763914150.6002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B47" t="n">
-        <v>203587000000</v>
+        <v>208616000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7312614259597806</v>
+        <v>0.7357268981753973</v>
       </c>
       <c r="D47" t="n">
-        <v>148875319926.8738</v>
+        <v>153484402589.7587</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B48" t="n">
-        <v>205233000000</v>
+        <v>210378000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7385524372230428</v>
       </c>
       <c r="D48" t="n">
-        <v>150133869787.8566</v>
+        <v>155375184638.1093</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B49" t="n">
-        <v>207225000000</v>
+        <v>212430000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7275372862859221</v>
+        <v>0.7321180174244089</v>
       </c>
       <c r="D49" t="n">
-        <v>150763914150.6002</v>
+        <v>155523830441.4672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B50" t="n">
-        <v>208616000000</v>
+        <v>214664000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7357268981753973</v>
+        <v>0.7293946024799417</v>
       </c>
       <c r="D50" t="n">
-        <v>153484402589.7587</v>
+        <v>156574762946.7542</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B51" t="n">
-        <v>210378000000</v>
+        <v>216619000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7385524372230428</v>
+        <v>0.7316359379572724</v>
       </c>
       <c r="D51" t="n">
-        <v>155375184638.1093</v>
+        <v>158486245244.3664</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B52" t="n">
-        <v>212430000000</v>
+        <v>218971000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7321180174244089</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="D52" t="n">
-        <v>155523830441.4672</v>
+        <v>158216040462.4278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B53" t="n">
-        <v>214664000000</v>
+        <v>219947000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7293946024799417</v>
+        <v>0.7150518412584912</v>
       </c>
       <c r="D53" t="n">
-        <v>156574762946.7542</v>
+        <v>157273507329.2814</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B54" t="n">
-        <v>216619000000</v>
+        <v>221320000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7316359379572724</v>
+        <v>0.7025925665706457</v>
       </c>
       <c r="D54" t="n">
-        <v>158486245244.3664</v>
+        <v>155497786833.4153</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B55" t="n">
-        <v>218971000000</v>
+        <v>221317000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7225433526011561</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D55" t="n">
-        <v>158216040462.4278</v>
+        <v>155747361013.3708</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B56" t="n">
-        <v>219947000000</v>
+        <v>222244000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7150518412584912</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D56" t="n">
-        <v>157273507329.2814</v>
+        <v>159223384439.0314</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B57" t="n">
-        <v>221320000000</v>
+        <v>225943000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7025925665706457</v>
+        <v>0.7262164124909223</v>
       </c>
       <c r="D57" t="n">
-        <v>155497786833.4153</v>
+        <v>164083514887.4365</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B58" t="n">
-        <v>221317000000</v>
+        <v>228313000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D58" t="n">
-        <v>155747361013.3708</v>
+        <v>164906464427.5912</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B59" t="n">
-        <v>222244000000</v>
+        <v>230077000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D59" t="n">
-        <v>159223384439.0314</v>
+        <v>166481186685.9624</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B60" t="n">
-        <v>225943000000</v>
+        <v>232472000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7262164124909223</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D60" t="n">
-        <v>164083514887.4365</v>
+        <v>168360370799.5365</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B61" t="n">
-        <v>228313000000</v>
+        <v>234395000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7210845111047015</v>
       </c>
       <c r="D61" t="n">
-        <v>164906464427.5912</v>
+        <v>169018603980.3865</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B62" t="n">
-        <v>230077000000</v>
+        <v>236112000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7205649228995533</v>
       </c>
       <c r="D62" t="n">
-        <v>166481186685.9624</v>
+        <v>170134025075.6593</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B63" t="n">
-        <v>232472000000</v>
+        <v>238535000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7189072609633357</v>
       </c>
       <c r="D63" t="n">
-        <v>168360370799.5365</v>
+        <v>171484543493.8893</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B64" t="n">
-        <v>234395000000</v>
+        <v>241918000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7210845111047015</v>
+        <v>0.7229612492770388</v>
       </c>
       <c r="D64" t="n">
-        <v>169018603980.3865</v>
+        <v>174897339502.6027</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B65" t="n">
-        <v>236112000000</v>
+        <v>244868000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7205649228995533</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D65" t="n">
-        <v>170134025075.6593</v>
+        <v>177337775202.781</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B66" t="n">
-        <v>238535000000</v>
+        <v>248259000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7189072609633357</v>
+        <v>0.7462129691814043</v>
       </c>
       <c r="D66" t="n">
-        <v>171484543493.8893</v>
+        <v>185254085516.0063</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B67" t="n">
-        <v>241918000000</v>
+        <v>252294000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7229612492770388</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D67" t="n">
-        <v>174897339502.6027</v>
+        <v>189012586155.2292</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B68" t="n">
-        <v>244868000000</v>
+        <v>254413000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.765814060346148</v>
       </c>
       <c r="D68" t="n">
-        <v>177337775202.781</v>
+        <v>194833052534.8445</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B69" t="n">
-        <v>248259000000</v>
+        <v>256778000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7462129691814043</v>
+        <v>0.7473841554559043</v>
       </c>
       <c r="D69" t="n">
-        <v>185254085516.0063</v>
+        <v>191911808669.6562</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B70" t="n">
-        <v>252294000000</v>
+        <v>258482000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D70" t="n">
-        <v>189012586155.2292</v>
+        <v>193170913982.5125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B71" t="n">
-        <v>254413000000</v>
+        <v>260580000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.765814060346148</v>
+        <v>0.7506943923128894</v>
       </c>
       <c r="D71" t="n">
-        <v>194833052534.8445</v>
+        <v>195615944748.8927</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B72" t="n">
-        <v>256778000000</v>
+        <v>262617000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7473841554559043</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D72" t="n">
-        <v>191911808669.6562</v>
+        <v>197858057711.1429</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B73" t="n">
-        <v>258482000000</v>
+        <v>264017000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D73" t="n">
-        <v>193170913982.5125</v>
+        <v>200028032426.699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B74" t="n">
-        <v>260580000000</v>
+        <v>266094000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7506943923128894</v>
+        <v>0.7623694442326751</v>
       </c>
       <c r="D74" t="n">
-        <v>195615944748.8927</v>
+        <v>202861934893.6494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B75" t="n">
-        <v>262617000000</v>
+        <v>268159000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.7601672367920943</v>
       </c>
       <c r="D75" t="n">
-        <v>197858057711.1429</v>
+        <v>203845686050.9312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B76" t="n">
-        <v>264017000000</v>
+        <v>263775000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7633587786259541</v>
       </c>
       <c r="D76" t="n">
-        <v>200028032426.699</v>
+        <v>201354961832.0611</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B77" t="n">
-        <v>266094000000</v>
+        <v>265918000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7623694442326751</v>
+        <v>0.7698229407236336</v>
       </c>
       <c r="D77" t="n">
-        <v>202861934893.6494</v>
+        <v>204709776751.3472</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B78" t="n">
-        <v>268159000000</v>
+        <v>267370000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7601672367920943</v>
+        <v>0.7844983133286264</v>
       </c>
       <c r="D78" t="n">
-        <v>203845686050.9312</v>
+        <v>209751314034.6748</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B79" t="n">
-        <v>263775000000</v>
+        <v>269741000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D79" t="n">
-        <v>201354961832.0611</v>
+        <v>214301263208.0718</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B80" t="n">
-        <v>265918000000</v>
+        <v>272411000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7698229407236336</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="D80" t="n">
-        <v>204709776751.3472</v>
+        <v>220575708502.0243</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B81" t="n">
-        <v>267370000000</v>
+        <v>274765000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7844983133286264</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D81" t="n">
-        <v>209751314034.6748</v>
+        <v>223295408370.5811</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B82" t="n">
-        <v>269741000000</v>
+        <v>277324000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.8100445524503849</v>
       </c>
       <c r="D82" t="n">
-        <v>214301263208.0718</v>
+        <v>224644795463.7505</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B83" t="n">
-        <v>272411000000</v>
+        <v>281544000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.8240626287597858</v>
       </c>
       <c r="D83" t="n">
-        <v>220575708502.0243</v>
+        <v>232009888751.5451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B84" t="n">
-        <v>274765000000</v>
+        <v>284525000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.825559316436886</v>
       </c>
       <c r="D84" t="n">
-        <v>223295408370.5811</v>
+        <v>234892264509.205</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B85" t="n">
-        <v>277324000000</v>
+        <v>288402000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8100445524503849</v>
+        <v>0.8067769261799113</v>
       </c>
       <c r="D85" t="n">
-        <v>224644795463.7505</v>
+        <v>232676079064.1388</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B86" t="n">
-        <v>281544000000</v>
+        <v>291439000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8240626287597858</v>
+        <v>0.8216926869350862</v>
       </c>
       <c r="D86" t="n">
-        <v>232009888751.5451</v>
+        <v>239473294987.6746</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B87" t="n">
-        <v>284525000000</v>
+        <v>293949000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.825559316436886</v>
+        <v>0.8146639511201629</v>
       </c>
       <c r="D87" t="n">
-        <v>234892264509.205</v>
+        <v>239469653767.8208</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B88" t="n">
-        <v>288402000000</v>
+        <v>297392000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8067769261799113</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D88" t="n">
-        <v>232676079064.1388</v>
+        <v>250329966329.9663</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B89" t="n">
-        <v>291439000000</v>
+        <v>300374000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8216926869350862</v>
+        <v>0.8387854386847845</v>
       </c>
       <c r="D89" t="n">
-        <v>239473294987.6746</v>
+        <v>251949337359.5034</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B90" t="n">
-        <v>293949000000</v>
+        <v>303154000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8146639511201629</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D90" t="n">
-        <v>239469653767.8208</v>
+        <v>255869345037.1371</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B91" t="n">
-        <v>297392000000</v>
+        <v>305829000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8417508417508418</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="D91" t="n">
-        <v>250329966329.9663</v>
+        <v>255389561586.6388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B92" t="n">
-        <v>300374000000</v>
+        <v>309219000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8387854386847845</v>
+        <v>0.8384338056510438</v>
       </c>
       <c r="D92" t="n">
-        <v>251949337359.5034</v>
+        <v>259259662949.6101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B93" t="n">
-        <v>303154000000</v>
+        <v>312149000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8434547908232118</v>
       </c>
       <c r="D93" t="n">
-        <v>255869345037.1371</v>
+        <v>263283569500.6747</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B94" t="n">
-        <v>305829000000</v>
+        <v>316353000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8350730688935282</v>
+        <v>0.8282945415389712</v>
       </c>
       <c r="D94" t="n">
-        <v>255389561586.6388</v>
+        <v>262033463099.4781</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B95" t="n">
-        <v>309219000000</v>
+        <v>320688000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8384338056510438</v>
+        <v>0.8354916868577157</v>
       </c>
       <c r="D95" t="n">
-        <v>259259662949.6101</v>
+        <v>267932158075.0271</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B96" t="n">
-        <v>312149000000</v>
+        <v>324232000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8434547908232118</v>
+        <v>0.8467400508044031</v>
       </c>
       <c r="D96" t="n">
-        <v>263283569500.6747</v>
+        <v>274540220152.4132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B97" t="n">
-        <v>316353000000</v>
+        <v>327718000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8282945415389712</v>
+        <v>0.8481764206955046</v>
       </c>
       <c r="D97" t="n">
-        <v>262033463099.4781</v>
+        <v>277962680237.4894</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B98" t="n">
-        <v>320688000000</v>
+        <v>331423000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8354916868577157</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D98" t="n">
-        <v>267932158075.0271</v>
+        <v>281463269639.0659</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B99" t="n">
-        <v>324232000000</v>
+        <v>334344000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8467400508044031</v>
+        <v>0.8517162081594414</v>
       </c>
       <c r="D99" t="n">
-        <v>274540220152.4132</v>
+        <v>284766203900.8603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B100" t="n">
-        <v>327718000000</v>
+        <v>339017000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8481764206955046</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="D100" t="n">
-        <v>277962680237.4894</v>
+        <v>291251718213.0584</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B101" t="n">
-        <v>331423000000</v>
+        <v>342154000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8632596685082872</v>
       </c>
       <c r="D101" t="n">
-        <v>281463269639.0659</v>
+        <v>295367748618.7845</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B102" t="n">
-        <v>334344000000</v>
+        <v>346086000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8517162081594414</v>
+        <v>0.8428150021070374</v>
       </c>
       <c r="D102" t="n">
-        <v>284766203900.8603</v>
+        <v>291686472819.2161</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B103" t="n">
-        <v>339017000000</v>
+        <v>350540000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8386447500838645</v>
       </c>
       <c r="D103" t="n">
-        <v>291251718213.0584</v>
+        <v>293978530694.3979</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B104" t="n">
-        <v>342154000000</v>
+        <v>352153000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8632596685082872</v>
+        <v>0.8551393877201984</v>
       </c>
       <c r="D104" t="n">
-        <v>295367748618.7845</v>
+        <v>301139900803.831</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B105" t="n">
-        <v>346086000000</v>
+        <v>353101000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8428150021070374</v>
+        <v>0.8587376556462</v>
       </c>
       <c r="D105" t="n">
-        <v>291686472819.2161</v>
+        <v>303221124946.3289</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B106" t="n">
-        <v>350540000000</v>
+        <v>356116000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8386447500838645</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="D106" t="n">
-        <v>293978530694.3979</v>
+        <v>303335604770.017</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B107" t="n">
-        <v>352153000000</v>
+        <v>356279000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8551393877201984</v>
+        <v>0.8578536501672815</v>
       </c>
       <c r="D107" t="n">
-        <v>301139900803.831</v>
+        <v>305635240627.9489</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B108" t="n">
-        <v>353101000000</v>
+        <v>357910000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8587376556462</v>
+        <v>0.8676789587852494</v>
       </c>
       <c r="D108" t="n">
-        <v>303221124946.3289</v>
+        <v>310550976138.8286</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B109" t="n">
-        <v>356116000000</v>
+        <v>361491000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8517887563884157</v>
+        <v>0.8665511265164645</v>
       </c>
       <c r="D109" t="n">
-        <v>303335604770.017</v>
+        <v>313250433275.5633</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B110" t="n">
-        <v>356279000000</v>
+        <v>363223000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8578536501672815</v>
+        <v>0.8660258075690656</v>
       </c>
       <c r="D110" t="n">
-        <v>305635240627.9489</v>
+        <v>314560491902.6587</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B111" t="n">
-        <v>357910000000</v>
+        <v>365008000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8676789587852494</v>
+        <v>0.8573388203017832</v>
       </c>
       <c r="D111" t="n">
-        <v>310550976138.8286</v>
+        <v>312935528120.7133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B112" t="n">
-        <v>361491000000</v>
+        <v>367854000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8665511265164645</v>
+        <v>0.8588114050154585</v>
       </c>
       <c r="D112" t="n">
-        <v>313250433275.5633</v>
+        <v>315917210580.5565</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B113" t="n">
-        <v>363223000000</v>
+        <v>370572000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8660258075690656</v>
+        <v>0.8630361612151549</v>
       </c>
       <c r="D113" t="n">
-        <v>314560491902.6587</v>
+        <v>319817036333.8224</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B114" t="n">
-        <v>365008000000</v>
+        <v>373950000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8573388203017832</v>
+        <v>0.8600670852326481</v>
       </c>
       <c r="D114" t="n">
-        <v>312935528120.7133</v>
+        <v>321622086522.7487</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B115" t="n">
-        <v>367854000000</v>
+        <v>375786000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8588114050154585</v>
+        <v>0.8694140149539211</v>
       </c>
       <c r="D115" t="n">
-        <v>315917210580.5565</v>
+        <v>326713615023.4742</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B116" t="n">
-        <v>370572000000</v>
+        <v>378484000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8630361612151549</v>
+        <v>0.8637816360024186</v>
       </c>
       <c r="D116" t="n">
-        <v>319817036333.8224</v>
+        <v>326927528720.7394</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B117" t="n">
-        <v>373950000000</v>
+        <v>380380000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8600670852326481</v>
+        <v>0.8673779165582444</v>
       </c>
       <c r="D117" t="n">
-        <v>321622086522.7487</v>
+        <v>329933211900.425</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B118" t="n">
-        <v>375786000000</v>
+        <v>382614000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8694140149539211</v>
+        <v>0.8734387282732116</v>
       </c>
       <c r="D118" t="n">
-        <v>326713615023.4742</v>
+        <v>334189885579.5266</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B119" t="n">
-        <v>378484000000</v>
+        <v>381438000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8637816360024186</v>
+        <v>0.875733426744899</v>
       </c>
       <c r="D119" t="n">
-        <v>326927528720.7394</v>
+        <v>334038006830.7208</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B120" t="n">
-        <v>380380000000</v>
+        <v>383166000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8673779165582444</v>
+        <v>0.8686587908269632</v>
       </c>
       <c r="D120" t="n">
-        <v>329933211900.425</v>
+        <v>332840514246.0042</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B121" t="n">
-        <v>382614000000</v>
+        <v>383974000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8734387282732116</v>
+        <v>0.8761170492377782</v>
       </c>
       <c r="D121" t="n">
-        <v>334189885579.5266</v>
+        <v>336406167864.0267</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B122" t="n">
-        <v>381438000000</v>
+        <v>385573000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.875733426744899</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="D122" t="n">
-        <v>334038006830.7208</v>
+        <v>340612190812.7209</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B123" t="n">
-        <v>383166000000</v>
+        <v>385597000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8686587908269632</v>
+        <v>0.8907892392659896</v>
       </c>
       <c r="D123" t="n">
-        <v>332840514246.0042</v>
+        <v>343485658293.2478</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B124" t="n">
-        <v>383974000000</v>
+        <v>386166000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8761170492377782</v>
+        <v>0.8811349017534584</v>
       </c>
       <c r="D124" t="n">
-        <v>336406167864.0267</v>
+        <v>340264340470.526</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B125" t="n">
-        <v>385573000000</v>
+        <v>387836000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.88339222614841</v>
+        <v>0.8646779074794638</v>
       </c>
       <c r="D125" t="n">
-        <v>340612190812.7209</v>
+        <v>335353220925.2053</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B126" t="n">
-        <v>385597000000</v>
+        <v>390429000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8907892392659896</v>
+        <v>0.8512811781731505</v>
       </c>
       <c r="D126" t="n">
-        <v>343485658293.2478</v>
+        <v>332364859112.965</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B127" t="n">
-        <v>386166000000</v>
+        <v>392338000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8811349017534584</v>
+        <v>0.8460952703274389</v>
       </c>
       <c r="D127" t="n">
-        <v>340264340470.526</v>
+        <v>331955326169.7267</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B128" t="n">
-        <v>387836000000</v>
+        <v>392743000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8646779074794638</v>
+        <v>0.8407600470825626</v>
       </c>
       <c r="D128" t="n">
-        <v>335353220925.2053</v>
+        <v>330202623171.3469</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B129" t="n">
-        <v>390429000000</v>
+        <v>394119000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8512811781731505</v>
+        <v>0.8394895903290799</v>
       </c>
       <c r="D129" t="n">
-        <v>332364859112.965</v>
+        <v>330858797850.9066</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B130" t="n">
-        <v>392338000000</v>
+        <v>394350000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8460952703274389</v>
+        <v>0.8310479514667997</v>
       </c>
       <c r="D130" t="n">
-        <v>331955326169.7267</v>
+        <v>327723759660.9324</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B131" t="n">
-        <v>392743000000</v>
+        <v>394189000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8407600470825626</v>
+        <v>0.8341675008341675</v>
       </c>
       <c r="D131" t="n">
-        <v>330202623171.3469</v>
+        <v>328819652986.3196</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B132" t="n">
-        <v>394119000000</v>
+        <v>397321000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8394895903290799</v>
+        <v>0.8453085376162299</v>
       </c>
       <c r="D132" t="n">
-        <v>330858797850.9066</v>
+        <v>335858833474.2181</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B133" t="n">
-        <v>394350000000</v>
+        <v>398941000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8310479514667997</v>
+        <v>0.8371703641691085</v>
       </c>
       <c r="D133" t="n">
-        <v>327723759660.9324</v>
+        <v>333981582251.9883</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B134" t="n">
-        <v>394189000000</v>
+        <v>400892000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8341675008341675</v>
+        <v>0.8029548739360848</v>
       </c>
       <c r="D134" t="n">
-        <v>328819652986.3196</v>
+        <v>321898185321.9849</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B135" t="n">
-        <v>397321000000</v>
+        <v>398608000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8453085376162299</v>
+        <v>0.8081461128171973</v>
       </c>
       <c r="D135" t="n">
-        <v>335858833474.2181</v>
+        <v>322133505737.8374</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B136" t="n">
-        <v>398941000000</v>
+        <v>400520000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8371703641691085</v>
+        <v>0.7770007770007771</v>
       </c>
       <c r="D136" t="n">
-        <v>333981582251.9883</v>
+        <v>311204351204.3513</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B137" t="n">
-        <v>400892000000</v>
+        <v>400819000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8029548739360848</v>
+        <v>0.7867820613690009</v>
       </c>
       <c r="D137" t="n">
-        <v>321898185321.9849</v>
+        <v>315357199055.8616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B138" t="n">
-        <v>398608000000</v>
+        <v>400221000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8081461128171973</v>
+        <v>0.7888301648655044</v>
       </c>
       <c r="D138" t="n">
-        <v>322133505737.8374</v>
+        <v>315706397412.637</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B139" t="n">
-        <v>400520000000</v>
+        <v>401587000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7770007770007771</v>
+        <v>0.8003201280512204</v>
       </c>
       <c r="D139" t="n">
-        <v>311204351204.3513</v>
+        <v>321398159263.7054</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B140" t="n">
-        <v>400819000000</v>
+        <v>402997000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7867820613690009</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D140" t="n">
-        <v>315357199055.8616</v>
+        <v>320169222213.3948</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B141" t="n">
-        <v>400221000000</v>
+        <v>404748000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7888301648655044</v>
+        <v>0.7866582756450597</v>
       </c>
       <c r="D141" t="n">
-        <v>315706397412.637</v>
+        <v>318398363750.7866</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B142" t="n">
-        <v>401587000000</v>
+        <v>406759000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8003201280512204</v>
+        <v>0.7869678130164477</v>
       </c>
       <c r="D142" t="n">
-        <v>321398159263.7054</v>
+        <v>320106240654.7573</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B143" t="n">
-        <v>402997000000</v>
+        <v>408895000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D143" t="n">
-        <v>320169222213.3948</v>
+        <v>318925980812.7291</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B144" t="n">
-        <v>404748000000</v>
+        <v>408308000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7866582756450597</v>
+        <v>0.7780284758422158</v>
       </c>
       <c r="D144" t="n">
-        <v>318398363750.7866</v>
+        <v>317675250914.1835</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B145" t="n">
-        <v>406759000000</v>
+        <v>409970000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7869678130164477</v>
+        <v>0.7580926389204761</v>
       </c>
       <c r="D145" t="n">
-        <v>320106240654.7573</v>
+        <v>310795239178.2276</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B146" t="n">
-        <v>408895000000</v>
+        <v>410678000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.749512816669165</v>
       </c>
       <c r="D146" t="n">
-        <v>318925980812.7291</v>
+        <v>307808424524.0593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B147" t="n">
-        <v>408308000000</v>
+        <v>409567000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7780284758422158</v>
+        <v>0.7575183698204682</v>
       </c>
       <c r="D147" t="n">
-        <v>317675250914.1835</v>
+        <v>310254526172.2597</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B148" t="n">
-        <v>409970000000</v>
+        <v>409864000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7580926389204761</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D148" t="n">
-        <v>310795239178.2276</v>
+        <v>307060233742.8828</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B149" t="n">
-        <v>410678000000</v>
+        <v>411463000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.749512816669165</v>
+        <v>0.7566585956416464</v>
       </c>
       <c r="D149" t="n">
-        <v>307808424524.0593</v>
+        <v>311337015738.4988</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B150" t="n">
-        <v>409567000000</v>
+        <v>413157000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7575183698204682</v>
+        <v>0.7522756337922215</v>
       </c>
       <c r="D150" t="n">
-        <v>310254526172.2597</v>
+        <v>310807944030.6929</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B151" t="n">
-        <v>409864000000</v>
+        <v>413596000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7409602845287493</v>
       </c>
       <c r="D151" t="n">
-        <v>307060233742.8828</v>
+        <v>306458209839.9526</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B152" t="n">
-        <v>411463000000</v>
+        <v>409983000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7566585956416464</v>
+        <v>0.7227000072270001</v>
       </c>
       <c r="D152" t="n">
-        <v>311337015738.4988</v>
+        <v>296294717062.9472</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B153" t="n">
-        <v>413157000000</v>
+        <v>411390000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7522756337922215</v>
+        <v>0.7237984944991315</v>
       </c>
       <c r="D153" t="n">
-        <v>310807944030.6929</v>
+        <v>297763462651.9977</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B154" t="n">
-        <v>413596000000</v>
+        <v>411805000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7409602845287493</v>
+        <v>0.7231180851833104</v>
       </c>
       <c r="D154" t="n">
-        <v>306458209839.9526</v>
+        <v>297783643068.9131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B155" t="n">
-        <v>409983000000</v>
+        <v>413228000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7227000072270001</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D155" t="n">
-        <v>296294717062.9472</v>
+        <v>298726234367.0932</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B156" t="n">
-        <v>411390000000</v>
+        <v>416310000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7237984944991315</v>
+        <v>0.7209285559801024</v>
       </c>
       <c r="D156" t="n">
-        <v>297763462651.9977</v>
+        <v>300129767140.0764</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B157" t="n">
-        <v>411805000000</v>
+        <v>418221000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7231180851833104</v>
+        <v>0.7318501170960187</v>
       </c>
       <c r="D157" t="n">
-        <v>297783643068.9131</v>
+        <v>306075087822.014</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B158" t="n">
-        <v>413228000000</v>
+        <v>419884000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7447125409591897</v>
       </c>
       <c r="D158" t="n">
-        <v>298726234367.0932</v>
+        <v>312692880548.1084</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B159" t="n">
-        <v>416310000000</v>
+        <v>420714000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7209285559801024</v>
+        <v>0.7389344565137073</v>
       </c>
       <c r="D159" t="n">
-        <v>300129767140.0764</v>
+        <v>310880070937.7078</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B160" t="n">
-        <v>418221000000</v>
+        <v>420680000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7318501170960187</v>
+        <v>0.7269555103227683</v>
       </c>
       <c r="D160" t="n">
-        <v>306075087822.014</v>
+        <v>305815644082.5822</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B161" t="n">
-        <v>419884000000</v>
+        <v>422101000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7447125409591897</v>
+        <v>0.7135212272565109</v>
       </c>
       <c r="D161" t="n">
-        <v>312692880548.1084</v>
+        <v>301178023546.2005</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B162" t="n">
-        <v>420714000000</v>
+        <v>425148000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7389344565137073</v>
+        <v>0.710580544304697</v>
       </c>
       <c r="D162" t="n">
-        <v>310880070937.7078</v>
+        <v>302101897250.0533</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B163" t="n">
-        <v>420680000000</v>
+        <v>426237000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7269555103227683</v>
+        <v>0.7194762213108857</v>
       </c>
       <c r="D163" t="n">
-        <v>305815644082.5822</v>
+        <v>306667386142.888</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B164" t="n">
-        <v>422101000000</v>
+        <v>427897000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7135212272565109</v>
+        <v>0.7147451933385748</v>
       </c>
       <c r="D164" t="n">
-        <v>301178023546.2005</v>
+        <v>305837323993.9962</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B165" t="n">
-        <v>425148000000</v>
+        <v>429643000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.710580544304697</v>
+        <v>0.7379529186037931</v>
       </c>
       <c r="D165" t="n">
-        <v>302101897250.0533</v>
+        <v>317056305807.6895</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B166" t="n">
-        <v>426237000000</v>
+        <v>430736000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7194762213108857</v>
+        <v>0.7298737318443909</v>
       </c>
       <c r="D166" t="n">
-        <v>306667386142.888</v>
+        <v>314382891759.7255</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B167" t="n">
-        <v>427897000000</v>
+        <v>433634000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7147451933385748</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D167" t="n">
-        <v>305837323993.9962</v>
+        <v>316128891156.9586</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B168" t="n">
-        <v>429643000000</v>
+        <v>434936000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7379529186037931</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D168" t="n">
-        <v>317056305807.6895</v>
+        <v>318727832331.8188</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B169" t="n">
-        <v>430736000000</v>
+        <v>436339000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7298737318443909</v>
+        <v>0.7445461990916536</v>
       </c>
       <c r="D169" t="n">
-        <v>314382891759.7255</v>
+        <v>324874543965.4531</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B170" t="n">
-        <v>433634000000</v>
+        <v>439202000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D170" t="n">
-        <v>316128891156.9586</v>
+        <v>328105483340.8038</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B171" t="n">
-        <v>434936000000</v>
+        <v>438892000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7438815740534107</v>
       </c>
       <c r="D171" t="n">
-        <v>318727832331.8188</v>
+        <v>326483671799.4495</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B172" t="n">
-        <v>436339000000</v>
+        <v>439931000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7445461990916536</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D172" t="n">
-        <v>324874543965.4531</v>
+        <v>323336028222.8428</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B173" t="n">
-        <v>439202000000</v>
+        <v>441103000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D173" t="n">
-        <v>328105483340.8038</v>
+        <v>323247105378.8656</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B174" t="n">
-        <v>438892000000</v>
+        <v>442368000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7438815740534107</v>
+        <v>0.7279079924297569</v>
       </c>
       <c r="D174" t="n">
-        <v>326483671799.4495</v>
+        <v>322003202795.1667</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B175" t="n">
-        <v>439931000000</v>
+        <v>444600000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7298204641658151</v>
       </c>
       <c r="D175" t="n">
-        <v>323336028222.8428</v>
+        <v>324478178368.1214</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B176" t="n">
-        <v>441103000000</v>
+        <v>446271000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7357810315650063</v>
       </c>
       <c r="D176" t="n">
-        <v>323247105378.8656</v>
+        <v>328357736737.5469</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B177" t="n">
-        <v>442368000000</v>
+        <v>446482000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7279079924297569</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D177" t="n">
-        <v>322003202795.1667</v>
+        <v>328150815816.5515</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B178" t="n">
-        <v>444600000000</v>
+        <v>448033000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7298204641658151</v>
+        <v>0.7306202966318405</v>
       </c>
       <c r="D178" t="n">
-        <v>324478178368.1214</v>
+        <v>327342003360.8534</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B179" t="n">
-        <v>446271000000</v>
+        <v>449428000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7357810315650063</v>
+        <v>0.7334604664808567</v>
       </c>
       <c r="D179" t="n">
-        <v>328357736737.5469</v>
+        <v>329637670529.5585</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B180" t="n">
-        <v>446482000000</v>
+        <v>447133000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D180" t="n">
-        <v>328150815816.5515</v>
+        <v>325211288093.6795</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B181" t="n">
-        <v>448033000000</v>
+        <v>447620000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7306202966318405</v>
+        <v>0.7310475911981871</v>
       </c>
       <c r="D181" t="n">
-        <v>327342003360.8534</v>
+        <v>327231522772.1325</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B182" t="n">
-        <v>449428000000</v>
+        <v>449024000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7334604664808567</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D182" t="n">
-        <v>329637670529.5585</v>
+        <v>329752515238.3051</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B183" t="n">
-        <v>447133000000</v>
+        <v>448985000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7471049682480388</v>
       </c>
       <c r="D183" t="n">
-        <v>325211288093.6795</v>
+        <v>335438924168.8457</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B184" t="n">
-        <v>447620000000</v>
+        <v>447731000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7310475911981871</v>
+        <v>0.7402472425790214</v>
       </c>
       <c r="D184" t="n">
-        <v>327231522772.1325</v>
+        <v>331431638167.1478</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B185" t="n">
-        <v>449024000000</v>
+        <v>448419000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7297672042618404</v>
       </c>
       <c r="D185" t="n">
-        <v>329752515238.3051</v>
+        <v>327241479967.8902</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B186" t="n">
-        <v>448985000000</v>
+        <v>449269000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7471049682480388</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D186" t="n">
-        <v>335438924168.8457</v>
+        <v>333557799391.1946</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B187" t="n">
-        <v>447731000000</v>
+        <v>449193000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7402472425790214</v>
+        <v>0.7309407207075506</v>
       </c>
       <c r="D187" t="n">
-        <v>331431638167.1478</v>
+        <v>328333455156.7867</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B188" t="n">
-        <v>448419000000</v>
+        <v>447801000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7297672042618404</v>
+        <v>0.7224911494834187</v>
       </c>
       <c r="D188" t="n">
-        <v>327241479967.8902</v>
+        <v>323532259229.8244</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B189" t="n">
-        <v>449269000000</v>
+        <v>448519000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7156659271452086</v>
       </c>
       <c r="D189" t="n">
-        <v>333557799391.1946</v>
+        <v>320989765977.2418</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B190" t="n">
-        <v>449193000000</v>
+        <v>448940000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7309407207075506</v>
+        <v>0.7265857734505557</v>
       </c>
       <c r="D190" t="n">
-        <v>328333455156.7867</v>
+        <v>326193417132.8925</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B191" t="n">
-        <v>447801000000</v>
+        <v>449572000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7224911494834187</v>
+        <v>0.7240605314604301</v>
       </c>
       <c r="D191" t="n">
-        <v>323532259229.8244</v>
+        <v>325517341249.7285</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B192" t="n">
-        <v>448519000000</v>
+        <v>446917000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7156659271452086</v>
+        <v>0.7259001161440186</v>
       </c>
       <c r="D192" t="n">
-        <v>320989765977.2418</v>
+        <v>324417102206.7364</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B193" t="n">
-        <v>448940000000</v>
+        <v>446334000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7265857734505557</v>
+        <v>0.7202535292422932</v>
       </c>
       <c r="D193" t="n">
-        <v>326193417132.8925</v>
+        <v>321473638720.8297</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B194" t="n">
-        <v>449572000000</v>
+        <v>445831000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7240605314604301</v>
+        <v>0.7239032865209208</v>
       </c>
       <c r="D194" t="n">
-        <v>325517341249.7285</v>
+        <v>322738526132.9086</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B195" t="n">
-        <v>446917000000</v>
+        <v>445044000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7259001161440186</v>
+        <v>0.7102272727272728</v>
       </c>
       <c r="D195" t="n">
-        <v>324417102206.7364</v>
+        <v>316082386363.6364</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B196" t="n">
-        <v>446334000000</v>
+        <v>446053000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7202535292422932</v>
+        <v>0.7027900766041183</v>
       </c>
       <c r="D196" t="n">
-        <v>321473638720.8297</v>
+        <v>313481622039.4968</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B197" t="n">
-        <v>445831000000</v>
+        <v>445467000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7239032865209208</v>
+        <v>0.6996431819771917</v>
       </c>
       <c r="D197" t="n">
-        <v>322738526132.9086</v>
+        <v>311667949345.8336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B198" t="n">
-        <v>445044000000</v>
+        <v>444813000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.6879471656576774</v>
       </c>
       <c r="D198" t="n">
-        <v>316082386363.6364</v>
+        <v>306007842597.6885</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B199" t="n">
-        <v>446053000000</v>
+        <v>442837000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7027900766041183</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D199" t="n">
-        <v>313481622039.4968</v>
+        <v>310981039325.8427</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B200" t="n">
-        <v>445467000000</v>
+        <v>440915000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6996431819771917</v>
+        <v>0.70482097547223</v>
       </c>
       <c r="D200" t="n">
-        <v>311667949345.8336</v>
+        <v>310766140400.3383</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B201" t="n">
-        <v>444813000000</v>
+        <v>440589000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6879471656576774</v>
+        <v>0.6988608568034104</v>
       </c>
       <c r="D201" t="n">
-        <v>306007842597.6885</v>
+        <v>307910406038.1578</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B202" t="n">
-        <v>442837000000</v>
+        <v>441843000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.702247191011236</v>
+        <v>0.6863417982155113</v>
       </c>
       <c r="D202" t="n">
-        <v>310981039325.8427</v>
+        <v>303255319148.9362</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B203" t="n">
-        <v>440915000000</v>
+        <v>441641000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.70482097547223</v>
+        <v>0.6815703380588877</v>
       </c>
       <c r="D203" t="n">
-        <v>310766140400.3383</v>
+        <v>301009405670.6652</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B204" t="n">
-        <v>440589000000</v>
+        <v>442493000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6988608568034104</v>
+        <v>0.6610259122157589</v>
       </c>
       <c r="D204" t="n">
-        <v>307910406038.1578</v>
+        <v>292499338974.0878</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B205" t="n">
-        <v>441843000000</v>
+        <v>444070000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6863417982155113</v>
+        <v>0.6389368091495752</v>
       </c>
       <c r="D205" t="n">
-        <v>303255319148.9362</v>
+        <v>283732668839.0519</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B206" t="n">
-        <v>441641000000</v>
+        <v>445748000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6815703380588877</v>
+        <v>0.6536374926465782</v>
       </c>
       <c r="D206" t="n">
-        <v>301009405670.6652</v>
+        <v>291357605072.2269</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B207" t="n">
-        <v>442493000000</v>
+        <v>447404000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6610259122157589</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="D207" t="n">
-        <v>292499338974.0878</v>
+        <v>289769430051.8135</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B208" t="n">
-        <v>444070000000</v>
+        <v>448114000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6389368091495752</v>
+        <v>0.6520605112154407</v>
       </c>
       <c r="D208" t="n">
-        <v>283732668839.0519</v>
+        <v>292197443922.796</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B209" t="n">
-        <v>445748000000</v>
+        <v>449236000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6536374926465782</v>
+        <v>0.6502796202367017</v>
       </c>
       <c r="D209" t="n">
-        <v>291357605072.2269</v>
+        <v>292129015476.6549</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B210" t="n">
-        <v>447404000000</v>
+        <v>452562000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6476683937823834</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D210" t="n">
-        <v>289769430051.8135</v>
+        <v>299491760968.8306</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B211" t="n">
-        <v>448114000000</v>
+        <v>453707000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6520605112154407</v>
+        <v>0.6626466105625869</v>
       </c>
       <c r="D211" t="n">
-        <v>292197443922.796</v>
+        <v>300647405738.5196</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B212" t="n">
-        <v>449236000000</v>
+        <v>455243000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6502796202367017</v>
+        <v>0.6635259770420011</v>
       </c>
       <c r="D212" t="n">
-        <v>292129015476.6549</v>
+        <v>302065556366.5317</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B213" t="n">
-        <v>452562000000</v>
+        <v>457637000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.661769571835087</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D213" t="n">
-        <v>299491760968.8306</v>
+        <v>314181655911.0257</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B214" t="n">
-        <v>453707000000</v>
+        <v>459005000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6626466105625869</v>
+        <v>0.6783800284919612</v>
       </c>
       <c r="D214" t="n">
-        <v>300647405738.5196</v>
+        <v>311379824977.9526</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B215" t="n">
-        <v>455243000000</v>
+        <v>458636000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6635259770420011</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D215" t="n">
-        <v>302065556366.5317</v>
+        <v>313511518217.2397</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B216" t="n">
-        <v>457637000000</v>
+        <v>460383000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6638343069569835</v>
       </c>
       <c r="D216" t="n">
-        <v>314181655911.0257</v>
+        <v>305618029739.777</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B217" t="n">
-        <v>459005000000</v>
+        <v>463862000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6783800284919612</v>
+        <v>0.6701065469409636</v>
       </c>
       <c r="D217" t="n">
-        <v>311379824977.9526</v>
+        <v>310836963077.1293</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B218" t="n">
-        <v>458636000000</v>
+        <v>465089000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.6816167950378297</v>
       </c>
       <c r="D218" t="n">
-        <v>313511518217.2397</v>
+        <v>317012473587.3492</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B219" t="n">
-        <v>460383000000</v>
+        <v>467460000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6638343069569835</v>
+        <v>0.6802258349772125</v>
       </c>
       <c r="D219" t="n">
-        <v>305618029739.777</v>
+        <v>317978368818.4478</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B220" t="n">
-        <v>463862000000</v>
+        <v>471223000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6701065469409636</v>
+        <v>0.6787023211619384</v>
       </c>
       <c r="D220" t="n">
-        <v>310836963077.1293</v>
+        <v>319820143884.8921</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B221" t="n">
-        <v>465089000000</v>
+        <v>476000000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6816167950378297</v>
+        <v>0.6907031357922365</v>
       </c>
       <c r="D221" t="n">
-        <v>317012473587.3492</v>
+        <v>328774692637.1046</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B222" t="n">
-        <v>467460000000</v>
+        <v>478777000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6802258349772125</v>
+        <v>0.6906554320049727</v>
       </c>
       <c r="D222" t="n">
-        <v>317978368818.4478</v>
+        <v>330669935769.0448</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B223" t="n">
-        <v>471223000000</v>
+        <v>483138000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6787023211619384</v>
+        <v>0.6894174422612892</v>
       </c>
       <c r="D223" t="n">
-        <v>319820143884.8921</v>
+        <v>333083764219.2347</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B224" t="n">
-        <v>476000000000</v>
+        <v>486889000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6907031357922365</v>
+        <v>0.689893066574681</v>
       </c>
       <c r="D224" t="n">
-        <v>328774692637.1046</v>
+        <v>335901345291.4799</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B225" t="n">
-        <v>478777000000</v>
+        <v>490793000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6906554320049727</v>
+        <v>0.6755387421468622</v>
       </c>
       <c r="D225" t="n">
-        <v>330669935769.0448</v>
+        <v>331549685874.4849</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B226" t="n">
-        <v>483138000000</v>
+        <v>491187000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6894174422612892</v>
+        <v>0.6680919294494923</v>
       </c>
       <c r="D226" t="n">
-        <v>333083764219.2347</v>
+        <v>328158070550.5078</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B227" t="n">
-        <v>486889000000</v>
+        <v>494850000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.689893066574681</v>
+        <v>0.6755843804891231</v>
       </c>
       <c r="D227" t="n">
-        <v>335901345291.4799</v>
+        <v>334312930685.0425</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B228" t="n">
-        <v>490793000000</v>
+        <v>497053000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6755387421468622</v>
+        <v>0.6725854183481302</v>
       </c>
       <c r="D228" t="n">
-        <v>331549685874.4849</v>
+        <v>334310599946.1932</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B229" t="n">
-        <v>491187000000</v>
+        <v>499188000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6680919294494923</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D229" t="n">
-        <v>328158070550.5078</v>
+        <v>338984109737.8786</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B230" t="n">
-        <v>494850000000</v>
+        <v>501894000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6755843804891231</v>
+        <v>0.6650704974727321</v>
       </c>
       <c r="D230" t="n">
-        <v>334312930685.0425</v>
+        <v>333794892258.5794</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B231" t="n">
-        <v>497053000000</v>
+        <v>504302000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6725854183481302</v>
+        <v>0.6562541015881349</v>
       </c>
       <c r="D231" t="n">
-        <v>334310599946.1932</v>
+        <v>330950255939.0996</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B232" t="n">
-        <v>499188000000</v>
+        <v>505093000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.6505334374186834</v>
       </c>
       <c r="D232" t="n">
-        <v>338984109737.8786</v>
+        <v>328579885506.1151</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B233" t="n">
-        <v>501894000000</v>
+        <v>510405000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6650704974727321</v>
+        <v>0.6673785371062467</v>
       </c>
       <c r="D233" t="n">
-        <v>333794892258.5794</v>
+        <v>340633342231.7139</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B234" t="n">
-        <v>504302000000</v>
+        <v>510442000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.6562541015881349</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D234" t="n">
-        <v>330950255939.0996</v>
+        <v>340771747112.6244</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B235" t="n">
-        <v>505093000000</v>
+        <v>515321000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6505334374186834</v>
+        <v>0.6507027589796981</v>
       </c>
       <c r="D235" t="n">
-        <v>328579885506.1151</v>
+        <v>335320796460.177</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B236" t="n">
-        <v>510405000000</v>
+        <v>518685000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6673785371062467</v>
+        <v>0.634236062662523</v>
       </c>
       <c r="D236" t="n">
-        <v>340633342231.7139</v>
+        <v>328968732162.1107</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B237" t="n">
-        <v>510442000000</v>
+        <v>519198000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6513385006187715</v>
       </c>
       <c r="D237" t="n">
-        <v>340771747112.6244</v>
+        <v>338173646844.265</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B238" t="n">
-        <v>515321000000</v>
+        <v>521538000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6507027589796981</v>
+        <v>0.6500260010400416</v>
       </c>
       <c r="D238" t="n">
-        <v>335320796460.177</v>
+        <v>339013260530.4212</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B239" t="n">
-        <v>518685000000</v>
+        <v>518020000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.634236062662523</v>
+        <v>0.6603711285742587</v>
       </c>
       <c r="D239" t="n">
-        <v>328968732162.1107</v>
+        <v>342085452024.0375</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B240" t="n">
-        <v>519198000000</v>
+        <v>520335000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6513385006187715</v>
+        <v>0.6519754857217368</v>
       </c>
       <c r="D240" t="n">
-        <v>338173646844.265</v>
+        <v>339245664363.0199</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B241" t="n">
-        <v>521538000000</v>
+        <v>520759000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6500260010400416</v>
+        <v>0.6452861844227915</v>
       </c>
       <c r="D241" t="n">
-        <v>339013260530.4212</v>
+        <v>336038588113.8285</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B242" t="n">
-        <v>518020000000</v>
+        <v>527610000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6603711285742587</v>
+        <v>0.6331919204710948</v>
       </c>
       <c r="D242" t="n">
-        <v>342085452024.0375</v>
+        <v>334078389159.7543</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B243" t="n">
-        <v>520335000000</v>
+        <v>531066000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6519754857217368</v>
+        <v>0.629643621710112</v>
       </c>
       <c r="D243" t="n">
-        <v>339245664363.0199</v>
+        <v>334382319607.1024</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B244" t="n">
-        <v>520759000000</v>
+        <v>535473000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.6452861844227915</v>
+        <v>0.6362537379907106</v>
       </c>
       <c r="D244" t="n">
-        <v>336038588113.8285</v>
+        <v>340696697843.0998</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B245" t="n">
-        <v>527610000000</v>
+        <v>537884000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6331919204710948</v>
+        <v>0.628693574751666</v>
       </c>
       <c r="D245" t="n">
-        <v>334078389159.7543</v>
+        <v>338164214761.7251</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B246" t="n">
-        <v>531066000000</v>
+        <v>538462000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.629643621710112</v>
+        <v>0.6291286568103177</v>
       </c>
       <c r="D246" t="n">
-        <v>334382319607.1024</v>
+        <v>338761874803.3973</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B247" t="n">
-        <v>535473000000</v>
+        <v>541449000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6362537379907106</v>
+        <v>0.6242197253433208</v>
       </c>
       <c r="D247" t="n">
-        <v>340696697843.0998</v>
+        <v>337983146067.4157</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B248" t="n">
-        <v>537884000000</v>
+        <v>543983000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.628693574751666</v>
+        <v>0.6272345229881452</v>
       </c>
       <c r="D248" t="n">
-        <v>338164214761.7251</v>
+        <v>341204917518.6602</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B249" t="n">
-        <v>538462000000</v>
+        <v>545554000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.6291286568103177</v>
+        <v>0.6381620931716656</v>
       </c>
       <c r="D249" t="n">
-        <v>338761874803.3973</v>
+        <v>348151882578.1749</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B250" t="n">
-        <v>541449000000</v>
+        <v>544635000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6242197253433208</v>
+        <v>0.654150585464774</v>
       </c>
       <c r="D250" t="n">
-        <v>337983146067.4157</v>
+        <v>356273304114.6072</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B251" t="n">
-        <v>543983000000</v>
+        <v>547075000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6272345229881452</v>
+        <v>0.6595435958316844</v>
       </c>
       <c r="D251" t="n">
-        <v>341204917518.6602</v>
+        <v>360819812689.6188</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B252" t="n">
-        <v>545554000000</v>
+        <v>550448000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.6381620931716656</v>
+        <v>0.631432720843594</v>
       </c>
       <c r="D252" t="n">
-        <v>348151882578.1749</v>
+        <v>347570878322.9147</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B253" t="n">
-        <v>544635000000</v>
+        <v>553147000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.654150585464774</v>
+        <v>0.6415602745877975</v>
       </c>
       <c r="D253" t="n">
-        <v>356273304114.6072</v>
+        <v>354877141207.4164</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B254" t="n">
-        <v>547075000000</v>
+        <v>555860000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6595435958316844</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D254" t="n">
-        <v>360819812689.6188</v>
+        <v>350324573013.172</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B255" t="n">
-        <v>550448000000</v>
+        <v>560690000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.631432720843594</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D255" t="n">
-        <v>347570878322.9147</v>
+        <v>359739509816.502</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B256" t="n">
-        <v>553147000000</v>
+        <v>562379000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.6415602745877975</v>
+        <v>0.6390593047034765</v>
       </c>
       <c r="D256" t="n">
-        <v>354877141207.4164</v>
+        <v>359393532719.8364</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B257" t="n">
-        <v>555860000000</v>
+        <v>563618000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6343567622430855</v>
       </c>
       <c r="D257" t="n">
-        <v>350324573013.172</v>
+        <v>357534889621.9233</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B258" t="n">
-        <v>560690000000</v>
+        <v>566685000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6572461386789352</v>
       </c>
       <c r="D258" t="n">
-        <v>359739509816.502</v>
+        <v>372451528097.2724</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B259" t="n">
-        <v>562379000000</v>
+        <v>569806000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6390593047034765</v>
+        <v>0.6739906989283547</v>
       </c>
       <c r="D259" t="n">
-        <v>359393532719.8364</v>
+        <v>384043944193.5701</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B260" t="n">
-        <v>563618000000</v>
+        <v>571313000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6343567622430855</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="D260" t="n">
-        <v>357534889621.9233</v>
+        <v>389310391822.8279</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B261" t="n">
-        <v>566685000000</v>
+        <v>573864000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6572461386789352</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D261" t="n">
-        <v>372451528097.2724</v>
+        <v>400435419719.4893</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B262" t="n">
-        <v>569806000000</v>
+        <v>575443000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6739906989283547</v>
+        <v>0.7311010381634743</v>
       </c>
       <c r="D262" t="n">
-        <v>384043944193.5701</v>
+        <v>420706974703.9041</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B263" t="n">
-        <v>571313000000</v>
+        <v>578862000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D263" t="n">
-        <v>389310391822.8279</v>
+        <v>429773554087.1631</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B264" t="n">
-        <v>573864000000</v>
+        <v>584715000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7121999857560003</v>
       </c>
       <c r="D264" t="n">
-        <v>400435419719.4893</v>
+        <v>416434014671.3197</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B265" t="n">
-        <v>575443000000</v>
+        <v>587823000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7311010381634743</v>
+        <v>0.721917412647993</v>
       </c>
       <c r="D265" t="n">
-        <v>420706974703.9041</v>
+        <v>424359659254.9812</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B266" t="n">
-        <v>578862000000</v>
+        <v>591013000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7398091292446549</v>
       </c>
       <c r="D266" t="n">
-        <v>429773554087.1631</v>
+        <v>437236812902.2712</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B267" t="n">
-        <v>584715000000</v>
+        <v>591443000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7121999857560003</v>
+        <v>0.7584951456310679</v>
       </c>
       <c r="D267" t="n">
-        <v>416434014671.3197</v>
+        <v>448606644417.4757</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B268" t="n">
-        <v>587823000000</v>
+        <v>594698000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.721917412647993</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D268" t="n">
-        <v>424359659254.9812</v>
+        <v>457953180348.0671</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B269" t="n">
-        <v>591013000000</v>
+        <v>598107000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7398091292446549</v>
+        <v>0.7741136398823347</v>
       </c>
       <c r="D269" t="n">
-        <v>437236812902.2712</v>
+        <v>463002786809.1036</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B270" t="n">
-        <v>591443000000</v>
+        <v>603150000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7584951456310679</v>
+        <v>0.7550018875047187</v>
       </c>
       <c r="D270" t="n">
-        <v>448606644417.4757</v>
+        <v>455379388448.4711</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B271" t="n">
-        <v>594698000000</v>
+        <v>604870000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D271" t="n">
-        <v>457953180348.0671</v>
+        <v>453018274415.8179</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B272" t="n">
-        <v>598107000000</v>
+        <v>609773000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7741136398823347</v>
+        <v>0.7639419404125287</v>
       </c>
       <c r="D272" t="n">
-        <v>463002786809.1036</v>
+        <v>465831168831.1689</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B273" t="n">
-        <v>603150000000</v>
+        <v>612585000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7550018875047187</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D273" t="n">
-        <v>455379388448.4711</v>
+        <v>446588175256.9804</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B274" t="n">
-        <v>604870000000</v>
+        <v>615387000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D274" t="n">
-        <v>453018274415.8179</v>
+        <v>451925534258.6473</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B275" t="n">
-        <v>609773000000</v>
+        <v>619665000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7639419404125287</v>
+        <v>0.75041272699985</v>
       </c>
       <c r="D275" t="n">
-        <v>465831168831.1689</v>
+        <v>465004502476.362</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B276" t="n">
-        <v>612585000000</v>
+        <v>621347000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D276" t="n">
-        <v>446588175256.9804</v>
+        <v>467353892440.7673</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B277" t="n">
-        <v>615387000000</v>
+        <v>623669000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7618467164406522</v>
       </c>
       <c r="D277" t="n">
-        <v>451925534258.6473</v>
+        <v>475140179795.8251</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B278" t="n">
-        <v>619665000000</v>
+        <v>623563000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.75041272699985</v>
+        <v>0.7929585282689715</v>
       </c>
       <c r="D278" t="n">
-        <v>465004502476.362</v>
+        <v>494459598762.9847</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B279" t="n">
-        <v>621347000000</v>
+        <v>626622000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.8211528986697323</v>
       </c>
       <c r="D279" t="n">
-        <v>467353892440.7673</v>
+        <v>514552471670.225</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B280" t="n">
-        <v>623669000000</v>
+        <v>629528000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7618467164406522</v>
+        <v>0.8423890152472412</v>
       </c>
       <c r="D280" t="n">
-        <v>475140179795.8251</v>
+        <v>530307471990.5652</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B281" t="n">
-        <v>623563000000</v>
+        <v>635233000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7929585282689715</v>
+        <v>0.8309098462816784</v>
       </c>
       <c r="D281" t="n">
-        <v>494459598762.9847</v>
+        <v>527821354383.0494</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B282" t="n">
-        <v>626622000000</v>
+        <v>640875000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8211528986697323</v>
+        <v>0.8068420203324189</v>
       </c>
       <c r="D282" t="n">
-        <v>514552471670.225</v>
+        <v>517084879780.539</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B283" t="n">
-        <v>629528000000</v>
+        <v>645747000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8423890152472412</v>
+        <v>0.8105698305909054</v>
       </c>
       <c r="D283" t="n">
-        <v>530307471990.5652</v>
+        <v>523423036394.5854</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B284" t="n">
-        <v>635233000000</v>
+        <v>647648000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.8309098462816784</v>
+        <v>0.8262414277451872</v>
       </c>
       <c r="D284" t="n">
-        <v>527821354383.0494</v>
+        <v>535113608196.315</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B285" t="n">
-        <v>640875000000</v>
+        <v>650004000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8068420203324189</v>
+        <v>0.7948493760432398</v>
       </c>
       <c r="D285" t="n">
-        <v>517084879780.539</v>
+        <v>516655273825.61</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B286" t="n">
-        <v>645747000000</v>
+        <v>653021000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8105698305909054</v>
+        <v>0.7970032677133977</v>
       </c>
       <c r="D286" t="n">
-        <v>523423036394.5854</v>
+        <v>520459870885.4706</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B287" t="n">
-        <v>647648000000</v>
+        <v>653626000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8262414277451872</v>
+        <v>0.8163931749530573</v>
       </c>
       <c r="D287" t="n">
-        <v>535113608196.315</v>
+        <v>533615805371.867</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B288" t="n">
-        <v>650004000000</v>
+        <v>653297000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7948493760432398</v>
+        <v>0.8170602173380178</v>
       </c>
       <c r="D288" t="n">
-        <v>516655273825.61</v>
+        <v>533782988806.275</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B289" t="n">
-        <v>653021000000</v>
+        <v>655137000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7970032677133977</v>
+        <v>0.8419634587858887</v>
       </c>
       <c r="D289" t="n">
-        <v>520459870885.4706</v>
+        <v>551601414498.6108</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B290" t="n">
-        <v>653626000000</v>
+        <v>659252000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8163931749530573</v>
+        <v>0.8605111436193099</v>
       </c>
       <c r="D290" t="n">
-        <v>533615805371.867</v>
+        <v>567293692453.3173</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B291" t="n">
-        <v>653297000000</v>
+        <v>663687000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8170602173380178</v>
+        <v>0.8459521191100584</v>
       </c>
       <c r="D291" t="n">
-        <v>533782988806.275</v>
+        <v>561447424075.7974</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B292" t="n">
-        <v>655137000000</v>
+        <v>667046000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8419634587858887</v>
+        <v>0.8580744808649391</v>
       </c>
       <c r="D292" t="n">
-        <v>551601414498.6108</v>
+        <v>572375150163.0342</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B293" t="n">
-        <v>659252000000</v>
+        <v>671891000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8605111436193099</v>
+        <v>0.8604371020478404</v>
       </c>
       <c r="D293" t="n">
-        <v>567293692453.3173</v>
+        <v>578119944932.0255</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B294" t="n">
-        <v>663687000000</v>
+        <v>676375000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8459521191100584</v>
+        <v>0.8781173164734808</v>
       </c>
       <c r="D294" t="n">
-        <v>561447424075.7974</v>
+        <v>593936599929.7506</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B295" t="n">
-        <v>667046000000</v>
+        <v>683062000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.8580744808649391</v>
+        <v>0.8796622097114708</v>
       </c>
       <c r="D295" t="n">
-        <v>572375150163.0342</v>
+        <v>600863828289.9366</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B296" t="n">
-        <v>671891000000</v>
+        <v>686912000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.8604371020478404</v>
+        <v>0.8564576909900651</v>
       </c>
       <c r="D296" t="n">
-        <v>578119944932.0255</v>
+        <v>588311065433.3676</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B297" t="n">
-        <v>676375000000</v>
+        <v>690916000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8781173164734808</v>
+        <v>0.894534394847482</v>
       </c>
       <c r="D297" t="n">
-        <v>593936599929.7506</v>
+        <v>618048125950.4429</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B298" t="n">
-        <v>683062000000</v>
+        <v>692890000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8796622097114708</v>
+        <v>0.9078529278256923</v>
       </c>
       <c r="D298" t="n">
-        <v>600863828289.9366</v>
+        <v>629042215161.1439</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B299" t="n">
-        <v>686912000000</v>
+        <v>697101000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.8564576909900651</v>
+        <v>0.8962179602079227</v>
       </c>
       <c r="D299" t="n">
-        <v>588311065433.3676</v>
+        <v>624754436278.9031</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B300" t="n">
-        <v>690916000000</v>
+        <v>702908000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.894534394847482</v>
+        <v>0.8840951286358413</v>
       </c>
       <c r="D300" t="n">
-        <v>618048125950.4429</v>
+        <v>621437538679.1619</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B301" t="n">
-        <v>692890000000</v>
+        <v>709202000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9078529278256923</v>
+        <v>0.9062075215224287</v>
       </c>
       <c r="D301" t="n">
-        <v>629042215161.1439</v>
+        <v>642684186678.7495</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B302" t="n">
-        <v>697101000000</v>
+        <v>715455000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8962179602079227</v>
+        <v>0.8950948800572861</v>
       </c>
       <c r="D302" t="n">
-        <v>624754436278.9031</v>
+        <v>640400107411.3856</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B303" t="n">
-        <v>702908000000</v>
+        <v>722293000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8840951286358413</v>
+        <v>0.89126559714795</v>
       </c>
       <c r="D303" t="n">
-        <v>621437538679.1619</v>
+        <v>643754901960.7842</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B304" t="n">
-        <v>709202000000</v>
+        <v>727459000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9062075215224287</v>
+        <v>0.8770391159445711</v>
       </c>
       <c r="D304" t="n">
-        <v>642684186678.7495</v>
+        <v>638009998245.9218</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B305" t="n">
-        <v>715455000000</v>
+        <v>732122000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.8950948800572861</v>
+        <v>0.8575593859874797</v>
       </c>
       <c r="D305" t="n">
-        <v>640400107411.3856</v>
+        <v>627838092787.9257</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B306" t="n">
-        <v>722293000000</v>
+        <v>736336000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.89126559714795</v>
+        <v>0.8498342823149485</v>
       </c>
       <c r="D306" t="n">
-        <v>643754901960.7842</v>
+        <v>625763576102.6599</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B307" t="n">
-        <v>727459000000</v>
+        <v>738881000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8770391159445711</v>
+        <v>0.8549200649739249</v>
       </c>
       <c r="D307" t="n">
-        <v>638009998245.9218</v>
+        <v>631684192527.9987</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B308" t="n">
-        <v>732122000000</v>
+        <v>743457000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8575593859874797</v>
+        <v>0.8663259118080221</v>
       </c>
       <c r="D308" t="n">
-        <v>627838092787.9257</v>
+        <v>644076063415.0566</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B309" t="n">
-        <v>736336000000</v>
+        <v>746726000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8498342823149485</v>
+        <v>0.9013068949977467</v>
       </c>
       <c r="D309" t="n">
-        <v>625763576102.6599</v>
+        <v>673029292474.0874</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B310" t="n">
-        <v>738881000000</v>
+        <v>747290000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8549200649739249</v>
+        <v>0.9356287425149701</v>
       </c>
       <c r="D310" t="n">
-        <v>631684192527.9987</v>
+        <v>699186002994.012</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B311" t="n">
-        <v>743457000000</v>
+        <v>753228000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8663259118080221</v>
+        <v>0.9392317084624777</v>
       </c>
       <c r="D311" t="n">
-        <v>644076063415.0566</v>
+        <v>707455621301.7751</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B312" t="n">
-        <v>746726000000</v>
+        <v>762391000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9013068949977467</v>
+        <v>0.9377344336084021</v>
       </c>
       <c r="D312" t="n">
-        <v>673029292474.0874</v>
+        <v>714920292573.1433</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B313" t="n">
-        <v>747290000000</v>
+        <v>767172000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9356287425149701</v>
+        <v>0.947059380623165</v>
       </c>
       <c r="D313" t="n">
-        <v>699186002994.012</v>
+        <v>726557439151.4347</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B314" t="n">
-        <v>753228000000</v>
+        <v>771869000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9392317084624777</v>
+        <v>1.005429318318922</v>
       </c>
       <c r="D314" t="n">
-        <v>707455621301.7751</v>
+        <v>776059722501.5082</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B315" t="n">
-        <v>762391000000</v>
+        <v>770498000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9377344336084021</v>
+        <v>1.060670343657191</v>
       </c>
       <c r="D315" t="n">
-        <v>714920292573.1433</v>
+        <v>817244378447.1786</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B316" t="n">
-        <v>767172000000</v>
+        <v>773993000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.947059380623165</v>
+        <v>1.000100010001</v>
       </c>
       <c r="D316" t="n">
-        <v>726557439151.4347</v>
+        <v>774070407040.704</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B317" t="n">
-        <v>771869000000</v>
+        <v>780159000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.005429318318922</v>
+        <v>1.011265497643751</v>
       </c>
       <c r="D317" t="n">
-        <v>776059722501.5082</v>
+        <v>788947879376.2515</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B318" t="n">
-        <v>770498000000</v>
+        <v>789173000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.060670343657191</v>
+        <v>0.9973072703700011</v>
       </c>
       <c r="D318" t="n">
-        <v>817244378447.1786</v>
+        <v>787047970479.7048</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B319" t="n">
-        <v>773993000000</v>
+        <v>792462000000</v>
       </c>
       <c r="C319" t="n">
-        <v>1.000100010001</v>
+        <v>1.016053647632595</v>
       </c>
       <c r="D319" t="n">
-        <v>774070407040.704</v>
+        <v>805183905710.2214</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B320" t="n">
-        <v>780159000000</v>
+        <v>802004000000</v>
       </c>
       <c r="C320" t="n">
-        <v>1.011265497643751</v>
+        <v>0.9754384595875847</v>
       </c>
       <c r="D320" t="n">
-        <v>788947879376.2515</v>
+        <v>782305546343.0813</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B321" t="n">
-        <v>789173000000</v>
+        <v>808895000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9973072703700011</v>
+        <v>0.9923292945531045</v>
       </c>
       <c r="D321" t="n">
-        <v>787047970479.7048</v>
+        <v>802690204717.5334</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B322" t="n">
-        <v>792462000000</v>
+        <v>814551000000</v>
       </c>
       <c r="C322" t="n">
-        <v>1.016053647632595</v>
+        <v>1.006664116450905</v>
       </c>
       <c r="D322" t="n">
-        <v>805183905710.2214</v>
+        <v>819979262719.201</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B323" t="n">
-        <v>802004000000</v>
+        <v>820945000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9754384595875847</v>
+        <v>0.9789621043769395</v>
       </c>
       <c r="D323" t="n">
-        <v>782305546343.0813</v>
+        <v>803674044777.7267</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B324" t="n">
-        <v>808895000000</v>
+        <v>825736000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9923292945531045</v>
+        <v>0.9760477872996662</v>
       </c>
       <c r="D324" t="n">
-        <v>802690204717.5334</v>
+        <v>805957795693.6772</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B325" t="n">
-        <v>814551000000</v>
+        <v>833368000000</v>
       </c>
       <c r="C325" t="n">
-        <v>1.006664116450905</v>
+        <v>0.9418146885418825</v>
       </c>
       <c r="D325" t="n">
-        <v>819979262719.201</v>
+        <v>784878223360.7716</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B326" t="n">
-        <v>820945000000</v>
+        <v>844338000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9789621043769395</v>
+        <v>0.9397171451393131</v>
       </c>
       <c r="D326" t="n">
-        <v>803674044777.7267</v>
+        <v>793438894892.6373</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B327" t="n">
-        <v>825736000000</v>
+        <v>857769000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9760477872996662</v>
+        <v>0.8336807002917882</v>
       </c>
       <c r="D327" t="n">
-        <v>805957795693.6772</v>
+        <v>715105460608.5869</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B328" t="n">
-        <v>833368000000</v>
+        <v>874577000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9418146885418825</v>
+        <v>0.8091662351113412</v>
       </c>
       <c r="D328" t="n">
-        <v>784878223360.7716</v>
+        <v>707678178404.9714</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B329" t="n">
-        <v>844338000000</v>
+        <v>890217000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9397171451393131</v>
+        <v>0.8207013713919916</v>
       </c>
       <c r="D329" t="n">
-        <v>793438894892.6373</v>
+        <v>730602312736.4646</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B330" t="n">
-        <v>857769000000</v>
+        <v>903968000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.8336807002917882</v>
+        <v>0.8155875084617203</v>
       </c>
       <c r="D330" t="n">
-        <v>715105460608.5869</v>
+        <v>737265008849.1244</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B331" t="n">
-        <v>874577000000</v>
+        <v>911816000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8091662351113412</v>
+        <v>0.7861140808754166</v>
       </c>
       <c r="D331" t="n">
-        <v>707678178404.9714</v>
+        <v>716791396767.4988</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B332" t="n">
-        <v>890217000000</v>
+        <v>923083000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8207013713919916</v>
+        <v>0.793751587503175</v>
       </c>
       <c r="D332" t="n">
-        <v>730602312736.4646</v>
+        <v>732698596647.1932</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B333" t="n">
-        <v>903968000000</v>
+        <v>929833000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8155875084617203</v>
+        <v>0.8388276544701125</v>
       </c>
       <c r="D333" t="n">
-        <v>737265008849.1244</v>
+        <v>779969634438.9082</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B334" t="n">
-        <v>911816000000</v>
+        <v>933532000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.7861140808754166</v>
+        <v>0.9159438343240793</v>
       </c>
       <c r="D334" t="n">
-        <v>716791396767.4988</v>
+        <v>855062879544.2264</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B335" t="n">
-        <v>923083000000</v>
+        <v>939155000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.793751587503175</v>
+        <v>0.8606814876018832</v>
       </c>
       <c r="D335" t="n">
-        <v>732698596647.1932</v>
+        <v>808313322488.7467</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B336" t="n">
-        <v>929833000000</v>
+        <v>947686000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8388276544701125</v>
+        <v>0.9284016636957813</v>
       </c>
       <c r="D336" t="n">
-        <v>779969634438.9082</v>
+        <v>879833259061.2002</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B337" t="n">
-        <v>933532000000</v>
+        <v>956161000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9159438343240793</v>
+        <v>0.914603473663993</v>
       </c>
       <c r="D337" t="n">
-        <v>855062879544.2264</v>
+        <v>874508171982.0372</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B338" t="n">
-        <v>939155000000</v>
+        <v>960900000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.8606814876018832</v>
+        <v>0.9353924438998382</v>
       </c>
       <c r="D338" t="n">
-        <v>808313322488.7467</v>
+        <v>898818599343.3545</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B339" t="n">
-        <v>947686000000</v>
+        <v>965962000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9284016636957813</v>
+        <v>0.9244963805966701</v>
       </c>
       <c r="D339" t="n">
-        <v>879833259061.2002</v>
+        <v>893028372793.9207</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B340" t="n">
-        <v>956161000000</v>
+        <v>970851000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.914603473663993</v>
+        <v>0.9470414425335253</v>
       </c>
       <c r="D340" t="n">
-        <v>874508171982.0372</v>
+        <v>919436131525.1156</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B341" t="n">
-        <v>960900000000</v>
+        <v>973415000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9353924438998382</v>
+        <v>0.9557031585989393</v>
       </c>
       <c r="D341" t="n">
-        <v>898818599343.3545</v>
+        <v>930295790127.5864</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B342" t="n">
-        <v>965962000000</v>
+        <v>975773000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9244963805966701</v>
+        <v>0.9352437245146086</v>
       </c>
       <c r="D342" t="n">
-        <v>893028372793.9207</v>
+        <v>912585574800.7932</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B343" t="n">
-        <v>970851000000</v>
+        <v>983599000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9470414425335253</v>
+        <v>0.9504980609839557</v>
       </c>
       <c r="D343" t="n">
-        <v>919436131525.1156</v>
+        <v>934908942285.7578</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B344" t="n">
-        <v>973415000000</v>
+        <v>986502000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9557031585989393</v>
+        <v>0.9848044670730626</v>
       </c>
       <c r="D344" t="n">
-        <v>930295790127.5864</v>
+        <v>971511576376.5104</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B345" t="n">
-        <v>975773000000</v>
+        <v>989926000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9352437245146086</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="D345" t="n">
-        <v>912585574800.7932</v>
+        <v>974336614173.2284</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B346" t="n">
-        <v>983599000000</v>
+        <v>997332000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9504980609839557</v>
+        <v>0.9574783849254602</v>
       </c>
       <c r="D346" t="n">
-        <v>934908942285.7578</v>
+        <v>954923832594.4791</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B347" t="n">
-        <v>986502000000</v>
+        <v>1002970000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9848044670730626</v>
+        <v>0.9401412092096234</v>
       </c>
       <c r="D347" t="n">
-        <v>971511576376.5104</v>
+        <v>942933428600.976</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B348" t="n">
-        <v>989926000000</v>
+        <v>1007970000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.984251968503937</v>
+        <v>0.9730087376184637</v>
       </c>
       <c r="D348" t="n">
-        <v>974336614173.2284</v>
+        <v>980763617257.2828</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B349" t="n">
-        <v>997332000000</v>
+        <v>1012078000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9574783849254602</v>
+        <v>0.9385441303450088</v>
       </c>
       <c r="D349" t="n">
-        <v>954923832594.4791</v>
+        <v>949879866351.3158</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B350" t="n">
-        <v>1002970000000</v>
+        <v>1017370000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9401412092096234</v>
+        <v>0.9716945381050012</v>
       </c>
       <c r="D350" t="n">
-        <v>942933428600.976</v>
+        <v>988572872231.885</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B351" t="n">
-        <v>1007970000000</v>
+        <v>1021701000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9730087376184637</v>
+        <v>0.9804978968320114</v>
       </c>
       <c r="D351" t="n">
-        <v>980763617257.2828</v>
+        <v>1001775681691.163</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B352" t="n">
-        <v>1012078000000</v>
+        <v>1021885000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9385441303450088</v>
+        <v>0.9743264968090807</v>
       </c>
       <c r="D352" t="n">
-        <v>949879866351.3158</v>
+        <v>995649632191.7474</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B353" t="n">
-        <v>1017370000000</v>
+        <v>1026441000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9716945381050012</v>
+        <v>1.005338346620555</v>
       </c>
       <c r="D353" t="n">
-        <v>988572872231.885</v>
+        <v>1031920497843.549</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B354" t="n">
-        <v>1021701000000</v>
+        <v>1030655000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9804978968320114</v>
+        <v>0.9990409207161125</v>
       </c>
       <c r="D354" t="n">
-        <v>1001775681691.163</v>
+        <v>1029666520140.665</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B355" t="n">
-        <v>1021885000000</v>
+        <v>1033383000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9743264968090807</v>
+        <v>1.029569228234906</v>
       </c>
       <c r="D355" t="n">
-        <v>995649632191.7474</v>
+        <v>1063939337781.072</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B356" t="n">
-        <v>1026441000000</v>
+        <v>1037827000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.005338346620555</v>
+        <v>1.030566605519715</v>
       </c>
       <c r="D356" t="n">
-        <v>1031920497843.549</v>
+        <v>1069549848506.709</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B357" t="n">
-        <v>1030655000000</v>
+        <v>1039526000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9990409207161125</v>
+        <v>1.057183030098001</v>
       </c>
       <c r="D357" t="n">
-        <v>1029666520140.665</v>
+        <v>1098969246545.654</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B358" t="n">
-        <v>1033383000000</v>
+        <v>1042253000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.029569228234906</v>
+        <v>1.032919132761096</v>
       </c>
       <c r="D358" t="n">
-        <v>1063939337781.072</v>
+        <v>1076563064877.651</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B359" t="n">
-        <v>1037827000000</v>
+        <v>1047329000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.030566605519715</v>
+        <v>1.037925809063168</v>
       </c>
       <c r="D359" t="n">
-        <v>1069549848506.709</v>
+        <v>1087049799680.319</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B360" t="n">
-        <v>1039526000000</v>
+        <v>1050254000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.057183030098001</v>
+        <v>1.046857334282484</v>
       </c>
       <c r="D360" t="n">
-        <v>1098969246545.654</v>
+        <v>1099466102759.516</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B361" t="n">
-        <v>1042253000000</v>
+        <v>1056451000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.032919132761096</v>
+        <v>1.022955112729653</v>
       </c>
       <c r="D361" t="n">
-        <v>1076563064877.651</v>
+        <v>1080701951798.355</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B362" t="n">
-        <v>1047329000000</v>
+        <v>1072342000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.037925809063168</v>
+        <v>0.9538435124333502</v>
       </c>
       <c r="D362" t="n">
-        <v>1087049799680.319</v>
+        <v>1022846459809.804</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B363" t="n">
-        <v>1050254000000</v>
+        <v>1081489000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.046857334282484</v>
+        <v>0.9993404353126936</v>
       </c>
       <c r="D363" t="n">
-        <v>1099466102759.516</v>
+        <v>1080775688045.89</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B364" t="n">
-        <v>1056451000000</v>
+        <v>1087142000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.022955112729653</v>
+        <v>0.9833711931242687</v>
       </c>
       <c r="D364" t="n">
-        <v>1080701951798.355</v>
+        <v>1069064125635.504</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B365" t="n">
-        <v>1072342000000</v>
+        <v>1092865000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9538435124333502</v>
+        <v>0.9793360101850946</v>
       </c>
       <c r="D365" t="n">
-        <v>1022846459809.804</v>
+        <v>1070282048770.933</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B366" t="n">
-        <v>1081489000000</v>
+        <v>1101467000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9993404353126936</v>
+        <v>0.9974962843263409</v>
       </c>
       <c r="D366" t="n">
-        <v>1080775688045.89</v>
+        <v>1098709239808.082</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B367" t="n">
-        <v>1087142000000</v>
+        <v>1097482000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9833711931242687</v>
+        <v>1.010315319411188</v>
       </c>
       <c r="D367" t="n">
-        <v>1069064125635.504</v>
+        <v>1108802877378.03</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B368" t="n">
-        <v>1092865000000</v>
+        <v>1102820000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9793360101850946</v>
+        <v>1.002154632459789</v>
       </c>
       <c r="D368" t="n">
-        <v>1070282048770.933</v>
+        <v>1105196171769.304</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B369" t="n">
-        <v>1101467000000</v>
+        <v>1109651000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9974962843263409</v>
+        <v>1.013037796440185</v>
       </c>
       <c r="D369" t="n">
-        <v>1098709239808.082</v>
+        <v>1124118403857.648</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B370" t="n">
-        <v>1097482000000</v>
+        <v>1116754000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.010315319411188</v>
+        <v>0.9683916950728231</v>
       </c>
       <c r="D370" t="n">
-        <v>1108802877378.03</v>
+        <v>1081455299039.355</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B371" t="n">
-        <v>1102820000000</v>
+        <v>1127759000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.002154632459789</v>
+        <v>0.9838936607731437</v>
       </c>
       <c r="D371" t="n">
-        <v>1105196171769.304</v>
+        <v>1109594930979.86</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B372" t="n">
-        <v>1109651000000</v>
+        <v>1135610000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.013037796440185</v>
+        <v>0.9969095803010666</v>
       </c>
       <c r="D372" t="n">
-        <v>1124118403857.648</v>
+        <v>1132100488485.694</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B373" t="n">
-        <v>1116754000000</v>
+        <v>1140742000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9683916950728231</v>
+        <v>1.014970819588937</v>
       </c>
       <c r="D373" t="n">
-        <v>1081455299039.355</v>
+        <v>1157819842679.523</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B374" t="n">
-        <v>1127759000000</v>
+        <v>1140167000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9838936607731437</v>
+        <v>1.016973284111826</v>
       </c>
       <c r="D374" t="n">
-        <v>1109594930979.86</v>
+        <v>1159519378425.929</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B375" t="n">
-        <v>1135610000000</v>
+        <v>1150318000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9969095803010666</v>
+        <v>1.000320102432779</v>
       </c>
       <c r="D375" t="n">
-        <v>1132100488485.694</v>
+        <v>1150686219590.269</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B376" t="n">
-        <v>1140742000000</v>
+        <v>1158280000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.014970819588937</v>
+        <v>1.005854070691424</v>
       </c>
       <c r="D376" t="n">
-        <v>1157819842679.523</v>
+        <v>1165060653000.463</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B377" t="n">
-        <v>1140167000000</v>
+        <v>1161595000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.016973284111826</v>
+        <v>1.005237286261422</v>
       </c>
       <c r="D377" t="n">
-        <v>1159519378425.929</v>
+        <v>1167678605534.837</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B378" t="n">
-        <v>1150318000000</v>
+        <v>1169988000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.000320102432779</v>
+        <v>1.002657041159072</v>
       </c>
       <c r="D378" t="n">
-        <v>1150686219590.269</v>
+        <v>1173096706271.62</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B379" t="n">
-        <v>1158280000000</v>
+        <v>1179367000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.005854070691424</v>
+        <v>0.9703273884608666</v>
       </c>
       <c r="D379" t="n">
-        <v>1165060653000.463</v>
+        <v>1144372101146.927</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B380" t="n">
-        <v>1161595000000</v>
+        <v>1189872000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.005237286261422</v>
+        <v>0.9827720067221605</v>
       </c>
       <c r="D380" t="n">
-        <v>1167678605534.837</v>
+        <v>1169372893182.51</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B381" t="n">
-        <v>1169988000000</v>
+        <v>1195531000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.002657041159072</v>
+        <v>0.9929007595690811</v>
       </c>
       <c r="D381" t="n">
-        <v>1173096706271.62</v>
+        <v>1187043637988.383</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B382" t="n">
-        <v>1179367000000</v>
+        <v>1194040000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9703273884608666</v>
+        <v>0.9647481042699751</v>
       </c>
       <c r="D382" t="n">
-        <v>1144372101146.927</v>
+        <v>1151947826422.521</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B383" t="n">
-        <v>1189872000000</v>
+        <v>1200066000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9827720067221605</v>
+        <v>0.9511580349074998</v>
       </c>
       <c r="D383" t="n">
-        <v>1169372893182.51</v>
+        <v>1141452418319.304</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B384" t="n">
-        <v>1195531000000</v>
+        <v>1205447000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9929007595690811</v>
+        <v>0.973093952221087</v>
       </c>
       <c r="D384" t="n">
-        <v>1187043637988.383</v>
+        <v>1173013185423.053</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B385" t="n">
-        <v>1194040000000</v>
+        <v>1216053000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9647481042699751</v>
+        <v>0.9494331883865331</v>
       </c>
       <c r="D385" t="n">
-        <v>1151947826422.521</v>
+        <v>1154561077037.009</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B386" t="n">
-        <v>1200066000000</v>
+        <v>1221461000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9511580349074998</v>
+        <v>0.9700732405296599</v>
       </c>
       <c r="D386" t="n">
-        <v>1141452418319.304</v>
+        <v>1184906630450.599</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B387" t="n">
-        <v>1205447000000</v>
+        <v>1226705000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.973093952221087</v>
+        <v>0.958873898493609</v>
       </c>
       <c r="D387" t="n">
-        <v>1173013185423.053</v>
+        <v>1176255405651.603</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B388" t="n">
-        <v>1216053000000</v>
+        <v>1235685000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9494331883865331</v>
+        <v>0.9426492213717431</v>
       </c>
       <c r="D388" t="n">
-        <v>1154561077037.009</v>
+        <v>1164817503110.742</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B389" t="n">
-        <v>1221461000000</v>
+        <v>1243567000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9700732405296599</v>
+        <v>0.9402561257686595</v>
       </c>
       <c r="D389" t="n">
-        <v>1184906630450.599</v>
+        <v>1169271489553.755</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B390" t="n">
-        <v>1226705000000</v>
+        <v>1251738000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.958873898493609</v>
+        <v>0.898787535614456</v>
       </c>
       <c r="D390" t="n">
-        <v>1176255405651.603</v>
+        <v>1125046512254.968</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B391" t="n">
-        <v>1235685000000</v>
+        <v>1251016000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9426492213717431</v>
+        <v>0.903750564844103</v>
       </c>
       <c r="D391" t="n">
-        <v>1164817503110.742</v>
+        <v>1130606416629.01</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B392" t="n">
-        <v>1243567000000</v>
+        <v>1254128000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9402561257686595</v>
+        <v>0.9050428990334143</v>
       </c>
       <c r="D392" t="n">
-        <v>1169271489553.755</v>
+        <v>1135039640878.978</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B393" t="n">
-        <v>1251738000000</v>
+        <v>1256512000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.898787535614456</v>
+        <v>0.9123421648054887</v>
       </c>
       <c r="D393" t="n">
-        <v>1125046512254.968</v>
+        <v>1146368878184.074</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B394" t="n">
-        <v>1251016000000</v>
+        <v>1261583000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.903750564844103</v>
+        <v>0.9224496573099522</v>
       </c>
       <c r="D394" t="n">
-        <v>1130606416629.01</v>
+        <v>1163746806018.062</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B395" t="n">
-        <v>1254128000000</v>
+        <v>1265809000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9050428990334143</v>
+        <v>0.9373037520269195</v>
       </c>
       <c r="D395" t="n">
-        <v>1135039640878.978</v>
+        <v>1186447525049.443</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B396" t="n">
-        <v>1256512000000</v>
+        <v>1270210000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9123421648054887</v>
+        <v>0.9170189547817954</v>
       </c>
       <c r="D396" t="n">
-        <v>1146368878184.074</v>
+        <v>1164806646553.384</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B397" t="n">
-        <v>1261583000000</v>
+        <v>1279946000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9224496573099522</v>
+        <v>0.9196163360645938</v>
       </c>
       <c r="D397" t="n">
-        <v>1163746806018.062</v>
+        <v>1177059250880.532</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B398" t="n">
-        <v>1265809000000</v>
+        <v>1289603000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9373037520269195</v>
+        <v>0.8932399599828498</v>
       </c>
       <c r="D398" t="n">
-        <v>1186447525049.443</v>
+        <v>1151924932113.763</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B399" t="n">
-        <v>1270210000000</v>
+        <v>1295199000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9170189547817954</v>
+        <v>0.8875398283497972</v>
       </c>
       <c r="D399" t="n">
-        <v>1164806646553.384</v>
+        <v>1149540698138.829</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B400" t="n">
-        <v>1279946000000</v>
+        <v>1296727000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.9196163360645938</v>
+        <v>0.8762014912949383</v>
       </c>
       <c r="D400" t="n">
-        <v>1177059250880.532</v>
+        <v>1136194131202.411</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B401" t="n">
-        <v>1289603000000</v>
+        <v>1302464000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8932399599828498</v>
+        <v>0.8610816908200081</v>
       </c>
       <c r="D401" t="n">
-        <v>1151924932113.763</v>
+        <v>1121527903352.191</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B402" t="n">
-        <v>1295199000000</v>
+        <v>1306212000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8875398283497972</v>
+        <v>0.7863489816780687</v>
       </c>
       <c r="D402" t="n">
-        <v>1149540698138.829</v>
+        <v>1027138476055.673</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B403" t="n">
-        <v>1296727000000</v>
+        <v>1312747000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8762014912949383</v>
+        <v>0.8001984492154054</v>
       </c>
       <c r="D403" t="n">
-        <v>1136194131202.411</v>
+        <v>1050458113612.176</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B404" t="n">
-        <v>1302464000000</v>
+        <v>1316790000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.8610816908200081</v>
+        <v>0.7884259076753262</v>
       </c>
       <c r="D404" t="n">
-        <v>1121527903352.191</v>
+        <v>1038191350967.793</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B405" t="n">
-        <v>1306212000000</v>
+        <v>1320890000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7863489816780687</v>
+        <v>0.8282259400364419</v>
       </c>
       <c r="D405" t="n">
-        <v>1027138476055.673</v>
+        <v>1093995361934.736</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B406" t="n">
-        <v>1312747000000</v>
+        <v>1322154000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.8001984492154054</v>
+        <v>0.8035097305028364</v>
       </c>
       <c r="D406" t="n">
-        <v>1050458113612.176</v>
+        <v>1062363604223.247</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B407" t="n">
-        <v>1316790000000</v>
+        <v>1329858000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7884259076753262</v>
+        <v>0.8007495015334353</v>
       </c>
       <c r="D407" t="n">
-        <v>1038191350967.793</v>
+        <v>1064883130610.251</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B408" t="n">
-        <v>1320890000000</v>
+        <v>1345086000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.8282259400364419</v>
+        <v>0.7641988139634408</v>
       </c>
       <c r="D408" t="n">
-        <v>1093995361934.736</v>
+        <v>1027913125878.829</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B409" t="n">
-        <v>1322154000000</v>
+        <v>1356127000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.8035097305028364</v>
+        <v>0.7610755519700441</v>
       </c>
       <c r="D409" t="n">
-        <v>1062363604223.247</v>
+        <v>1032115105066.48</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B410" t="n">
-        <v>1329858000000</v>
+        <v>1366811000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.8007495015334353</v>
+        <v>0.7511906371598984</v>
       </c>
       <c r="D410" t="n">
-        <v>1064883130610.251</v>
+        <v>1026735625967.158</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B411" t="n">
-        <v>1345086000000</v>
+        <v>1368472000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7641988139634408</v>
+        <v>0.7650172893907402</v>
       </c>
       <c r="D411" t="n">
-        <v>1027913125878.829</v>
+        <v>1046904740047.125</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B412" t="n">
-        <v>1356127000000</v>
+        <v>1377121000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7610755519700441</v>
+        <v>0.7484245662879637</v>
       </c>
       <c r="D412" t="n">
-        <v>1032115105066.48</v>
+        <v>1030671187151.047</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B413" t="n">
-        <v>1366811000000</v>
+        <v>1380572000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7511906371598984</v>
+        <v>0.7232069890723424</v>
       </c>
       <c r="D413" t="n">
-        <v>1026735625967.158</v>
+        <v>998439319317.5819</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B414" t="n">
-        <v>1368472000000</v>
+        <v>1391381000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7650172893907402</v>
+        <v>0.7158862313601122</v>
       </c>
       <c r="D414" t="n">
-        <v>1046904740047.125</v>
+        <v>996070500476.0643</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B415" t="n">
-        <v>1377121000000</v>
+        <v>1400091000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7484245662879637</v>
+        <v>0.7387488549392749</v>
       </c>
       <c r="D415" t="n">
-        <v>1030671187151.047</v>
+        <v>1034315623060.784</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B416" t="n">
-        <v>1380572000000</v>
+        <v>1405027000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7232069890723424</v>
+        <v>0.7690710390918809</v>
       </c>
       <c r="D416" t="n">
-        <v>998439319317.5819</v>
+        <v>1080565574842.148</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B417" t="n">
-        <v>1391381000000</v>
+        <v>1412193000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7158862313601122</v>
+        <v>0.7968063999490044</v>
       </c>
       <c r="D417" t="n">
-        <v>996070500476.0643</v>
+        <v>1125244420363.184</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B418" t="n">
-        <v>1400091000000</v>
+        <v>1419809000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7387488549392749</v>
+        <v>0.7638135683842288</v>
       </c>
       <c r="D418" t="n">
-        <v>1034315623060.784</v>
+        <v>1084469378714.043</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B419" t="n">
-        <v>1405027000000</v>
+        <v>1428874000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7690710390918809</v>
+        <v>0.7737662297466689</v>
       </c>
       <c r="D419" t="n">
-        <v>1080565574842.148</v>
+        <v>1105614447763.042</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B420" t="n">
-        <v>1412193000000</v>
+        <v>1450911000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7968063999490044</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="D420" t="n">
-        <v>1125244420363.184</v>
+        <v>1112661809815.951</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B421" t="n">
-        <v>1419809000000</v>
+        <v>1461886000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7638135683842288</v>
+        <v>0.7631199395609007</v>
       </c>
       <c r="D421" t="n">
-        <v>1084469378714.043</v>
+        <v>1115594355964.927</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B422" t="n">
-        <v>1428874000000</v>
+        <v>1473602000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7737662297466689</v>
+        <v>0.7620266861745498</v>
       </c>
       <c r="D422" t="n">
-        <v>1105614447763.042</v>
+        <v>1122924048800.189</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B423" t="n">
-        <v>1450911000000</v>
+        <v>1484308000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7458567656667213</v>
       </c>
       <c r="D423" t="n">
-        <v>1112661809815.951</v>
+        <v>1107081164133.24</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B424" t="n">
-        <v>1461886000000</v>
+        <v>1495912000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7631199395609007</v>
+        <v>0.7442081996859442</v>
       </c>
       <c r="D424" t="n">
-        <v>1115594355964.927</v>
+        <v>1113269976408.6</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B425" t="n">
-        <v>1473602000000</v>
+        <v>1498820000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7620266861745498</v>
+        <v>0.7443356060380504</v>
       </c>
       <c r="D425" t="n">
-        <v>1122924048800.189</v>
+        <v>1115625093041.951</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B426" t="n">
-        <v>1484308000000</v>
+        <v>1515097000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7458567656667213</v>
+        <v>0.767589309016104</v>
       </c>
       <c r="D426" t="n">
-        <v>1107081164133.24</v>
+        <v>1162972259322.372</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B427" t="n">
-        <v>1495912000000</v>
+        <v>1513143000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7442081996859442</v>
+        <v>0.7519079664649048</v>
       </c>
       <c r="D427" t="n">
-        <v>1113269976408.6</v>
+        <v>1137744276100.605</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B428" t="n">
-        <v>1498820000000</v>
+        <v>1521199000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7443356060380504</v>
+        <v>0.7508860455337297</v>
       </c>
       <c r="D428" t="n">
-        <v>1115625093041.951</v>
+        <v>1142247101579.864</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B429" t="n">
-        <v>1515097000000</v>
+        <v>1532423000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.767589309016104</v>
+        <v>0.7324719463244558</v>
       </c>
       <c r="D429" t="n">
-        <v>1162972259322.372</v>
+        <v>1122456857402.362</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B430" t="n">
-        <v>1513143000000</v>
+        <v>1546176000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7519079664649048</v>
+        <v>0.7408230544134533</v>
       </c>
       <c r="D430" t="n">
-        <v>1137744276100.605</v>
+        <v>1145442826980.776</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B431" t="n">
-        <v>1521199000000</v>
+        <v>1551765000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7508860455337297</v>
+        <v>0.7714739781827159</v>
       </c>
       <c r="D431" t="n">
-        <v>1142247101579.864</v>
+        <v>1197146317754.702</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B432" t="n">
-        <v>1532423000000</v>
+        <v>1554451000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7324719463244558</v>
+        <v>0.8013526833294602</v>
       </c>
       <c r="D432" t="n">
-        <v>1122456857402.362</v>
+        <v>1245663479954.163</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B433" t="n">
-        <v>1546176000000</v>
+        <v>1555592000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7408230544134533</v>
+        <v>0.8012178511337232</v>
       </c>
       <c r="D433" t="n">
-        <v>1145442826980.776</v>
+        <v>1246368079480.811</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B434" t="n">
-        <v>1551765000000</v>
+        <v>1562476000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7714739781827159</v>
+        <v>0.8023492786879984</v>
       </c>
       <c r="D434" t="n">
-        <v>1197146317754.702</v>
+        <v>1253651491567.309</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B435" t="n">
-        <v>1554451000000</v>
+        <v>1570298000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.8013526833294602</v>
+        <v>0.7759938541286753</v>
       </c>
       <c r="D435" t="n">
-        <v>1245663479954.163</v>
+        <v>1218541597150.551</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B436" t="n">
-        <v>1555592000000</v>
+        <v>1574987000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.8012178511337232</v>
+        <v>0.7754823500217135</v>
       </c>
       <c r="D436" t="n">
-        <v>1246368079480.811</v>
+        <v>1221374620013.648</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B437" t="n">
-        <v>1562476000000</v>
+        <v>1585745000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.8023492786879984</v>
+        <v>0.7949567940982407</v>
       </c>
       <c r="D437" t="n">
-        <v>1253651491567.309</v>
+        <v>1260598761457.315</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B438" t="n">
-        <v>1570298000000</v>
+        <v>1590269000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7759938541286753</v>
+        <v>0.8122091276061761</v>
       </c>
       <c r="D438" t="n">
-        <v>1218541597150.551</v>
+        <v>1291630997149.146</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B439" t="n">
-        <v>1574987000000</v>
+        <v>1593488000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7754823500217135</v>
+        <v>0.7795082861730821</v>
       </c>
       <c r="D439" t="n">
-        <v>1221374620013.648</v>
+        <v>1242137099917.372</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B440" t="n">
-        <v>1585745000000</v>
+        <v>1598398000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7949567940982407</v>
+        <v>0.7754703227507483</v>
       </c>
       <c r="D440" t="n">
-        <v>1260598761457.315</v>
+        <v>1239510212944.151</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B441" t="n">
-        <v>1590269000000</v>
+        <v>1598364000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.8122091276061761</v>
+        <v>0.7786645902277595</v>
       </c>
       <c r="D441" t="n">
-        <v>1291630997149.146</v>
+        <v>1244589449094.802</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B442" t="n">
-        <v>1593488000000</v>
+        <v>1598824000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7795082861730821</v>
+        <v>0.7718074186129077</v>
       </c>
       <c r="D442" t="n">
-        <v>1242137099917.372</v>
+        <v>1233984224256.364</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B443" t="n">
-        <v>1598398000000</v>
+        <v>1608465000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7754703227507483</v>
+        <v>0.7614290500411172</v>
       </c>
       <c r="D443" t="n">
-        <v>1239510212944.151</v>
+        <v>1224731976974.385</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B444" t="n">
-        <v>1598364000000</v>
+        <v>1616215000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7786645902277595</v>
+        <v>0.7689054630733151</v>
       </c>
       <c r="D444" t="n">
-        <v>1244589449094.802</v>
+        <v>1242716543001.038</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B445" t="n">
-        <v>1598824000000</v>
+        <v>1627432000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7718074186129077</v>
+        <v>0.7667712031406948</v>
       </c>
       <c r="D445" t="n">
-        <v>1233984224256.364</v>
+        <v>1247867992669.667</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B446" t="n">
-        <v>1608465000000</v>
+        <v>1637358000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7614290500411172</v>
+        <v>0.7747313619002612</v>
       </c>
       <c r="D446" t="n">
-        <v>1224731976974.385</v>
+        <v>1268512593258.288</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B447" t="n">
-        <v>1616215000000</v>
+        <v>1646237000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7689054630733151</v>
+        <v>0.7601036781416985</v>
       </c>
       <c r="D447" t="n">
-        <v>1242716543001.038</v>
+        <v>1251310798792.955</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B448" t="n">
-        <v>1627432000000</v>
+        <v>1656351000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7667712031406948</v>
+        <v>0.752683316021617</v>
       </c>
       <c r="D448" t="n">
-        <v>1247867992669.667</v>
+        <v>1246707763175.721</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B449" t="n">
-        <v>1637358000000</v>
+        <v>1668377000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7747313619002612</v>
+        <v>0.7328101069169946</v>
       </c>
       <c r="D449" t="n">
-        <v>1268512593258.288</v>
+        <v>1222603527747.855</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B450" t="n">
-        <v>1646237000000</v>
+        <v>1675220000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7601036781416985</v>
+        <v>0.7620034594957061</v>
       </c>
       <c r="D450" t="n">
-        <v>1251310798792.955</v>
+        <v>1276523435416.397</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B451" t="n">
-        <v>1656351000000</v>
+        <v>1682335000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.752683316021617</v>
+        <v>0.7591976798918902</v>
       </c>
       <c r="D451" t="n">
-        <v>1246707763175.721</v>
+        <v>1277224828800.923</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B452" t="n">
-        <v>1668377000000</v>
+        <v>1692733000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7328101069169946</v>
+        <v>0.7492769477454257</v>
       </c>
       <c r="D452" t="n">
-        <v>1222603527747.855</v>
+        <v>1268325815587.958</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B453" t="n">
-        <v>1675220000000</v>
+        <v>1705748000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7620034594957061</v>
+        <v>0.7469375560203168</v>
       </c>
       <c r="D453" t="n">
-        <v>1276523435416.397</v>
+        <v>1274087242306.543</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B454" t="n">
-        <v>1682335000000</v>
+        <v>1714043000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7591976798918902</v>
+        <v>0.739885761638403</v>
       </c>
       <c r="D454" t="n">
-        <v>1277224828800.923</v>
+        <v>1268196010535.973</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B455" t="n">
-        <v>1692733000000</v>
+        <v>1720945000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7492769477454257</v>
+        <v>0.7641229015274817</v>
       </c>
       <c r="D455" t="n">
-        <v>1268325815587.958</v>
+        <v>1315013486769.212</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B456" t="n">
-        <v>1705748000000</v>
+        <v>1737081000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.7469375560203168</v>
+        <v>0.7581041331837342</v>
       </c>
       <c r="D456" t="n">
-        <v>1274087242306.543</v>
+        <v>1316888285774.934</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B457" t="n">
-        <v>1714043000000</v>
+        <v>1754608000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.739885761638403</v>
+        <v>0.7514390056959076</v>
       </c>
       <c r="D457" t="n">
-        <v>1268196010535.973</v>
+        <v>1318480890906.085</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B458" t="n">
-        <v>1720945000000</v>
+        <v>1768025000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7641229015274817</v>
+        <v>0.7552813045218693</v>
       </c>
       <c r="D458" t="n">
-        <v>1315013486769.212</v>
+        <v>1335356228427.278</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B459" t="n">
-        <v>1737081000000</v>
+        <v>1780400000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7581041331837342</v>
+        <v>0.7596590650116227</v>
       </c>
       <c r="D459" t="n">
-        <v>1316888285774.934</v>
+        <v>1352496999346.693</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B460" t="n">
-        <v>1754608000000</v>
+        <v>1788170000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7514390056959076</v>
+        <v>0.7533524182612626</v>
       </c>
       <c r="D460" t="n">
-        <v>1318480890906.085</v>
+        <v>1347122193762.242</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B461" t="n">
-        <v>1768025000000</v>
+        <v>1797721000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7552813045218693</v>
+        <v>0.7706950899015822</v>
       </c>
       <c r="D461" t="n">
-        <v>1335356228427.278</v>
+        <v>1385494747712.962</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B462" t="n">
-        <v>1780400000000</v>
+        <v>1801010000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7596590650116227</v>
+        <v>0.7554981376970905</v>
       </c>
       <c r="D462" t="n">
-        <v>1352496999346.693</v>
+        <v>1360659700973.837</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B463" t="n">
-        <v>1788170000000</v>
+        <v>1814298000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7533524182612626</v>
+        <v>0.7455064598134743</v>
       </c>
       <c r="D463" t="n">
-        <v>1347122193762.242</v>
+        <v>1352570879026.667</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B464" t="n">
-        <v>1797721000000</v>
+        <v>1855518000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.7706950899015822</v>
+        <v>0.7113184999715473</v>
       </c>
       <c r="D464" t="n">
-        <v>1385494747712.962</v>
+        <v>1319864280430.206</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B465" t="n">
-        <v>1801010000000</v>
+        <v>1918181000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7554981376970905</v>
+        <v>0.7171286170174621</v>
       </c>
       <c r="D465" t="n">
-        <v>1360659700973.837</v>
+        <v>1375582487719.173</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B466" t="n">
-        <v>1814298000000</v>
+        <v>1963419000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7455064598134743</v>
+        <v>0.7263271813421074</v>
       </c>
       <c r="D466" t="n">
-        <v>1352570879026.667</v>
+        <v>1426084588063.539</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B467" t="n">
-        <v>1855518000000</v>
+        <v>2005979000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7113184999715473</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D467" t="n">
-        <v>1319864280430.206</v>
+        <v>1477809783409.459</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B468" t="n">
-        <v>1918181000000</v>
+        <v>2030544000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7171286170174621</v>
+        <v>0.7459235279199177</v>
       </c>
       <c r="D468" t="n">
-        <v>1375582487719.173</v>
+        <v>1514630544076.621</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B469" t="n">
-        <v>1963419000000</v>
+        <v>2061892000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7263271813421074</v>
+        <v>0.7665008469834359</v>
       </c>
       <c r="D469" t="n">
-        <v>1426084588063.539</v>
+        <v>1580441964388.371</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B470" t="n">
-        <v>2005979000000</v>
+        <v>2085360000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7509706295386788</v>
       </c>
       <c r="D470" t="n">
-        <v>1477809783409.459</v>
+        <v>1566044112014.779</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B471" t="n">
-        <v>2030544000000</v>
+        <v>2105411000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7459235279199177</v>
+        <v>0.7510044684765874</v>
       </c>
       <c r="D471" t="n">
-        <v>1514630544076.621</v>
+        <v>1581173068979.76</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B472" t="n">
-        <v>2061892000000</v>
+        <v>2121396000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7665008469834359</v>
+        <v>0.7695148978084215</v>
       </c>
       <c r="D472" t="n">
-        <v>1580441964388.371</v>
+        <v>1632445826151.194</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B473" t="n">
-        <v>2085360000000</v>
+        <v>2120708000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7509706295386788</v>
+        <v>0.7839448102853559</v>
       </c>
       <c r="D473" t="n">
-        <v>1566044112014.779</v>
+        <v>1662518030730.636</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B474" t="n">
-        <v>2105411000000</v>
+        <v>2141765000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7510044684765874</v>
+        <v>0.7828156312625251</v>
       </c>
       <c r="D474" t="n">
-        <v>1581173068979.76</v>
+        <v>1676607120490.982</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B475" t="n">
-        <v>2121396000000</v>
+        <v>2177359000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7695148978084215</v>
+        <v>0.7849231952653433</v>
       </c>
       <c r="D475" t="n">
-        <v>1632445826151.194</v>
+        <v>1709059583519.752</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B476" t="n">
-        <v>2120708000000</v>
+        <v>2182624000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7839448102853559</v>
+        <v>0.7960769328747931</v>
       </c>
       <c r="D476" t="n">
-        <v>1662518030730.636</v>
+        <v>1737536619538.912</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B477" t="n">
-        <v>2141765000000</v>
+        <v>2199732000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7828156312625251</v>
+        <v>0.8144516297177111</v>
       </c>
       <c r="D477" t="n">
-        <v>1676607120490.982</v>
+        <v>1791575312342.2</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B478" t="n">
-        <v>2177359000000</v>
+        <v>2225461000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7849231952653433</v>
+        <v>0.8293111741387604</v>
       </c>
       <c r="D478" t="n">
-        <v>1709059583519.752</v>
+        <v>1845599674910.02</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B479" t="n">
-        <v>2182624000000</v>
+        <v>2235219000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7960769328747931</v>
+        <v>0.8067639086097844</v>
       </c>
       <c r="D479" t="n">
-        <v>1737536619538.912</v>
+        <v>1803294017038.854</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B480" t="n">
-        <v>2199732000000</v>
+        <v>2265475000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.8144516297177111</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D480" t="n">
-        <v>1791575312342.2</v>
+        <v>1816885876974.898</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B481" t="n">
-        <v>2225461000000</v>
+        <v>2283153000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8293111741387604</v>
+        <v>0.7927259467129618</v>
       </c>
       <c r="D481" t="n">
-        <v>1845599674910.02</v>
+        <v>1809914623415.539</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B482" t="n">
-        <v>2235219000000</v>
+        <v>2286467000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.8067639086097844</v>
+        <v>0.7889172899113257</v>
       </c>
       <c r="D482" t="n">
-        <v>1803294017038.854</v>
+        <v>1803833349111.679</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B483" t="n">
-        <v>2265475000000</v>
+        <v>2289771000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.8078588509015704</v>
       </c>
       <c r="D483" t="n">
-        <v>1816885876974.898</v>
+        <v>1849811768887.74</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B484" t="n">
-        <v>2283153000000</v>
+        <v>2310223000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7927259467129618</v>
+        <v>0.7826440847760073</v>
       </c>
       <c r="D484" t="n">
-        <v>1809914623415.539</v>
+        <v>1808082365463.482</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B485" t="n">
-        <v>2286467000000</v>
+        <v>2301433000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7889172899113257</v>
+        <v>0.7910954298417018</v>
       </c>
       <c r="D485" t="n">
-        <v>1803833349111.679</v>
+        <v>1820653128386.877</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B486" t="n">
-        <v>2289771000000</v>
+        <v>2317667000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.8078588509015704</v>
+        <v>0.7870793061108837</v>
       </c>
       <c r="D486" t="n">
-        <v>1849811768887.74</v>
+        <v>1824187734156.094</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B487" t="n">
-        <v>2310223000000</v>
+        <v>2344869000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7826440847760073</v>
+        <v>0.7892036934732856</v>
       </c>
       <c r="D487" t="n">
-        <v>1808082365463.482</v>
+        <v>1850579275511.01</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B488" t="n">
-        <v>2301433000000</v>
+        <v>2348469000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7910954298417018</v>
+        <v>0.7998016491910006</v>
       </c>
       <c r="D488" t="n">
-        <v>1820653128386.877</v>
+        <v>1878309379273.94</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B489" t="n">
-        <v>2317667000000</v>
+        <v>2347490000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7870793061108837</v>
+        <v>0.7777924694133111</v>
       </c>
       <c r="D489" t="n">
-        <v>1824187734156.094</v>
+        <v>1825860044023.054</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B490" t="n">
-        <v>2344869000000</v>
+        <v>2349052000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7892036934732856</v>
+        <v>0.7907076042350298</v>
       </c>
       <c r="D490" t="n">
-        <v>1850579275511.01</v>
+        <v>1857413279143.505</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B491" t="n">
-        <v>2348469000000</v>
+        <v>2354170000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7998016491910006</v>
+        <v>0.7768559087660422</v>
       </c>
       <c r="D491" t="n">
-        <v>1878309379273.94</v>
+        <v>1828850874739.753</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B492" t="n">
-        <v>2347490000000</v>
+        <v>2367102000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7777924694133111</v>
+        <v>0.7816102734854348</v>
       </c>
       <c r="D492" t="n">
-        <v>1825860044023.054</v>
+        <v>1850151241587.92</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B493" t="n">
-        <v>2358518000000</v>
+        <v>2358110000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7907076042350298</v>
+        <v>0.7618409123806766</v>
       </c>
       <c r="D493" t="n">
-        <v>1864898117325.194</v>
+        <v>1796504673893.997</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B494" t="n">
-        <v>2354170000000</v>
+        <v>2374338000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.7768559087660422</v>
+        <v>0.723222680263253</v>
       </c>
       <c r="D494" t="n">
-        <v>1828850874739.753</v>
+        <v>1717175092210.892</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B495" t="n">
-        <v>2367102000000</v>
+        <v>2376916000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7816102734854348</v>
+        <v>0.733998825601879</v>
       </c>
       <c r="D495" t="n">
-        <v>1850151241587.92</v>
+        <v>1744653552554.316</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B496" t="n">
-        <v>2358110000000</v>
+        <v>2384951000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7618409123806766</v>
+        <v>0.7450176941702366</v>
       </c>
       <c r="D496" t="n">
-        <v>1796504673893.997</v>
+        <v>1776830694729</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B497" t="n">
-        <v>2374338000000</v>
+        <v>2393203000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.723222680263253</v>
+        <v>0.7384706273307979</v>
       </c>
       <c r="D497" t="n">
-        <v>1717175092210.892</v>
+        <v>1767310120739.948</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B498" t="n">
-        <v>2376916000000</v>
+        <v>2419938000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.733998825601879</v>
+        <v>0.7516649378373097</v>
       </c>
       <c r="D498" t="n">
-        <v>1744653552554.316</v>
+        <v>1818982546340.144</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B499" t="n">
-        <v>2384951000000</v>
+        <v>2432173000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.7450176941702366</v>
+        <v>0.7327778876944609</v>
       </c>
       <c r="D499" t="n">
-        <v>1776830694729</v>
+        <v>1782242593447.5</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>2393203000000</v>
+        <v>2428025000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7384706273307979</v>
+        <v>0.7398967104192254</v>
       </c>
       <c r="D500" t="n">
-        <v>1767310120739.948</v>
+        <v>1796487710315.64</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B501" t="n">
-        <v>2419938000000</v>
+        <v>2419886000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.7516649378373097</v>
+        <v>0.7384324555832879</v>
       </c>
       <c r="D501" t="n">
-        <v>1818982546340.144</v>
+        <v>1786922361211.62</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -7421,13 +7421,13 @@
         <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>2428025000000</v>
+        <v>2429503000000</v>
       </c>
       <c r="C500" t="n">
         <v>0.7398967104192254</v>
       </c>
       <c r="D500" t="n">
-        <v>1796487710315.64</v>
+        <v>1797581277653.639</v>
       </c>
     </row>
     <row r="501">

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -458,6990 +458,6990 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>162542000000</v>
+        <v>164334000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>164334000000</v>
+        <v>161706000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>161706000000</v>
+        <v>161526000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>161526000000</v>
+        <v>163705000000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8429570934839418</v>
+        <v>0.8356313194618533</v>
       </c>
       <c r="D5" t="n">
-        <v>136159487482.0872</v>
+        <v>136797025152.5027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>163705000000</v>
+        <v>165199000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8356313194618533</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D6" t="n">
-        <v>136797025152.5027</v>
+        <v>134417412530.5126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>165199000000</v>
+        <v>166100000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D7" t="n">
-        <v>134417412530.5126</v>
+        <v>134985778138.9679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>166100000000</v>
+        <v>167174000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8198737394441256</v>
       </c>
       <c r="D8" t="n">
-        <v>134985778138.9679</v>
+        <v>137061572517.8322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>167174000000</v>
+        <v>168519000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8198737394441256</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="D9" t="n">
-        <v>137061572517.8322</v>
+        <v>135465434083.6013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>168519000000</v>
+        <v>169410000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.7734550235903782</v>
       </c>
       <c r="D10" t="n">
-        <v>135465434083.6013</v>
+        <v>131031015546.446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>169410000000</v>
+        <v>169601000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7734550235903782</v>
+        <v>0.7964319847085058</v>
       </c>
       <c r="D11" t="n">
-        <v>131031015546.446</v>
+        <v>135075661038.5473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>169601000000</v>
+        <v>170129000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7964319847085058</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D12" t="n">
-        <v>135075661038.5473</v>
+        <v>137289380245.3195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>170129000000</v>
+        <v>170650000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D13" t="n">
-        <v>137289380245.3195</v>
+        <v>138032839925.5844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>170650000000</v>
+        <v>171675000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8155941603458119</v>
       </c>
       <c r="D14" t="n">
-        <v>138032839925.5844</v>
+        <v>140017127477.3672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>171675000000</v>
+        <v>173598000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8155941603458119</v>
+        <v>0.8082114281095935</v>
       </c>
       <c r="D15" t="n">
-        <v>140017127477.3672</v>
+        <v>140303887496.9692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>173598000000</v>
+        <v>173574000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8082114281095935</v>
+        <v>0.813206473123526</v>
       </c>
       <c r="D16" t="n">
-        <v>140303887496.9692</v>
+        <v>141151500365.9429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>173574000000</v>
+        <v>175486000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.813206473123526</v>
+        <v>0.8086035416835127</v>
       </c>
       <c r="D17" t="n">
-        <v>141151500365.9429</v>
+        <v>141898601115.8729</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>175486000000</v>
+        <v>176731000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8086035416835127</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D18" t="n">
-        <v>141898601115.8729</v>
+        <v>143800650935.7201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>176731000000</v>
+        <v>177360000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.810307106393323</v>
       </c>
       <c r="D19" t="n">
-        <v>143800650935.7201</v>
+        <v>143716068389.9198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>177360000000</v>
+        <v>178209000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.810307106393323</v>
+        <v>0.8155276463872125</v>
       </c>
       <c r="D20" t="n">
-        <v>143716068389.9198</v>
+        <v>145334366335.0188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>178209000000</v>
+        <v>178032000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8155276463872125</v>
+        <v>0.8130081300813008</v>
       </c>
       <c r="D21" t="n">
-        <v>145334366335.0188</v>
+        <v>144741463414.6342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>178032000000</v>
+        <v>178843000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8130081300813008</v>
+        <v>0.8145975887911372</v>
       </c>
       <c r="D22" t="n">
-        <v>144741463414.6342</v>
+        <v>145685076572.1733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>178843000000</v>
+        <v>179993000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8145975887911372</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D23" t="n">
-        <v>145685076572.1733</v>
+        <v>145861426256.0778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>179993000000</v>
+        <v>181429000000</v>
       </c>
       <c r="C24" t="n">
         <v>0.8103727714748784</v>
       </c>
       <c r="D24" t="n">
-        <v>145861426256.0778</v>
+        <v>147025121555.9157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>181429000000</v>
+        <v>182607000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8110300081103</v>
       </c>
       <c r="D25" t="n">
-        <v>147025121555.9157</v>
+        <v>148099756690.9976</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>182607000000</v>
+        <v>183116000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8112932013629727</v>
       </c>
       <c r="D26" t="n">
-        <v>148099756690.9976</v>
+        <v>148560765860.7821</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>183116000000</v>
+        <v>184078000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8112932013629727</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D27" t="n">
-        <v>148560765860.7821</v>
+        <v>148545836023.2408</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>184078000000</v>
+        <v>183902000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8035355564483729</v>
       </c>
       <c r="D28" t="n">
-        <v>148545836023.2408</v>
+        <v>147771795901.9687</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>183902000000</v>
+        <v>184450000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8035355564483729</v>
+        <v>0.8004482510205715</v>
       </c>
       <c r="D29" t="n">
-        <v>147771795901.9687</v>
+        <v>147642679900.7444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>184450000000</v>
+        <v>185166000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8004482510205715</v>
+        <v>0.7987858455148175</v>
       </c>
       <c r="D30" t="n">
-        <v>147642679900.7444</v>
+        <v>147907979870.5967</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>185166000000</v>
+        <v>186527000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7987858455148175</v>
+        <v>0.7833307222309259</v>
       </c>
       <c r="D31" t="n">
-        <v>147907979870.5967</v>
+        <v>146112329625.5679</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>186527000000</v>
+        <v>187527000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7833307222309259</v>
+        <v>0.7785130400934216</v>
       </c>
       <c r="D32" t="n">
-        <v>146112329625.5679</v>
+        <v>145992214869.5991</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>187527000000</v>
+        <v>188986000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7785130400934216</v>
+        <v>0.7724393635099644</v>
       </c>
       <c r="D33" t="n">
-        <v>145992214869.5991</v>
+        <v>145980225552.2941</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>188986000000</v>
+        <v>190555000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7724393635099644</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D34" t="n">
-        <v>145980225552.2941</v>
+        <v>144370785665.5807</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>190555000000</v>
+        <v>191983000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7624857033930613</v>
       </c>
       <c r="D35" t="n">
-        <v>144370785665.5807</v>
+        <v>146384292794.5101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>191983000000</v>
+        <v>192900000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7624857033930613</v>
+        <v>0.7707723138584861</v>
       </c>
       <c r="D36" t="n">
-        <v>146384292794.5101</v>
+        <v>148681979343.302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>192900000000</v>
+        <v>194221000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7707723138584861</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D37" t="n">
-        <v>148681979343.302</v>
+        <v>147326860350.4513</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>194221000000</v>
+        <v>195997000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7604562737642586</v>
       </c>
       <c r="D38" t="n">
-        <v>147326860350.4513</v>
+        <v>149047148288.9734</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>195997000000</v>
+        <v>197099000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7604562737642586</v>
+        <v>0.7551729346020238</v>
       </c>
       <c r="D39" t="n">
-        <v>149047148288.9734</v>
+        <v>148843830237.1243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>197099000000</v>
+        <v>198799000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7551729346020238</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D40" t="n">
-        <v>148843830237.1243</v>
+        <v>150411591132.6322</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>198799000000</v>
+        <v>200776000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7534659433393611</v>
       </c>
       <c r="D41" t="n">
-        <v>150411591132.6322</v>
+        <v>151277878239.9036</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>200776000000</v>
+        <v>202240000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7534659433393611</v>
+        <v>0.7228044813877846</v>
       </c>
       <c r="D42" t="n">
-        <v>151277878239.9036</v>
+        <v>146179978315.8656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>202240000000</v>
+        <v>203587000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7228044813877846</v>
+        <v>0.7312614259597806</v>
       </c>
       <c r="D43" t="n">
-        <v>146179978315.8656</v>
+        <v>148875319926.8738</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>203587000000</v>
+        <v>205233000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7312614259597806</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D44" t="n">
-        <v>148875319926.8738</v>
+        <v>150133869787.8566</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>205233000000</v>
+        <v>207225000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7275372862859221</v>
       </c>
       <c r="D45" t="n">
-        <v>150133869787.8566</v>
+        <v>150763914150.6002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>207225000000</v>
+        <v>208616000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7275372862859221</v>
+        <v>0.7357268981753973</v>
       </c>
       <c r="D46" t="n">
-        <v>150763914150.6002</v>
+        <v>153484402589.7587</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>208616000000</v>
+        <v>210378000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7357268981753973</v>
+        <v>0.7385524372230428</v>
       </c>
       <c r="D47" t="n">
-        <v>153484402589.7587</v>
+        <v>155375184638.1093</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>210378000000</v>
+        <v>212430000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7385524372230428</v>
+        <v>0.7321180174244089</v>
       </c>
       <c r="D48" t="n">
-        <v>155375184638.1093</v>
+        <v>155523830441.4672</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>212430000000</v>
+        <v>214664000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7321180174244089</v>
+        <v>0.7293946024799417</v>
       </c>
       <c r="D49" t="n">
-        <v>155523830441.4672</v>
+        <v>156574762946.7542</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>214664000000</v>
+        <v>216619000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7293946024799417</v>
+        <v>0.7316359379572724</v>
       </c>
       <c r="D50" t="n">
-        <v>156574762946.7542</v>
+        <v>158486245244.3664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>216619000000</v>
+        <v>218971000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7316359379572724</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="D51" t="n">
-        <v>158486245244.3664</v>
+        <v>158216040462.4278</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>218971000000</v>
+        <v>219947000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7225433526011561</v>
+        <v>0.7150518412584912</v>
       </c>
       <c r="D52" t="n">
-        <v>158216040462.4278</v>
+        <v>157273507329.2814</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>219947000000</v>
+        <v>221320000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7150518412584912</v>
+        <v>0.7025925665706457</v>
       </c>
       <c r="D53" t="n">
-        <v>157273507329.2814</v>
+        <v>155497786833.4153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>221320000000</v>
+        <v>221317000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7025925665706457</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D54" t="n">
-        <v>155497786833.4153</v>
+        <v>155747361013.3708</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>221317000000</v>
+        <v>222244000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D55" t="n">
-        <v>155747361013.3708</v>
+        <v>159223384439.0314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>222244000000</v>
+        <v>225943000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7262164124909223</v>
       </c>
       <c r="D56" t="n">
-        <v>159223384439.0314</v>
+        <v>164083514887.4365</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>225943000000</v>
+        <v>228313000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7262164124909223</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D57" t="n">
-        <v>164083514887.4365</v>
+        <v>164906464427.5912</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>228313000000</v>
+        <v>230077000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D58" t="n">
-        <v>164906464427.5912</v>
+        <v>166481186685.9624</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>230077000000</v>
+        <v>232472000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D59" t="n">
-        <v>166481186685.9624</v>
+        <v>168360370799.5365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>232472000000</v>
+        <v>234395000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7210845111047015</v>
       </c>
       <c r="D60" t="n">
-        <v>168360370799.5365</v>
+        <v>169018603980.3865</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>234395000000</v>
+        <v>236112000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7210845111047015</v>
+        <v>0.7205649228995533</v>
       </c>
       <c r="D61" t="n">
-        <v>169018603980.3865</v>
+        <v>170134025075.6593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>236112000000</v>
+        <v>238535000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7205649228995533</v>
+        <v>0.7189072609633357</v>
       </c>
       <c r="D62" t="n">
-        <v>170134025075.6593</v>
+        <v>171484543493.8893</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>238535000000</v>
+        <v>241918000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7189072609633357</v>
+        <v>0.7229612492770388</v>
       </c>
       <c r="D63" t="n">
-        <v>171484543493.8893</v>
+        <v>174897339502.6027</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>241918000000</v>
+        <v>244868000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7229612492770388</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D64" t="n">
-        <v>174897339502.6027</v>
+        <v>177337775202.781</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>244868000000</v>
+        <v>248259000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7462129691814043</v>
       </c>
       <c r="D65" t="n">
-        <v>177337775202.781</v>
+        <v>185254085516.0063</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>248259000000</v>
+        <v>252294000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7462129691814043</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D66" t="n">
-        <v>185254085516.0063</v>
+        <v>189012586155.2292</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>252294000000</v>
+        <v>254413000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.765814060346148</v>
       </c>
       <c r="D67" t="n">
-        <v>189012586155.2292</v>
+        <v>194833052534.8445</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>254413000000</v>
+        <v>256778000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.765814060346148</v>
+        <v>0.7473841554559043</v>
       </c>
       <c r="D68" t="n">
-        <v>194833052534.8445</v>
+        <v>191911808669.6562</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>256778000000</v>
+        <v>258482000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7473841554559043</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D69" t="n">
-        <v>191911808669.6562</v>
+        <v>193170913982.5125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>258482000000</v>
+        <v>260580000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7506943923128894</v>
       </c>
       <c r="D70" t="n">
-        <v>193170913982.5125</v>
+        <v>195615944748.8927</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>260580000000</v>
+        <v>262617000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7506943923128894</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D71" t="n">
-        <v>195615944748.8927</v>
+        <v>197858057711.1429</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>262617000000</v>
+        <v>264017000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D72" t="n">
-        <v>197858057711.1429</v>
+        <v>200028032426.699</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>264017000000</v>
+        <v>266094000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7623694442326751</v>
       </c>
       <c r="D73" t="n">
-        <v>200028032426.699</v>
+        <v>202861934893.6494</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>266094000000</v>
+        <v>268159000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7623694442326751</v>
+        <v>0.7601672367920943</v>
       </c>
       <c r="D74" t="n">
-        <v>202861934893.6494</v>
+        <v>203845686050.9312</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>268159000000</v>
+        <v>263775000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7601672367920943</v>
+        <v>0.7633587786259541</v>
       </c>
       <c r="D75" t="n">
-        <v>203845686050.9312</v>
+        <v>201354961832.0611</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>263775000000</v>
+        <v>265918000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.7698229407236336</v>
       </c>
       <c r="D76" t="n">
-        <v>201354961832.0611</v>
+        <v>204709776751.3472</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>265918000000</v>
+        <v>267370000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7698229407236336</v>
+        <v>0.7844983133286264</v>
       </c>
       <c r="D77" t="n">
-        <v>204709776751.3472</v>
+        <v>209751314034.6748</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>267370000000</v>
+        <v>269741000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7844983133286264</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D78" t="n">
-        <v>209751314034.6748</v>
+        <v>214301263208.0718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>269741000000</v>
+        <v>272411000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="D79" t="n">
-        <v>214301263208.0718</v>
+        <v>220575708502.0243</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>272411000000</v>
+        <v>274765000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D80" t="n">
-        <v>220575708502.0243</v>
+        <v>223295408370.5811</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>274765000000</v>
+        <v>277324000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8100445524503849</v>
       </c>
       <c r="D81" t="n">
-        <v>223295408370.5811</v>
+        <v>224644795463.7505</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>277324000000</v>
+        <v>281544000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8100445524503849</v>
+        <v>0.8240626287597858</v>
       </c>
       <c r="D82" t="n">
-        <v>224644795463.7505</v>
+        <v>232009888751.5451</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>281544000000</v>
+        <v>284525000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8240626287597858</v>
+        <v>0.825559316436886</v>
       </c>
       <c r="D83" t="n">
-        <v>232009888751.5451</v>
+        <v>234892264509.205</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>284525000000</v>
+        <v>288402000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.825559316436886</v>
+        <v>0.8067769261799113</v>
       </c>
       <c r="D84" t="n">
-        <v>234892264509.205</v>
+        <v>232676079064.1388</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>288402000000</v>
+        <v>291439000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8067769261799113</v>
+        <v>0.8216926869350862</v>
       </c>
       <c r="D85" t="n">
-        <v>232676079064.1388</v>
+        <v>239473294987.6746</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>291439000000</v>
+        <v>293949000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8216926869350862</v>
+        <v>0.8146639511201629</v>
       </c>
       <c r="D86" t="n">
-        <v>239473294987.6746</v>
+        <v>239469653767.8208</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>293949000000</v>
+        <v>297392000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8146639511201629</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D87" t="n">
-        <v>239469653767.8208</v>
+        <v>250329966329.9663</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>297392000000</v>
+        <v>300374000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8417508417508418</v>
+        <v>0.8387854386847845</v>
       </c>
       <c r="D88" t="n">
-        <v>250329966329.9663</v>
+        <v>251949337359.5034</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>300374000000</v>
+        <v>303154000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8387854386847845</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D89" t="n">
-        <v>251949337359.5034</v>
+        <v>255869345037.1371</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>303154000000</v>
+        <v>305829000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="D90" t="n">
-        <v>255869345037.1371</v>
+        <v>255389561586.6388</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>305829000000</v>
+        <v>309219000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8350730688935282</v>
+        <v>0.8384338056510438</v>
       </c>
       <c r="D91" t="n">
-        <v>255389561586.6388</v>
+        <v>259259662949.6101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>309219000000</v>
+        <v>312149000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8384338056510438</v>
+        <v>0.8434547908232118</v>
       </c>
       <c r="D92" t="n">
-        <v>259259662949.6101</v>
+        <v>263283569500.6747</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>312149000000</v>
+        <v>316353000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8434547908232118</v>
+        <v>0.8282945415389712</v>
       </c>
       <c r="D93" t="n">
-        <v>263283569500.6747</v>
+        <v>262033463099.4781</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>316353000000</v>
+        <v>320688000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8282945415389712</v>
+        <v>0.8354916868577157</v>
       </c>
       <c r="D94" t="n">
-        <v>262033463099.4781</v>
+        <v>267932158075.0271</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>320688000000</v>
+        <v>324232000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8354916868577157</v>
+        <v>0.8467400508044031</v>
       </c>
       <c r="D95" t="n">
-        <v>267932158075.0271</v>
+        <v>274540220152.4132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>324232000000</v>
+        <v>327718000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8467400508044031</v>
+        <v>0.8481764206955046</v>
       </c>
       <c r="D96" t="n">
-        <v>274540220152.4132</v>
+        <v>277962680237.4894</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>327718000000</v>
+        <v>331423000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8481764206955046</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D97" t="n">
-        <v>277962680237.4894</v>
+        <v>281463269639.0659</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>331423000000</v>
+        <v>334344000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8517162081594414</v>
       </c>
       <c r="D98" t="n">
-        <v>281463269639.0659</v>
+        <v>284766203900.8603</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>334344000000</v>
+        <v>339017000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8517162081594414</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="D99" t="n">
-        <v>284766203900.8603</v>
+        <v>291251718213.0584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>339017000000</v>
+        <v>342154000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8632596685082872</v>
       </c>
       <c r="D100" t="n">
-        <v>291251718213.0584</v>
+        <v>295367748618.7845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>342154000000</v>
+        <v>346086000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8632596685082872</v>
+        <v>0.8428150021070374</v>
       </c>
       <c r="D101" t="n">
-        <v>295367748618.7845</v>
+        <v>291686472819.2161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>346086000000</v>
+        <v>350540000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8428150021070374</v>
+        <v>0.8386447500838645</v>
       </c>
       <c r="D102" t="n">
-        <v>291686472819.2161</v>
+        <v>293978530694.3979</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>350540000000</v>
+        <v>352153000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8386447500838645</v>
+        <v>0.8551393877201984</v>
       </c>
       <c r="D103" t="n">
-        <v>293978530694.3979</v>
+        <v>301139900803.831</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>352153000000</v>
+        <v>353101000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8551393877201984</v>
+        <v>0.8587376556462</v>
       </c>
       <c r="D104" t="n">
-        <v>301139900803.831</v>
+        <v>303221124946.3289</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>353101000000</v>
+        <v>356116000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8587376556462</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="D105" t="n">
-        <v>303221124946.3289</v>
+        <v>303335604770.017</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>356116000000</v>
+        <v>356279000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8517887563884157</v>
+        <v>0.8578536501672815</v>
       </c>
       <c r="D106" t="n">
-        <v>303335604770.017</v>
+        <v>305635240627.9489</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>356279000000</v>
+        <v>357910000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8578536501672815</v>
+        <v>0.8676789587852494</v>
       </c>
       <c r="D107" t="n">
-        <v>305635240627.9489</v>
+        <v>310550976138.8286</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>357910000000</v>
+        <v>361491000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8676789587852494</v>
+        <v>0.8665511265164645</v>
       </c>
       <c r="D108" t="n">
-        <v>310550976138.8286</v>
+        <v>313250433275.5633</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>361491000000</v>
+        <v>363223000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8665511265164645</v>
+        <v>0.8660258075690656</v>
       </c>
       <c r="D109" t="n">
-        <v>313250433275.5633</v>
+        <v>314560491902.6587</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>363223000000</v>
+        <v>365008000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8660258075690656</v>
+        <v>0.8573388203017832</v>
       </c>
       <c r="D110" t="n">
-        <v>314560491902.6587</v>
+        <v>312935528120.7133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>365008000000</v>
+        <v>367854000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8573388203017832</v>
+        <v>0.8588114050154585</v>
       </c>
       <c r="D111" t="n">
-        <v>312935528120.7133</v>
+        <v>315917210580.5565</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>367854000000</v>
+        <v>370572000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8588114050154585</v>
+        <v>0.8630361612151549</v>
       </c>
       <c r="D112" t="n">
-        <v>315917210580.5565</v>
+        <v>319817036333.8224</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>370572000000</v>
+        <v>373950000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8630361612151549</v>
+        <v>0.8600670852326481</v>
       </c>
       <c r="D113" t="n">
-        <v>319817036333.8224</v>
+        <v>321622086522.7487</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>373950000000</v>
+        <v>375786000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8600670852326481</v>
+        <v>0.8694140149539211</v>
       </c>
       <c r="D114" t="n">
-        <v>321622086522.7487</v>
+        <v>326713615023.4742</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>375786000000</v>
+        <v>378484000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8694140149539211</v>
+        <v>0.8637816360024186</v>
       </c>
       <c r="D115" t="n">
-        <v>326713615023.4742</v>
+        <v>326927528720.7394</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>378484000000</v>
+        <v>380380000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8637816360024186</v>
+        <v>0.8673779165582444</v>
       </c>
       <c r="D116" t="n">
-        <v>326927528720.7394</v>
+        <v>329933211900.425</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>380380000000</v>
+        <v>382614000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8673779165582444</v>
+        <v>0.8734387282732116</v>
       </c>
       <c r="D117" t="n">
-        <v>329933211900.425</v>
+        <v>334189885579.5266</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>382614000000</v>
+        <v>381438000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8734387282732116</v>
+        <v>0.875733426744899</v>
       </c>
       <c r="D118" t="n">
-        <v>334189885579.5266</v>
+        <v>334038006830.7208</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>381438000000</v>
+        <v>383166000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.875733426744899</v>
+        <v>0.8686587908269632</v>
       </c>
       <c r="D119" t="n">
-        <v>334038006830.7208</v>
+        <v>332840514246.0042</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>383166000000</v>
+        <v>383974000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8686587908269632</v>
+        <v>0.8761170492377782</v>
       </c>
       <c r="D120" t="n">
-        <v>332840514246.0042</v>
+        <v>336406167864.0267</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>383974000000</v>
+        <v>385573000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8761170492377782</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="D121" t="n">
-        <v>336406167864.0267</v>
+        <v>340612190812.7209</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>385573000000</v>
+        <v>385597000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.88339222614841</v>
+        <v>0.8907892392659896</v>
       </c>
       <c r="D122" t="n">
-        <v>340612190812.7209</v>
+        <v>343485658293.2478</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>385597000000</v>
+        <v>386166000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8907892392659896</v>
+        <v>0.8811349017534584</v>
       </c>
       <c r="D123" t="n">
-        <v>343485658293.2478</v>
+        <v>340264340470.526</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>386166000000</v>
+        <v>387836000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8811349017534584</v>
+        <v>0.8646779074794638</v>
       </c>
       <c r="D124" t="n">
-        <v>340264340470.526</v>
+        <v>335353220925.2053</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>387836000000</v>
+        <v>390429000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8646779074794638</v>
+        <v>0.8512811781731505</v>
       </c>
       <c r="D125" t="n">
-        <v>335353220925.2053</v>
+        <v>332364859112.965</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>390429000000</v>
+        <v>392338000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8512811781731505</v>
+        <v>0.8460952703274389</v>
       </c>
       <c r="D126" t="n">
-        <v>332364859112.965</v>
+        <v>331955326169.7267</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>392338000000</v>
+        <v>392743000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8460952703274389</v>
+        <v>0.8407600470825626</v>
       </c>
       <c r="D127" t="n">
-        <v>331955326169.7267</v>
+        <v>330202623171.3469</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>392743000000</v>
+        <v>394119000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8407600470825626</v>
+        <v>0.8394895903290799</v>
       </c>
       <c r="D128" t="n">
-        <v>330202623171.3469</v>
+        <v>330858797850.9066</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>394119000000</v>
+        <v>394350000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8394895903290799</v>
+        <v>0.8310479514667997</v>
       </c>
       <c r="D129" t="n">
-        <v>330858797850.9066</v>
+        <v>327723759660.9324</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>394350000000</v>
+        <v>394189000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8310479514667997</v>
+        <v>0.8341675008341675</v>
       </c>
       <c r="D130" t="n">
-        <v>327723759660.9324</v>
+        <v>328819652986.3196</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>394189000000</v>
+        <v>397321000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8341675008341675</v>
+        <v>0.8453085376162299</v>
       </c>
       <c r="D131" t="n">
-        <v>328819652986.3196</v>
+        <v>335858833474.2181</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>397321000000</v>
+        <v>398941000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8453085376162299</v>
+        <v>0.8371703641691085</v>
       </c>
       <c r="D132" t="n">
-        <v>335858833474.2181</v>
+        <v>333981582251.9883</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>398941000000</v>
+        <v>400892000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8371703641691085</v>
+        <v>0.8029548739360848</v>
       </c>
       <c r="D133" t="n">
-        <v>333981582251.9883</v>
+        <v>321898185321.9849</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>400892000000</v>
+        <v>398608000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8029548739360848</v>
+        <v>0.8081461128171973</v>
       </c>
       <c r="D134" t="n">
-        <v>321898185321.9849</v>
+        <v>322133505737.8374</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>398608000000</v>
+        <v>400520000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8081461128171973</v>
+        <v>0.7770007770007771</v>
       </c>
       <c r="D135" t="n">
-        <v>322133505737.8374</v>
+        <v>311204351204.3513</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>400520000000</v>
+        <v>400819000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7770007770007771</v>
+        <v>0.7867820613690009</v>
       </c>
       <c r="D136" t="n">
-        <v>311204351204.3513</v>
+        <v>315357199055.8616</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>400819000000</v>
+        <v>400221000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7867820613690009</v>
+        <v>0.7888301648655044</v>
       </c>
       <c r="D137" t="n">
-        <v>315357199055.8616</v>
+        <v>315706397412.637</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>400221000000</v>
+        <v>401587000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7888301648655044</v>
+        <v>0.8003201280512204</v>
       </c>
       <c r="D138" t="n">
-        <v>315706397412.637</v>
+        <v>321398159263.7054</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>401587000000</v>
+        <v>402997000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8003201280512204</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D139" t="n">
-        <v>321398159263.7054</v>
+        <v>320169222213.3948</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>402997000000</v>
+        <v>404748000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.7866582756450597</v>
       </c>
       <c r="D140" t="n">
-        <v>320169222213.3948</v>
+        <v>318398363750.7866</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>404748000000</v>
+        <v>406759000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7866582756450597</v>
+        <v>0.7869678130164477</v>
       </c>
       <c r="D141" t="n">
-        <v>318398363750.7866</v>
+        <v>320106240654.7573</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>406759000000</v>
+        <v>408895000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7869678130164477</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D142" t="n">
-        <v>320106240654.7573</v>
+        <v>318925980812.7291</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>408895000000</v>
+        <v>408308000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.7780284758422158</v>
       </c>
       <c r="D143" t="n">
-        <v>318925980812.7291</v>
+        <v>317675250914.1835</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>408308000000</v>
+        <v>409970000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7780284758422158</v>
+        <v>0.7580926389204761</v>
       </c>
       <c r="D144" t="n">
-        <v>317675250914.1835</v>
+        <v>310795239178.2276</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>409970000000</v>
+        <v>410678000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7580926389204761</v>
+        <v>0.749512816669165</v>
       </c>
       <c r="D145" t="n">
-        <v>310795239178.2276</v>
+        <v>307808424524.0593</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>410678000000</v>
+        <v>409567000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.749512816669165</v>
+        <v>0.7575183698204682</v>
       </c>
       <c r="D146" t="n">
-        <v>307808424524.0593</v>
+        <v>310254526172.2597</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>409567000000</v>
+        <v>409864000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7575183698204682</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D147" t="n">
-        <v>310254526172.2597</v>
+        <v>307060233742.8828</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>409864000000</v>
+        <v>411463000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7566585956416464</v>
       </c>
       <c r="D148" t="n">
-        <v>307060233742.8828</v>
+        <v>311337015738.4988</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>411463000000</v>
+        <v>413157000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7566585956416464</v>
+        <v>0.7522756337922215</v>
       </c>
       <c r="D149" t="n">
-        <v>311337015738.4988</v>
+        <v>310807944030.6929</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>413157000000</v>
+        <v>413596000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7522756337922215</v>
+        <v>0.7409602845287493</v>
       </c>
       <c r="D150" t="n">
-        <v>310807944030.6929</v>
+        <v>306458209839.9526</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>413596000000</v>
+        <v>409983000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7409602845287493</v>
+        <v>0.7227000072270001</v>
       </c>
       <c r="D151" t="n">
-        <v>306458209839.9526</v>
+        <v>296294717062.9472</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>409983000000</v>
+        <v>411390000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7227000072270001</v>
+        <v>0.7237984944991315</v>
       </c>
       <c r="D152" t="n">
-        <v>296294717062.9472</v>
+        <v>297763462651.9977</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>411390000000</v>
+        <v>411805000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7237984944991315</v>
+        <v>0.7231180851833104</v>
       </c>
       <c r="D153" t="n">
-        <v>297763462651.9977</v>
+        <v>297783643068.9131</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>411805000000</v>
+        <v>413228000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7231180851833104</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D154" t="n">
-        <v>297783643068.9131</v>
+        <v>298726234367.0932</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>413228000000</v>
+        <v>416310000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7209285559801024</v>
       </c>
       <c r="D155" t="n">
-        <v>298726234367.0932</v>
+        <v>300129767140.0764</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>416310000000</v>
+        <v>418221000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7209285559801024</v>
+        <v>0.7318501170960187</v>
       </c>
       <c r="D156" t="n">
-        <v>300129767140.0764</v>
+        <v>306075087822.014</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>418221000000</v>
+        <v>419884000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7318501170960187</v>
+        <v>0.7447125409591897</v>
       </c>
       <c r="D157" t="n">
-        <v>306075087822.014</v>
+        <v>312692880548.1084</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>419884000000</v>
+        <v>420714000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7447125409591897</v>
+        <v>0.7389344565137073</v>
       </c>
       <c r="D158" t="n">
-        <v>312692880548.1084</v>
+        <v>310880070937.7078</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>420714000000</v>
+        <v>420680000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7389344565137073</v>
+        <v>0.7269555103227683</v>
       </c>
       <c r="D159" t="n">
-        <v>310880070937.7078</v>
+        <v>305815644082.5822</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>420680000000</v>
+        <v>422101000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7269555103227683</v>
+        <v>0.7135212272565109</v>
       </c>
       <c r="D160" t="n">
-        <v>305815644082.5822</v>
+        <v>301178023546.2005</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>422101000000</v>
+        <v>425148000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7135212272565109</v>
+        <v>0.710580544304697</v>
       </c>
       <c r="D161" t="n">
-        <v>301178023546.2005</v>
+        <v>302101897250.0533</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>425148000000</v>
+        <v>426237000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.710580544304697</v>
+        <v>0.7194762213108857</v>
       </c>
       <c r="D162" t="n">
-        <v>302101897250.0533</v>
+        <v>306667386142.888</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>426237000000</v>
+        <v>427897000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7194762213108857</v>
+        <v>0.7147451933385748</v>
       </c>
       <c r="D163" t="n">
-        <v>306667386142.888</v>
+        <v>305837323993.9962</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>427897000000</v>
+        <v>429643000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7147451933385748</v>
+        <v>0.7379529186037931</v>
       </c>
       <c r="D164" t="n">
-        <v>305837323993.9962</v>
+        <v>317056305807.6895</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>429643000000</v>
+        <v>430736000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7379529186037931</v>
+        <v>0.7298737318443909</v>
       </c>
       <c r="D165" t="n">
-        <v>317056305807.6895</v>
+        <v>314382891759.7255</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>430736000000</v>
+        <v>433634000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7298737318443909</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D166" t="n">
-        <v>314382891759.7255</v>
+        <v>316128891156.9586</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>433634000000</v>
+        <v>434936000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D167" t="n">
-        <v>316128891156.9586</v>
+        <v>318727832331.8188</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>434936000000</v>
+        <v>436339000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7445461990916536</v>
       </c>
       <c r="D168" t="n">
-        <v>318727832331.8188</v>
+        <v>324874543965.4531</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>436339000000</v>
+        <v>439202000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7445461990916536</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D169" t="n">
-        <v>324874543965.4531</v>
+        <v>328105483340.8038</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>439202000000</v>
+        <v>438892000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7438815740534107</v>
       </c>
       <c r="D170" t="n">
-        <v>328105483340.8038</v>
+        <v>326483671799.4495</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>438892000000</v>
+        <v>439931000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7438815740534107</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D171" t="n">
-        <v>326483671799.4495</v>
+        <v>323336028222.8428</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>439931000000</v>
+        <v>441103000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D172" t="n">
-        <v>323336028222.8428</v>
+        <v>323247105378.8656</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>441103000000</v>
+        <v>442368000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7279079924297569</v>
       </c>
       <c r="D173" t="n">
-        <v>323247105378.8656</v>
+        <v>322003202795.1667</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>442368000000</v>
+        <v>444600000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7279079924297569</v>
+        <v>0.7298204641658151</v>
       </c>
       <c r="D174" t="n">
-        <v>322003202795.1667</v>
+        <v>324478178368.1214</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>444600000000</v>
+        <v>446271000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7298204641658151</v>
+        <v>0.7357810315650063</v>
       </c>
       <c r="D175" t="n">
-        <v>324478178368.1214</v>
+        <v>328357736737.5469</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>446271000000</v>
+        <v>446482000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7357810315650063</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D176" t="n">
-        <v>328357736737.5469</v>
+        <v>328150815816.5515</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>446482000000</v>
+        <v>448033000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7306202966318405</v>
       </c>
       <c r="D177" t="n">
-        <v>328150815816.5515</v>
+        <v>327342003360.8534</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>448033000000</v>
+        <v>449428000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7306202966318405</v>
+        <v>0.7334604664808567</v>
       </c>
       <c r="D178" t="n">
-        <v>327342003360.8534</v>
+        <v>329637670529.5585</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>449428000000</v>
+        <v>447133000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7334604664808567</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D179" t="n">
-        <v>329637670529.5585</v>
+        <v>325211288093.6795</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>447133000000</v>
+        <v>447620000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7310475911981871</v>
       </c>
       <c r="D180" t="n">
-        <v>325211288093.6795</v>
+        <v>327231522772.1325</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>447620000000</v>
+        <v>449024000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7310475911981871</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D181" t="n">
-        <v>327231522772.1325</v>
+        <v>329752515238.3051</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>449024000000</v>
+        <v>448985000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7471049682480388</v>
       </c>
       <c r="D182" t="n">
-        <v>329752515238.3051</v>
+        <v>335438924168.8457</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>448985000000</v>
+        <v>447731000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7471049682480388</v>
+        <v>0.7402472425790214</v>
       </c>
       <c r="D183" t="n">
-        <v>335438924168.8457</v>
+        <v>331431638167.1478</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>447731000000</v>
+        <v>448419000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7402472425790214</v>
+        <v>0.7297672042618404</v>
       </c>
       <c r="D184" t="n">
-        <v>331431638167.1478</v>
+        <v>327241479967.8902</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>448419000000</v>
+        <v>449269000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7297672042618404</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D185" t="n">
-        <v>327241479967.8902</v>
+        <v>333557799391.1946</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>449269000000</v>
+        <v>449193000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7309407207075506</v>
       </c>
       <c r="D186" t="n">
-        <v>333557799391.1946</v>
+        <v>328333455156.7867</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>449193000000</v>
+        <v>447801000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7309407207075506</v>
+        <v>0.7224911494834187</v>
       </c>
       <c r="D187" t="n">
-        <v>328333455156.7867</v>
+        <v>323532259229.8244</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>447801000000</v>
+        <v>448519000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7224911494834187</v>
+        <v>0.7156659271452086</v>
       </c>
       <c r="D188" t="n">
-        <v>323532259229.8244</v>
+        <v>320989765977.2418</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>448519000000</v>
+        <v>448940000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7156659271452086</v>
+        <v>0.7265857734505557</v>
       </c>
       <c r="D189" t="n">
-        <v>320989765977.2418</v>
+        <v>326193417132.8925</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>448940000000</v>
+        <v>449572000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7265857734505557</v>
+        <v>0.7240605314604301</v>
       </c>
       <c r="D190" t="n">
-        <v>326193417132.8925</v>
+        <v>325517341249.7285</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>449572000000</v>
+        <v>446917000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7240605314604301</v>
+        <v>0.7259001161440186</v>
       </c>
       <c r="D191" t="n">
-        <v>325517341249.7285</v>
+        <v>324417102206.7364</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>446917000000</v>
+        <v>446334000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7259001161440186</v>
+        <v>0.7202535292422932</v>
       </c>
       <c r="D192" t="n">
-        <v>324417102206.7364</v>
+        <v>321473638720.8297</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>446334000000</v>
+        <v>445831000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7202535292422932</v>
+        <v>0.7239032865209208</v>
       </c>
       <c r="D193" t="n">
-        <v>321473638720.8297</v>
+        <v>322738526132.9086</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>445831000000</v>
+        <v>445044000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7239032865209208</v>
+        <v>0.7102272727272728</v>
       </c>
       <c r="D194" t="n">
-        <v>322738526132.9086</v>
+        <v>316082386363.6364</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>445044000000</v>
+        <v>446053000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.7027900766041183</v>
       </c>
       <c r="D195" t="n">
-        <v>316082386363.6364</v>
+        <v>313481622039.4968</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>446053000000</v>
+        <v>445467000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7027900766041183</v>
+        <v>0.6996431819771917</v>
       </c>
       <c r="D196" t="n">
-        <v>313481622039.4968</v>
+        <v>311667949345.8336</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>445467000000</v>
+        <v>444813000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6996431819771917</v>
+        <v>0.6879471656576774</v>
       </c>
       <c r="D197" t="n">
-        <v>311667949345.8336</v>
+        <v>306007842597.6885</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>444813000000</v>
+        <v>442837000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6879471656576774</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D198" t="n">
-        <v>306007842597.6885</v>
+        <v>310981039325.8427</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>442837000000</v>
+        <v>440915000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.702247191011236</v>
+        <v>0.70482097547223</v>
       </c>
       <c r="D199" t="n">
-        <v>310981039325.8427</v>
+        <v>310766140400.3383</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>440915000000</v>
+        <v>440589000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.70482097547223</v>
+        <v>0.6988608568034104</v>
       </c>
       <c r="D200" t="n">
-        <v>310766140400.3383</v>
+        <v>307910406038.1578</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>440589000000</v>
+        <v>441843000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6988608568034104</v>
+        <v>0.6863417982155113</v>
       </c>
       <c r="D201" t="n">
-        <v>307910406038.1578</v>
+        <v>303255319148.9362</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>441843000000</v>
+        <v>441641000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6863417982155113</v>
+        <v>0.6815703380588877</v>
       </c>
       <c r="D202" t="n">
-        <v>303255319148.9362</v>
+        <v>301009405670.6652</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>441641000000</v>
+        <v>442493000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6815703380588877</v>
+        <v>0.6610259122157589</v>
       </c>
       <c r="D203" t="n">
-        <v>301009405670.6652</v>
+        <v>292499338974.0878</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>442493000000</v>
+        <v>444070000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6610259122157589</v>
+        <v>0.6389368091495752</v>
       </c>
       <c r="D204" t="n">
-        <v>292499338974.0878</v>
+        <v>283732668839.0519</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>444070000000</v>
+        <v>445748000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6389368091495752</v>
+        <v>0.6536374926465782</v>
       </c>
       <c r="D205" t="n">
-        <v>283732668839.0519</v>
+        <v>291357605072.2269</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>445748000000</v>
+        <v>447404000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6536374926465782</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="D206" t="n">
-        <v>291357605072.2269</v>
+        <v>289769430051.8135</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>447404000000</v>
+        <v>448114000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6476683937823834</v>
+        <v>0.6520605112154407</v>
       </c>
       <c r="D207" t="n">
-        <v>289769430051.8135</v>
+        <v>292197443922.796</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>448114000000</v>
+        <v>449236000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6520605112154407</v>
+        <v>0.6502796202367017</v>
       </c>
       <c r="D208" t="n">
-        <v>292197443922.796</v>
+        <v>292129015476.6549</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>449236000000</v>
+        <v>452562000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6502796202367017</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D209" t="n">
-        <v>292129015476.6549</v>
+        <v>299491760968.8306</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>452562000000</v>
+        <v>453707000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6626466105625869</v>
       </c>
       <c r="D210" t="n">
-        <v>299491760968.8306</v>
+        <v>300647405738.5196</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>453707000000</v>
+        <v>455243000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6626466105625869</v>
+        <v>0.6635259770420011</v>
       </c>
       <c r="D211" t="n">
-        <v>300647405738.5196</v>
+        <v>302065556366.5317</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>455243000000</v>
+        <v>457637000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6635259770420011</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D212" t="n">
-        <v>302065556366.5317</v>
+        <v>314181655911.0257</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>457637000000</v>
+        <v>459005000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6783800284919612</v>
       </c>
       <c r="D213" t="n">
-        <v>314181655911.0257</v>
+        <v>311379824977.9526</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>459005000000</v>
+        <v>458636000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6783800284919612</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D214" t="n">
-        <v>311379824977.9526</v>
+        <v>313511518217.2397</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>458636000000</v>
+        <v>460383000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.6638343069569835</v>
       </c>
       <c r="D215" t="n">
-        <v>313511518217.2397</v>
+        <v>305618029739.777</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>460383000000</v>
+        <v>463862000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6638343069569835</v>
+        <v>0.6701065469409636</v>
       </c>
       <c r="D216" t="n">
-        <v>305618029739.777</v>
+        <v>310836963077.1293</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>463862000000</v>
+        <v>465089000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6701065469409636</v>
+        <v>0.6816167950378297</v>
       </c>
       <c r="D217" t="n">
-        <v>310836963077.1293</v>
+        <v>317012473587.3492</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>465089000000</v>
+        <v>467460000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6816167950378297</v>
+        <v>0.6802258349772125</v>
       </c>
       <c r="D218" t="n">
-        <v>317012473587.3492</v>
+        <v>317978368818.4478</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>467460000000</v>
+        <v>471223000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6802258349772125</v>
+        <v>0.6787023211619384</v>
       </c>
       <c r="D219" t="n">
-        <v>317978368818.4478</v>
+        <v>319820143884.8921</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>471223000000</v>
+        <v>476000000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6787023211619384</v>
+        <v>0.6907031357922365</v>
       </c>
       <c r="D220" t="n">
-        <v>319820143884.8921</v>
+        <v>328774692637.1046</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>476000000000</v>
+        <v>478777000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6907031357922365</v>
+        <v>0.6906554320049727</v>
       </c>
       <c r="D221" t="n">
-        <v>328774692637.1046</v>
+        <v>330669935769.0448</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>478777000000</v>
+        <v>483138000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6906554320049727</v>
+        <v>0.6894174422612892</v>
       </c>
       <c r="D222" t="n">
-        <v>330669935769.0448</v>
+        <v>333083764219.2347</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>483138000000</v>
+        <v>486889000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6894174422612892</v>
+        <v>0.689893066574681</v>
       </c>
       <c r="D223" t="n">
-        <v>333083764219.2347</v>
+        <v>335901345291.4799</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>486889000000</v>
+        <v>490793000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.689893066574681</v>
+        <v>0.6755387421468622</v>
       </c>
       <c r="D224" t="n">
-        <v>335901345291.4799</v>
+        <v>331549685874.4849</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>490793000000</v>
+        <v>491187000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6755387421468622</v>
+        <v>0.6680919294494923</v>
       </c>
       <c r="D225" t="n">
-        <v>331549685874.4849</v>
+        <v>328158070550.5078</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>491187000000</v>
+        <v>494850000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6680919294494923</v>
+        <v>0.6755843804891231</v>
       </c>
       <c r="D226" t="n">
-        <v>328158070550.5078</v>
+        <v>334312930685.0425</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>494850000000</v>
+        <v>497053000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6755843804891231</v>
+        <v>0.6725854183481302</v>
       </c>
       <c r="D227" t="n">
-        <v>334312930685.0425</v>
+        <v>334310599946.1932</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>497053000000</v>
+        <v>499188000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6725854183481302</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D228" t="n">
-        <v>334310599946.1932</v>
+        <v>338984109737.8786</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>499188000000</v>
+        <v>501894000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.6650704974727321</v>
       </c>
       <c r="D229" t="n">
-        <v>338984109737.8786</v>
+        <v>333794892258.5794</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>501894000000</v>
+        <v>504302000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6650704974727321</v>
+        <v>0.6562541015881349</v>
       </c>
       <c r="D230" t="n">
-        <v>333794892258.5794</v>
+        <v>330950255939.0996</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>504302000000</v>
+        <v>505093000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6562541015881349</v>
+        <v>0.6505334374186834</v>
       </c>
       <c r="D231" t="n">
-        <v>330950255939.0996</v>
+        <v>328579885506.1151</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>505093000000</v>
+        <v>510405000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6505334374186834</v>
+        <v>0.6673785371062467</v>
       </c>
       <c r="D232" t="n">
-        <v>328579885506.1151</v>
+        <v>340633342231.7139</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>510405000000</v>
+        <v>510442000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6673785371062467</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D233" t="n">
-        <v>340633342231.7139</v>
+        <v>340771747112.6244</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>510442000000</v>
+        <v>515321000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6507027589796981</v>
       </c>
       <c r="D234" t="n">
-        <v>340771747112.6244</v>
+        <v>335320796460.177</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>515321000000</v>
+        <v>518685000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6507027589796981</v>
+        <v>0.634236062662523</v>
       </c>
       <c r="D235" t="n">
-        <v>335320796460.177</v>
+        <v>328968732162.1107</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>518685000000</v>
+        <v>519198000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.634236062662523</v>
+        <v>0.6513385006187715</v>
       </c>
       <c r="D236" t="n">
-        <v>328968732162.1107</v>
+        <v>338173646844.265</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>519198000000</v>
+        <v>521538000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6513385006187715</v>
+        <v>0.6500260010400416</v>
       </c>
       <c r="D237" t="n">
-        <v>338173646844.265</v>
+        <v>339013260530.4212</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>521538000000</v>
+        <v>518020000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6500260010400416</v>
+        <v>0.6603711285742587</v>
       </c>
       <c r="D238" t="n">
-        <v>339013260530.4212</v>
+        <v>342085452024.0375</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>518020000000</v>
+        <v>520335000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.6603711285742587</v>
+        <v>0.6519754857217368</v>
       </c>
       <c r="D239" t="n">
-        <v>342085452024.0375</v>
+        <v>339245664363.0199</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>520335000000</v>
+        <v>520759000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6519754857217368</v>
+        <v>0.6452861844227915</v>
       </c>
       <c r="D240" t="n">
-        <v>339245664363.0199</v>
+        <v>336038588113.8285</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>520759000000</v>
+        <v>527610000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6452861844227915</v>
+        <v>0.6331919204710948</v>
       </c>
       <c r="D241" t="n">
-        <v>336038588113.8285</v>
+        <v>334078389159.7543</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>527610000000</v>
+        <v>531066000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6331919204710948</v>
+        <v>0.629643621710112</v>
       </c>
       <c r="D242" t="n">
-        <v>334078389159.7543</v>
+        <v>334382319607.1024</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>531066000000</v>
+        <v>535473000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.629643621710112</v>
+        <v>0.6362537379907106</v>
       </c>
       <c r="D243" t="n">
-        <v>334382319607.1024</v>
+        <v>340696697843.0998</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>535473000000</v>
+        <v>537884000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.6362537379907106</v>
+        <v>0.628693574751666</v>
       </c>
       <c r="D244" t="n">
-        <v>340696697843.0998</v>
+        <v>338164214761.7251</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>537884000000</v>
+        <v>538462000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.628693574751666</v>
+        <v>0.6291286568103177</v>
       </c>
       <c r="D245" t="n">
-        <v>338164214761.7251</v>
+        <v>338761874803.3973</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>538462000000</v>
+        <v>541449000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6291286568103177</v>
+        <v>0.6242197253433208</v>
       </c>
       <c r="D246" t="n">
-        <v>338761874803.3973</v>
+        <v>337983146067.4157</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>541449000000</v>
+        <v>543983000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6242197253433208</v>
+        <v>0.6272345229881452</v>
       </c>
       <c r="D247" t="n">
-        <v>337983146067.4157</v>
+        <v>341204917518.6602</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>543983000000</v>
+        <v>545554000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.6272345229881452</v>
+        <v>0.6381620931716656</v>
       </c>
       <c r="D248" t="n">
-        <v>341204917518.6602</v>
+        <v>348151882578.1749</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>545554000000</v>
+        <v>544635000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.6381620931716656</v>
+        <v>0.654150585464774</v>
       </c>
       <c r="D249" t="n">
-        <v>348151882578.1749</v>
+        <v>356273304114.6072</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>544635000000</v>
+        <v>547075000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.654150585464774</v>
+        <v>0.6595435958316844</v>
       </c>
       <c r="D250" t="n">
-        <v>356273304114.6072</v>
+        <v>360819812689.6188</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>547075000000</v>
+        <v>550448000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6595435958316844</v>
+        <v>0.631432720843594</v>
       </c>
       <c r="D251" t="n">
-        <v>360819812689.6188</v>
+        <v>347570878322.9147</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>550448000000</v>
+        <v>553147000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.631432720843594</v>
+        <v>0.6415602745877975</v>
       </c>
       <c r="D252" t="n">
-        <v>347570878322.9147</v>
+        <v>354877141207.4164</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>553147000000</v>
+        <v>555860000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6415602745877975</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D253" t="n">
-        <v>354877141207.4164</v>
+        <v>350324573013.172</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>555860000000</v>
+        <v>560690000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D254" t="n">
-        <v>350324573013.172</v>
+        <v>359739509816.502</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>560690000000</v>
+        <v>562379000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6390593047034765</v>
       </c>
       <c r="D255" t="n">
-        <v>359739509816.502</v>
+        <v>359393532719.8364</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>562379000000</v>
+        <v>563618000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.6390593047034765</v>
+        <v>0.6343567622430855</v>
       </c>
       <c r="D256" t="n">
-        <v>359393532719.8364</v>
+        <v>357534889621.9233</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>563618000000</v>
+        <v>566685000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6343567622430855</v>
+        <v>0.6572461386789352</v>
       </c>
       <c r="D257" t="n">
-        <v>357534889621.9233</v>
+        <v>372451528097.2724</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>566685000000</v>
+        <v>569806000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6572461386789352</v>
+        <v>0.6739906989283547</v>
       </c>
       <c r="D258" t="n">
-        <v>372451528097.2724</v>
+        <v>384043944193.5701</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>569806000000</v>
+        <v>571313000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6739906989283547</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="D259" t="n">
-        <v>384043944193.5701</v>
+        <v>389310391822.8279</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>571313000000</v>
+        <v>573864000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D260" t="n">
-        <v>389310391822.8279</v>
+        <v>400435419719.4893</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>573864000000</v>
+        <v>575443000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7311010381634743</v>
       </c>
       <c r="D261" t="n">
-        <v>400435419719.4893</v>
+        <v>420706974703.9041</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>575443000000</v>
+        <v>578862000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.7311010381634743</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D262" t="n">
-        <v>420706974703.9041</v>
+        <v>429773554087.1631</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>578862000000</v>
+        <v>584715000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7121999857560003</v>
       </c>
       <c r="D263" t="n">
-        <v>429773554087.1631</v>
+        <v>416434014671.3197</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>584715000000</v>
+        <v>587823000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.7121999857560003</v>
+        <v>0.721917412647993</v>
       </c>
       <c r="D264" t="n">
-        <v>416434014671.3197</v>
+        <v>424359659254.9812</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>587823000000</v>
+        <v>591013000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.721917412647993</v>
+        <v>0.7398091292446549</v>
       </c>
       <c r="D265" t="n">
-        <v>424359659254.9812</v>
+        <v>437236812902.2712</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>591013000000</v>
+        <v>591443000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7398091292446549</v>
+        <v>0.7584951456310679</v>
       </c>
       <c r="D266" t="n">
-        <v>437236812902.2712</v>
+        <v>448606644417.4757</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>591443000000</v>
+        <v>594698000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7584951456310679</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D267" t="n">
-        <v>448606644417.4757</v>
+        <v>457953180348.0671</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>594698000000</v>
+        <v>598107000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7741136398823347</v>
       </c>
       <c r="D268" t="n">
-        <v>457953180348.0671</v>
+        <v>463002786809.1036</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>598107000000</v>
+        <v>603150000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7741136398823347</v>
+        <v>0.7550018875047187</v>
       </c>
       <c r="D269" t="n">
-        <v>463002786809.1036</v>
+        <v>455379388448.4711</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>603150000000</v>
+        <v>604870000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7550018875047187</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D270" t="n">
-        <v>455379388448.4711</v>
+        <v>453018274415.8179</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>604870000000</v>
+        <v>609773000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7639419404125287</v>
       </c>
       <c r="D271" t="n">
-        <v>453018274415.8179</v>
+        <v>465831168831.1689</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>609773000000</v>
+        <v>612585000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7639419404125287</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D272" t="n">
-        <v>465831168831.1689</v>
+        <v>446588175256.9804</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>612585000000</v>
+        <v>615387000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D273" t="n">
-        <v>446588175256.9804</v>
+        <v>451925534258.6473</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>615387000000</v>
+        <v>619665000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.75041272699985</v>
       </c>
       <c r="D274" t="n">
-        <v>451925534258.6473</v>
+        <v>465004502476.362</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>619665000000</v>
+        <v>621347000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.75041272699985</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D275" t="n">
-        <v>465004502476.362</v>
+        <v>467353892440.7673</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>621347000000</v>
+        <v>623669000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7618467164406522</v>
       </c>
       <c r="D276" t="n">
-        <v>467353892440.7673</v>
+        <v>475140179795.8251</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>623669000000</v>
+        <v>623563000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7618467164406522</v>
+        <v>0.7929585282689715</v>
       </c>
       <c r="D277" t="n">
-        <v>475140179795.8251</v>
+        <v>494459598762.9847</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>623563000000</v>
+        <v>626622000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7929585282689715</v>
+        <v>0.8211528986697323</v>
       </c>
       <c r="D278" t="n">
-        <v>494459598762.9847</v>
+        <v>514552471670.225</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>626622000000</v>
+        <v>629528000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8211528986697323</v>
+        <v>0.8423890152472412</v>
       </c>
       <c r="D279" t="n">
-        <v>514552471670.225</v>
+        <v>530307471990.5652</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>629528000000</v>
+        <v>635233000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8423890152472412</v>
+        <v>0.8309098462816784</v>
       </c>
       <c r="D280" t="n">
-        <v>530307471990.5652</v>
+        <v>527821354383.0494</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>635233000000</v>
+        <v>640875000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.8309098462816784</v>
+        <v>0.8068420203324189</v>
       </c>
       <c r="D281" t="n">
-        <v>527821354383.0494</v>
+        <v>517084879780.539</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>640875000000</v>
+        <v>645747000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8068420203324189</v>
+        <v>0.8105698305909054</v>
       </c>
       <c r="D282" t="n">
-        <v>517084879780.539</v>
+        <v>523423036394.5854</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>645747000000</v>
+        <v>647648000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8105698305909054</v>
+        <v>0.8262414277451872</v>
       </c>
       <c r="D283" t="n">
-        <v>523423036394.5854</v>
+        <v>535113608196.315</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>647648000000</v>
+        <v>650004000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.8262414277451872</v>
+        <v>0.7948493760432398</v>
       </c>
       <c r="D284" t="n">
-        <v>535113608196.315</v>
+        <v>516655273825.61</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>650004000000</v>
+        <v>653021000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.7948493760432398</v>
+        <v>0.7970032677133977</v>
       </c>
       <c r="D285" t="n">
-        <v>516655273825.61</v>
+        <v>520459870885.4706</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>653021000000</v>
+        <v>653626000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.7970032677133977</v>
+        <v>0.8163931749530573</v>
       </c>
       <c r="D286" t="n">
-        <v>520459870885.4706</v>
+        <v>533615805371.867</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>653626000000</v>
+        <v>653297000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8163931749530573</v>
+        <v>0.8170602173380178</v>
       </c>
       <c r="D287" t="n">
-        <v>533615805371.867</v>
+        <v>533782988806.275</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>653297000000</v>
+        <v>655137000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8170602173380178</v>
+        <v>0.8419634587858887</v>
       </c>
       <c r="D288" t="n">
-        <v>533782988806.275</v>
+        <v>551601414498.6108</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>655137000000</v>
+        <v>659252000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8419634587858887</v>
+        <v>0.8605111436193099</v>
       </c>
       <c r="D289" t="n">
-        <v>551601414498.6108</v>
+        <v>567293692453.3173</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>659252000000</v>
+        <v>663687000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8605111436193099</v>
+        <v>0.8459521191100584</v>
       </c>
       <c r="D290" t="n">
-        <v>567293692453.3173</v>
+        <v>561447424075.7974</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>663687000000</v>
+        <v>667046000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8459521191100584</v>
+        <v>0.8580744808649391</v>
       </c>
       <c r="D291" t="n">
-        <v>561447424075.7974</v>
+        <v>572375150163.0342</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>667046000000</v>
+        <v>671891000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8580744808649391</v>
+        <v>0.8604371020478404</v>
       </c>
       <c r="D292" t="n">
-        <v>572375150163.0342</v>
+        <v>578119944932.0255</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>671891000000</v>
+        <v>676375000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8604371020478404</v>
+        <v>0.8781173164734808</v>
       </c>
       <c r="D293" t="n">
-        <v>578119944932.0255</v>
+        <v>593936599929.7506</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>676375000000</v>
+        <v>683062000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8781173164734808</v>
+        <v>0.8796622097114708</v>
       </c>
       <c r="D294" t="n">
-        <v>593936599929.7506</v>
+        <v>600863828289.9366</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>683062000000</v>
+        <v>686912000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.8796622097114708</v>
+        <v>0.8564576909900651</v>
       </c>
       <c r="D295" t="n">
-        <v>600863828289.9366</v>
+        <v>588311065433.3676</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>686912000000</v>
+        <v>690916000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.8564576909900651</v>
+        <v>0.894534394847482</v>
       </c>
       <c r="D296" t="n">
-        <v>588311065433.3676</v>
+        <v>618048125950.4429</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>690916000000</v>
+        <v>692890000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.894534394847482</v>
+        <v>0.9078529278256923</v>
       </c>
       <c r="D297" t="n">
-        <v>618048125950.4429</v>
+        <v>629042215161.1439</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>692890000000</v>
+        <v>697101000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9078529278256923</v>
+        <v>0.8962179602079227</v>
       </c>
       <c r="D298" t="n">
-        <v>629042215161.1439</v>
+        <v>624754436278.9031</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>697101000000</v>
+        <v>702908000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.8962179602079227</v>
+        <v>0.8840951286358413</v>
       </c>
       <c r="D299" t="n">
-        <v>624754436278.9031</v>
+        <v>621437538679.1619</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>702908000000</v>
+        <v>709202000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.8840951286358413</v>
+        <v>0.9062075215224287</v>
       </c>
       <c r="D300" t="n">
-        <v>621437538679.1619</v>
+        <v>642684186678.7495</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>709202000000</v>
+        <v>715455000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9062075215224287</v>
+        <v>0.8950948800572861</v>
       </c>
       <c r="D301" t="n">
-        <v>642684186678.7495</v>
+        <v>640400107411.3856</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>715455000000</v>
+        <v>722293000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8950948800572861</v>
+        <v>0.89126559714795</v>
       </c>
       <c r="D302" t="n">
-        <v>640400107411.3856</v>
+        <v>643754901960.7842</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>722293000000</v>
+        <v>727459000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.89126559714795</v>
+        <v>0.8770391159445711</v>
       </c>
       <c r="D303" t="n">
-        <v>643754901960.7842</v>
+        <v>638009998245.9218</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>727459000000</v>
+        <v>732122000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.8770391159445711</v>
+        <v>0.8575593859874797</v>
       </c>
       <c r="D304" t="n">
-        <v>638009998245.9218</v>
+        <v>627838092787.9257</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>732122000000</v>
+        <v>736336000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.8575593859874797</v>
+        <v>0.8498342823149485</v>
       </c>
       <c r="D305" t="n">
-        <v>627838092787.9257</v>
+        <v>625763576102.6599</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>736336000000</v>
+        <v>738881000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.8498342823149485</v>
+        <v>0.8549200649739249</v>
       </c>
       <c r="D306" t="n">
-        <v>625763576102.6599</v>
+        <v>631684192527.9987</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>738881000000</v>
+        <v>743457000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8549200649739249</v>
+        <v>0.8663259118080221</v>
       </c>
       <c r="D307" t="n">
-        <v>631684192527.9987</v>
+        <v>644076063415.0566</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>743457000000</v>
+        <v>746726000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8663259118080221</v>
+        <v>0.9013068949977467</v>
       </c>
       <c r="D308" t="n">
-        <v>644076063415.0566</v>
+        <v>673029292474.0874</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>746726000000</v>
+        <v>747290000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9013068949977467</v>
+        <v>0.9356287425149701</v>
       </c>
       <c r="D309" t="n">
-        <v>673029292474.0874</v>
+        <v>699186002994.012</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>747290000000</v>
+        <v>753228000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9356287425149701</v>
+        <v>0.9392317084624777</v>
       </c>
       <c r="D310" t="n">
-        <v>699186002994.012</v>
+        <v>707455621301.7751</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>753228000000</v>
+        <v>762391000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9392317084624777</v>
+        <v>0.9377344336084021</v>
       </c>
       <c r="D311" t="n">
-        <v>707455621301.7751</v>
+        <v>714920292573.1433</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>762391000000</v>
+        <v>767172000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9377344336084021</v>
+        <v>0.947059380623165</v>
       </c>
       <c r="D312" t="n">
-        <v>714920292573.1433</v>
+        <v>726557439151.4347</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>767172000000</v>
+        <v>771869000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.947059380623165</v>
+        <v>1.005429318318922</v>
       </c>
       <c r="D313" t="n">
-        <v>726557439151.4347</v>
+        <v>776059722501.5082</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>771869000000</v>
+        <v>770498000000</v>
       </c>
       <c r="C314" t="n">
-        <v>1.005429318318922</v>
+        <v>1.060670343657191</v>
       </c>
       <c r="D314" t="n">
-        <v>776059722501.5082</v>
+        <v>817244378447.1786</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>770498000000</v>
+        <v>773993000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.060670343657191</v>
+        <v>1.000100010001</v>
       </c>
       <c r="D315" t="n">
-        <v>817244378447.1786</v>
+        <v>774070407040.704</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>773993000000</v>
+        <v>780159000000</v>
       </c>
       <c r="C316" t="n">
-        <v>1.000100010001</v>
+        <v>1.011265497643751</v>
       </c>
       <c r="D316" t="n">
-        <v>774070407040.704</v>
+        <v>788947879376.2515</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>780159000000</v>
+        <v>789173000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.011265497643751</v>
+        <v>0.9973072703700011</v>
       </c>
       <c r="D317" t="n">
-        <v>788947879376.2515</v>
+        <v>787047970479.7048</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>789173000000</v>
+        <v>792462000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9973072703700011</v>
+        <v>1.016053647632595</v>
       </c>
       <c r="D318" t="n">
-        <v>787047970479.7048</v>
+        <v>805183905710.2214</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>792462000000</v>
+        <v>802004000000</v>
       </c>
       <c r="C319" t="n">
-        <v>1.016053647632595</v>
+        <v>0.9754384595875847</v>
       </c>
       <c r="D319" t="n">
-        <v>805183905710.2214</v>
+        <v>782305546343.0813</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>802004000000</v>
+        <v>808895000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9754384595875847</v>
+        <v>0.9923292945531045</v>
       </c>
       <c r="D320" t="n">
-        <v>782305546343.0813</v>
+        <v>802690204717.5334</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>808895000000</v>
+        <v>814551000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9923292945531045</v>
+        <v>1.006664116450905</v>
       </c>
       <c r="D321" t="n">
-        <v>802690204717.5334</v>
+        <v>819979262719.201</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>814551000000</v>
+        <v>820945000000</v>
       </c>
       <c r="C322" t="n">
-        <v>1.006664116450905</v>
+        <v>0.9789621043769395</v>
       </c>
       <c r="D322" t="n">
-        <v>819979262719.201</v>
+        <v>803674044777.7267</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>820945000000</v>
+        <v>825736000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9789621043769395</v>
+        <v>0.9760477872996662</v>
       </c>
       <c r="D323" t="n">
-        <v>803674044777.7267</v>
+        <v>805957795693.6772</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>825736000000</v>
+        <v>833368000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9760477872996662</v>
+        <v>0.9418146885418825</v>
       </c>
       <c r="D324" t="n">
-        <v>805957795693.6772</v>
+        <v>784878223360.7716</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>833368000000</v>
+        <v>844338000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9418146885418825</v>
+        <v>0.9397171451393131</v>
       </c>
       <c r="D325" t="n">
-        <v>784878223360.7716</v>
+        <v>793438894892.6373</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>844338000000</v>
+        <v>857769000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9397171451393131</v>
+        <v>0.8336807002917882</v>
       </c>
       <c r="D326" t="n">
-        <v>793438894892.6373</v>
+        <v>715105460608.5869</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>857769000000</v>
+        <v>874577000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8336807002917882</v>
+        <v>0.8091662351113412</v>
       </c>
       <c r="D327" t="n">
-        <v>715105460608.5869</v>
+        <v>707678178404.9714</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>874577000000</v>
+        <v>890217000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.8091662351113412</v>
+        <v>0.8207013713919916</v>
       </c>
       <c r="D328" t="n">
-        <v>707678178404.9714</v>
+        <v>730602312736.4646</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>890217000000</v>
+        <v>903968000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8207013713919916</v>
+        <v>0.8155875084617203</v>
       </c>
       <c r="D329" t="n">
-        <v>730602312736.4646</v>
+        <v>737265008849.1244</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>903968000000</v>
+        <v>911816000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.8155875084617203</v>
+        <v>0.7861140808754166</v>
       </c>
       <c r="D330" t="n">
-        <v>737265008849.1244</v>
+        <v>716791396767.4988</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>911816000000</v>
+        <v>923083000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.7861140808754166</v>
+        <v>0.793751587503175</v>
       </c>
       <c r="D331" t="n">
-        <v>716791396767.4988</v>
+        <v>732698596647.1932</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>923083000000</v>
+        <v>929833000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.793751587503175</v>
+        <v>0.8388276544701125</v>
       </c>
       <c r="D332" t="n">
-        <v>732698596647.1932</v>
+        <v>779969634438.9082</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>929833000000</v>
+        <v>933532000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8388276544701125</v>
+        <v>0.9159438343240793</v>
       </c>
       <c r="D333" t="n">
-        <v>779969634438.9082</v>
+        <v>855062879544.2264</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>933532000000</v>
+        <v>939155000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9159438343240793</v>
+        <v>0.8606814876018832</v>
       </c>
       <c r="D334" t="n">
-        <v>855062879544.2264</v>
+        <v>808313322488.7467</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>939155000000</v>
+        <v>947686000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8606814876018832</v>
+        <v>0.9284016636957813</v>
       </c>
       <c r="D335" t="n">
-        <v>808313322488.7467</v>
+        <v>879833259061.2002</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>947686000000</v>
+        <v>956161000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9284016636957813</v>
+        <v>0.914603473663993</v>
       </c>
       <c r="D336" t="n">
-        <v>879833259061.2002</v>
+        <v>874508171982.0372</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>956161000000</v>
+        <v>960900000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.914603473663993</v>
+        <v>0.9353924438998382</v>
       </c>
       <c r="D337" t="n">
-        <v>874508171982.0372</v>
+        <v>898818599343.3545</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>960900000000</v>
+        <v>965962000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9353924438998382</v>
+        <v>0.9244963805966701</v>
       </c>
       <c r="D338" t="n">
-        <v>898818599343.3545</v>
+        <v>893028372793.9207</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>965962000000</v>
+        <v>970851000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9244963805966701</v>
+        <v>0.9470414425335253</v>
       </c>
       <c r="D339" t="n">
-        <v>893028372793.9207</v>
+        <v>919436131525.1156</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>970851000000</v>
+        <v>973415000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9470414425335253</v>
+        <v>0.9557031585989393</v>
       </c>
       <c r="D340" t="n">
-        <v>919436131525.1156</v>
+        <v>930295790127.5864</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>973415000000</v>
+        <v>975773000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9557031585989393</v>
+        <v>0.9352437245146086</v>
       </c>
       <c r="D341" t="n">
-        <v>930295790127.5864</v>
+        <v>912585574800.7932</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>975773000000</v>
+        <v>983599000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9352437245146086</v>
+        <v>0.9504980609839557</v>
       </c>
       <c r="D342" t="n">
-        <v>912585574800.7932</v>
+        <v>934908942285.7578</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>983599000000</v>
+        <v>986502000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9504980609839557</v>
+        <v>0.9848044670730626</v>
       </c>
       <c r="D343" t="n">
-        <v>934908942285.7578</v>
+        <v>971511576376.5104</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>986502000000</v>
+        <v>989926000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9848044670730626</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="D344" t="n">
-        <v>971511576376.5104</v>
+        <v>974336614173.2284</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>989926000000</v>
+        <v>997332000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.984251968503937</v>
+        <v>0.9574783849254602</v>
       </c>
       <c r="D345" t="n">
-        <v>974336614173.2284</v>
+        <v>954923832594.4791</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>997332000000</v>
+        <v>1002970000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9574783849254602</v>
+        <v>0.9401412092096234</v>
       </c>
       <c r="D346" t="n">
-        <v>954923832594.4791</v>
+        <v>942933428600.976</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>1002970000000</v>
+        <v>1007970000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9401412092096234</v>
+        <v>0.9730087376184637</v>
       </c>
       <c r="D347" t="n">
-        <v>942933428600.976</v>
+        <v>980763617257.2828</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>1007970000000</v>
+        <v>1012078000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9730087376184637</v>
+        <v>0.9385441303450088</v>
       </c>
       <c r="D348" t="n">
-        <v>980763617257.2828</v>
+        <v>949879866351.3158</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>1012078000000</v>
+        <v>1017370000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9385441303450088</v>
+        <v>0.9716945381050012</v>
       </c>
       <c r="D349" t="n">
-        <v>949879866351.3158</v>
+        <v>988572872231.885</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>1017370000000</v>
+        <v>1021701000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9716945381050012</v>
+        <v>0.9804978968320114</v>
       </c>
       <c r="D350" t="n">
-        <v>988572872231.885</v>
+        <v>1001775681691.163</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>1021701000000</v>
+        <v>1021885000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9804978968320114</v>
+        <v>0.9743264968090807</v>
       </c>
       <c r="D351" t="n">
-        <v>1001775681691.163</v>
+        <v>995649632191.7474</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>1021885000000</v>
+        <v>1026441000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9743264968090807</v>
+        <v>1.005338346620555</v>
       </c>
       <c r="D352" t="n">
-        <v>995649632191.7474</v>
+        <v>1031920497843.549</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>1026441000000</v>
+        <v>1030655000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.005338346620555</v>
+        <v>0.9990409207161125</v>
       </c>
       <c r="D353" t="n">
-        <v>1031920497843.549</v>
+        <v>1029666520140.665</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>1030655000000</v>
+        <v>1033383000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9990409207161125</v>
+        <v>1.029569228234906</v>
       </c>
       <c r="D354" t="n">
-        <v>1029666520140.665</v>
+        <v>1063939337781.072</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>1033383000000</v>
+        <v>1037827000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.029569228234906</v>
+        <v>1.030566605519715</v>
       </c>
       <c r="D355" t="n">
-        <v>1063939337781.072</v>
+        <v>1069549848506.709</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>1037827000000</v>
+        <v>1039526000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.030566605519715</v>
+        <v>1.057183030098001</v>
       </c>
       <c r="D356" t="n">
-        <v>1069549848506.709</v>
+        <v>1098969246545.654</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>1039526000000</v>
+        <v>1042253000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.057183030098001</v>
+        <v>1.032919132761096</v>
       </c>
       <c r="D357" t="n">
-        <v>1098969246545.654</v>
+        <v>1076563064877.651</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>1042253000000</v>
+        <v>1047329000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.032919132761096</v>
+        <v>1.037925809063168</v>
       </c>
       <c r="D358" t="n">
-        <v>1076563064877.651</v>
+        <v>1087049799680.319</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>1047329000000</v>
+        <v>1050254000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.037925809063168</v>
+        <v>1.046857334282484</v>
       </c>
       <c r="D359" t="n">
-        <v>1087049799680.319</v>
+        <v>1099466102759.516</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>1050254000000</v>
+        <v>1056451000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.046857334282484</v>
+        <v>1.022955112729653</v>
       </c>
       <c r="D360" t="n">
-        <v>1099466102759.516</v>
+        <v>1080701951798.355</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>1056451000000</v>
+        <v>1072342000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.022955112729653</v>
+        <v>0.9538435124333502</v>
       </c>
       <c r="D361" t="n">
-        <v>1080701951798.355</v>
+        <v>1022846459809.804</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>1072342000000</v>
+        <v>1081489000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9538435124333502</v>
+        <v>0.9993404353126936</v>
       </c>
       <c r="D362" t="n">
-        <v>1022846459809.804</v>
+        <v>1080775688045.89</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>1081489000000</v>
+        <v>1087142000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9993404353126936</v>
+        <v>0.9833711931242687</v>
       </c>
       <c r="D363" t="n">
-        <v>1080775688045.89</v>
+        <v>1069064125635.504</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>1087142000000</v>
+        <v>1092865000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9833711931242687</v>
+        <v>0.9793360101850946</v>
       </c>
       <c r="D364" t="n">
-        <v>1069064125635.504</v>
+        <v>1070282048770.933</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>1092865000000</v>
+        <v>1101467000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9793360101850946</v>
+        <v>0.9974962843263409</v>
       </c>
       <c r="D365" t="n">
-        <v>1070282048770.933</v>
+        <v>1098709239808.082</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>1101467000000</v>
+        <v>1097482000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9974962843263409</v>
+        <v>1.010315319411188</v>
       </c>
       <c r="D366" t="n">
-        <v>1098709239808.082</v>
+        <v>1108802877378.03</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>1097482000000</v>
+        <v>1102820000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.010315319411188</v>
+        <v>1.002154632459789</v>
       </c>
       <c r="D367" t="n">
-        <v>1108802877378.03</v>
+        <v>1105196171769.304</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>1102820000000</v>
+        <v>1109651000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.002154632459789</v>
+        <v>1.013037796440185</v>
       </c>
       <c r="D368" t="n">
-        <v>1105196171769.304</v>
+        <v>1124118403857.648</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>1109651000000</v>
+        <v>1116754000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.013037796440185</v>
+        <v>0.9683916950728231</v>
       </c>
       <c r="D369" t="n">
-        <v>1124118403857.648</v>
+        <v>1081455299039.355</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>1116754000000</v>
+        <v>1127759000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9683916950728231</v>
+        <v>0.9838936607731437</v>
       </c>
       <c r="D370" t="n">
-        <v>1081455299039.355</v>
+        <v>1109594930979.86</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>1127759000000</v>
+        <v>1135610000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9838936607731437</v>
+        <v>0.9969095803010666</v>
       </c>
       <c r="D371" t="n">
-        <v>1109594930979.86</v>
+        <v>1132100488485.694</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>1135610000000</v>
+        <v>1140742000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9969095803010666</v>
+        <v>1.014970819588937</v>
       </c>
       <c r="D372" t="n">
-        <v>1132100488485.694</v>
+        <v>1157819842679.523</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>1140742000000</v>
+        <v>1140167000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.014970819588937</v>
+        <v>1.016973284111826</v>
       </c>
       <c r="D373" t="n">
-        <v>1157819842679.523</v>
+        <v>1159519378425.929</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>1140167000000</v>
+        <v>1150318000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.016973284111826</v>
+        <v>1.000320102432779</v>
       </c>
       <c r="D374" t="n">
-        <v>1159519378425.929</v>
+        <v>1150686219590.269</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>1150318000000</v>
+        <v>1158280000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.000320102432779</v>
+        <v>1.005854070691424</v>
       </c>
       <c r="D375" t="n">
-        <v>1150686219590.269</v>
+        <v>1165060653000.463</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>1158280000000</v>
+        <v>1161595000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.005854070691424</v>
+        <v>1.005237286261422</v>
       </c>
       <c r="D376" t="n">
-        <v>1165060653000.463</v>
+        <v>1167678605534.837</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>1161595000000</v>
+        <v>1169988000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.005237286261422</v>
+        <v>1.002657041159072</v>
       </c>
       <c r="D377" t="n">
-        <v>1167678605534.837</v>
+        <v>1173096706271.62</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>1169988000000</v>
+        <v>1179367000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.002657041159072</v>
+        <v>0.9703273884608666</v>
       </c>
       <c r="D378" t="n">
-        <v>1173096706271.62</v>
+        <v>1144372101146.927</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>1179367000000</v>
+        <v>1189872000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9703273884608666</v>
+        <v>0.9827720067221605</v>
       </c>
       <c r="D379" t="n">
-        <v>1144372101146.927</v>
+        <v>1169372893182.51</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>1189872000000</v>
+        <v>1195531000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9827720067221605</v>
+        <v>0.9929007595690811</v>
       </c>
       <c r="D380" t="n">
-        <v>1169372893182.51</v>
+        <v>1187043637988.383</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>1195531000000</v>
+        <v>1194040000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9929007595690811</v>
+        <v>0.9647481042699751</v>
       </c>
       <c r="D381" t="n">
-        <v>1187043637988.383</v>
+        <v>1151947826422.521</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>1194040000000</v>
+        <v>1200066000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9647481042699751</v>
+        <v>0.9511580349074998</v>
       </c>
       <c r="D382" t="n">
-        <v>1151947826422.521</v>
+        <v>1141452418319.304</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>1200066000000</v>
+        <v>1205447000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9511580349074998</v>
+        <v>0.973093952221087</v>
       </c>
       <c r="D383" t="n">
-        <v>1141452418319.304</v>
+        <v>1173013185423.053</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>1205447000000</v>
+        <v>1216053000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.973093952221087</v>
+        <v>0.9494331883865331</v>
       </c>
       <c r="D384" t="n">
-        <v>1173013185423.053</v>
+        <v>1154561077037.009</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>1216053000000</v>
+        <v>1221461000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9494331883865331</v>
+        <v>0.9700732405296599</v>
       </c>
       <c r="D385" t="n">
-        <v>1154561077037.009</v>
+        <v>1184906630450.599</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>1221461000000</v>
+        <v>1226705000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9700732405296599</v>
+        <v>0.958873898493609</v>
       </c>
       <c r="D386" t="n">
-        <v>1184906630450.599</v>
+        <v>1176255405651.603</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>1226705000000</v>
+        <v>1235685000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.958873898493609</v>
+        <v>0.9426492213717431</v>
       </c>
       <c r="D387" t="n">
-        <v>1176255405651.603</v>
+        <v>1164817503110.742</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>1235685000000</v>
+        <v>1243567000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9426492213717431</v>
+        <v>0.9402561257686595</v>
       </c>
       <c r="D388" t="n">
-        <v>1164817503110.742</v>
+        <v>1169271489553.755</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>1243567000000</v>
+        <v>1251738000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9402561257686595</v>
+        <v>0.898787535614456</v>
       </c>
       <c r="D389" t="n">
-        <v>1169271489553.755</v>
+        <v>1125046512254.968</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>1251738000000</v>
+        <v>1251016000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.898787535614456</v>
+        <v>0.903750564844103</v>
       </c>
       <c r="D390" t="n">
-        <v>1125046512254.968</v>
+        <v>1130606416629.01</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>1251016000000</v>
+        <v>1254128000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.903750564844103</v>
+        <v>0.9050428990334143</v>
       </c>
       <c r="D391" t="n">
-        <v>1130606416629.01</v>
+        <v>1135039640878.978</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>1254128000000</v>
+        <v>1256512000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9050428990334143</v>
+        <v>0.9123421648054887</v>
       </c>
       <c r="D392" t="n">
-        <v>1135039640878.978</v>
+        <v>1146368878184.074</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>1256512000000</v>
+        <v>1261583000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9123421648054887</v>
+        <v>0.9224496573099522</v>
       </c>
       <c r="D393" t="n">
-        <v>1146368878184.074</v>
+        <v>1163746806018.062</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>1261583000000</v>
+        <v>1265809000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9224496573099522</v>
+        <v>0.9373037520269195</v>
       </c>
       <c r="D394" t="n">
-        <v>1163746806018.062</v>
+        <v>1186447525049.443</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>1265809000000</v>
+        <v>1270210000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9373037520269195</v>
+        <v>0.9170189547817954</v>
       </c>
       <c r="D395" t="n">
-        <v>1186447525049.443</v>
+        <v>1164806646553.384</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>1270210000000</v>
+        <v>1279946000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9170189547817954</v>
+        <v>0.9196163360645938</v>
       </c>
       <c r="D396" t="n">
-        <v>1164806646553.384</v>
+        <v>1177059250880.532</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>1279946000000</v>
+        <v>1289603000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9196163360645938</v>
+        <v>0.8932399599828498</v>
       </c>
       <c r="D397" t="n">
-        <v>1177059250880.532</v>
+        <v>1151924932113.763</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>1289603000000</v>
+        <v>1295199000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8932399599828498</v>
+        <v>0.8875398283497972</v>
       </c>
       <c r="D398" t="n">
-        <v>1151924932113.763</v>
+        <v>1149540698138.829</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>1295199000000</v>
+        <v>1296727000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8875398283497972</v>
+        <v>0.8762014912949383</v>
       </c>
       <c r="D399" t="n">
-        <v>1149540698138.829</v>
+        <v>1136194131202.411</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>1296727000000</v>
+        <v>1302464000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8762014912949383</v>
+        <v>0.8610816908200081</v>
       </c>
       <c r="D400" t="n">
-        <v>1136194131202.411</v>
+        <v>1121527903352.191</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>1302464000000</v>
+        <v>1306212000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8610816908200081</v>
+        <v>0.7863489816780687</v>
       </c>
       <c r="D401" t="n">
-        <v>1121527903352.191</v>
+        <v>1027138476055.673</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>1306212000000</v>
+        <v>1312747000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7863489816780687</v>
+        <v>0.8001984492154054</v>
       </c>
       <c r="D402" t="n">
-        <v>1027138476055.673</v>
+        <v>1050458113612.176</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>1312747000000</v>
+        <v>1316790000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8001984492154054</v>
+        <v>0.7884259076753262</v>
       </c>
       <c r="D403" t="n">
-        <v>1050458113612.176</v>
+        <v>1038191350967.793</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>1316790000000</v>
+        <v>1320890000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7884259076753262</v>
+        <v>0.8282259400364419</v>
       </c>
       <c r="D404" t="n">
-        <v>1038191350967.793</v>
+        <v>1093995361934.736</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>1320890000000</v>
+        <v>1322154000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8282259400364419</v>
+        <v>0.8035097305028364</v>
       </c>
       <c r="D405" t="n">
-        <v>1093995361934.736</v>
+        <v>1062363604223.247</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>1322154000000</v>
+        <v>1329858000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.8035097305028364</v>
+        <v>0.8007495015334353</v>
       </c>
       <c r="D406" t="n">
-        <v>1062363604223.247</v>
+        <v>1064883130610.251</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>1329858000000</v>
+        <v>1345086000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.8007495015334353</v>
+        <v>0.7641988139634408</v>
       </c>
       <c r="D407" t="n">
-        <v>1064883130610.251</v>
+        <v>1027913125878.829</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>1345086000000</v>
+        <v>1356127000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7641988139634408</v>
+        <v>0.7610755519700441</v>
       </c>
       <c r="D408" t="n">
-        <v>1027913125878.829</v>
+        <v>1032115105066.48</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>1356127000000</v>
+        <v>1366811000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7610755519700441</v>
+        <v>0.7511906371598984</v>
       </c>
       <c r="D409" t="n">
-        <v>1032115105066.48</v>
+        <v>1026735625967.158</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>1366811000000</v>
+        <v>1368472000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7511906371598984</v>
+        <v>0.7650172893907402</v>
       </c>
       <c r="D410" t="n">
-        <v>1026735625967.158</v>
+        <v>1046904740047.125</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>1368472000000</v>
+        <v>1377121000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7650172893907402</v>
+        <v>0.7484245662879637</v>
       </c>
       <c r="D411" t="n">
-        <v>1046904740047.125</v>
+        <v>1030671187151.047</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>1377121000000</v>
+        <v>1380572000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7484245662879637</v>
+        <v>0.7232069890723424</v>
       </c>
       <c r="D412" t="n">
-        <v>1030671187151.047</v>
+        <v>998439319317.5819</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>1380572000000</v>
+        <v>1391381000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7232069890723424</v>
+        <v>0.7158862313601122</v>
       </c>
       <c r="D413" t="n">
-        <v>998439319317.5819</v>
+        <v>996070500476.0643</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>1391381000000</v>
+        <v>1400091000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7158862313601122</v>
+        <v>0.7387488549392749</v>
       </c>
       <c r="D414" t="n">
-        <v>996070500476.0643</v>
+        <v>1034315623060.784</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>1400091000000</v>
+        <v>1405027000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7387488549392749</v>
+        <v>0.7690710390918809</v>
       </c>
       <c r="D415" t="n">
-        <v>1034315623060.784</v>
+        <v>1080565574842.148</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>1405027000000</v>
+        <v>1412193000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7690710390918809</v>
+        <v>0.7968063999490044</v>
       </c>
       <c r="D416" t="n">
-        <v>1080565574842.148</v>
+        <v>1125244420363.184</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>1412193000000</v>
+        <v>1419809000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7968063999490044</v>
+        <v>0.7638135683842288</v>
       </c>
       <c r="D417" t="n">
-        <v>1125244420363.184</v>
+        <v>1084469378714.043</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>1419809000000</v>
+        <v>1428874000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7638135683842288</v>
+        <v>0.7737662297466689</v>
       </c>
       <c r="D418" t="n">
-        <v>1084469378714.043</v>
+        <v>1105614447763.042</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>1428874000000</v>
+        <v>1450911000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7737662297466689</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="D419" t="n">
-        <v>1105614447763.042</v>
+        <v>1112661809815.951</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>1450911000000</v>
+        <v>1461886000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7631199395609007</v>
       </c>
       <c r="D420" t="n">
-        <v>1112661809815.951</v>
+        <v>1115594355964.927</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>1461886000000</v>
+        <v>1473602000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7631199395609007</v>
+        <v>0.7620266861745498</v>
       </c>
       <c r="D421" t="n">
-        <v>1115594355964.927</v>
+        <v>1122924048800.189</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>1473602000000</v>
+        <v>1484308000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7620266861745498</v>
+        <v>0.7458567656667213</v>
       </c>
       <c r="D422" t="n">
-        <v>1122924048800.189</v>
+        <v>1107081164133.24</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>1484308000000</v>
+        <v>1495912000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7458567656667213</v>
+        <v>0.7442081996859442</v>
       </c>
       <c r="D423" t="n">
-        <v>1107081164133.24</v>
+        <v>1113269976408.6</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>1495912000000</v>
+        <v>1498820000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7442081996859442</v>
+        <v>0.7443356060380504</v>
       </c>
       <c r="D424" t="n">
-        <v>1113269976408.6</v>
+        <v>1115625093041.951</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>1498820000000</v>
+        <v>1515097000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7443356060380504</v>
+        <v>0.767589309016104</v>
       </c>
       <c r="D425" t="n">
-        <v>1115625093041.951</v>
+        <v>1162972259322.372</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>1515097000000</v>
+        <v>1513143000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.767589309016104</v>
+        <v>0.7519079664649048</v>
       </c>
       <c r="D426" t="n">
-        <v>1162972259322.372</v>
+        <v>1137744276100.605</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>1513143000000</v>
+        <v>1521199000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7519079664649048</v>
+        <v>0.7508860455337297</v>
       </c>
       <c r="D427" t="n">
-        <v>1137744276100.605</v>
+        <v>1142247101579.864</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>1521199000000</v>
+        <v>1532423000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7508860455337297</v>
+        <v>0.7324719463244558</v>
       </c>
       <c r="D428" t="n">
-        <v>1142247101579.864</v>
+        <v>1122456857402.362</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>1532423000000</v>
+        <v>1546176000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7324719463244558</v>
+        <v>0.7408230544134533</v>
       </c>
       <c r="D429" t="n">
-        <v>1122456857402.362</v>
+        <v>1145442826980.776</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>1546176000000</v>
+        <v>1551765000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7408230544134533</v>
+        <v>0.7714739781827159</v>
       </c>
       <c r="D430" t="n">
-        <v>1145442826980.776</v>
+        <v>1197146317754.702</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>1551765000000</v>
+        <v>1554451000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7714739781827159</v>
+        <v>0.8013526833294602</v>
       </c>
       <c r="D431" t="n">
-        <v>1197146317754.702</v>
+        <v>1245663479954.163</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>1554451000000</v>
+        <v>1555592000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8013526833294602</v>
+        <v>0.8012178511337232</v>
       </c>
       <c r="D432" t="n">
-        <v>1245663479954.163</v>
+        <v>1246368079480.811</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>1555592000000</v>
+        <v>1562476000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.8012178511337232</v>
+        <v>0.8023492786879984</v>
       </c>
       <c r="D433" t="n">
-        <v>1246368079480.811</v>
+        <v>1253651491567.309</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>1562476000000</v>
+        <v>1570298000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.8023492786879984</v>
+        <v>0.7759938541286753</v>
       </c>
       <c r="D434" t="n">
-        <v>1253651491567.309</v>
+        <v>1218541597150.551</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>1570298000000</v>
+        <v>1574987000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7759938541286753</v>
+        <v>0.7754823500217135</v>
       </c>
       <c r="D435" t="n">
-        <v>1218541597150.551</v>
+        <v>1221374620013.648</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>1574987000000</v>
+        <v>1585745000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7754823500217135</v>
+        <v>0.7949567940982407</v>
       </c>
       <c r="D436" t="n">
-        <v>1221374620013.648</v>
+        <v>1260598761457.315</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>1585745000000</v>
+        <v>1590269000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7949567940982407</v>
+        <v>0.8122091276061761</v>
       </c>
       <c r="D437" t="n">
-        <v>1260598761457.315</v>
+        <v>1291630997149.146</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>1590269000000</v>
+        <v>1593488000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.8122091276061761</v>
+        <v>0.7795082861730821</v>
       </c>
       <c r="D438" t="n">
-        <v>1291630997149.146</v>
+        <v>1242137099917.372</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>1593488000000</v>
+        <v>1598398000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7795082861730821</v>
+        <v>0.7754703227507483</v>
       </c>
       <c r="D439" t="n">
-        <v>1242137099917.372</v>
+        <v>1239510212944.151</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>1598398000000</v>
+        <v>1598364000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7754703227507483</v>
+        <v>0.7786645902277595</v>
       </c>
       <c r="D440" t="n">
-        <v>1239510212944.151</v>
+        <v>1244589449094.802</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>1598364000000</v>
+        <v>1598824000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7786645902277595</v>
+        <v>0.7718074186129077</v>
       </c>
       <c r="D441" t="n">
-        <v>1244589449094.802</v>
+        <v>1233984224256.364</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>1598824000000</v>
+        <v>1608465000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7718074186129077</v>
+        <v>0.7614290500411172</v>
       </c>
       <c r="D442" t="n">
-        <v>1233984224256.364</v>
+        <v>1224731976974.385</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>1608465000000</v>
+        <v>1616215000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7614290500411172</v>
+        <v>0.7689054630733151</v>
       </c>
       <c r="D443" t="n">
-        <v>1224731976974.385</v>
+        <v>1242716543001.038</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>1616215000000</v>
+        <v>1627432000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7689054630733151</v>
+        <v>0.7667712031406948</v>
       </c>
       <c r="D444" t="n">
-        <v>1242716543001.038</v>
+        <v>1247867992669.667</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>1627432000000</v>
+        <v>1637358000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7667712031406948</v>
+        <v>0.7747313619002612</v>
       </c>
       <c r="D445" t="n">
-        <v>1247867992669.667</v>
+        <v>1268512593258.288</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>1637358000000</v>
+        <v>1646237000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7747313619002612</v>
+        <v>0.7601036781416985</v>
       </c>
       <c r="D446" t="n">
-        <v>1268512593258.288</v>
+        <v>1251310798792.955</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>1646237000000</v>
+        <v>1656351000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7601036781416985</v>
+        <v>0.752683316021617</v>
       </c>
       <c r="D447" t="n">
-        <v>1251310798792.955</v>
+        <v>1246707763175.721</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>1656351000000</v>
+        <v>1668377000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.752683316021617</v>
+        <v>0.7328101069169946</v>
       </c>
       <c r="D448" t="n">
-        <v>1246707763175.721</v>
+        <v>1222603527747.855</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>1668377000000</v>
+        <v>1675220000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7328101069169946</v>
+        <v>0.7620034594957061</v>
       </c>
       <c r="D449" t="n">
-        <v>1222603527747.855</v>
+        <v>1276523435416.397</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>1675220000000</v>
+        <v>1682335000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7620034594957061</v>
+        <v>0.7591976798918902</v>
       </c>
       <c r="D450" t="n">
-        <v>1276523435416.397</v>
+        <v>1277224828800.923</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>1682335000000</v>
+        <v>1692733000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7591976798918902</v>
+        <v>0.7492769477454257</v>
       </c>
       <c r="D451" t="n">
-        <v>1277224828800.923</v>
+        <v>1268325815587.958</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>1692733000000</v>
+        <v>1705748000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7492769477454257</v>
+        <v>0.7469375560203168</v>
       </c>
       <c r="D452" t="n">
-        <v>1268325815587.958</v>
+        <v>1274087242306.543</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>1705748000000</v>
+        <v>1714043000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7469375560203168</v>
+        <v>0.739885761638403</v>
       </c>
       <c r="D453" t="n">
-        <v>1274087242306.543</v>
+        <v>1268196010535.973</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>1714043000000</v>
+        <v>1720945000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.739885761638403</v>
+        <v>0.7641229015274817</v>
       </c>
       <c r="D454" t="n">
-        <v>1268196010535.973</v>
+        <v>1315013486769.212</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>1720945000000</v>
+        <v>1737081000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7641229015274817</v>
+        <v>0.7581041331837342</v>
       </c>
       <c r="D455" t="n">
-        <v>1315013486769.212</v>
+        <v>1316888285774.934</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>1737081000000</v>
+        <v>1754608000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.7581041331837342</v>
+        <v>0.7514390056959076</v>
       </c>
       <c r="D456" t="n">
-        <v>1316888285774.934</v>
+        <v>1318480890906.085</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>1754608000000</v>
+        <v>1768025000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.7514390056959076</v>
+        <v>0.7552813045218693</v>
       </c>
       <c r="D457" t="n">
-        <v>1318480890906.085</v>
+        <v>1335356228427.278</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>1768025000000</v>
+        <v>1780400000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7552813045218693</v>
+        <v>0.7596590650116227</v>
       </c>
       <c r="D458" t="n">
-        <v>1335356228427.278</v>
+        <v>1352496999346.693</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>1780400000000</v>
+        <v>1788170000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7596590650116227</v>
+        <v>0.7533524182612626</v>
       </c>
       <c r="D459" t="n">
-        <v>1352496999346.693</v>
+        <v>1347122193762.242</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>1788170000000</v>
+        <v>1797721000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7533524182612626</v>
+        <v>0.7706950899015822</v>
       </c>
       <c r="D460" t="n">
-        <v>1347122193762.242</v>
+        <v>1385494747712.962</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>1797721000000</v>
+        <v>1801010000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7706950899015822</v>
+        <v>0.7554981376970905</v>
       </c>
       <c r="D461" t="n">
-        <v>1385494747712.962</v>
+        <v>1360659700973.837</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>1801010000000</v>
+        <v>1814298000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7554981376970905</v>
+        <v>0.7455064598134743</v>
       </c>
       <c r="D462" t="n">
-        <v>1360659700973.837</v>
+        <v>1352570879026.667</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>1814298000000</v>
+        <v>1855518000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7455064598134743</v>
+        <v>0.7113184999715473</v>
       </c>
       <c r="D463" t="n">
-        <v>1352570879026.667</v>
+        <v>1319864280430.206</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>1855518000000</v>
+        <v>1918181000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.7113184999715473</v>
+        <v>0.7171286170174621</v>
       </c>
       <c r="D464" t="n">
-        <v>1319864280430.206</v>
+        <v>1375582487719.173</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>1918181000000</v>
+        <v>1963419000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7171286170174621</v>
+        <v>0.7263271813421074</v>
       </c>
       <c r="D465" t="n">
-        <v>1375582487719.173</v>
+        <v>1426084588063.539</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>1963419000000</v>
+        <v>2005979000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7263271813421074</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D466" t="n">
-        <v>1426084588063.539</v>
+        <v>1477809783409.459</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>2005979000000</v>
+        <v>2030544000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7459235279199177</v>
       </c>
       <c r="D467" t="n">
-        <v>1477809783409.459</v>
+        <v>1514630544076.621</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>2030544000000</v>
+        <v>2061892000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7459235279199177</v>
+        <v>0.7665008469834359</v>
       </c>
       <c r="D468" t="n">
-        <v>1514630544076.621</v>
+        <v>1580441964388.371</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>2061892000000</v>
+        <v>2085360000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7665008469834359</v>
+        <v>0.7509706295386788</v>
       </c>
       <c r="D469" t="n">
-        <v>1580441964388.371</v>
+        <v>1566044112014.779</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>2085360000000</v>
+        <v>2105411000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7509706295386788</v>
+        <v>0.7510044684765874</v>
       </c>
       <c r="D470" t="n">
-        <v>1566044112014.779</v>
+        <v>1581173068979.76</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>2105411000000</v>
+        <v>2121396000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7510044684765874</v>
+        <v>0.7695148978084215</v>
       </c>
       <c r="D471" t="n">
-        <v>1581173068979.76</v>
+        <v>1632445826151.194</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>2121396000000</v>
+        <v>2120708000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7695148978084215</v>
+        <v>0.7839448102853559</v>
       </c>
       <c r="D472" t="n">
-        <v>1632445826151.194</v>
+        <v>1662518030730.636</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>2120708000000</v>
+        <v>2141765000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7839448102853559</v>
+        <v>0.7828156312625251</v>
       </c>
       <c r="D473" t="n">
-        <v>1662518030730.636</v>
+        <v>1676607120490.982</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>2141765000000</v>
+        <v>2177359000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7828156312625251</v>
+        <v>0.7849231952653433</v>
       </c>
       <c r="D474" t="n">
-        <v>1676607120490.982</v>
+        <v>1709059583519.752</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>2177359000000</v>
+        <v>2182624000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7849231952653433</v>
+        <v>0.7960769328747931</v>
       </c>
       <c r="D475" t="n">
-        <v>1709059583519.752</v>
+        <v>1737536619538.912</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>2182624000000</v>
+        <v>2199732000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7960769328747931</v>
+        <v>0.8144516297177111</v>
       </c>
       <c r="D476" t="n">
-        <v>1737536619538.912</v>
+        <v>1791575312342.2</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>2199732000000</v>
+        <v>2225461000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.8144516297177111</v>
+        <v>0.8293111741387604</v>
       </c>
       <c r="D477" t="n">
-        <v>1791575312342.2</v>
+        <v>1845599674910.02</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>2225461000000</v>
+        <v>2235219000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.8293111741387604</v>
+        <v>0.8067639086097844</v>
       </c>
       <c r="D478" t="n">
-        <v>1845599674910.02</v>
+        <v>1803294017038.854</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>2235219000000</v>
+        <v>2265475000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.8067639086097844</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D479" t="n">
-        <v>1803294017038.854</v>
+        <v>1816885876974.898</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>2265475000000</v>
+        <v>2283153000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.7927259467129618</v>
       </c>
       <c r="D480" t="n">
-        <v>1816885876974.898</v>
+        <v>1809914623415.539</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>2283153000000</v>
+        <v>2286467000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7927259467129618</v>
+        <v>0.7889172899113257</v>
       </c>
       <c r="D481" t="n">
-        <v>1809914623415.539</v>
+        <v>1803833349111.679</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>2286467000000</v>
+        <v>2289771000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7889172899113257</v>
+        <v>0.8078588509015704</v>
       </c>
       <c r="D482" t="n">
-        <v>1803833349111.679</v>
+        <v>1849811768887.74</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>2289771000000</v>
+        <v>2310223000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.8078588509015704</v>
+        <v>0.7826440847760073</v>
       </c>
       <c r="D483" t="n">
-        <v>1849811768887.74</v>
+        <v>1808082365463.482</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>2310223000000</v>
+        <v>2301433000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7826440847760073</v>
+        <v>0.7910954298417018</v>
       </c>
       <c r="D484" t="n">
-        <v>1808082365463.482</v>
+        <v>1820653128386.877</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>2301433000000</v>
+        <v>2317667000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7910954298417018</v>
+        <v>0.7870793061108837</v>
       </c>
       <c r="D485" t="n">
-        <v>1820653128386.877</v>
+        <v>1824187734156.094</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>2317667000000</v>
+        <v>2344869000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7870793061108837</v>
+        <v>0.7892036934732856</v>
       </c>
       <c r="D486" t="n">
-        <v>1824187734156.094</v>
+        <v>1850579275511.01</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>2344869000000</v>
+        <v>2348469000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7892036934732856</v>
+        <v>0.7998016491910006</v>
       </c>
       <c r="D487" t="n">
-        <v>1850579275511.01</v>
+        <v>1878309379273.94</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>2348469000000</v>
+        <v>2347490000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7998016491910006</v>
+        <v>0.7777924694133111</v>
       </c>
       <c r="D488" t="n">
-        <v>1878309379273.94</v>
+        <v>1825860044023.054</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>2347490000000</v>
+        <v>2349052000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7777924694133111</v>
+        <v>0.7907076042350298</v>
       </c>
       <c r="D489" t="n">
-        <v>1825860044023.054</v>
+        <v>1857413279143.505</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>2349052000000</v>
+        <v>2354170000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7907076042350298</v>
+        <v>0.7768559087660422</v>
       </c>
       <c r="D490" t="n">
-        <v>1857413279143.505</v>
+        <v>1828850874739.753</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>2354170000000</v>
+        <v>2367102000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7768559087660422</v>
+        <v>0.7816102734854348</v>
       </c>
       <c r="D491" t="n">
-        <v>1828850874739.753</v>
+        <v>1850151241587.92</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>2367102000000</v>
+        <v>2358110000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7816102734854348</v>
+        <v>0.7618409123806766</v>
       </c>
       <c r="D492" t="n">
-        <v>1850151241587.92</v>
+        <v>1796504673893.997</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>2358110000000</v>
+        <v>2374338000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7618409123806766</v>
+        <v>0.723222680263253</v>
       </c>
       <c r="D493" t="n">
-        <v>1796504673893.997</v>
+        <v>1717175092210.892</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>2374338000000</v>
+        <v>2376916000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.723222680263253</v>
+        <v>0.733998825601879</v>
       </c>
       <c r="D494" t="n">
-        <v>1717175092210.892</v>
+        <v>1744653552554.316</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>2376916000000</v>
+        <v>2384951000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.733998825601879</v>
+        <v>0.7450176941702366</v>
       </c>
       <c r="D495" t="n">
-        <v>1744653552554.316</v>
+        <v>1776830694729</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>2384951000000</v>
+        <v>2393203000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7450176941702366</v>
+        <v>0.7384706273307979</v>
       </c>
       <c r="D496" t="n">
-        <v>1776830694729</v>
+        <v>1767310120739.948</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>2393203000000</v>
+        <v>2420393000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7384706273307979</v>
+        <v>0.7516649378373097</v>
       </c>
       <c r="D497" t="n">
-        <v>1767310120739.948</v>
+        <v>1819324553886.86</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>2419938000000</v>
+        <v>2432173000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7516649378373097</v>
+        <v>0.7327778876944609</v>
       </c>
       <c r="D498" t="n">
-        <v>1818982546340.144</v>
+        <v>1782242593447.5</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>2432173000000</v>
+        <v>2429503000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.7327778876944609</v>
+        <v>0.7398967104192254</v>
       </c>
       <c r="D499" t="n">
-        <v>1782242593447.5</v>
+        <v>1797581277653.639</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>2429503000000</v>
+        <v>2419886000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7398967104192254</v>
+        <v>0.7384324555832879</v>
       </c>
       <c r="D500" t="n">
-        <v>1797581277653.639</v>
+        <v>1786922361211.62</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>2419886000000</v>
+        <v>2412202000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.7384324555832879</v>
+        <v>0.7368816641735504</v>
       </c>
       <c r="D501" t="n">
-        <v>1786922361211.62</v>
+        <v>1777507424082.767</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -458,6990 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B2" t="n">
-        <v>164334000000</v>
+        <v>161706000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B3" t="n">
-        <v>161706000000</v>
+        <v>161526000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
-        <v>161526000000</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>163705000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8356313194618533</v>
+      </c>
+      <c r="D4" t="n">
+        <v>136797025152.5027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B5" t="n">
-        <v>163705000000</v>
+        <v>165199000000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8356313194618533</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D5" t="n">
-        <v>136797025152.5027</v>
+        <v>134417412530.5126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B6" t="n">
-        <v>165199000000</v>
+        <v>166100000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D6" t="n">
-        <v>134417412530.5126</v>
+        <v>134985778138.9679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B7" t="n">
-        <v>166100000000</v>
+        <v>167174000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8198737394441256</v>
       </c>
       <c r="D7" t="n">
-        <v>134985778138.9679</v>
+        <v>137061572517.8322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B8" t="n">
-        <v>167174000000</v>
+        <v>168519000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8198737394441256</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="D8" t="n">
-        <v>137061572517.8322</v>
+        <v>135465434083.6013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B9" t="n">
-        <v>168519000000</v>
+        <v>169410000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.7734550235903782</v>
       </c>
       <c r="D9" t="n">
-        <v>135465434083.6013</v>
+        <v>131031015546.446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B10" t="n">
-        <v>169410000000</v>
+        <v>169601000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7734550235903782</v>
+        <v>0.7964319847085058</v>
       </c>
       <c r="D10" t="n">
-        <v>131031015546.446</v>
+        <v>135075661038.5473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B11" t="n">
-        <v>169601000000</v>
+        <v>170129000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7964319847085058</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D11" t="n">
-        <v>135075661038.5473</v>
+        <v>137289380245.3195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B12" t="n">
-        <v>170129000000</v>
+        <v>170650000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D12" t="n">
-        <v>137289380245.3195</v>
+        <v>138032839925.5844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B13" t="n">
-        <v>170650000000</v>
+        <v>171675000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8155941603458119</v>
       </c>
       <c r="D13" t="n">
-        <v>138032839925.5844</v>
+        <v>140017127477.3672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B14" t="n">
-        <v>171675000000</v>
+        <v>173598000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8155941603458119</v>
+        <v>0.8082114281095935</v>
       </c>
       <c r="D14" t="n">
-        <v>140017127477.3672</v>
+        <v>140303887496.9692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B15" t="n">
-        <v>173598000000</v>
+        <v>173574000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8082114281095935</v>
+        <v>0.813206473123526</v>
       </c>
       <c r="D15" t="n">
-        <v>140303887496.9692</v>
+        <v>141151500365.9429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B16" t="n">
-        <v>173574000000</v>
+        <v>175486000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.813206473123526</v>
+        <v>0.8086035416835127</v>
       </c>
       <c r="D16" t="n">
-        <v>141151500365.9429</v>
+        <v>141898601115.8729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B17" t="n">
-        <v>175486000000</v>
+        <v>176731000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8086035416835127</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D17" t="n">
-        <v>141898601115.8729</v>
+        <v>143800650935.7201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B18" t="n">
-        <v>176731000000</v>
+        <v>177360000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.810307106393323</v>
       </c>
       <c r="D18" t="n">
-        <v>143800650935.7201</v>
+        <v>143716068389.9198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B19" t="n">
-        <v>177360000000</v>
+        <v>178209000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.810307106393323</v>
+        <v>0.8155276463872125</v>
       </c>
       <c r="D19" t="n">
-        <v>143716068389.9198</v>
+        <v>145334366335.0188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B20" t="n">
-        <v>178209000000</v>
+        <v>178032000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8155276463872125</v>
+        <v>0.8130081300813008</v>
       </c>
       <c r="D20" t="n">
-        <v>145334366335.0188</v>
+        <v>144741463414.6342</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B21" t="n">
-        <v>178032000000</v>
+        <v>178843000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8130081300813008</v>
+        <v>0.8145975887911372</v>
       </c>
       <c r="D21" t="n">
-        <v>144741463414.6342</v>
+        <v>145685076572.1733</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B22" t="n">
-        <v>178843000000</v>
+        <v>179993000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8145975887911372</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D22" t="n">
-        <v>145685076572.1733</v>
+        <v>145861426256.0778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B23" t="n">
-        <v>179993000000</v>
+        <v>181429000000</v>
       </c>
       <c r="C23" t="n">
         <v>0.8103727714748784</v>
       </c>
       <c r="D23" t="n">
-        <v>145861426256.0778</v>
+        <v>147025121555.9157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B24" t="n">
-        <v>181429000000</v>
+        <v>182607000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8110300081103</v>
       </c>
       <c r="D24" t="n">
-        <v>147025121555.9157</v>
+        <v>148099756690.9976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B25" t="n">
-        <v>182607000000</v>
+        <v>183116000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8112932013629727</v>
       </c>
       <c r="D25" t="n">
-        <v>148099756690.9976</v>
+        <v>148560765860.7821</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B26" t="n">
-        <v>183116000000</v>
+        <v>184078000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8112932013629727</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D26" t="n">
-        <v>148560765860.7821</v>
+        <v>148545836023.2408</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B27" t="n">
-        <v>184078000000</v>
+        <v>183902000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8035355564483729</v>
       </c>
       <c r="D27" t="n">
-        <v>148545836023.2408</v>
+        <v>147771795901.9687</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B28" t="n">
-        <v>183902000000</v>
+        <v>184450000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8035355564483729</v>
+        <v>0.8004482510205715</v>
       </c>
       <c r="D28" t="n">
-        <v>147771795901.9687</v>
+        <v>147642679900.7444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B29" t="n">
-        <v>184450000000</v>
+        <v>185166000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8004482510205715</v>
+        <v>0.7987858455148175</v>
       </c>
       <c r="D29" t="n">
-        <v>147642679900.7444</v>
+        <v>147907979870.5967</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B30" t="n">
-        <v>185166000000</v>
+        <v>186527000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7987858455148175</v>
+        <v>0.7833307222309259</v>
       </c>
       <c r="D30" t="n">
-        <v>147907979870.5967</v>
+        <v>146112329625.5679</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B31" t="n">
-        <v>186527000000</v>
+        <v>187527000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7833307222309259</v>
+        <v>0.7785130400934216</v>
       </c>
       <c r="D31" t="n">
-        <v>146112329625.5679</v>
+        <v>145992214869.5991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B32" t="n">
-        <v>187527000000</v>
+        <v>188986000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7785130400934216</v>
+        <v>0.7724393635099644</v>
       </c>
       <c r="D32" t="n">
-        <v>145992214869.5991</v>
+        <v>145980225552.2941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B33" t="n">
-        <v>188986000000</v>
+        <v>190555000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7724393635099644</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D33" t="n">
-        <v>145980225552.2941</v>
+        <v>144370785665.5807</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B34" t="n">
-        <v>190555000000</v>
+        <v>191983000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7624857033930613</v>
       </c>
       <c r="D34" t="n">
-        <v>144370785665.5807</v>
+        <v>146384292794.5101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B35" t="n">
-        <v>191983000000</v>
+        <v>192900000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7624857033930613</v>
+        <v>0.7707723138584861</v>
       </c>
       <c r="D35" t="n">
-        <v>146384292794.5101</v>
+        <v>148681979343.302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B36" t="n">
-        <v>192900000000</v>
+        <v>194221000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7707723138584861</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D36" t="n">
-        <v>148681979343.302</v>
+        <v>147326860350.4513</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B37" t="n">
-        <v>194221000000</v>
+        <v>195997000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7604562737642586</v>
       </c>
       <c r="D37" t="n">
-        <v>147326860350.4513</v>
+        <v>149047148288.9734</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B38" t="n">
-        <v>195997000000</v>
+        <v>197099000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7604562737642586</v>
+        <v>0.7551729346020238</v>
       </c>
       <c r="D38" t="n">
-        <v>149047148288.9734</v>
+        <v>148843830237.1243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B39" t="n">
-        <v>197099000000</v>
+        <v>198799000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7551729346020238</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D39" t="n">
-        <v>148843830237.1243</v>
+        <v>150411591132.6322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B40" t="n">
-        <v>198799000000</v>
+        <v>200776000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7534659433393611</v>
       </c>
       <c r="D40" t="n">
-        <v>150411591132.6322</v>
+        <v>151277878239.9036</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B41" t="n">
-        <v>200776000000</v>
+        <v>202240000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7534659433393611</v>
+        <v>0.7228044813877846</v>
       </c>
       <c r="D41" t="n">
-        <v>151277878239.9036</v>
+        <v>146179978315.8656</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B42" t="n">
-        <v>202240000000</v>
+        <v>203587000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7228044813877846</v>
+        <v>0.7312614259597806</v>
       </c>
       <c r="D42" t="n">
-        <v>146179978315.8656</v>
+        <v>148875319926.8738</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B43" t="n">
-        <v>203587000000</v>
+        <v>205233000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7312614259597806</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D43" t="n">
-        <v>148875319926.8738</v>
+        <v>150133869787.8566</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B44" t="n">
-        <v>205233000000</v>
+        <v>207225000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7275372862859221</v>
       </c>
       <c r="D44" t="n">
-        <v>150133869787.8566</v>
+        <v>150763914150.6002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B45" t="n">
-        <v>207225000000</v>
+        <v>208616000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7275372862859221</v>
+        <v>0.7357268981753973</v>
       </c>
       <c r="D45" t="n">
-        <v>150763914150.6002</v>
+        <v>153484402589.7587</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B46" t="n">
-        <v>208616000000</v>
+        <v>210378000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7357268981753973</v>
+        <v>0.7385524372230428</v>
       </c>
       <c r="D46" t="n">
-        <v>153484402589.7587</v>
+        <v>155375184638.1093</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B47" t="n">
-        <v>210378000000</v>
+        <v>212430000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7385524372230428</v>
+        <v>0.7321180174244089</v>
       </c>
       <c r="D47" t="n">
-        <v>155375184638.1093</v>
+        <v>155523830441.4672</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B48" t="n">
-        <v>212430000000</v>
+        <v>214664000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7321180174244089</v>
+        <v>0.7293946024799417</v>
       </c>
       <c r="D48" t="n">
-        <v>155523830441.4672</v>
+        <v>156574762946.7542</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B49" t="n">
-        <v>214664000000</v>
+        <v>216619000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7293946024799417</v>
+        <v>0.7316359379572724</v>
       </c>
       <c r="D49" t="n">
-        <v>156574762946.7542</v>
+        <v>158486245244.3664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B50" t="n">
-        <v>216619000000</v>
+        <v>218971000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7316359379572724</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="D50" t="n">
-        <v>158486245244.3664</v>
+        <v>158216040462.4278</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B51" t="n">
-        <v>218971000000</v>
+        <v>219947000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7225433526011561</v>
+        <v>0.7150518412584912</v>
       </c>
       <c r="D51" t="n">
-        <v>158216040462.4278</v>
+        <v>157273507329.2814</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B52" t="n">
-        <v>219947000000</v>
+        <v>221320000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7150518412584912</v>
+        <v>0.7025925665706457</v>
       </c>
       <c r="D52" t="n">
-        <v>157273507329.2814</v>
+        <v>155497786833.4153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B53" t="n">
-        <v>221320000000</v>
+        <v>221317000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7025925665706457</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D53" t="n">
-        <v>155497786833.4153</v>
+        <v>155747361013.3708</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>221317000000</v>
+        <v>222244000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D54" t="n">
-        <v>155747361013.3708</v>
+        <v>159223384439.0314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B55" t="n">
-        <v>222244000000</v>
+        <v>225943000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7262164124909223</v>
       </c>
       <c r="D55" t="n">
-        <v>159223384439.0314</v>
+        <v>164083514887.4365</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B56" t="n">
-        <v>225943000000</v>
+        <v>228313000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7262164124909223</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D56" t="n">
-        <v>164083514887.4365</v>
+        <v>164906464427.5912</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B57" t="n">
-        <v>228313000000</v>
+        <v>230077000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D57" t="n">
-        <v>164906464427.5912</v>
+        <v>166481186685.9624</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B58" t="n">
-        <v>230077000000</v>
+        <v>232472000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D58" t="n">
-        <v>166481186685.9624</v>
+        <v>168360370799.5365</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B59" t="n">
-        <v>232472000000</v>
+        <v>234395000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7210845111047015</v>
       </c>
       <c r="D59" t="n">
-        <v>168360370799.5365</v>
+        <v>169018603980.3865</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B60" t="n">
-        <v>234395000000</v>
+        <v>236112000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7210845111047015</v>
+        <v>0.7205649228995533</v>
       </c>
       <c r="D60" t="n">
-        <v>169018603980.3865</v>
+        <v>170134025075.6593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B61" t="n">
-        <v>236112000000</v>
+        <v>238535000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7205649228995533</v>
+        <v>0.7189072609633357</v>
       </c>
       <c r="D61" t="n">
-        <v>170134025075.6593</v>
+        <v>171484543493.8893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B62" t="n">
-        <v>238535000000</v>
+        <v>241918000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7189072609633357</v>
+        <v>0.7229612492770388</v>
       </c>
       <c r="D62" t="n">
-        <v>171484543493.8893</v>
+        <v>174897339502.6027</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B63" t="n">
-        <v>241918000000</v>
+        <v>244868000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7229612492770388</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D63" t="n">
-        <v>174897339502.6027</v>
+        <v>177337775202.781</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B64" t="n">
-        <v>244868000000</v>
+        <v>248259000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7462129691814043</v>
       </c>
       <c r="D64" t="n">
-        <v>177337775202.781</v>
+        <v>185254085516.0063</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B65" t="n">
-        <v>248259000000</v>
+        <v>252294000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7462129691814043</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D65" t="n">
-        <v>185254085516.0063</v>
+        <v>189012586155.2292</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B66" t="n">
-        <v>252294000000</v>
+        <v>254413000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.765814060346148</v>
       </c>
       <c r="D66" t="n">
-        <v>189012586155.2292</v>
+        <v>194833052534.8445</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B67" t="n">
-        <v>254413000000</v>
+        <v>256778000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.765814060346148</v>
+        <v>0.7473841554559043</v>
       </c>
       <c r="D67" t="n">
-        <v>194833052534.8445</v>
+        <v>191911808669.6562</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B68" t="n">
-        <v>256778000000</v>
+        <v>258482000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7473841554559043</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D68" t="n">
-        <v>191911808669.6562</v>
+        <v>193170913982.5125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B69" t="n">
-        <v>258482000000</v>
+        <v>260580000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7506943923128894</v>
       </c>
       <c r="D69" t="n">
-        <v>193170913982.5125</v>
+        <v>195615944748.8927</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B70" t="n">
-        <v>260580000000</v>
+        <v>262617000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7506943923128894</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D70" t="n">
-        <v>195615944748.8927</v>
+        <v>197858057711.1429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B71" t="n">
-        <v>262617000000</v>
+        <v>264017000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D71" t="n">
-        <v>197858057711.1429</v>
+        <v>200028032426.699</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B72" t="n">
-        <v>264017000000</v>
+        <v>266094000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7623694442326751</v>
       </c>
       <c r="D72" t="n">
-        <v>200028032426.699</v>
+        <v>202861934893.6494</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B73" t="n">
-        <v>266094000000</v>
+        <v>268159000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7623694442326751</v>
+        <v>0.7601672367920943</v>
       </c>
       <c r="D73" t="n">
-        <v>202861934893.6494</v>
+        <v>203845686050.9312</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B74" t="n">
-        <v>268159000000</v>
+        <v>263775000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7601672367920943</v>
+        <v>0.7633587786259541</v>
       </c>
       <c r="D74" t="n">
-        <v>203845686050.9312</v>
+        <v>201354961832.0611</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B75" t="n">
-        <v>263775000000</v>
+        <v>265918000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.7698229407236336</v>
       </c>
       <c r="D75" t="n">
-        <v>201354961832.0611</v>
+        <v>204709776751.3472</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B76" t="n">
-        <v>265918000000</v>
+        <v>267370000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7698229407236336</v>
+        <v>0.7844983133286264</v>
       </c>
       <c r="D76" t="n">
-        <v>204709776751.3472</v>
+        <v>209751314034.6748</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B77" t="n">
-        <v>267370000000</v>
+        <v>269741000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7844983133286264</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D77" t="n">
-        <v>209751314034.6748</v>
+        <v>214301263208.0718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B78" t="n">
-        <v>269741000000</v>
+        <v>272411000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="D78" t="n">
-        <v>214301263208.0718</v>
+        <v>220575708502.0243</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B79" t="n">
-        <v>272411000000</v>
+        <v>274765000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D79" t="n">
-        <v>220575708502.0243</v>
+        <v>223295408370.5811</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B80" t="n">
-        <v>274765000000</v>
+        <v>277324000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8100445524503849</v>
       </c>
       <c r="D80" t="n">
-        <v>223295408370.5811</v>
+        <v>224644795463.7505</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B81" t="n">
-        <v>277324000000</v>
+        <v>281544000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8100445524503849</v>
+        <v>0.8240626287597858</v>
       </c>
       <c r="D81" t="n">
-        <v>224644795463.7505</v>
+        <v>232009888751.5451</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B82" t="n">
-        <v>281544000000</v>
+        <v>284525000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8240626287597858</v>
+        <v>0.825559316436886</v>
       </c>
       <c r="D82" t="n">
-        <v>232009888751.5451</v>
+        <v>234892264509.205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B83" t="n">
-        <v>284525000000</v>
+        <v>288402000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.825559316436886</v>
+        <v>0.8067769261799113</v>
       </c>
       <c r="D83" t="n">
-        <v>234892264509.205</v>
+        <v>232676079064.1388</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B84" t="n">
-        <v>288402000000</v>
+        <v>291439000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8067769261799113</v>
+        <v>0.8216926869350862</v>
       </c>
       <c r="D84" t="n">
-        <v>232676079064.1388</v>
+        <v>239473294987.6746</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B85" t="n">
-        <v>291439000000</v>
+        <v>293949000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8216926869350862</v>
+        <v>0.8146639511201629</v>
       </c>
       <c r="D85" t="n">
-        <v>239473294987.6746</v>
+        <v>239469653767.8208</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B86" t="n">
-        <v>293949000000</v>
+        <v>297392000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8146639511201629</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D86" t="n">
-        <v>239469653767.8208</v>
+        <v>250329966329.9663</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B87" t="n">
-        <v>297392000000</v>
+        <v>300374000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8417508417508418</v>
+        <v>0.8387854386847845</v>
       </c>
       <c r="D87" t="n">
-        <v>250329966329.9663</v>
+        <v>251949337359.5034</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B88" t="n">
-        <v>300374000000</v>
+        <v>303154000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8387854386847845</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D88" t="n">
-        <v>251949337359.5034</v>
+        <v>255869345037.1371</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B89" t="n">
-        <v>303154000000</v>
+        <v>305829000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="D89" t="n">
-        <v>255869345037.1371</v>
+        <v>255389561586.6388</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B90" t="n">
-        <v>305829000000</v>
+        <v>309219000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8350730688935282</v>
+        <v>0.8384338056510438</v>
       </c>
       <c r="D90" t="n">
-        <v>255389561586.6388</v>
+        <v>259259662949.6101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B91" t="n">
-        <v>309219000000</v>
+        <v>312149000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8384338056510438</v>
+        <v>0.8434547908232118</v>
       </c>
       <c r="D91" t="n">
-        <v>259259662949.6101</v>
+        <v>263283569500.6747</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B92" t="n">
-        <v>312149000000</v>
+        <v>316353000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8434547908232118</v>
+        <v>0.8282945415389712</v>
       </c>
       <c r="D92" t="n">
-        <v>263283569500.6747</v>
+        <v>262033463099.4781</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B93" t="n">
-        <v>316353000000</v>
+        <v>320688000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8282945415389712</v>
+        <v>0.8354916868577157</v>
       </c>
       <c r="D93" t="n">
-        <v>262033463099.4781</v>
+        <v>267932158075.0271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B94" t="n">
-        <v>320688000000</v>
+        <v>324232000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8354916868577157</v>
+        <v>0.8467400508044031</v>
       </c>
       <c r="D94" t="n">
-        <v>267932158075.0271</v>
+        <v>274540220152.4132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B95" t="n">
-        <v>324232000000</v>
+        <v>327718000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8467400508044031</v>
+        <v>0.8481764206955046</v>
       </c>
       <c r="D95" t="n">
-        <v>274540220152.4132</v>
+        <v>277962680237.4894</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B96" t="n">
-        <v>327718000000</v>
+        <v>331423000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8481764206955046</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D96" t="n">
-        <v>277962680237.4894</v>
+        <v>281463269639.0659</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B97" t="n">
-        <v>331423000000</v>
+        <v>334344000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8517162081594414</v>
       </c>
       <c r="D97" t="n">
-        <v>281463269639.0659</v>
+        <v>284766203900.8603</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B98" t="n">
-        <v>334344000000</v>
+        <v>339017000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8517162081594414</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="D98" t="n">
-        <v>284766203900.8603</v>
+        <v>291251718213.0584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B99" t="n">
-        <v>339017000000</v>
+        <v>342154000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8632596685082872</v>
       </c>
       <c r="D99" t="n">
-        <v>291251718213.0584</v>
+        <v>295367748618.7845</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B100" t="n">
-        <v>342154000000</v>
+        <v>346086000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8632596685082872</v>
+        <v>0.8428150021070374</v>
       </c>
       <c r="D100" t="n">
-        <v>295367748618.7845</v>
+        <v>291686472819.2161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B101" t="n">
-        <v>346086000000</v>
+        <v>350540000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8428150021070374</v>
+        <v>0.8386447500838645</v>
       </c>
       <c r="D101" t="n">
-        <v>291686472819.2161</v>
+        <v>293978530694.3979</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B102" t="n">
-        <v>350540000000</v>
+        <v>352153000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8386447500838645</v>
+        <v>0.8551393877201984</v>
       </c>
       <c r="D102" t="n">
-        <v>293978530694.3979</v>
+        <v>301139900803.831</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B103" t="n">
-        <v>352153000000</v>
+        <v>353101000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8551393877201984</v>
+        <v>0.8587376556462</v>
       </c>
       <c r="D103" t="n">
-        <v>301139900803.831</v>
+        <v>303221124946.3289</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B104" t="n">
-        <v>353101000000</v>
+        <v>356116000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8587376556462</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="D104" t="n">
-        <v>303221124946.3289</v>
+        <v>303335604770.017</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B105" t="n">
-        <v>356116000000</v>
+        <v>356279000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8517887563884157</v>
+        <v>0.8578536501672815</v>
       </c>
       <c r="D105" t="n">
-        <v>303335604770.017</v>
+        <v>305635240627.9489</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B106" t="n">
-        <v>356279000000</v>
+        <v>357910000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8578536501672815</v>
+        <v>0.8676789587852494</v>
       </c>
       <c r="D106" t="n">
-        <v>305635240627.9489</v>
+        <v>310550976138.8286</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B107" t="n">
-        <v>357910000000</v>
+        <v>361491000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8676789587852494</v>
+        <v>0.8665511265164645</v>
       </c>
       <c r="D107" t="n">
-        <v>310550976138.8286</v>
+        <v>313250433275.5633</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B108" t="n">
-        <v>361491000000</v>
+        <v>363223000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8665511265164645</v>
+        <v>0.8660258075690656</v>
       </c>
       <c r="D108" t="n">
-        <v>313250433275.5633</v>
+        <v>314560491902.6587</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B109" t="n">
-        <v>363223000000</v>
+        <v>365008000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8660258075690656</v>
+        <v>0.8573388203017832</v>
       </c>
       <c r="D109" t="n">
-        <v>314560491902.6587</v>
+        <v>312935528120.7133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B110" t="n">
-        <v>365008000000</v>
+        <v>367854000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8573388203017832</v>
+        <v>0.8588114050154585</v>
       </c>
       <c r="D110" t="n">
-        <v>312935528120.7133</v>
+        <v>315917210580.5565</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B111" t="n">
-        <v>367854000000</v>
+        <v>370572000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8588114050154585</v>
+        <v>0.8630361612151549</v>
       </c>
       <c r="D111" t="n">
-        <v>315917210580.5565</v>
+        <v>319817036333.8224</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B112" t="n">
-        <v>370572000000</v>
+        <v>373950000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8630361612151549</v>
+        <v>0.8600670852326481</v>
       </c>
       <c r="D112" t="n">
-        <v>319817036333.8224</v>
+        <v>321622086522.7487</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B113" t="n">
-        <v>373950000000</v>
+        <v>375786000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8600670852326481</v>
+        <v>0.8694140149539211</v>
       </c>
       <c r="D113" t="n">
-        <v>321622086522.7487</v>
+        <v>326713615023.4742</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B114" t="n">
-        <v>375786000000</v>
+        <v>378484000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8694140149539211</v>
+        <v>0.8637816360024186</v>
       </c>
       <c r="D114" t="n">
-        <v>326713615023.4742</v>
+        <v>326927528720.7394</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B115" t="n">
-        <v>378484000000</v>
+        <v>380380000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8637816360024186</v>
+        <v>0.8673779165582444</v>
       </c>
       <c r="D115" t="n">
-        <v>326927528720.7394</v>
+        <v>329933211900.425</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B116" t="n">
-        <v>380380000000</v>
+        <v>382614000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8673779165582444</v>
+        <v>0.8734387282732116</v>
       </c>
       <c r="D116" t="n">
-        <v>329933211900.425</v>
+        <v>334189885579.5266</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B117" t="n">
-        <v>382614000000</v>
+        <v>381438000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8734387282732116</v>
+        <v>0.875733426744899</v>
       </c>
       <c r="D117" t="n">
-        <v>334189885579.5266</v>
+        <v>334038006830.7208</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B118" t="n">
-        <v>381438000000</v>
+        <v>383166000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.875733426744899</v>
+        <v>0.8686587908269632</v>
       </c>
       <c r="D118" t="n">
-        <v>334038006830.7208</v>
+        <v>332840514246.0042</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B119" t="n">
-        <v>383166000000</v>
+        <v>383974000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8686587908269632</v>
+        <v>0.8761170492377782</v>
       </c>
       <c r="D119" t="n">
-        <v>332840514246.0042</v>
+        <v>336406167864.0267</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B120" t="n">
-        <v>383974000000</v>
+        <v>385573000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8761170492377782</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="D120" t="n">
-        <v>336406167864.0267</v>
+        <v>340612190812.7209</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B121" t="n">
-        <v>385573000000</v>
+        <v>385597000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.88339222614841</v>
+        <v>0.8907892392659896</v>
       </c>
       <c r="D121" t="n">
-        <v>340612190812.7209</v>
+        <v>343485658293.2478</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B122" t="n">
-        <v>385597000000</v>
+        <v>386166000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8907892392659896</v>
+        <v>0.8811349017534584</v>
       </c>
       <c r="D122" t="n">
-        <v>343485658293.2478</v>
+        <v>340264340470.526</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B123" t="n">
-        <v>386166000000</v>
+        <v>387836000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8811349017534584</v>
+        <v>0.8646779074794638</v>
       </c>
       <c r="D123" t="n">
-        <v>340264340470.526</v>
+        <v>335353220925.2053</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B124" t="n">
-        <v>387836000000</v>
+        <v>390429000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8646779074794638</v>
+        <v>0.8512811781731505</v>
       </c>
       <c r="D124" t="n">
-        <v>335353220925.2053</v>
+        <v>332364859112.965</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B125" t="n">
-        <v>390429000000</v>
+        <v>392338000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8512811781731505</v>
+        <v>0.8460952703274389</v>
       </c>
       <c r="D125" t="n">
-        <v>332364859112.965</v>
+        <v>331955326169.7267</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B126" t="n">
-        <v>392338000000</v>
+        <v>392743000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8460952703274389</v>
+        <v>0.8407600470825626</v>
       </c>
       <c r="D126" t="n">
-        <v>331955326169.7267</v>
+        <v>330202623171.3469</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B127" t="n">
-        <v>392743000000</v>
+        <v>394119000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8407600470825626</v>
+        <v>0.8394895903290799</v>
       </c>
       <c r="D127" t="n">
-        <v>330202623171.3469</v>
+        <v>330858797850.9066</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B128" t="n">
-        <v>394119000000</v>
+        <v>394350000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8394895903290799</v>
+        <v>0.8310479514667997</v>
       </c>
       <c r="D128" t="n">
-        <v>330858797850.9066</v>
+        <v>327723759660.9324</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B129" t="n">
-        <v>394350000000</v>
+        <v>394189000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8310479514667997</v>
+        <v>0.8341675008341675</v>
       </c>
       <c r="D129" t="n">
-        <v>327723759660.9324</v>
+        <v>328819652986.3196</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B130" t="n">
-        <v>394189000000</v>
+        <v>397321000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8341675008341675</v>
+        <v>0.8453085376162299</v>
       </c>
       <c r="D130" t="n">
-        <v>328819652986.3196</v>
+        <v>335858833474.2181</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B131" t="n">
-        <v>397321000000</v>
+        <v>398941000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8453085376162299</v>
+        <v>0.8371703641691085</v>
       </c>
       <c r="D131" t="n">
-        <v>335858833474.2181</v>
+        <v>333981582251.9883</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B132" t="n">
-        <v>398941000000</v>
+        <v>400892000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8371703641691085</v>
+        <v>0.8029548739360848</v>
       </c>
       <c r="D132" t="n">
-        <v>333981582251.9883</v>
+        <v>321898185321.9849</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B133" t="n">
-        <v>400892000000</v>
+        <v>398608000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8029548739360848</v>
+        <v>0.8081461128171973</v>
       </c>
       <c r="D133" t="n">
-        <v>321898185321.9849</v>
+        <v>322133505737.8374</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B134" t="n">
-        <v>398608000000</v>
+        <v>400520000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8081461128171973</v>
+        <v>0.7770007770007771</v>
       </c>
       <c r="D134" t="n">
-        <v>322133505737.8374</v>
+        <v>311204351204.3513</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B135" t="n">
-        <v>400520000000</v>
+        <v>400819000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7770007770007771</v>
+        <v>0.7867820613690009</v>
       </c>
       <c r="D135" t="n">
-        <v>311204351204.3513</v>
+        <v>315357199055.8616</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B136" t="n">
-        <v>400819000000</v>
+        <v>400221000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7867820613690009</v>
+        <v>0.7888301648655044</v>
       </c>
       <c r="D136" t="n">
-        <v>315357199055.8616</v>
+        <v>315706397412.637</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B137" t="n">
-        <v>400221000000</v>
+        <v>401587000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7888301648655044</v>
+        <v>0.8003201280512204</v>
       </c>
       <c r="D137" t="n">
-        <v>315706397412.637</v>
+        <v>321398159263.7054</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B138" t="n">
-        <v>401587000000</v>
+        <v>402997000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8003201280512204</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D138" t="n">
-        <v>321398159263.7054</v>
+        <v>320169222213.3948</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B139" t="n">
-        <v>402997000000</v>
+        <v>404748000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.7866582756450597</v>
       </c>
       <c r="D139" t="n">
-        <v>320169222213.3948</v>
+        <v>318398363750.7866</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B140" t="n">
-        <v>404748000000</v>
+        <v>406759000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7866582756450597</v>
+        <v>0.7869678130164477</v>
       </c>
       <c r="D140" t="n">
-        <v>318398363750.7866</v>
+        <v>320106240654.7573</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B141" t="n">
-        <v>406759000000</v>
+        <v>408895000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7869678130164477</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D141" t="n">
-        <v>320106240654.7573</v>
+        <v>318925980812.7291</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B142" t="n">
-        <v>408895000000</v>
+        <v>408308000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.7780284758422158</v>
       </c>
       <c r="D142" t="n">
-        <v>318925980812.7291</v>
+        <v>317675250914.1835</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B143" t="n">
-        <v>408308000000</v>
+        <v>409970000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7780284758422158</v>
+        <v>0.7580926389204761</v>
       </c>
       <c r="D143" t="n">
-        <v>317675250914.1835</v>
+        <v>310795239178.2276</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B144" t="n">
-        <v>409970000000</v>
+        <v>410678000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7580926389204761</v>
+        <v>0.749512816669165</v>
       </c>
       <c r="D144" t="n">
-        <v>310795239178.2276</v>
+        <v>307808424524.0593</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B145" t="n">
-        <v>410678000000</v>
+        <v>409567000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.749512816669165</v>
+        <v>0.7575183698204682</v>
       </c>
       <c r="D145" t="n">
-        <v>307808424524.0593</v>
+        <v>310254526172.2597</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B146" t="n">
-        <v>409567000000</v>
+        <v>409864000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7575183698204682</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D146" t="n">
-        <v>310254526172.2597</v>
+        <v>307060233742.8828</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B147" t="n">
-        <v>409864000000</v>
+        <v>411463000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7566585956416464</v>
       </c>
       <c r="D147" t="n">
-        <v>307060233742.8828</v>
+        <v>311337015738.4988</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B148" t="n">
-        <v>411463000000</v>
+        <v>413157000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7566585956416464</v>
+        <v>0.7522756337922215</v>
       </c>
       <c r="D148" t="n">
-        <v>311337015738.4988</v>
+        <v>310807944030.6929</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B149" t="n">
-        <v>413157000000</v>
+        <v>413596000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7522756337922215</v>
+        <v>0.7409602845287493</v>
       </c>
       <c r="D149" t="n">
-        <v>310807944030.6929</v>
+        <v>306458209839.9526</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B150" t="n">
-        <v>413596000000</v>
+        <v>409983000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7409602845287493</v>
+        <v>0.7227000072270001</v>
       </c>
       <c r="D150" t="n">
-        <v>306458209839.9526</v>
+        <v>296294717062.9472</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B151" t="n">
-        <v>409983000000</v>
+        <v>411390000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7227000072270001</v>
+        <v>0.7237984944991315</v>
       </c>
       <c r="D151" t="n">
-        <v>296294717062.9472</v>
+        <v>297763462651.9977</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B152" t="n">
-        <v>411390000000</v>
+        <v>411805000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7237984944991315</v>
+        <v>0.7231180851833104</v>
       </c>
       <c r="D152" t="n">
-        <v>297763462651.9977</v>
+        <v>297783643068.9131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B153" t="n">
-        <v>411805000000</v>
+        <v>413228000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7231180851833104</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D153" t="n">
-        <v>297783643068.9131</v>
+        <v>298726234367.0932</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B154" t="n">
-        <v>413228000000</v>
+        <v>416310000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7209285559801024</v>
       </c>
       <c r="D154" t="n">
-        <v>298726234367.0932</v>
+        <v>300129767140.0764</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B155" t="n">
-        <v>416310000000</v>
+        <v>418221000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7209285559801024</v>
+        <v>0.7318501170960187</v>
       </c>
       <c r="D155" t="n">
-        <v>300129767140.0764</v>
+        <v>306075087822.014</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B156" t="n">
-        <v>418221000000</v>
+        <v>419884000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7318501170960187</v>
+        <v>0.7447125409591897</v>
       </c>
       <c r="D156" t="n">
-        <v>306075087822.014</v>
+        <v>312692880548.1084</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B157" t="n">
-        <v>419884000000</v>
+        <v>420714000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7447125409591897</v>
+        <v>0.7389344565137073</v>
       </c>
       <c r="D157" t="n">
-        <v>312692880548.1084</v>
+        <v>310880070937.7078</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B158" t="n">
-        <v>420714000000</v>
+        <v>420680000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7389344565137073</v>
+        <v>0.7269555103227683</v>
       </c>
       <c r="D158" t="n">
-        <v>310880070937.7078</v>
+        <v>305815644082.5822</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B159" t="n">
-        <v>420680000000</v>
+        <v>422101000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7269555103227683</v>
+        <v>0.7135212272565109</v>
       </c>
       <c r="D159" t="n">
-        <v>305815644082.5822</v>
+        <v>301178023546.2005</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B160" t="n">
-        <v>422101000000</v>
+        <v>425148000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7135212272565109</v>
+        <v>0.710580544304697</v>
       </c>
       <c r="D160" t="n">
-        <v>301178023546.2005</v>
+        <v>302101897250.0533</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B161" t="n">
-        <v>425148000000</v>
+        <v>426237000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.710580544304697</v>
+        <v>0.7194762213108857</v>
       </c>
       <c r="D161" t="n">
-        <v>302101897250.0533</v>
+        <v>306667386142.888</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B162" t="n">
-        <v>426237000000</v>
+        <v>427897000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7194762213108857</v>
+        <v>0.7147451933385748</v>
       </c>
       <c r="D162" t="n">
-        <v>306667386142.888</v>
+        <v>305837323993.9962</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B163" t="n">
-        <v>427897000000</v>
+        <v>429643000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7147451933385748</v>
+        <v>0.7379529186037931</v>
       </c>
       <c r="D163" t="n">
-        <v>305837323993.9962</v>
+        <v>317056305807.6895</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B164" t="n">
-        <v>429643000000</v>
+        <v>430736000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7379529186037931</v>
+        <v>0.7298737318443909</v>
       </c>
       <c r="D164" t="n">
-        <v>317056305807.6895</v>
+        <v>314382891759.7255</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B165" t="n">
-        <v>430736000000</v>
+        <v>433634000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7298737318443909</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D165" t="n">
-        <v>314382891759.7255</v>
+        <v>316128891156.9586</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B166" t="n">
-        <v>433634000000</v>
+        <v>434936000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D166" t="n">
-        <v>316128891156.9586</v>
+        <v>318727832331.8188</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B167" t="n">
-        <v>434936000000</v>
+        <v>436339000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7445461990916536</v>
       </c>
       <c r="D167" t="n">
-        <v>318727832331.8188</v>
+        <v>324874543965.4531</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B168" t="n">
-        <v>436339000000</v>
+        <v>439202000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7445461990916536</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D168" t="n">
-        <v>324874543965.4531</v>
+        <v>328105483340.8038</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B169" t="n">
-        <v>439202000000</v>
+        <v>438892000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7438815740534107</v>
       </c>
       <c r="D169" t="n">
-        <v>328105483340.8038</v>
+        <v>326483671799.4495</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B170" t="n">
-        <v>438892000000</v>
+        <v>439931000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7438815740534107</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D170" t="n">
-        <v>326483671799.4495</v>
+        <v>323336028222.8428</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B171" t="n">
-        <v>439931000000</v>
+        <v>441103000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D171" t="n">
-        <v>323336028222.8428</v>
+        <v>323247105378.8656</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B172" t="n">
-        <v>441103000000</v>
+        <v>442368000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7279079924297569</v>
       </c>
       <c r="D172" t="n">
-        <v>323247105378.8656</v>
+        <v>322003202795.1667</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B173" t="n">
-        <v>442368000000</v>
+        <v>444600000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7279079924297569</v>
+        <v>0.7298204641658151</v>
       </c>
       <c r="D173" t="n">
-        <v>322003202795.1667</v>
+        <v>324478178368.1214</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B174" t="n">
-        <v>444600000000</v>
+        <v>446271000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7298204641658151</v>
+        <v>0.7357810315650063</v>
       </c>
       <c r="D174" t="n">
-        <v>324478178368.1214</v>
+        <v>328357736737.5469</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B175" t="n">
-        <v>446271000000</v>
+        <v>446482000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7357810315650063</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D175" t="n">
-        <v>328357736737.5469</v>
+        <v>328150815816.5515</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B176" t="n">
-        <v>446482000000</v>
+        <v>448033000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7306202966318405</v>
       </c>
       <c r="D176" t="n">
-        <v>328150815816.5515</v>
+        <v>327342003360.8534</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B177" t="n">
-        <v>448033000000</v>
+        <v>449428000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7306202966318405</v>
+        <v>0.7334604664808567</v>
       </c>
       <c r="D177" t="n">
-        <v>327342003360.8534</v>
+        <v>329637670529.5585</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B178" t="n">
-        <v>449428000000</v>
+        <v>447133000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7334604664808567</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D178" t="n">
-        <v>329637670529.5585</v>
+        <v>325211288093.6795</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B179" t="n">
-        <v>447133000000</v>
+        <v>447620000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7310475911981871</v>
       </c>
       <c r="D179" t="n">
-        <v>325211288093.6795</v>
+        <v>327231522772.1325</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B180" t="n">
-        <v>447620000000</v>
+        <v>449024000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7310475911981871</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D180" t="n">
-        <v>327231522772.1325</v>
+        <v>329752515238.3051</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B181" t="n">
-        <v>449024000000</v>
+        <v>448985000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7471049682480388</v>
       </c>
       <c r="D181" t="n">
-        <v>329752515238.3051</v>
+        <v>335438924168.8457</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B182" t="n">
-        <v>448985000000</v>
+        <v>447731000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7471049682480388</v>
+        <v>0.7402472425790214</v>
       </c>
       <c r="D182" t="n">
-        <v>335438924168.8457</v>
+        <v>331431638167.1478</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B183" t="n">
-        <v>447731000000</v>
+        <v>448419000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7402472425790214</v>
+        <v>0.7297672042618404</v>
       </c>
       <c r="D183" t="n">
-        <v>331431638167.1478</v>
+        <v>327241479967.8902</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B184" t="n">
-        <v>448419000000</v>
+        <v>449269000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7297672042618404</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D184" t="n">
-        <v>327241479967.8902</v>
+        <v>333557799391.1946</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B185" t="n">
-        <v>449269000000</v>
+        <v>449193000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7309407207075506</v>
       </c>
       <c r="D185" t="n">
-        <v>333557799391.1946</v>
+        <v>328333455156.7867</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B186" t="n">
-        <v>449193000000</v>
+        <v>447801000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7309407207075506</v>
+        <v>0.7224911494834187</v>
       </c>
       <c r="D186" t="n">
-        <v>328333455156.7867</v>
+        <v>323532259229.8244</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B187" t="n">
-        <v>447801000000</v>
+        <v>448519000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7224911494834187</v>
+        <v>0.7156659271452086</v>
       </c>
       <c r="D187" t="n">
-        <v>323532259229.8244</v>
+        <v>320989765977.2418</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B188" t="n">
-        <v>448519000000</v>
+        <v>448940000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7156659271452086</v>
+        <v>0.7265857734505557</v>
       </c>
       <c r="D188" t="n">
-        <v>320989765977.2418</v>
+        <v>326193417132.8925</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B189" t="n">
-        <v>448940000000</v>
+        <v>449572000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7265857734505557</v>
+        <v>0.7240605314604301</v>
       </c>
       <c r="D189" t="n">
-        <v>326193417132.8925</v>
+        <v>325517341249.7285</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B190" t="n">
-        <v>449572000000</v>
+        <v>446917000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7240605314604301</v>
+        <v>0.7259001161440186</v>
       </c>
       <c r="D190" t="n">
-        <v>325517341249.7285</v>
+        <v>324417102206.7364</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B191" t="n">
-        <v>446917000000</v>
+        <v>446334000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7259001161440186</v>
+        <v>0.7202535292422932</v>
       </c>
       <c r="D191" t="n">
-        <v>324417102206.7364</v>
+        <v>321473638720.8297</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B192" t="n">
-        <v>446334000000</v>
+        <v>445831000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7202535292422932</v>
+        <v>0.7239032865209208</v>
       </c>
       <c r="D192" t="n">
-        <v>321473638720.8297</v>
+        <v>322738526132.9086</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B193" t="n">
-        <v>445831000000</v>
+        <v>445044000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7239032865209208</v>
+        <v>0.7102272727272728</v>
       </c>
       <c r="D193" t="n">
-        <v>322738526132.9086</v>
+        <v>316082386363.6364</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B194" t="n">
-        <v>445044000000</v>
+        <v>446053000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.7027900766041183</v>
       </c>
       <c r="D194" t="n">
-        <v>316082386363.6364</v>
+        <v>313481622039.4968</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B195" t="n">
-        <v>446053000000</v>
+        <v>445467000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7027900766041183</v>
+        <v>0.6996431819771917</v>
       </c>
       <c r="D195" t="n">
-        <v>313481622039.4968</v>
+        <v>311667949345.8336</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B196" t="n">
-        <v>445467000000</v>
+        <v>444813000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6996431819771917</v>
+        <v>0.6879471656576774</v>
       </c>
       <c r="D196" t="n">
-        <v>311667949345.8336</v>
+        <v>306007842597.6885</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B197" t="n">
-        <v>444813000000</v>
+        <v>442837000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6879471656576774</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D197" t="n">
-        <v>306007842597.6885</v>
+        <v>310981039325.8427</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B198" t="n">
-        <v>442837000000</v>
+        <v>440915000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.702247191011236</v>
+        <v>0.70482097547223</v>
       </c>
       <c r="D198" t="n">
-        <v>310981039325.8427</v>
+        <v>310766140400.3383</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B199" t="n">
-        <v>440915000000</v>
+        <v>440589000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.70482097547223</v>
+        <v>0.6988608568034104</v>
       </c>
       <c r="D199" t="n">
-        <v>310766140400.3383</v>
+        <v>307910406038.1578</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B200" t="n">
-        <v>440589000000</v>
+        <v>441843000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6988608568034104</v>
+        <v>0.6863417982155113</v>
       </c>
       <c r="D200" t="n">
-        <v>307910406038.1578</v>
+        <v>303255319148.9362</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B201" t="n">
-        <v>441843000000</v>
+        <v>441641000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6863417982155113</v>
+        <v>0.6815703380588877</v>
       </c>
       <c r="D201" t="n">
-        <v>303255319148.9362</v>
+        <v>301009405670.6652</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B202" t="n">
-        <v>441641000000</v>
+        <v>442493000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6815703380588877</v>
+        <v>0.6610259122157589</v>
       </c>
       <c r="D202" t="n">
-        <v>301009405670.6652</v>
+        <v>292499338974.0878</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B203" t="n">
-        <v>442493000000</v>
+        <v>444070000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6610259122157589</v>
+        <v>0.6389368091495752</v>
       </c>
       <c r="D203" t="n">
-        <v>292499338974.0878</v>
+        <v>283732668839.0519</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B204" t="n">
-        <v>444070000000</v>
+        <v>445748000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6389368091495752</v>
+        <v>0.6536374926465782</v>
       </c>
       <c r="D204" t="n">
-        <v>283732668839.0519</v>
+        <v>291357605072.2269</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B205" t="n">
-        <v>445748000000</v>
+        <v>447404000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6536374926465782</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="D205" t="n">
-        <v>291357605072.2269</v>
+        <v>289769430051.8135</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B206" t="n">
-        <v>447404000000</v>
+        <v>448114000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6476683937823834</v>
+        <v>0.6520605112154407</v>
       </c>
       <c r="D206" t="n">
-        <v>289769430051.8135</v>
+        <v>292197443922.796</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B207" t="n">
-        <v>448114000000</v>
+        <v>449236000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6520605112154407</v>
+        <v>0.6502796202367017</v>
       </c>
       <c r="D207" t="n">
-        <v>292197443922.796</v>
+        <v>292129015476.6549</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B208" t="n">
-        <v>449236000000</v>
+        <v>452562000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6502796202367017</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D208" t="n">
-        <v>292129015476.6549</v>
+        <v>299491760968.8306</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B209" t="n">
-        <v>452562000000</v>
+        <v>453707000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6626466105625869</v>
       </c>
       <c r="D209" t="n">
-        <v>299491760968.8306</v>
+        <v>300647405738.5196</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B210" t="n">
-        <v>453707000000</v>
+        <v>455243000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6626466105625869</v>
+        <v>0.6635259770420011</v>
       </c>
       <c r="D210" t="n">
-        <v>300647405738.5196</v>
+        <v>302065556366.5317</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B211" t="n">
-        <v>455243000000</v>
+        <v>457637000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6635259770420011</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D211" t="n">
-        <v>302065556366.5317</v>
+        <v>314181655911.0257</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B212" t="n">
-        <v>457637000000</v>
+        <v>459005000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6783800284919612</v>
       </c>
       <c r="D212" t="n">
-        <v>314181655911.0257</v>
+        <v>311379824977.9526</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B213" t="n">
-        <v>459005000000</v>
+        <v>458636000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6783800284919612</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D213" t="n">
-        <v>311379824977.9526</v>
+        <v>313511518217.2397</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B214" t="n">
-        <v>458636000000</v>
+        <v>460383000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.6638343069569835</v>
       </c>
       <c r="D214" t="n">
-        <v>313511518217.2397</v>
+        <v>305618029739.777</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B215" t="n">
-        <v>460383000000</v>
+        <v>463862000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6638343069569835</v>
+        <v>0.6701065469409636</v>
       </c>
       <c r="D215" t="n">
-        <v>305618029739.777</v>
+        <v>310836963077.1293</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B216" t="n">
-        <v>463862000000</v>
+        <v>465089000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6701065469409636</v>
+        <v>0.6816167950378297</v>
       </c>
       <c r="D216" t="n">
-        <v>310836963077.1293</v>
+        <v>317012473587.3492</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B217" t="n">
-        <v>465089000000</v>
+        <v>467460000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6816167950378297</v>
+        <v>0.6802258349772125</v>
       </c>
       <c r="D217" t="n">
-        <v>317012473587.3492</v>
+        <v>317978368818.4478</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B218" t="n">
-        <v>467460000000</v>
+        <v>471223000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6802258349772125</v>
+        <v>0.6787023211619384</v>
       </c>
       <c r="D218" t="n">
-        <v>317978368818.4478</v>
+        <v>319820143884.8921</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B219" t="n">
-        <v>471223000000</v>
+        <v>476000000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6787023211619384</v>
+        <v>0.6907031357922365</v>
       </c>
       <c r="D219" t="n">
-        <v>319820143884.8921</v>
+        <v>328774692637.1046</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B220" t="n">
-        <v>476000000000</v>
+        <v>478777000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6907031357922365</v>
+        <v>0.6906554320049727</v>
       </c>
       <c r="D220" t="n">
-        <v>328774692637.1046</v>
+        <v>330669935769.0448</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B221" t="n">
-        <v>478777000000</v>
+        <v>483138000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6906554320049727</v>
+        <v>0.6894174422612892</v>
       </c>
       <c r="D221" t="n">
-        <v>330669935769.0448</v>
+        <v>333083764219.2347</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B222" t="n">
-        <v>483138000000</v>
+        <v>486889000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6894174422612892</v>
+        <v>0.689893066574681</v>
       </c>
       <c r="D222" t="n">
-        <v>333083764219.2347</v>
+        <v>335901345291.4799</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B223" t="n">
-        <v>486889000000</v>
+        <v>490793000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.689893066574681</v>
+        <v>0.6755387421468622</v>
       </c>
       <c r="D223" t="n">
-        <v>335901345291.4799</v>
+        <v>331549685874.4849</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B224" t="n">
-        <v>490793000000</v>
+        <v>491187000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6755387421468622</v>
+        <v>0.6680919294494923</v>
       </c>
       <c r="D224" t="n">
-        <v>331549685874.4849</v>
+        <v>328158070550.5078</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B225" t="n">
-        <v>491187000000</v>
+        <v>494850000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6680919294494923</v>
+        <v>0.6755843804891231</v>
       </c>
       <c r="D225" t="n">
-        <v>328158070550.5078</v>
+        <v>334312930685.0425</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B226" t="n">
-        <v>494850000000</v>
+        <v>497053000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6755843804891231</v>
+        <v>0.6725854183481302</v>
       </c>
       <c r="D226" t="n">
-        <v>334312930685.0425</v>
+        <v>334310599946.1932</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B227" t="n">
-        <v>497053000000</v>
+        <v>499188000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6725854183481302</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D227" t="n">
-        <v>334310599946.1932</v>
+        <v>338984109737.8786</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B228" t="n">
-        <v>499188000000</v>
+        <v>501894000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.6650704974727321</v>
       </c>
       <c r="D228" t="n">
-        <v>338984109737.8786</v>
+        <v>333794892258.5794</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B229" t="n">
-        <v>501894000000</v>
+        <v>504302000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6650704974727321</v>
+        <v>0.6562541015881349</v>
       </c>
       <c r="D229" t="n">
-        <v>333794892258.5794</v>
+        <v>330950255939.0996</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B230" t="n">
-        <v>504302000000</v>
+        <v>505093000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6562541015881349</v>
+        <v>0.6505334374186834</v>
       </c>
       <c r="D230" t="n">
-        <v>330950255939.0996</v>
+        <v>328579885506.1151</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B231" t="n">
-        <v>505093000000</v>
+        <v>510405000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6505334374186834</v>
+        <v>0.6673785371062467</v>
       </c>
       <c r="D231" t="n">
-        <v>328579885506.1151</v>
+        <v>340633342231.7139</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B232" t="n">
-        <v>510405000000</v>
+        <v>510442000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6673785371062467</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D232" t="n">
-        <v>340633342231.7139</v>
+        <v>340771747112.6244</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B233" t="n">
-        <v>510442000000</v>
+        <v>515321000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6507027589796981</v>
       </c>
       <c r="D233" t="n">
-        <v>340771747112.6244</v>
+        <v>335320796460.177</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B234" t="n">
-        <v>515321000000</v>
+        <v>518685000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.6507027589796981</v>
+        <v>0.634236062662523</v>
       </c>
       <c r="D234" t="n">
-        <v>335320796460.177</v>
+        <v>328968732162.1107</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B235" t="n">
-        <v>518685000000</v>
+        <v>519198000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.634236062662523</v>
+        <v>0.6513385006187715</v>
       </c>
       <c r="D235" t="n">
-        <v>328968732162.1107</v>
+        <v>338173646844.265</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B236" t="n">
-        <v>519198000000</v>
+        <v>521538000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6513385006187715</v>
+        <v>0.6500260010400416</v>
       </c>
       <c r="D236" t="n">
-        <v>338173646844.265</v>
+        <v>339013260530.4212</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B237" t="n">
-        <v>521538000000</v>
+        <v>518020000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6500260010400416</v>
+        <v>0.6603711285742587</v>
       </c>
       <c r="D237" t="n">
-        <v>339013260530.4212</v>
+        <v>342085452024.0375</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B238" t="n">
-        <v>518020000000</v>
+        <v>520335000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6603711285742587</v>
+        <v>0.6519754857217368</v>
       </c>
       <c r="D238" t="n">
-        <v>342085452024.0375</v>
+        <v>339245664363.0199</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B239" t="n">
-        <v>520335000000</v>
+        <v>520759000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.6519754857217368</v>
+        <v>0.6452861844227915</v>
       </c>
       <c r="D239" t="n">
-        <v>339245664363.0199</v>
+        <v>336038588113.8285</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B240" t="n">
-        <v>520759000000</v>
+        <v>527610000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6452861844227915</v>
+        <v>0.6331919204710948</v>
       </c>
       <c r="D240" t="n">
-        <v>336038588113.8285</v>
+        <v>334078389159.7543</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B241" t="n">
-        <v>527610000000</v>
+        <v>531066000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6331919204710948</v>
+        <v>0.629643621710112</v>
       </c>
       <c r="D241" t="n">
-        <v>334078389159.7543</v>
+        <v>334382319607.1024</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B242" t="n">
-        <v>531066000000</v>
+        <v>535473000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.629643621710112</v>
+        <v>0.6362537379907106</v>
       </c>
       <c r="D242" t="n">
-        <v>334382319607.1024</v>
+        <v>340696697843.0998</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B243" t="n">
-        <v>535473000000</v>
+        <v>537884000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6362537379907106</v>
+        <v>0.628693574751666</v>
       </c>
       <c r="D243" t="n">
-        <v>340696697843.0998</v>
+        <v>338164214761.7251</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B244" t="n">
-        <v>537884000000</v>
+        <v>538462000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.628693574751666</v>
+        <v>0.6291286568103177</v>
       </c>
       <c r="D244" t="n">
-        <v>338164214761.7251</v>
+        <v>338761874803.3973</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B245" t="n">
-        <v>538462000000</v>
+        <v>541449000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6291286568103177</v>
+        <v>0.6242197253433208</v>
       </c>
       <c r="D245" t="n">
-        <v>338761874803.3973</v>
+        <v>337983146067.4157</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B246" t="n">
-        <v>541449000000</v>
+        <v>543983000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6242197253433208</v>
+        <v>0.6272345229881452</v>
       </c>
       <c r="D246" t="n">
-        <v>337983146067.4157</v>
+        <v>341204917518.6602</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B247" t="n">
-        <v>543983000000</v>
+        <v>545554000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6272345229881452</v>
+        <v>0.6381620931716656</v>
       </c>
       <c r="D247" t="n">
-        <v>341204917518.6602</v>
+        <v>348151882578.1749</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B248" t="n">
-        <v>545554000000</v>
+        <v>544635000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.6381620931716656</v>
+        <v>0.654150585464774</v>
       </c>
       <c r="D248" t="n">
-        <v>348151882578.1749</v>
+        <v>356273304114.6072</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B249" t="n">
-        <v>544635000000</v>
+        <v>547075000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.654150585464774</v>
+        <v>0.6595435958316844</v>
       </c>
       <c r="D249" t="n">
-        <v>356273304114.6072</v>
+        <v>360819812689.6188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B250" t="n">
-        <v>547075000000</v>
+        <v>550448000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6595435958316844</v>
+        <v>0.631432720843594</v>
       </c>
       <c r="D250" t="n">
-        <v>360819812689.6188</v>
+        <v>347570878322.9147</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B251" t="n">
-        <v>550448000000</v>
+        <v>553147000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.631432720843594</v>
+        <v>0.6415602745877975</v>
       </c>
       <c r="D251" t="n">
-        <v>347570878322.9147</v>
+        <v>354877141207.4164</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B252" t="n">
-        <v>553147000000</v>
+        <v>555860000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.6415602745877975</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D252" t="n">
-        <v>354877141207.4164</v>
+        <v>350324573013.172</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B253" t="n">
-        <v>555860000000</v>
+        <v>560690000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D253" t="n">
-        <v>350324573013.172</v>
+        <v>359739509816.502</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B254" t="n">
-        <v>560690000000</v>
+        <v>562379000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6390593047034765</v>
       </c>
       <c r="D254" t="n">
-        <v>359739509816.502</v>
+        <v>359393532719.8364</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B255" t="n">
-        <v>562379000000</v>
+        <v>563618000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.6390593047034765</v>
+        <v>0.6343567622430855</v>
       </c>
       <c r="D255" t="n">
-        <v>359393532719.8364</v>
+        <v>357534889621.9233</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B256" t="n">
-        <v>563618000000</v>
+        <v>566685000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.6343567622430855</v>
+        <v>0.6572461386789352</v>
       </c>
       <c r="D256" t="n">
-        <v>357534889621.9233</v>
+        <v>372451528097.2724</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B257" t="n">
-        <v>566685000000</v>
+        <v>569806000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6572461386789352</v>
+        <v>0.6739906989283547</v>
       </c>
       <c r="D257" t="n">
-        <v>372451528097.2724</v>
+        <v>384043944193.5701</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B258" t="n">
-        <v>569806000000</v>
+        <v>571313000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6739906989283547</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="D258" t="n">
-        <v>384043944193.5701</v>
+        <v>389310391822.8279</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B259" t="n">
-        <v>571313000000</v>
+        <v>573864000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D259" t="n">
-        <v>389310391822.8279</v>
+        <v>400435419719.4893</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B260" t="n">
-        <v>573864000000</v>
+        <v>575443000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7311010381634743</v>
       </c>
       <c r="D260" t="n">
-        <v>400435419719.4893</v>
+        <v>420706974703.9041</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B261" t="n">
-        <v>575443000000</v>
+        <v>578862000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.7311010381634743</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D261" t="n">
-        <v>420706974703.9041</v>
+        <v>429773554087.1631</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" t="n">
-        <v>578862000000</v>
+        <v>584715000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7121999857560003</v>
       </c>
       <c r="D262" t="n">
-        <v>429773554087.1631</v>
+        <v>416434014671.3197</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" t="n">
-        <v>584715000000</v>
+        <v>587823000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.7121999857560003</v>
+        <v>0.721917412647993</v>
       </c>
       <c r="D263" t="n">
-        <v>416434014671.3197</v>
+        <v>424359659254.9812</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" t="n">
-        <v>587823000000</v>
+        <v>591013000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.721917412647993</v>
+        <v>0.7398091292446549</v>
       </c>
       <c r="D264" t="n">
-        <v>424359659254.9812</v>
+        <v>437236812902.2712</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" t="n">
-        <v>591013000000</v>
+        <v>591443000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7398091292446549</v>
+        <v>0.7584951456310679</v>
       </c>
       <c r="D265" t="n">
-        <v>437236812902.2712</v>
+        <v>448606644417.4757</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B266" t="n">
-        <v>591443000000</v>
+        <v>594698000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7584951456310679</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D266" t="n">
-        <v>448606644417.4757</v>
+        <v>457953180348.0671</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B267" t="n">
-        <v>594698000000</v>
+        <v>598107000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7741136398823347</v>
       </c>
       <c r="D267" t="n">
-        <v>457953180348.0671</v>
+        <v>463002786809.1036</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B268" t="n">
-        <v>598107000000</v>
+        <v>603150000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7741136398823347</v>
+        <v>0.7550018875047187</v>
       </c>
       <c r="D268" t="n">
-        <v>463002786809.1036</v>
+        <v>455379388448.4711</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B269" t="n">
-        <v>603150000000</v>
+        <v>604870000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7550018875047187</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D269" t="n">
-        <v>455379388448.4711</v>
+        <v>453018274415.8179</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B270" t="n">
-        <v>604870000000</v>
+        <v>609773000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7639419404125287</v>
       </c>
       <c r="D270" t="n">
-        <v>453018274415.8179</v>
+        <v>465831168831.1689</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B271" t="n">
-        <v>609773000000</v>
+        <v>612585000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7639419404125287</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D271" t="n">
-        <v>465831168831.1689</v>
+        <v>446588175256.9804</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B272" t="n">
-        <v>612585000000</v>
+        <v>615387000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D272" t="n">
-        <v>446588175256.9804</v>
+        <v>451925534258.6473</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B273" t="n">
-        <v>615387000000</v>
+        <v>619665000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.75041272699985</v>
       </c>
       <c r="D273" t="n">
-        <v>451925534258.6473</v>
+        <v>465004502476.362</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B274" t="n">
-        <v>619665000000</v>
+        <v>621347000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.75041272699985</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D274" t="n">
-        <v>465004502476.362</v>
+        <v>467353892440.7673</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B275" t="n">
-        <v>621347000000</v>
+        <v>623669000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7618467164406522</v>
       </c>
       <c r="D275" t="n">
-        <v>467353892440.7673</v>
+        <v>475140179795.8251</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B276" t="n">
-        <v>623669000000</v>
+        <v>623563000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7618467164406522</v>
+        <v>0.7929585282689715</v>
       </c>
       <c r="D276" t="n">
-        <v>475140179795.8251</v>
+        <v>494459598762.9847</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B277" t="n">
-        <v>623563000000</v>
+        <v>626622000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7929585282689715</v>
+        <v>0.8211528986697323</v>
       </c>
       <c r="D277" t="n">
-        <v>494459598762.9847</v>
+        <v>514552471670.225</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B278" t="n">
-        <v>626622000000</v>
+        <v>629528000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.8211528986697323</v>
+        <v>0.8423890152472412</v>
       </c>
       <c r="D278" t="n">
-        <v>514552471670.225</v>
+        <v>530307471990.5652</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B279" t="n">
-        <v>629528000000</v>
+        <v>635233000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8423890152472412</v>
+        <v>0.8309098462816784</v>
       </c>
       <c r="D279" t="n">
-        <v>530307471990.5652</v>
+        <v>527821354383.0494</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B280" t="n">
-        <v>635233000000</v>
+        <v>640875000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8309098462816784</v>
+        <v>0.8068420203324189</v>
       </c>
       <c r="D280" t="n">
-        <v>527821354383.0494</v>
+        <v>517084879780.539</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B281" t="n">
-        <v>640875000000</v>
+        <v>645747000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.8068420203324189</v>
+        <v>0.8105698305909054</v>
       </c>
       <c r="D281" t="n">
-        <v>517084879780.539</v>
+        <v>523423036394.5854</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B282" t="n">
-        <v>645747000000</v>
+        <v>647648000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8105698305909054</v>
+        <v>0.8262414277451872</v>
       </c>
       <c r="D282" t="n">
-        <v>523423036394.5854</v>
+        <v>535113608196.315</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B283" t="n">
-        <v>647648000000</v>
+        <v>650004000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8262414277451872</v>
+        <v>0.7948493760432398</v>
       </c>
       <c r="D283" t="n">
-        <v>535113608196.315</v>
+        <v>516655273825.61</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B284" t="n">
-        <v>650004000000</v>
+        <v>653021000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7948493760432398</v>
+        <v>0.7970032677133977</v>
       </c>
       <c r="D284" t="n">
-        <v>516655273825.61</v>
+        <v>520459870885.4706</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B285" t="n">
-        <v>653021000000</v>
+        <v>653626000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.7970032677133977</v>
+        <v>0.8163931749530573</v>
       </c>
       <c r="D285" t="n">
-        <v>520459870885.4706</v>
+        <v>533615805371.867</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B286" t="n">
-        <v>653626000000</v>
+        <v>653297000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8163931749530573</v>
+        <v>0.8170602173380178</v>
       </c>
       <c r="D286" t="n">
-        <v>533615805371.867</v>
+        <v>533782988806.275</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B287" t="n">
-        <v>653297000000</v>
+        <v>655137000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8170602173380178</v>
+        <v>0.8419634587858887</v>
       </c>
       <c r="D287" t="n">
-        <v>533782988806.275</v>
+        <v>551601414498.6108</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B288" t="n">
-        <v>655137000000</v>
+        <v>659252000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8419634587858887</v>
+        <v>0.8605111436193099</v>
       </c>
       <c r="D288" t="n">
-        <v>551601414498.6108</v>
+        <v>567293692453.3173</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B289" t="n">
-        <v>659252000000</v>
+        <v>663687000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8605111436193099</v>
+        <v>0.8459521191100584</v>
       </c>
       <c r="D289" t="n">
-        <v>567293692453.3173</v>
+        <v>561447424075.7974</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B290" t="n">
-        <v>663687000000</v>
+        <v>667046000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8459521191100584</v>
+        <v>0.8580744808649391</v>
       </c>
       <c r="D290" t="n">
-        <v>561447424075.7974</v>
+        <v>572375150163.0342</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B291" t="n">
-        <v>667046000000</v>
+        <v>671891000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8580744808649391</v>
+        <v>0.8604371020478404</v>
       </c>
       <c r="D291" t="n">
-        <v>572375150163.0342</v>
+        <v>578119944932.0255</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B292" t="n">
-        <v>671891000000</v>
+        <v>676375000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8604371020478404</v>
+        <v>0.8781173164734808</v>
       </c>
       <c r="D292" t="n">
-        <v>578119944932.0255</v>
+        <v>593936599929.7506</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B293" t="n">
-        <v>676375000000</v>
+        <v>683062000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8781173164734808</v>
+        <v>0.8796622097114708</v>
       </c>
       <c r="D293" t="n">
-        <v>593936599929.7506</v>
+        <v>600863828289.9366</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B294" t="n">
-        <v>683062000000</v>
+        <v>686912000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8796622097114708</v>
+        <v>0.8564576909900651</v>
       </c>
       <c r="D294" t="n">
-        <v>600863828289.9366</v>
+        <v>588311065433.3676</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B295" t="n">
-        <v>686912000000</v>
+        <v>690916000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.8564576909900651</v>
+        <v>0.894534394847482</v>
       </c>
       <c r="D295" t="n">
-        <v>588311065433.3676</v>
+        <v>618048125950.4429</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B296" t="n">
-        <v>690916000000</v>
+        <v>692890000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.894534394847482</v>
+        <v>0.9078529278256923</v>
       </c>
       <c r="D296" t="n">
-        <v>618048125950.4429</v>
+        <v>629042215161.1439</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B297" t="n">
-        <v>692890000000</v>
+        <v>697101000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9078529278256923</v>
+        <v>0.8962179602079227</v>
       </c>
       <c r="D297" t="n">
-        <v>629042215161.1439</v>
+        <v>624754436278.9031</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B298" t="n">
-        <v>697101000000</v>
+        <v>702908000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8962179602079227</v>
+        <v>0.8840951286358413</v>
       </c>
       <c r="D298" t="n">
-        <v>624754436278.9031</v>
+        <v>621437538679.1619</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B299" t="n">
-        <v>702908000000</v>
+        <v>709202000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.8840951286358413</v>
+        <v>0.9062075215224287</v>
       </c>
       <c r="D299" t="n">
-        <v>621437538679.1619</v>
+        <v>642684186678.7495</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B300" t="n">
-        <v>709202000000</v>
+        <v>715455000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9062075215224287</v>
+        <v>0.8950948800572861</v>
       </c>
       <c r="D300" t="n">
-        <v>642684186678.7495</v>
+        <v>640400107411.3856</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B301" t="n">
-        <v>715455000000</v>
+        <v>722293000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.8950948800572861</v>
+        <v>0.89126559714795</v>
       </c>
       <c r="D301" t="n">
-        <v>640400107411.3856</v>
+        <v>643754901960.7842</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B302" t="n">
-        <v>722293000000</v>
+        <v>727459000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.89126559714795</v>
+        <v>0.8770391159445711</v>
       </c>
       <c r="D302" t="n">
-        <v>643754901960.7842</v>
+        <v>638009998245.9218</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B303" t="n">
-        <v>727459000000</v>
+        <v>732122000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8770391159445711</v>
+        <v>0.8575593859874797</v>
       </c>
       <c r="D303" t="n">
-        <v>638009998245.9218</v>
+        <v>627838092787.9257</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B304" t="n">
-        <v>732122000000</v>
+        <v>736336000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.8575593859874797</v>
+        <v>0.8498342823149485</v>
       </c>
       <c r="D304" t="n">
-        <v>627838092787.9257</v>
+        <v>625763576102.6599</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B305" t="n">
-        <v>736336000000</v>
+        <v>738881000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.8498342823149485</v>
+        <v>0.8549200649739249</v>
       </c>
       <c r="D305" t="n">
-        <v>625763576102.6599</v>
+        <v>631684192527.9987</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B306" t="n">
-        <v>738881000000</v>
+        <v>743457000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.8549200649739249</v>
+        <v>0.8663259118080221</v>
       </c>
       <c r="D306" t="n">
-        <v>631684192527.9987</v>
+        <v>644076063415.0566</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B307" t="n">
-        <v>743457000000</v>
+        <v>746726000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8663259118080221</v>
+        <v>0.9013068949977467</v>
       </c>
       <c r="D307" t="n">
-        <v>644076063415.0566</v>
+        <v>673029292474.0874</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B308" t="n">
-        <v>746726000000</v>
+        <v>747290000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9013068949977467</v>
+        <v>0.9356287425149701</v>
       </c>
       <c r="D308" t="n">
-        <v>673029292474.0874</v>
+        <v>699186002994.012</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B309" t="n">
-        <v>747290000000</v>
+        <v>753228000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9356287425149701</v>
+        <v>0.9392317084624777</v>
       </c>
       <c r="D309" t="n">
-        <v>699186002994.012</v>
+        <v>707455621301.7751</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B310" t="n">
-        <v>753228000000</v>
+        <v>762391000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9392317084624777</v>
+        <v>0.9377344336084021</v>
       </c>
       <c r="D310" t="n">
-        <v>707455621301.7751</v>
+        <v>714920292573.1433</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B311" t="n">
-        <v>762391000000</v>
+        <v>767172000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9377344336084021</v>
+        <v>0.947059380623165</v>
       </c>
       <c r="D311" t="n">
-        <v>714920292573.1433</v>
+        <v>726557439151.4347</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B312" t="n">
-        <v>767172000000</v>
+        <v>771869000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.947059380623165</v>
+        <v>1.005429318318922</v>
       </c>
       <c r="D312" t="n">
-        <v>726557439151.4347</v>
+        <v>776059722501.5082</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B313" t="n">
-        <v>771869000000</v>
+        <v>770498000000</v>
       </c>
       <c r="C313" t="n">
-        <v>1.005429318318922</v>
+        <v>1.060670343657191</v>
       </c>
       <c r="D313" t="n">
-        <v>776059722501.5082</v>
+        <v>817244378447.1786</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B314" t="n">
-        <v>770498000000</v>
+        <v>773993000000</v>
       </c>
       <c r="C314" t="n">
-        <v>1.060670343657191</v>
+        <v>1.000100010001</v>
       </c>
       <c r="D314" t="n">
-        <v>817244378447.1786</v>
+        <v>774070407040.704</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B315" t="n">
-        <v>773993000000</v>
+        <v>780159000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.000100010001</v>
+        <v>1.011265497643751</v>
       </c>
       <c r="D315" t="n">
-        <v>774070407040.704</v>
+        <v>788947879376.2515</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B316" t="n">
-        <v>780159000000</v>
+        <v>789173000000</v>
       </c>
       <c r="C316" t="n">
-        <v>1.011265497643751</v>
+        <v>0.9973072703700011</v>
       </c>
       <c r="D316" t="n">
-        <v>788947879376.2515</v>
+        <v>787047970479.7048</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B317" t="n">
-        <v>789173000000</v>
+        <v>792462000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9973072703700011</v>
+        <v>1.016053647632595</v>
       </c>
       <c r="D317" t="n">
-        <v>787047970479.7048</v>
+        <v>805183905710.2214</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B318" t="n">
-        <v>792462000000</v>
+        <v>802004000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.016053647632595</v>
+        <v>0.9754384595875847</v>
       </c>
       <c r="D318" t="n">
-        <v>805183905710.2214</v>
+        <v>782305546343.0813</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B319" t="n">
-        <v>802004000000</v>
+        <v>808895000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9754384595875847</v>
+        <v>0.9923292945531045</v>
       </c>
       <c r="D319" t="n">
-        <v>782305546343.0813</v>
+        <v>802690204717.5334</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B320" t="n">
-        <v>808895000000</v>
+        <v>814551000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9923292945531045</v>
+        <v>1.006664116450905</v>
       </c>
       <c r="D320" t="n">
-        <v>802690204717.5334</v>
+        <v>819979262719.201</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B321" t="n">
-        <v>814551000000</v>
+        <v>820945000000</v>
       </c>
       <c r="C321" t="n">
-        <v>1.006664116450905</v>
+        <v>0.9789621043769395</v>
       </c>
       <c r="D321" t="n">
-        <v>819979262719.201</v>
+        <v>803674044777.7267</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B322" t="n">
-        <v>820945000000</v>
+        <v>825736000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9789621043769395</v>
+        <v>0.9760477872996662</v>
       </c>
       <c r="D322" t="n">
-        <v>803674044777.7267</v>
+        <v>805957795693.6772</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B323" t="n">
-        <v>825736000000</v>
+        <v>833368000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9760477872996662</v>
+        <v>0.9418146885418825</v>
       </c>
       <c r="D323" t="n">
-        <v>805957795693.6772</v>
+        <v>784878223360.7716</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B324" t="n">
-        <v>833368000000</v>
+        <v>844338000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9418146885418825</v>
+        <v>0.9397171451393131</v>
       </c>
       <c r="D324" t="n">
-        <v>784878223360.7716</v>
+        <v>793438894892.6373</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B325" t="n">
-        <v>844338000000</v>
+        <v>857769000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9397171451393131</v>
+        <v>0.8336807002917882</v>
       </c>
       <c r="D325" t="n">
-        <v>793438894892.6373</v>
+        <v>715105460608.5869</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B326" t="n">
-        <v>857769000000</v>
+        <v>874577000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.8336807002917882</v>
+        <v>0.8091662351113412</v>
       </c>
       <c r="D326" t="n">
-        <v>715105460608.5869</v>
+        <v>707678178404.9714</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B327" t="n">
-        <v>874577000000</v>
+        <v>890217000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8091662351113412</v>
+        <v>0.8207013713919916</v>
       </c>
       <c r="D327" t="n">
-        <v>707678178404.9714</v>
+        <v>730602312736.4646</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B328" t="n">
-        <v>890217000000</v>
+        <v>903968000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.8207013713919916</v>
+        <v>0.8155875084617203</v>
       </c>
       <c r="D328" t="n">
-        <v>730602312736.4646</v>
+        <v>737265008849.1244</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B329" t="n">
-        <v>903968000000</v>
+        <v>911816000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8155875084617203</v>
+        <v>0.7861140808754166</v>
       </c>
       <c r="D329" t="n">
-        <v>737265008849.1244</v>
+        <v>716791396767.4988</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B330" t="n">
-        <v>911816000000</v>
+        <v>923083000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.7861140808754166</v>
+        <v>0.793751587503175</v>
       </c>
       <c r="D330" t="n">
-        <v>716791396767.4988</v>
+        <v>732698596647.1932</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B331" t="n">
-        <v>923083000000</v>
+        <v>929833000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.793751587503175</v>
+        <v>0.8388276544701125</v>
       </c>
       <c r="D331" t="n">
-        <v>732698596647.1932</v>
+        <v>779969634438.9082</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B332" t="n">
-        <v>929833000000</v>
+        <v>933532000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8388276544701125</v>
+        <v>0.9159438343240793</v>
       </c>
       <c r="D332" t="n">
-        <v>779969634438.9082</v>
+        <v>855062879544.2264</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B333" t="n">
-        <v>933532000000</v>
+        <v>939155000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.9159438343240793</v>
+        <v>0.8606814876018832</v>
       </c>
       <c r="D333" t="n">
-        <v>855062879544.2264</v>
+        <v>808313322488.7467</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B334" t="n">
-        <v>939155000000</v>
+        <v>947686000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8606814876018832</v>
+        <v>0.9284016636957813</v>
       </c>
       <c r="D334" t="n">
-        <v>808313322488.7467</v>
+        <v>879833259061.2002</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B335" t="n">
-        <v>947686000000</v>
+        <v>956161000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9284016636957813</v>
+        <v>0.914603473663993</v>
       </c>
       <c r="D335" t="n">
-        <v>879833259061.2002</v>
+        <v>874508171982.0372</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B336" t="n">
-        <v>956161000000</v>
+        <v>960900000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.914603473663993</v>
+        <v>0.9353924438998382</v>
       </c>
       <c r="D336" t="n">
-        <v>874508171982.0372</v>
+        <v>898818599343.3545</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B337" t="n">
-        <v>960900000000</v>
+        <v>965962000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9353924438998382</v>
+        <v>0.9244963805966701</v>
       </c>
       <c r="D337" t="n">
-        <v>898818599343.3545</v>
+        <v>893028372793.9207</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B338" t="n">
-        <v>965962000000</v>
+        <v>970851000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9244963805966701</v>
+        <v>0.9470414425335253</v>
       </c>
       <c r="D338" t="n">
-        <v>893028372793.9207</v>
+        <v>919436131525.1156</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B339" t="n">
-        <v>970851000000</v>
+        <v>973415000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9470414425335253</v>
+        <v>0.9557031585989393</v>
       </c>
       <c r="D339" t="n">
-        <v>919436131525.1156</v>
+        <v>930295790127.5864</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B340" t="n">
-        <v>973415000000</v>
+        <v>975773000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9557031585989393</v>
+        <v>0.9352437245146086</v>
       </c>
       <c r="D340" t="n">
-        <v>930295790127.5864</v>
+        <v>912585574800.7932</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B341" t="n">
-        <v>975773000000</v>
+        <v>983599000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9352437245146086</v>
+        <v>0.9504980609839557</v>
       </c>
       <c r="D341" t="n">
-        <v>912585574800.7932</v>
+        <v>934908942285.7578</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B342" t="n">
-        <v>983599000000</v>
+        <v>986502000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9504980609839557</v>
+        <v>0.9848044670730626</v>
       </c>
       <c r="D342" t="n">
-        <v>934908942285.7578</v>
+        <v>971511576376.5104</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B343" t="n">
-        <v>986502000000</v>
+        <v>989926000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9848044670730626</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="D343" t="n">
-        <v>971511576376.5104</v>
+        <v>974336614173.2284</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B344" t="n">
-        <v>989926000000</v>
+        <v>997332000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.984251968503937</v>
+        <v>0.9574783849254602</v>
       </c>
       <c r="D344" t="n">
-        <v>974336614173.2284</v>
+        <v>954923832594.4791</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B345" t="n">
-        <v>997332000000</v>
+        <v>1002970000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9574783849254602</v>
+        <v>0.9401412092096234</v>
       </c>
       <c r="D345" t="n">
-        <v>954923832594.4791</v>
+        <v>942933428600.976</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B346" t="n">
-        <v>1002970000000</v>
+        <v>1007970000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9401412092096234</v>
+        <v>0.9730087376184637</v>
       </c>
       <c r="D346" t="n">
-        <v>942933428600.976</v>
+        <v>980763617257.2828</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B347" t="n">
-        <v>1007970000000</v>
+        <v>1012078000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9730087376184637</v>
+        <v>0.9385441303450088</v>
       </c>
       <c r="D347" t="n">
-        <v>980763617257.2828</v>
+        <v>949879866351.3158</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B348" t="n">
-        <v>1012078000000</v>
+        <v>1017370000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9385441303450088</v>
+        <v>0.9716945381050012</v>
       </c>
       <c r="D348" t="n">
-        <v>949879866351.3158</v>
+        <v>988572872231.885</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B349" t="n">
-        <v>1017370000000</v>
+        <v>1021701000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9716945381050012</v>
+        <v>0.9804978968320114</v>
       </c>
       <c r="D349" t="n">
-        <v>988572872231.885</v>
+        <v>1001775681691.163</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B350" t="n">
-        <v>1021701000000</v>
+        <v>1021885000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9804978968320114</v>
+        <v>0.9743264968090807</v>
       </c>
       <c r="D350" t="n">
-        <v>1001775681691.163</v>
+        <v>995649632191.7474</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B351" t="n">
-        <v>1021885000000</v>
+        <v>1026441000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9743264968090807</v>
+        <v>1.005338346620555</v>
       </c>
       <c r="D351" t="n">
-        <v>995649632191.7474</v>
+        <v>1031920497843.549</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B352" t="n">
-        <v>1026441000000</v>
+        <v>1030655000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.005338346620555</v>
+        <v>0.9990409207161125</v>
       </c>
       <c r="D352" t="n">
-        <v>1031920497843.549</v>
+        <v>1029666520140.665</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B353" t="n">
-        <v>1030655000000</v>
+        <v>1033383000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9990409207161125</v>
+        <v>1.029569228234906</v>
       </c>
       <c r="D353" t="n">
-        <v>1029666520140.665</v>
+        <v>1063939337781.072</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B354" t="n">
-        <v>1033383000000</v>
+        <v>1037827000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.029569228234906</v>
+        <v>1.030566605519715</v>
       </c>
       <c r="D354" t="n">
-        <v>1063939337781.072</v>
+        <v>1069549848506.709</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B355" t="n">
-        <v>1037827000000</v>
+        <v>1039526000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.030566605519715</v>
+        <v>1.057183030098001</v>
       </c>
       <c r="D355" t="n">
-        <v>1069549848506.709</v>
+        <v>1098969246545.654</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B356" t="n">
-        <v>1039526000000</v>
+        <v>1042253000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.057183030098001</v>
+        <v>1.032919132761096</v>
       </c>
       <c r="D356" t="n">
-        <v>1098969246545.654</v>
+        <v>1076563064877.651</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B357" t="n">
-        <v>1042253000000</v>
+        <v>1047329000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.032919132761096</v>
+        <v>1.037925809063168</v>
       </c>
       <c r="D357" t="n">
-        <v>1076563064877.651</v>
+        <v>1087049799680.319</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B358" t="n">
-        <v>1047329000000</v>
+        <v>1050254000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.037925809063168</v>
+        <v>1.046857334282484</v>
       </c>
       <c r="D358" t="n">
-        <v>1087049799680.319</v>
+        <v>1099466102759.516</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B359" t="n">
-        <v>1050254000000</v>
+        <v>1056451000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.046857334282484</v>
+        <v>1.022955112729653</v>
       </c>
       <c r="D359" t="n">
-        <v>1099466102759.516</v>
+        <v>1080701951798.355</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B360" t="n">
-        <v>1056451000000</v>
+        <v>1072342000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.022955112729653</v>
+        <v>0.9538435124333502</v>
       </c>
       <c r="D360" t="n">
-        <v>1080701951798.355</v>
+        <v>1022846459809.804</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B361" t="n">
-        <v>1072342000000</v>
+        <v>1081489000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9538435124333502</v>
+        <v>0.9993404353126936</v>
       </c>
       <c r="D361" t="n">
-        <v>1022846459809.804</v>
+        <v>1080775688045.89</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B362" t="n">
-        <v>1081489000000</v>
+        <v>1087142000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9993404353126936</v>
+        <v>0.9833711931242687</v>
       </c>
       <c r="D362" t="n">
-        <v>1080775688045.89</v>
+        <v>1069064125635.504</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B363" t="n">
-        <v>1087142000000</v>
+        <v>1092865000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9833711931242687</v>
+        <v>0.9793360101850946</v>
       </c>
       <c r="D363" t="n">
-        <v>1069064125635.504</v>
+        <v>1070282048770.933</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B364" t="n">
-        <v>1092865000000</v>
+        <v>1101467000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9793360101850946</v>
+        <v>0.9974962843263409</v>
       </c>
       <c r="D364" t="n">
-        <v>1070282048770.933</v>
+        <v>1098709239808.082</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B365" t="n">
-        <v>1101467000000</v>
+        <v>1097482000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9974962843263409</v>
+        <v>1.010315319411188</v>
       </c>
       <c r="D365" t="n">
-        <v>1098709239808.082</v>
+        <v>1108802877378.03</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B366" t="n">
-        <v>1097482000000</v>
+        <v>1102820000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.010315319411188</v>
+        <v>1.002154632459789</v>
       </c>
       <c r="D366" t="n">
-        <v>1108802877378.03</v>
+        <v>1105196171769.304</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B367" t="n">
-        <v>1102820000000</v>
+        <v>1109651000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.002154632459789</v>
+        <v>1.013037796440185</v>
       </c>
       <c r="D367" t="n">
-        <v>1105196171769.304</v>
+        <v>1124118403857.648</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B368" t="n">
-        <v>1109651000000</v>
+        <v>1116754000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.013037796440185</v>
+        <v>0.9683916950728231</v>
       </c>
       <c r="D368" t="n">
-        <v>1124118403857.648</v>
+        <v>1081455299039.355</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B369" t="n">
-        <v>1116754000000</v>
+        <v>1127759000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9683916950728231</v>
+        <v>0.9838936607731437</v>
       </c>
       <c r="D369" t="n">
-        <v>1081455299039.355</v>
+        <v>1109594930979.86</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B370" t="n">
-        <v>1127759000000</v>
+        <v>1135610000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9838936607731437</v>
+        <v>0.9969095803010666</v>
       </c>
       <c r="D370" t="n">
-        <v>1109594930979.86</v>
+        <v>1132100488485.694</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B371" t="n">
-        <v>1135610000000</v>
+        <v>1140742000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9969095803010666</v>
+        <v>1.014970819588937</v>
       </c>
       <c r="D371" t="n">
-        <v>1132100488485.694</v>
+        <v>1157819842679.523</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B372" t="n">
-        <v>1140742000000</v>
+        <v>1140167000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.014970819588937</v>
+        <v>1.016973284111826</v>
       </c>
       <c r="D372" t="n">
-        <v>1157819842679.523</v>
+        <v>1159519378425.929</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B373" t="n">
-        <v>1140167000000</v>
+        <v>1150318000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.016973284111826</v>
+        <v>1.000320102432779</v>
       </c>
       <c r="D373" t="n">
-        <v>1159519378425.929</v>
+        <v>1150686219590.269</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B374" t="n">
-        <v>1150318000000</v>
+        <v>1158280000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.000320102432779</v>
+        <v>1.005854070691424</v>
       </c>
       <c r="D374" t="n">
-        <v>1150686219590.269</v>
+        <v>1165060653000.463</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B375" t="n">
-        <v>1158280000000</v>
+        <v>1161595000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.005854070691424</v>
+        <v>1.005237286261422</v>
       </c>
       <c r="D375" t="n">
-        <v>1165060653000.463</v>
+        <v>1167678605534.837</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B376" t="n">
-        <v>1161595000000</v>
+        <v>1169988000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.005237286261422</v>
+        <v>1.002657041159072</v>
       </c>
       <c r="D376" t="n">
-        <v>1167678605534.837</v>
+        <v>1173096706271.62</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B377" t="n">
-        <v>1169988000000</v>
+        <v>1179367000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.002657041159072</v>
+        <v>0.9703273884608666</v>
       </c>
       <c r="D377" t="n">
-        <v>1173096706271.62</v>
+        <v>1144372101146.927</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B378" t="n">
-        <v>1179367000000</v>
+        <v>1189872000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9703273884608666</v>
+        <v>0.9827720067221605</v>
       </c>
       <c r="D378" t="n">
-        <v>1144372101146.927</v>
+        <v>1169372893182.51</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B379" t="n">
-        <v>1189872000000</v>
+        <v>1195531000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9827720067221605</v>
+        <v>0.9929007595690811</v>
       </c>
       <c r="D379" t="n">
-        <v>1169372893182.51</v>
+        <v>1187043637988.383</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B380" t="n">
-        <v>1195531000000</v>
+        <v>1194040000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9929007595690811</v>
+        <v>0.9647481042699751</v>
       </c>
       <c r="D380" t="n">
-        <v>1187043637988.383</v>
+        <v>1151947826422.521</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B381" t="n">
-        <v>1194040000000</v>
+        <v>1200066000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9647481042699751</v>
+        <v>0.9511580349074998</v>
       </c>
       <c r="D381" t="n">
-        <v>1151947826422.521</v>
+        <v>1141452418319.304</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B382" t="n">
-        <v>1200066000000</v>
+        <v>1205447000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9511580349074998</v>
+        <v>0.973093952221087</v>
       </c>
       <c r="D382" t="n">
-        <v>1141452418319.304</v>
+        <v>1173013185423.053</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B383" t="n">
-        <v>1205447000000</v>
+        <v>1216053000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.973093952221087</v>
+        <v>0.9494331883865331</v>
       </c>
       <c r="D383" t="n">
-        <v>1173013185423.053</v>
+        <v>1154561077037.009</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B384" t="n">
-        <v>1216053000000</v>
+        <v>1221461000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9494331883865331</v>
+        <v>0.9700732405296599</v>
       </c>
       <c r="D384" t="n">
-        <v>1154561077037.009</v>
+        <v>1184906630450.599</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B385" t="n">
-        <v>1221461000000</v>
+        <v>1226705000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9700732405296599</v>
+        <v>0.958873898493609</v>
       </c>
       <c r="D385" t="n">
-        <v>1184906630450.599</v>
+        <v>1176255405651.603</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B386" t="n">
-        <v>1226705000000</v>
+        <v>1235685000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.958873898493609</v>
+        <v>0.9426492213717431</v>
       </c>
       <c r="D386" t="n">
-        <v>1176255405651.603</v>
+        <v>1164817503110.742</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B387" t="n">
-        <v>1235685000000</v>
+        <v>1243567000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9426492213717431</v>
+        <v>0.9402561257686595</v>
       </c>
       <c r="D387" t="n">
-        <v>1164817503110.742</v>
+        <v>1169271489553.755</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B388" t="n">
-        <v>1243567000000</v>
+        <v>1251738000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9402561257686595</v>
+        <v>0.898787535614456</v>
       </c>
       <c r="D388" t="n">
-        <v>1169271489553.755</v>
+        <v>1125046512254.968</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B389" t="n">
-        <v>1251738000000</v>
+        <v>1251016000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.898787535614456</v>
+        <v>0.903750564844103</v>
       </c>
       <c r="D389" t="n">
-        <v>1125046512254.968</v>
+        <v>1130606416629.01</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B390" t="n">
-        <v>1251016000000</v>
+        <v>1254128000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.903750564844103</v>
+        <v>0.9050428990334143</v>
       </c>
       <c r="D390" t="n">
-        <v>1130606416629.01</v>
+        <v>1135039640878.978</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B391" t="n">
-        <v>1254128000000</v>
+        <v>1256512000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9050428990334143</v>
+        <v>0.9123421648054887</v>
       </c>
       <c r="D391" t="n">
-        <v>1135039640878.978</v>
+        <v>1146368878184.074</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B392" t="n">
-        <v>1256512000000</v>
+        <v>1261583000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9123421648054887</v>
+        <v>0.9224496573099522</v>
       </c>
       <c r="D392" t="n">
-        <v>1146368878184.074</v>
+        <v>1163746806018.062</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B393" t="n">
-        <v>1261583000000</v>
+        <v>1265809000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9224496573099522</v>
+        <v>0.9373037520269195</v>
       </c>
       <c r="D393" t="n">
-        <v>1163746806018.062</v>
+        <v>1186447525049.443</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B394" t="n">
-        <v>1265809000000</v>
+        <v>1270210000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9373037520269195</v>
+        <v>0.9170189547817954</v>
       </c>
       <c r="D394" t="n">
-        <v>1186447525049.443</v>
+        <v>1164806646553.384</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B395" t="n">
-        <v>1270210000000</v>
+        <v>1279946000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9170189547817954</v>
+        <v>0.9196163360645938</v>
       </c>
       <c r="D395" t="n">
-        <v>1164806646553.384</v>
+        <v>1177059250880.532</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B396" t="n">
-        <v>1279946000000</v>
+        <v>1289603000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9196163360645938</v>
+        <v>0.8932399599828498</v>
       </c>
       <c r="D396" t="n">
-        <v>1177059250880.532</v>
+        <v>1151924932113.763</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B397" t="n">
-        <v>1289603000000</v>
+        <v>1295199000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8932399599828498</v>
+        <v>0.8875398283497972</v>
       </c>
       <c r="D397" t="n">
-        <v>1151924932113.763</v>
+        <v>1149540698138.829</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B398" t="n">
-        <v>1295199000000</v>
+        <v>1296727000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8875398283497972</v>
+        <v>0.8762014912949383</v>
       </c>
       <c r="D398" t="n">
-        <v>1149540698138.829</v>
+        <v>1136194131202.411</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B399" t="n">
-        <v>1296727000000</v>
+        <v>1302464000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8762014912949383</v>
+        <v>0.8610816908200081</v>
       </c>
       <c r="D399" t="n">
-        <v>1136194131202.411</v>
+        <v>1121527903352.191</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B400" t="n">
-        <v>1302464000000</v>
+        <v>1306212000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8610816908200081</v>
+        <v>0.7863489816780687</v>
       </c>
       <c r="D400" t="n">
-        <v>1121527903352.191</v>
+        <v>1027138476055.673</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B401" t="n">
-        <v>1306212000000</v>
+        <v>1312747000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7863489816780687</v>
+        <v>0.8001984492154054</v>
       </c>
       <c r="D401" t="n">
-        <v>1027138476055.673</v>
+        <v>1050458113612.176</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B402" t="n">
-        <v>1312747000000</v>
+        <v>1316790000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8001984492154054</v>
+        <v>0.7884259076753262</v>
       </c>
       <c r="D402" t="n">
-        <v>1050458113612.176</v>
+        <v>1038191350967.793</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B403" t="n">
-        <v>1316790000000</v>
+        <v>1320890000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7884259076753262</v>
+        <v>0.8282259400364419</v>
       </c>
       <c r="D403" t="n">
-        <v>1038191350967.793</v>
+        <v>1093995361934.736</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B404" t="n">
-        <v>1320890000000</v>
+        <v>1322154000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.8282259400364419</v>
+        <v>0.8035097305028364</v>
       </c>
       <c r="D404" t="n">
-        <v>1093995361934.736</v>
+        <v>1062363604223.247</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B405" t="n">
-        <v>1322154000000</v>
+        <v>1329858000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8035097305028364</v>
+        <v>0.8007495015334353</v>
       </c>
       <c r="D405" t="n">
-        <v>1062363604223.247</v>
+        <v>1064883130610.251</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B406" t="n">
-        <v>1329858000000</v>
+        <v>1345086000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.8007495015334353</v>
+        <v>0.7641988139634408</v>
       </c>
       <c r="D406" t="n">
-        <v>1064883130610.251</v>
+        <v>1027913125878.829</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B407" t="n">
-        <v>1345086000000</v>
+        <v>1356127000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7641988139634408</v>
+        <v>0.7610755519700441</v>
       </c>
       <c r="D407" t="n">
-        <v>1027913125878.829</v>
+        <v>1032115105066.48</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B408" t="n">
-        <v>1356127000000</v>
+        <v>1366811000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7610755519700441</v>
+        <v>0.7511906371598984</v>
       </c>
       <c r="D408" t="n">
-        <v>1032115105066.48</v>
+        <v>1026735625967.158</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B409" t="n">
-        <v>1366811000000</v>
+        <v>1368472000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7511906371598984</v>
+        <v>0.7650172893907402</v>
       </c>
       <c r="D409" t="n">
-        <v>1026735625967.158</v>
+        <v>1046904740047.125</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B410" t="n">
-        <v>1368472000000</v>
+        <v>1377121000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7650172893907402</v>
+        <v>0.7484245662879637</v>
       </c>
       <c r="D410" t="n">
-        <v>1046904740047.125</v>
+        <v>1030671187151.047</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B411" t="n">
-        <v>1377121000000</v>
+        <v>1380572000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7484245662879637</v>
+        <v>0.7232069890723424</v>
       </c>
       <c r="D411" t="n">
-        <v>1030671187151.047</v>
+        <v>998439319317.5819</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B412" t="n">
-        <v>1380572000000</v>
+        <v>1391381000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7232069890723424</v>
+        <v>0.7158862313601122</v>
       </c>
       <c r="D412" t="n">
-        <v>998439319317.5819</v>
+        <v>996070500476.0643</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B413" t="n">
-        <v>1391381000000</v>
+        <v>1400091000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7158862313601122</v>
+        <v>0.7387488549392749</v>
       </c>
       <c r="D413" t="n">
-        <v>996070500476.0643</v>
+        <v>1034315623060.784</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B414" t="n">
-        <v>1400091000000</v>
+        <v>1405027000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7387488549392749</v>
+        <v>0.7690710390918809</v>
       </c>
       <c r="D414" t="n">
-        <v>1034315623060.784</v>
+        <v>1080565574842.148</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B415" t="n">
-        <v>1405027000000</v>
+        <v>1412193000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7690710390918809</v>
+        <v>0.7968063999490044</v>
       </c>
       <c r="D415" t="n">
-        <v>1080565574842.148</v>
+        <v>1125244420363.184</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B416" t="n">
-        <v>1412193000000</v>
+        <v>1419809000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7968063999490044</v>
+        <v>0.7638135683842288</v>
       </c>
       <c r="D416" t="n">
-        <v>1125244420363.184</v>
+        <v>1084469378714.043</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B417" t="n">
-        <v>1419809000000</v>
+        <v>1428874000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7638135683842288</v>
+        <v>0.7737662297466689</v>
       </c>
       <c r="D417" t="n">
-        <v>1084469378714.043</v>
+        <v>1105614447763.042</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B418" t="n">
-        <v>1428874000000</v>
+        <v>1450911000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7737662297466689</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="D418" t="n">
-        <v>1105614447763.042</v>
+        <v>1112661809815.951</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B419" t="n">
-        <v>1450911000000</v>
+        <v>1461886000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7631199395609007</v>
       </c>
       <c r="D419" t="n">
-        <v>1112661809815.951</v>
+        <v>1115594355964.927</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B420" t="n">
-        <v>1461886000000</v>
+        <v>1473602000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7631199395609007</v>
+        <v>0.7620266861745498</v>
       </c>
       <c r="D420" t="n">
-        <v>1115594355964.927</v>
+        <v>1122924048800.189</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B421" t="n">
-        <v>1473602000000</v>
+        <v>1484308000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7620266861745498</v>
+        <v>0.7458567656667213</v>
       </c>
       <c r="D421" t="n">
-        <v>1122924048800.189</v>
+        <v>1107081164133.24</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B422" t="n">
-        <v>1484308000000</v>
+        <v>1495912000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7458567656667213</v>
+        <v>0.7442081996859442</v>
       </c>
       <c r="D422" t="n">
-        <v>1107081164133.24</v>
+        <v>1113269976408.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B423" t="n">
-        <v>1495912000000</v>
+        <v>1498820000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7442081996859442</v>
+        <v>0.7443356060380504</v>
       </c>
       <c r="D423" t="n">
-        <v>1113269976408.6</v>
+        <v>1115625093041.951</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B424" t="n">
-        <v>1498820000000</v>
+        <v>1515097000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7443356060380504</v>
+        <v>0.767589309016104</v>
       </c>
       <c r="D424" t="n">
-        <v>1115625093041.951</v>
+        <v>1162972259322.372</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B425" t="n">
-        <v>1515097000000</v>
+        <v>1513143000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.767589309016104</v>
+        <v>0.7519079664649048</v>
       </c>
       <c r="D425" t="n">
-        <v>1162972259322.372</v>
+        <v>1137744276100.605</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B426" t="n">
-        <v>1513143000000</v>
+        <v>1521199000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7519079664649048</v>
+        <v>0.7508860455337297</v>
       </c>
       <c r="D426" t="n">
-        <v>1137744276100.605</v>
+        <v>1142247101579.864</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B427" t="n">
-        <v>1521199000000</v>
+        <v>1532423000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7508860455337297</v>
+        <v>0.7324719463244558</v>
       </c>
       <c r="D427" t="n">
-        <v>1142247101579.864</v>
+        <v>1122456857402.362</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B428" t="n">
-        <v>1532423000000</v>
+        <v>1546176000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7324719463244558</v>
+        <v>0.7408230544134533</v>
       </c>
       <c r="D428" t="n">
-        <v>1122456857402.362</v>
+        <v>1145442826980.776</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B429" t="n">
-        <v>1546176000000</v>
+        <v>1551765000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7408230544134533</v>
+        <v>0.7714739781827159</v>
       </c>
       <c r="D429" t="n">
-        <v>1145442826980.776</v>
+        <v>1197146317754.702</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B430" t="n">
-        <v>1551765000000</v>
+        <v>1554451000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7714739781827159</v>
+        <v>0.8013526833294602</v>
       </c>
       <c r="D430" t="n">
-        <v>1197146317754.702</v>
+        <v>1245663479954.163</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B431" t="n">
-        <v>1554451000000</v>
+        <v>1555592000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8013526833294602</v>
+        <v>0.8012178511337232</v>
       </c>
       <c r="D431" t="n">
-        <v>1245663479954.163</v>
+        <v>1246368079480.811</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B432" t="n">
-        <v>1555592000000</v>
+        <v>1562476000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8012178511337232</v>
+        <v>0.8023492786879984</v>
       </c>
       <c r="D432" t="n">
-        <v>1246368079480.811</v>
+        <v>1253651491567.309</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B433" t="n">
-        <v>1562476000000</v>
+        <v>1570298000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.8023492786879984</v>
+        <v>0.7759938541286753</v>
       </c>
       <c r="D433" t="n">
-        <v>1253651491567.309</v>
+        <v>1218541597150.551</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B434" t="n">
-        <v>1570298000000</v>
+        <v>1574987000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7759938541286753</v>
+        <v>0.7754823500217135</v>
       </c>
       <c r="D434" t="n">
-        <v>1218541597150.551</v>
+        <v>1221374620013.648</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B435" t="n">
-        <v>1574987000000</v>
+        <v>1585745000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7754823500217135</v>
+        <v>0.7949567940982407</v>
       </c>
       <c r="D435" t="n">
-        <v>1221374620013.648</v>
+        <v>1260598761457.315</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B436" t="n">
-        <v>1585745000000</v>
+        <v>1590269000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7949567940982407</v>
+        <v>0.8122091276061761</v>
       </c>
       <c r="D436" t="n">
-        <v>1260598761457.315</v>
+        <v>1291630997149.146</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B437" t="n">
-        <v>1590269000000</v>
+        <v>1593488000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.8122091276061761</v>
+        <v>0.7795082861730821</v>
       </c>
       <c r="D437" t="n">
-        <v>1291630997149.146</v>
+        <v>1242137099917.372</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B438" t="n">
-        <v>1593488000000</v>
+        <v>1598398000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7795082861730821</v>
+        <v>0.7754703227507483</v>
       </c>
       <c r="D438" t="n">
-        <v>1242137099917.372</v>
+        <v>1239510212944.151</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B439" t="n">
-        <v>1598398000000</v>
+        <v>1598364000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7754703227507483</v>
+        <v>0.7786645902277595</v>
       </c>
       <c r="D439" t="n">
-        <v>1239510212944.151</v>
+        <v>1244589449094.802</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B440" t="n">
-        <v>1598364000000</v>
+        <v>1598824000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7786645902277595</v>
+        <v>0.7718074186129077</v>
       </c>
       <c r="D440" t="n">
-        <v>1244589449094.802</v>
+        <v>1233984224256.364</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B441" t="n">
-        <v>1598824000000</v>
+        <v>1608465000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7718074186129077</v>
+        <v>0.7614290500411172</v>
       </c>
       <c r="D441" t="n">
-        <v>1233984224256.364</v>
+        <v>1224731976974.385</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B442" t="n">
-        <v>1608465000000</v>
+        <v>1616215000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7614290500411172</v>
+        <v>0.7689054630733151</v>
       </c>
       <c r="D442" t="n">
-        <v>1224731976974.385</v>
+        <v>1242716543001.038</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B443" t="n">
-        <v>1616215000000</v>
+        <v>1627432000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7689054630733151</v>
+        <v>0.7667712031406948</v>
       </c>
       <c r="D443" t="n">
-        <v>1242716543001.038</v>
+        <v>1247867992669.667</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B444" t="n">
-        <v>1627432000000</v>
+        <v>1637358000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7667712031406948</v>
+        <v>0.7747313619002612</v>
       </c>
       <c r="D444" t="n">
-        <v>1247867992669.667</v>
+        <v>1268512593258.288</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B445" t="n">
-        <v>1637358000000</v>
+        <v>1646237000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7747313619002612</v>
+        <v>0.7601036781416985</v>
       </c>
       <c r="D445" t="n">
-        <v>1268512593258.288</v>
+        <v>1251310798792.955</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B446" t="n">
-        <v>1646237000000</v>
+        <v>1656351000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7601036781416985</v>
+        <v>0.752683316021617</v>
       </c>
       <c r="D446" t="n">
-        <v>1251310798792.955</v>
+        <v>1246707763175.721</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B447" t="n">
-        <v>1656351000000</v>
+        <v>1668377000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.752683316021617</v>
+        <v>0.7328101069169946</v>
       </c>
       <c r="D447" t="n">
-        <v>1246707763175.721</v>
+        <v>1222603527747.855</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B448" t="n">
-        <v>1668377000000</v>
+        <v>1675220000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7328101069169946</v>
+        <v>0.7620034594957061</v>
       </c>
       <c r="D448" t="n">
-        <v>1222603527747.855</v>
+        <v>1276523435416.397</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B449" t="n">
-        <v>1675220000000</v>
+        <v>1682335000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7620034594957061</v>
+        <v>0.7591976798918902</v>
       </c>
       <c r="D449" t="n">
-        <v>1276523435416.397</v>
+        <v>1277224828800.923</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B450" t="n">
-        <v>1682335000000</v>
+        <v>1692733000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7591976798918902</v>
+        <v>0.7492769477454257</v>
       </c>
       <c r="D450" t="n">
-        <v>1277224828800.923</v>
+        <v>1268325815587.958</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B451" t="n">
-        <v>1692733000000</v>
+        <v>1705748000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7492769477454257</v>
+        <v>0.7469375560203168</v>
       </c>
       <c r="D451" t="n">
-        <v>1268325815587.958</v>
+        <v>1274087242306.543</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B452" t="n">
-        <v>1705748000000</v>
+        <v>1714043000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7469375560203168</v>
+        <v>0.739885761638403</v>
       </c>
       <c r="D452" t="n">
-        <v>1274087242306.543</v>
+        <v>1268196010535.973</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B453" t="n">
-        <v>1714043000000</v>
+        <v>1720945000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.739885761638403</v>
+        <v>0.7641229015274817</v>
       </c>
       <c r="D453" t="n">
-        <v>1268196010535.973</v>
+        <v>1315013486769.212</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B454" t="n">
-        <v>1720945000000</v>
+        <v>1737081000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7641229015274817</v>
+        <v>0.7581041331837342</v>
       </c>
       <c r="D454" t="n">
-        <v>1315013486769.212</v>
+        <v>1316888285774.934</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B455" t="n">
-        <v>1737081000000</v>
+        <v>1754608000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7581041331837342</v>
+        <v>0.7514390056959076</v>
       </c>
       <c r="D455" t="n">
-        <v>1316888285774.934</v>
+        <v>1318480890906.085</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B456" t="n">
-        <v>1754608000000</v>
+        <v>1768025000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.7514390056959076</v>
+        <v>0.7552813045218693</v>
       </c>
       <c r="D456" t="n">
-        <v>1318480890906.085</v>
+        <v>1335356228427.278</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B457" t="n">
-        <v>1768025000000</v>
+        <v>1780400000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.7552813045218693</v>
+        <v>0.7596590650116227</v>
       </c>
       <c r="D457" t="n">
-        <v>1335356228427.278</v>
+        <v>1352496999346.693</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B458" t="n">
-        <v>1780400000000</v>
+        <v>1788170000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7596590650116227</v>
+        <v>0.7533524182612626</v>
       </c>
       <c r="D458" t="n">
-        <v>1352496999346.693</v>
+        <v>1347122193762.242</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B459" t="n">
-        <v>1788170000000</v>
+        <v>1797721000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7533524182612626</v>
+        <v>0.7706950899015822</v>
       </c>
       <c r="D459" t="n">
-        <v>1347122193762.242</v>
+        <v>1385494747712.962</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B460" t="n">
-        <v>1797721000000</v>
+        <v>1801010000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7706950899015822</v>
+        <v>0.7554981376970905</v>
       </c>
       <c r="D460" t="n">
-        <v>1385494747712.962</v>
+        <v>1360659700973.837</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B461" t="n">
-        <v>1801010000000</v>
+        <v>1814298000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7554981376970905</v>
+        <v>0.7455064598134743</v>
       </c>
       <c r="D461" t="n">
-        <v>1360659700973.837</v>
+        <v>1352570879026.667</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B462" t="n">
-        <v>1814298000000</v>
+        <v>1855518000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7455064598134743</v>
+        <v>0.7113184999715473</v>
       </c>
       <c r="D462" t="n">
-        <v>1352570879026.667</v>
+        <v>1319864280430.206</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B463" t="n">
-        <v>1855518000000</v>
+        <v>1918181000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7113184999715473</v>
+        <v>0.7171286170174621</v>
       </c>
       <c r="D463" t="n">
-        <v>1319864280430.206</v>
+        <v>1375582487719.173</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B464" t="n">
-        <v>1918181000000</v>
+        <v>1963419000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.7171286170174621</v>
+        <v>0.7263271813421074</v>
       </c>
       <c r="D464" t="n">
-        <v>1375582487719.173</v>
+        <v>1426084588063.539</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B465" t="n">
-        <v>1963419000000</v>
+        <v>2005979000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7263271813421074</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D465" t="n">
-        <v>1426084588063.539</v>
+        <v>1477809783409.459</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B466" t="n">
-        <v>2005979000000</v>
+        <v>2030544000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7459235279199177</v>
       </c>
       <c r="D466" t="n">
-        <v>1477809783409.459</v>
+        <v>1514630544076.621</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B467" t="n">
-        <v>2030544000000</v>
+        <v>2061892000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7459235279199177</v>
+        <v>0.7665008469834359</v>
       </c>
       <c r="D467" t="n">
-        <v>1514630544076.621</v>
+        <v>1580441964388.371</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B468" t="n">
-        <v>2061892000000</v>
+        <v>2085360000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7665008469834359</v>
+        <v>0.7509706295386788</v>
       </c>
       <c r="D468" t="n">
-        <v>1580441964388.371</v>
+        <v>1566044112014.779</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B469" t="n">
-        <v>2085360000000</v>
+        <v>2105411000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7509706295386788</v>
+        <v>0.7510044684765874</v>
       </c>
       <c r="D469" t="n">
-        <v>1566044112014.779</v>
+        <v>1581173068979.76</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B470" t="n">
-        <v>2105411000000</v>
+        <v>2121396000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7510044684765874</v>
+        <v>0.7695148978084215</v>
       </c>
       <c r="D470" t="n">
-        <v>1581173068979.76</v>
+        <v>1632445826151.194</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B471" t="n">
-        <v>2121396000000</v>
+        <v>2120708000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7695148978084215</v>
+        <v>0.7839448102853559</v>
       </c>
       <c r="D471" t="n">
-        <v>1632445826151.194</v>
+        <v>1662518030730.636</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B472" t="n">
-        <v>2120708000000</v>
+        <v>2141765000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7839448102853559</v>
+        <v>0.7828156312625251</v>
       </c>
       <c r="D472" t="n">
-        <v>1662518030730.636</v>
+        <v>1676607120490.982</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B473" t="n">
-        <v>2141765000000</v>
+        <v>2177359000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7828156312625251</v>
+        <v>0.7849231952653433</v>
       </c>
       <c r="D473" t="n">
-        <v>1676607120490.982</v>
+        <v>1709059583519.752</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B474" t="n">
-        <v>2177359000000</v>
+        <v>2182624000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7849231952653433</v>
+        <v>0.7960769328747931</v>
       </c>
       <c r="D474" t="n">
-        <v>1709059583519.752</v>
+        <v>1737536619538.912</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B475" t="n">
-        <v>2182624000000</v>
+        <v>2199732000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7960769328747931</v>
+        <v>0.8144516297177111</v>
       </c>
       <c r="D475" t="n">
-        <v>1737536619538.912</v>
+        <v>1791575312342.2</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B476" t="n">
-        <v>2199732000000</v>
+        <v>2225461000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.8144516297177111</v>
+        <v>0.8293111741387604</v>
       </c>
       <c r="D476" t="n">
-        <v>1791575312342.2</v>
+        <v>1845599674910.02</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B477" t="n">
-        <v>2225461000000</v>
+        <v>2235219000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.8293111741387604</v>
+        <v>0.8067639086097844</v>
       </c>
       <c r="D477" t="n">
-        <v>1845599674910.02</v>
+        <v>1803294017038.854</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B478" t="n">
-        <v>2235219000000</v>
+        <v>2265475000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.8067639086097844</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D478" t="n">
-        <v>1803294017038.854</v>
+        <v>1816885876974.898</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B479" t="n">
-        <v>2265475000000</v>
+        <v>2283153000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.7927259467129618</v>
       </c>
       <c r="D479" t="n">
-        <v>1816885876974.898</v>
+        <v>1809914623415.539</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B480" t="n">
-        <v>2283153000000</v>
+        <v>2286467000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7927259467129618</v>
+        <v>0.7889172899113257</v>
       </c>
       <c r="D480" t="n">
-        <v>1809914623415.539</v>
+        <v>1803833349111.679</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B481" t="n">
-        <v>2286467000000</v>
+        <v>2289771000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7889172899113257</v>
+        <v>0.8078588509015704</v>
       </c>
       <c r="D481" t="n">
-        <v>1803833349111.679</v>
+        <v>1849811768887.74</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B482" t="n">
-        <v>2289771000000</v>
+        <v>2310223000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.8078588509015704</v>
+        <v>0.7826440847760073</v>
       </c>
       <c r="D482" t="n">
-        <v>1849811768887.74</v>
+        <v>1808082365463.482</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B483" t="n">
-        <v>2310223000000</v>
+        <v>2301433000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7826440847760073</v>
+        <v>0.7910954298417018</v>
       </c>
       <c r="D483" t="n">
-        <v>1808082365463.482</v>
+        <v>1820653128386.877</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B484" t="n">
-        <v>2301433000000</v>
+        <v>2317667000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7910954298417018</v>
+        <v>0.7870793061108837</v>
       </c>
       <c r="D484" t="n">
-        <v>1820653128386.877</v>
+        <v>1824187734156.094</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B485" t="n">
-        <v>2317667000000</v>
+        <v>2344869000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7870793061108837</v>
+        <v>0.7892036934732856</v>
       </c>
       <c r="D485" t="n">
-        <v>1824187734156.094</v>
+        <v>1850579275511.01</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B486" t="n">
-        <v>2344869000000</v>
+        <v>2348469000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7892036934732856</v>
+        <v>0.7998016491910006</v>
       </c>
       <c r="D486" t="n">
-        <v>1850579275511.01</v>
+        <v>1878309379273.94</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B487" t="n">
-        <v>2348469000000</v>
+        <v>2347490000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7998016491910006</v>
+        <v>0.7777924694133111</v>
       </c>
       <c r="D487" t="n">
-        <v>1878309379273.94</v>
+        <v>1825860044023.054</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B488" t="n">
-        <v>2347490000000</v>
+        <v>2349052000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7777924694133111</v>
+        <v>0.7907076042350298</v>
       </c>
       <c r="D488" t="n">
-        <v>1825860044023.054</v>
+        <v>1857413279143.505</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B489" t="n">
-        <v>2349052000000</v>
+        <v>2354170000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7907076042350298</v>
+        <v>0.7768559087660422</v>
       </c>
       <c r="D489" t="n">
-        <v>1857413279143.505</v>
+        <v>1828850874739.753</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B490" t="n">
-        <v>2354170000000</v>
+        <v>2367102000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7768559087660422</v>
+        <v>0.7816102734854348</v>
       </c>
       <c r="D490" t="n">
-        <v>1828850874739.753</v>
+        <v>1850151241587.92</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B491" t="n">
-        <v>2367102000000</v>
+        <v>2358110000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7816102734854348</v>
+        <v>0.7618409123806766</v>
       </c>
       <c r="D491" t="n">
-        <v>1850151241587.92</v>
+        <v>1796504673893.997</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B492" t="n">
-        <v>2358110000000</v>
+        <v>2374338000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7618409123806766</v>
+        <v>0.723222680263253</v>
       </c>
       <c r="D492" t="n">
-        <v>1796504673893.997</v>
+        <v>1717175092210.892</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B493" t="n">
-        <v>2374338000000</v>
+        <v>2376916000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.723222680263253</v>
+        <v>0.733998825601879</v>
       </c>
       <c r="D493" t="n">
-        <v>1717175092210.892</v>
+        <v>1744653552554.316</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B494" t="n">
-        <v>2376916000000</v>
+        <v>2384951000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.733998825601879</v>
+        <v>0.7450176941702366</v>
       </c>
       <c r="D494" t="n">
-        <v>1744653552554.316</v>
+        <v>1776830694729</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B495" t="n">
-        <v>2384951000000</v>
+        <v>2393203000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7450176941702366</v>
+        <v>0.7384706273307979</v>
       </c>
       <c r="D495" t="n">
-        <v>1776830694729</v>
+        <v>1767310120739.948</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B496" t="n">
-        <v>2393203000000</v>
+        <v>2420393000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7384706273307979</v>
+        <v>0.7516649378373097</v>
       </c>
       <c r="D496" t="n">
-        <v>1767310120739.948</v>
+        <v>1819324553886.86</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B497" t="n">
-        <v>2420393000000</v>
+        <v>2432173000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7516649378373097</v>
+        <v>0.7327778876944609</v>
       </c>
       <c r="D497" t="n">
-        <v>1819324553886.86</v>
+        <v>1782242593447.5</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B498" t="n">
-        <v>2432173000000</v>
+        <v>2429503000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7327778876944609</v>
+        <v>0.7398967104192254</v>
       </c>
       <c r="D498" t="n">
-        <v>1782242593447.5</v>
+        <v>1797581277653.639</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B499" t="n">
-        <v>2429503000000</v>
+        <v>2419886000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.7398967104192254</v>
+        <v>0.7384324555832879</v>
       </c>
       <c r="D499" t="n">
-        <v>1797581277653.639</v>
+        <v>1786922361211.62</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B500" t="n">
-        <v>2419886000000</v>
+        <v>2412202000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7384324555832879</v>
+        <v>0.7368816641735504</v>
       </c>
       <c r="D500" t="n">
-        <v>1786922361211.62</v>
+        <v>1777507424082.767</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B501" t="n">
-        <v>2412202000000</v>
+        <v>2410432000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.7368816641735504</v>
+        <v>0.7552299675251114</v>
       </c>
       <c r="D501" t="n">
-        <v>1777507424082.767</v>
+        <v>1820430481081.489</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -458,6994 +458,6990 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="B2" t="n">
-        <v>161706000000</v>
+        <v>163705000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B3" t="n">
-        <v>161526000000</v>
+        <v>165199000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B4" t="n">
-        <v>163705000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8356313194618533</v>
-      </c>
-      <c r="D4" t="n">
-        <v>136797025152.5027</v>
-      </c>
+        <v>166100000000</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B5" t="n">
-        <v>165199000000</v>
+        <v>167174000000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8198737394441256</v>
       </c>
       <c r="D5" t="n">
-        <v>134417412530.5126</v>
+        <v>137061572517.8322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B6" t="n">
-        <v>166100000000</v>
+        <v>168519000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="D6" t="n">
-        <v>134985778138.9679</v>
+        <v>135465434083.6013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B7" t="n">
-        <v>167174000000</v>
+        <v>169410000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8198737394441256</v>
+        <v>0.7734550235903782</v>
       </c>
       <c r="D7" t="n">
-        <v>137061572517.8322</v>
+        <v>131031015546.446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B8" t="n">
-        <v>168519000000</v>
+        <v>169601000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.7964319847085058</v>
       </c>
       <c r="D8" t="n">
-        <v>135465434083.6013</v>
+        <v>135075661038.5473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B9" t="n">
-        <v>169410000000</v>
+        <v>170129000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7734550235903782</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D9" t="n">
-        <v>131031015546.446</v>
+        <v>137289380245.3195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B10" t="n">
-        <v>169601000000</v>
+        <v>170650000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7964319847085058</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D10" t="n">
-        <v>135075661038.5473</v>
+        <v>138032839925.5844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B11" t="n">
-        <v>170129000000</v>
+        <v>171675000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8155941603458119</v>
       </c>
       <c r="D11" t="n">
-        <v>137289380245.3195</v>
+        <v>140017127477.3672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B12" t="n">
-        <v>170650000000</v>
+        <v>173598000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8082114281095935</v>
       </c>
       <c r="D12" t="n">
-        <v>138032839925.5844</v>
+        <v>140303887496.9692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B13" t="n">
-        <v>171675000000</v>
+        <v>173574000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8155941603458119</v>
+        <v>0.813206473123526</v>
       </c>
       <c r="D13" t="n">
-        <v>140017127477.3672</v>
+        <v>141151500365.9429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B14" t="n">
-        <v>173598000000</v>
+        <v>175486000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8082114281095935</v>
+        <v>0.8086035416835127</v>
       </c>
       <c r="D14" t="n">
-        <v>140303887496.9692</v>
+        <v>141898601115.8729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B15" t="n">
-        <v>173574000000</v>
+        <v>176731000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.813206473123526</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D15" t="n">
-        <v>141151500365.9429</v>
+        <v>143800650935.7201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B16" t="n">
-        <v>175486000000</v>
+        <v>177360000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8086035416835127</v>
+        <v>0.810307106393323</v>
       </c>
       <c r="D16" t="n">
-        <v>141898601115.8729</v>
+        <v>143716068389.9198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B17" t="n">
-        <v>176731000000</v>
+        <v>178209000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.8155276463872125</v>
       </c>
       <c r="D17" t="n">
-        <v>143800650935.7201</v>
+        <v>145334366335.0188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B18" t="n">
-        <v>177360000000</v>
+        <v>178032000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.810307106393323</v>
+        <v>0.8130081300813008</v>
       </c>
       <c r="D18" t="n">
-        <v>143716068389.9198</v>
+        <v>144741463414.6342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B19" t="n">
-        <v>178209000000</v>
+        <v>178843000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8155276463872125</v>
+        <v>0.8145975887911372</v>
       </c>
       <c r="D19" t="n">
-        <v>145334366335.0188</v>
+        <v>145685076572.1733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B20" t="n">
-        <v>178032000000</v>
+        <v>179993000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8130081300813008</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D20" t="n">
-        <v>144741463414.6342</v>
+        <v>145861426256.0778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B21" t="n">
-        <v>178843000000</v>
+        <v>181429000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8145975887911372</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D21" t="n">
-        <v>145685076572.1733</v>
+        <v>147025121555.9157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B22" t="n">
-        <v>179993000000</v>
+        <v>182607000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8110300081103</v>
       </c>
       <c r="D22" t="n">
-        <v>145861426256.0778</v>
+        <v>148099756690.9976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B23" t="n">
-        <v>181429000000</v>
+        <v>183116000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8112932013629727</v>
       </c>
       <c r="D23" t="n">
-        <v>147025121555.9157</v>
+        <v>148560765860.7821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B24" t="n">
-        <v>182607000000</v>
+        <v>184078000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D24" t="n">
-        <v>148099756690.9976</v>
+        <v>148545836023.2408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B25" t="n">
-        <v>183116000000</v>
+        <v>183902000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8112932013629727</v>
+        <v>0.8035355564483729</v>
       </c>
       <c r="D25" t="n">
-        <v>148560765860.7821</v>
+        <v>147771795901.9687</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B26" t="n">
-        <v>184078000000</v>
+        <v>184450000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8004482510205715</v>
       </c>
       <c r="D26" t="n">
-        <v>148545836023.2408</v>
+        <v>147642679900.7444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B27" t="n">
-        <v>183902000000</v>
+        <v>185166000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8035355564483729</v>
+        <v>0.7987858455148175</v>
       </c>
       <c r="D27" t="n">
-        <v>147771795901.9687</v>
+        <v>147907979870.5967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B28" t="n">
-        <v>184450000000</v>
+        <v>186527000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8004482510205715</v>
+        <v>0.7833307222309259</v>
       </c>
       <c r="D28" t="n">
-        <v>147642679900.7444</v>
+        <v>146112329625.5679</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B29" t="n">
-        <v>185166000000</v>
+        <v>187527000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7987858455148175</v>
+        <v>0.7785130400934216</v>
       </c>
       <c r="D29" t="n">
-        <v>147907979870.5967</v>
+        <v>145992214869.5991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B30" t="n">
-        <v>186527000000</v>
+        <v>188986000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7833307222309259</v>
+        <v>0.7724393635099644</v>
       </c>
       <c r="D30" t="n">
-        <v>146112329625.5679</v>
+        <v>145980225552.2941</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B31" t="n">
-        <v>187527000000</v>
+        <v>190555000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7785130400934216</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D31" t="n">
-        <v>145992214869.5991</v>
+        <v>144370785665.5807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B32" t="n">
-        <v>188986000000</v>
+        <v>191983000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7724393635099644</v>
+        <v>0.7624857033930613</v>
       </c>
       <c r="D32" t="n">
-        <v>145980225552.2941</v>
+        <v>146384292794.5101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B33" t="n">
-        <v>190555000000</v>
+        <v>192900000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7707723138584861</v>
       </c>
       <c r="D33" t="n">
-        <v>144370785665.5807</v>
+        <v>148681979343.302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B34" t="n">
-        <v>191983000000</v>
+        <v>194221000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7624857033930613</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D34" t="n">
-        <v>146384292794.5101</v>
+        <v>147326860350.4513</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B35" t="n">
-        <v>192900000000</v>
+        <v>195997000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7707723138584861</v>
+        <v>0.7604562737642586</v>
       </c>
       <c r="D35" t="n">
-        <v>148681979343.302</v>
+        <v>149047148288.9734</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B36" t="n">
-        <v>194221000000</v>
+        <v>197099000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7551729346020238</v>
       </c>
       <c r="D36" t="n">
-        <v>147326860350.4513</v>
+        <v>148843830237.1243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B37" t="n">
-        <v>195997000000</v>
+        <v>198799000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7604562737642586</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D37" t="n">
-        <v>149047148288.9734</v>
+        <v>150411591132.6322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B38" t="n">
-        <v>197099000000</v>
+        <v>200776000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7551729346020238</v>
+        <v>0.7534659433393611</v>
       </c>
       <c r="D38" t="n">
-        <v>148843830237.1243</v>
+        <v>151277878239.9036</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B39" t="n">
-        <v>198799000000</v>
+        <v>202240000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7228044813877846</v>
       </c>
       <c r="D39" t="n">
-        <v>150411591132.6322</v>
+        <v>146179978315.8656</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B40" t="n">
-        <v>200776000000</v>
+        <v>203587000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7534659433393611</v>
+        <v>0.7312614259597806</v>
       </c>
       <c r="D40" t="n">
-        <v>151277878239.9036</v>
+        <v>148875319926.8738</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B41" t="n">
-        <v>202240000000</v>
+        <v>205233000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7228044813877846</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D41" t="n">
-        <v>146179978315.8656</v>
+        <v>150133869787.8566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B42" t="n">
-        <v>203587000000</v>
+        <v>207225000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7312614259597806</v>
+        <v>0.7275372862859221</v>
       </c>
       <c r="D42" t="n">
-        <v>148875319926.8738</v>
+        <v>150763914150.6002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B43" t="n">
-        <v>205233000000</v>
+        <v>208616000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7357268981753973</v>
       </c>
       <c r="D43" t="n">
-        <v>150133869787.8566</v>
+        <v>153484402589.7587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B44" t="n">
-        <v>207225000000</v>
+        <v>210378000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7275372862859221</v>
+        <v>0.7385524372230428</v>
       </c>
       <c r="D44" t="n">
-        <v>150763914150.6002</v>
+        <v>155375184638.1093</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31199</v>
+        <v>31260</v>
       </c>
       <c r="B45" t="n">
-        <v>208616000000</v>
+        <v>212430000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7357268981753973</v>
+        <v>0.7321180174244089</v>
       </c>
       <c r="D45" t="n">
-        <v>153484402589.7587</v>
+        <v>155523830441.4672</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31229</v>
+        <v>31291</v>
       </c>
       <c r="B46" t="n">
-        <v>210378000000</v>
+        <v>214664000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7385524372230428</v>
+        <v>0.7293946024799417</v>
       </c>
       <c r="D46" t="n">
-        <v>155375184638.1093</v>
+        <v>156574762946.7542</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31260</v>
+        <v>31321</v>
       </c>
       <c r="B47" t="n">
-        <v>212430000000</v>
+        <v>216619000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7321180174244089</v>
+        <v>0.7316359379572724</v>
       </c>
       <c r="D47" t="n">
-        <v>155523830441.4672</v>
+        <v>158486245244.3664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B48" t="n">
-        <v>214664000000</v>
+        <v>218971000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7293946024799417</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="D48" t="n">
-        <v>156574762946.7542</v>
+        <v>158216040462.4278</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B49" t="n">
-        <v>216619000000</v>
+        <v>219947000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7316359379572724</v>
+        <v>0.7150518412584912</v>
       </c>
       <c r="D49" t="n">
-        <v>158486245244.3664</v>
+        <v>157273507329.2814</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31352</v>
+        <v>31413</v>
       </c>
       <c r="B50" t="n">
-        <v>218971000000</v>
+        <v>221320000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7225433526011561</v>
+        <v>0.7025925665706457</v>
       </c>
       <c r="D50" t="n">
-        <v>158216040462.4278</v>
+        <v>155497786833.4153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31382</v>
+        <v>31444</v>
       </c>
       <c r="B51" t="n">
-        <v>219947000000</v>
+        <v>221317000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7150518412584912</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D51" t="n">
-        <v>157273507329.2814</v>
+        <v>155747361013.3708</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31413</v>
+        <v>31472</v>
       </c>
       <c r="B52" t="n">
-        <v>221320000000</v>
+        <v>222244000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7025925665706457</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D52" t="n">
-        <v>155497786833.4153</v>
+        <v>159223384439.0314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31444</v>
+        <v>31503</v>
       </c>
       <c r="B53" t="n">
-        <v>221317000000</v>
+        <v>225943000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7262164124909223</v>
       </c>
       <c r="D53" t="n">
-        <v>155747361013.3708</v>
+        <v>164083514887.4365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31472</v>
+        <v>31533</v>
       </c>
       <c r="B54" t="n">
-        <v>222244000000</v>
+        <v>228313000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D54" t="n">
-        <v>159223384439.0314</v>
+        <v>164906464427.5912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503</v>
+        <v>31564</v>
       </c>
       <c r="B55" t="n">
-        <v>225943000000</v>
+        <v>230077000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7262164124909223</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D55" t="n">
-        <v>164083514887.4365</v>
+        <v>166481186685.9624</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31533</v>
+        <v>31594</v>
       </c>
       <c r="B56" t="n">
-        <v>228313000000</v>
+        <v>232472000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D56" t="n">
-        <v>164906464427.5912</v>
+        <v>168360370799.5365</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B57" t="n">
-        <v>230077000000</v>
+        <v>234395000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7210845111047015</v>
       </c>
       <c r="D57" t="n">
-        <v>166481186685.9624</v>
+        <v>169018603980.3865</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B58" t="n">
-        <v>232472000000</v>
+        <v>236112000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7205649228995533</v>
       </c>
       <c r="D58" t="n">
-        <v>168360370799.5365</v>
+        <v>170134025075.6593</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B59" t="n">
-        <v>234395000000</v>
+        <v>238535000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7210845111047015</v>
+        <v>0.7189072609633357</v>
       </c>
       <c r="D59" t="n">
-        <v>169018603980.3865</v>
+        <v>171484543493.8893</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B60" t="n">
-        <v>236112000000</v>
+        <v>241918000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7205649228995533</v>
+        <v>0.7229612492770388</v>
       </c>
       <c r="D60" t="n">
-        <v>170134025075.6593</v>
+        <v>174897339502.6027</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B61" t="n">
-        <v>238535000000</v>
+        <v>244868000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7189072609633357</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D61" t="n">
-        <v>171484543493.8893</v>
+        <v>177337775202.781</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B62" t="n">
-        <v>241918000000</v>
+        <v>248259000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7229612492770388</v>
+        <v>0.7462129691814043</v>
       </c>
       <c r="D62" t="n">
-        <v>174897339502.6027</v>
+        <v>185254085516.0063</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B63" t="n">
-        <v>244868000000</v>
+        <v>252294000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D63" t="n">
-        <v>177337775202.781</v>
+        <v>189012586155.2292</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B64" t="n">
-        <v>248259000000</v>
+        <v>254413000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7462129691814043</v>
+        <v>0.765814060346148</v>
       </c>
       <c r="D64" t="n">
-        <v>185254085516.0063</v>
+        <v>194833052534.8445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B65" t="n">
-        <v>252294000000</v>
+        <v>256778000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7473841554559043</v>
       </c>
       <c r="D65" t="n">
-        <v>189012586155.2292</v>
+        <v>191911808669.6562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B66" t="n">
-        <v>254413000000</v>
+        <v>258482000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.765814060346148</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D66" t="n">
-        <v>194833052534.8445</v>
+        <v>193170913982.5125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B67" t="n">
-        <v>256778000000</v>
+        <v>260580000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7473841554559043</v>
+        <v>0.7506943923128894</v>
       </c>
       <c r="D67" t="n">
-        <v>191911808669.6562</v>
+        <v>195615944748.8927</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B68" t="n">
-        <v>258482000000</v>
+        <v>262617000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D68" t="n">
-        <v>193170913982.5125</v>
+        <v>197858057711.1429</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B69" t="n">
-        <v>260580000000</v>
+        <v>264017000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7506943923128894</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D69" t="n">
-        <v>195615944748.8927</v>
+        <v>200028032426.699</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B70" t="n">
-        <v>262617000000</v>
+        <v>266094000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.7623694442326751</v>
       </c>
       <c r="D70" t="n">
-        <v>197858057711.1429</v>
+        <v>202861934893.6494</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B71" t="n">
-        <v>264017000000</v>
+        <v>268159000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7601672367920943</v>
       </c>
       <c r="D71" t="n">
-        <v>200028032426.699</v>
+        <v>203845686050.9312</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B72" t="n">
-        <v>266094000000</v>
+        <v>263775000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7623694442326751</v>
+        <v>0.7633587786259541</v>
       </c>
       <c r="D72" t="n">
-        <v>202861934893.6494</v>
+        <v>201354961832.0611</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B73" t="n">
-        <v>268159000000</v>
+        <v>265918000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7601672367920943</v>
+        <v>0.7698229407236336</v>
       </c>
       <c r="D73" t="n">
-        <v>203845686050.9312</v>
+        <v>204709776751.3472</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B74" t="n">
-        <v>263775000000</v>
+        <v>267370000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.7844983133286264</v>
       </c>
       <c r="D74" t="n">
-        <v>201354961832.0611</v>
+        <v>209751314034.6748</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B75" t="n">
-        <v>265918000000</v>
+        <v>269741000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7698229407236336</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D75" t="n">
-        <v>204709776751.3472</v>
+        <v>214301263208.0718</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B76" t="n">
-        <v>267370000000</v>
+        <v>272411000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7844983133286264</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="D76" t="n">
-        <v>209751314034.6748</v>
+        <v>220575708502.0243</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B77" t="n">
-        <v>269741000000</v>
+        <v>274765000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D77" t="n">
-        <v>214301263208.0718</v>
+        <v>223295408370.5811</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B78" t="n">
-        <v>272411000000</v>
+        <v>277324000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.8100445524503849</v>
       </c>
       <c r="D78" t="n">
-        <v>220575708502.0243</v>
+        <v>224644795463.7505</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B79" t="n">
-        <v>274765000000</v>
+        <v>281544000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8240626287597858</v>
       </c>
       <c r="D79" t="n">
-        <v>223295408370.5811</v>
+        <v>232009888751.5451</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B80" t="n">
-        <v>277324000000</v>
+        <v>284525000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8100445524503849</v>
+        <v>0.825559316436886</v>
       </c>
       <c r="D80" t="n">
-        <v>224644795463.7505</v>
+        <v>234892264509.205</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B81" t="n">
-        <v>281544000000</v>
+        <v>288402000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8240626287597858</v>
+        <v>0.8067769261799113</v>
       </c>
       <c r="D81" t="n">
-        <v>232009888751.5451</v>
+        <v>232676079064.1388</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B82" t="n">
-        <v>284525000000</v>
+        <v>291439000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.825559316436886</v>
+        <v>0.8216926869350862</v>
       </c>
       <c r="D82" t="n">
-        <v>234892264509.205</v>
+        <v>239473294987.6746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B83" t="n">
-        <v>288402000000</v>
+        <v>293949000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8067769261799113</v>
+        <v>0.8146639511201629</v>
       </c>
       <c r="D83" t="n">
-        <v>232676079064.1388</v>
+        <v>239469653767.8208</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B84" t="n">
-        <v>291439000000</v>
+        <v>297392000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8216926869350862</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D84" t="n">
-        <v>239473294987.6746</v>
+        <v>250329966329.9663</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B85" t="n">
-        <v>293949000000</v>
+        <v>300374000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8146639511201629</v>
+        <v>0.8387854386847845</v>
       </c>
       <c r="D85" t="n">
-        <v>239469653767.8208</v>
+        <v>251949337359.5034</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B86" t="n">
-        <v>297392000000</v>
+        <v>303154000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8417508417508418</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D86" t="n">
-        <v>250329966329.9663</v>
+        <v>255869345037.1371</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B87" t="n">
-        <v>300374000000</v>
+        <v>305829000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8387854386847845</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="D87" t="n">
-        <v>251949337359.5034</v>
+        <v>255389561586.6388</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B88" t="n">
-        <v>303154000000</v>
+        <v>309219000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8384338056510438</v>
       </c>
       <c r="D88" t="n">
-        <v>255869345037.1371</v>
+        <v>259259662949.6101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B89" t="n">
-        <v>305829000000</v>
+        <v>312149000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8350730688935282</v>
+        <v>0.8434547908232118</v>
       </c>
       <c r="D89" t="n">
-        <v>255389561586.6388</v>
+        <v>263283569500.6747</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B90" t="n">
-        <v>309219000000</v>
+        <v>316353000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8384338056510438</v>
+        <v>0.8282945415389712</v>
       </c>
       <c r="D90" t="n">
-        <v>259259662949.6101</v>
+        <v>262033463099.4781</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B91" t="n">
-        <v>312149000000</v>
+        <v>320688000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8434547908232118</v>
+        <v>0.8354916868577157</v>
       </c>
       <c r="D91" t="n">
-        <v>263283569500.6747</v>
+        <v>267932158075.0271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B92" t="n">
-        <v>316353000000</v>
+        <v>324232000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8282945415389712</v>
+        <v>0.8467400508044031</v>
       </c>
       <c r="D92" t="n">
-        <v>262033463099.4781</v>
+        <v>274540220152.4132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B93" t="n">
-        <v>320688000000</v>
+        <v>327718000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8354916868577157</v>
+        <v>0.8481764206955046</v>
       </c>
       <c r="D93" t="n">
-        <v>267932158075.0271</v>
+        <v>277962680237.4894</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B94" t="n">
-        <v>324232000000</v>
+        <v>331423000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8467400508044031</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D94" t="n">
-        <v>274540220152.4132</v>
+        <v>281463269639.0659</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B95" t="n">
-        <v>327718000000</v>
+        <v>334344000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8481764206955046</v>
+        <v>0.8517162081594414</v>
       </c>
       <c r="D95" t="n">
-        <v>277962680237.4894</v>
+        <v>284766203900.8603</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B96" t="n">
-        <v>331423000000</v>
+        <v>339017000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="D96" t="n">
-        <v>281463269639.0659</v>
+        <v>291251718213.0584</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B97" t="n">
-        <v>334344000000</v>
+        <v>342154000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8517162081594414</v>
+        <v>0.8632596685082872</v>
       </c>
       <c r="D97" t="n">
-        <v>284766203900.8603</v>
+        <v>295367748618.7845</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B98" t="n">
-        <v>339017000000</v>
+        <v>346086000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8428150021070374</v>
       </c>
       <c r="D98" t="n">
-        <v>291251718213.0584</v>
+        <v>291686472819.2161</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B99" t="n">
-        <v>342154000000</v>
+        <v>350540000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8632596685082872</v>
+        <v>0.8386447500838645</v>
       </c>
       <c r="D99" t="n">
-        <v>295367748618.7845</v>
+        <v>293978530694.3979</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B100" t="n">
-        <v>346086000000</v>
+        <v>352153000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8428150021070374</v>
+        <v>0.8551393877201984</v>
       </c>
       <c r="D100" t="n">
-        <v>291686472819.2161</v>
+        <v>301139900803.831</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B101" t="n">
-        <v>350540000000</v>
+        <v>353101000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8386447500838645</v>
+        <v>0.8587376556462</v>
       </c>
       <c r="D101" t="n">
-        <v>293978530694.3979</v>
+        <v>303221124946.3289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B102" t="n">
-        <v>352153000000</v>
+        <v>356116000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8551393877201984</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="D102" t="n">
-        <v>301139900803.831</v>
+        <v>303335604770.017</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B103" t="n">
-        <v>353101000000</v>
+        <v>356279000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8587376556462</v>
+        <v>0.8578536501672815</v>
       </c>
       <c r="D103" t="n">
-        <v>303221124946.3289</v>
+        <v>305635240627.9489</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B104" t="n">
-        <v>356116000000</v>
+        <v>357910000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8517887563884157</v>
+        <v>0.8676789587852494</v>
       </c>
       <c r="D104" t="n">
-        <v>303335604770.017</v>
+        <v>310550976138.8286</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B105" t="n">
-        <v>356279000000</v>
+        <v>361491000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8578536501672815</v>
+        <v>0.8665511265164645</v>
       </c>
       <c r="D105" t="n">
-        <v>305635240627.9489</v>
+        <v>313250433275.5633</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B106" t="n">
-        <v>357910000000</v>
+        <v>363223000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8676789587852494</v>
+        <v>0.8660258075690656</v>
       </c>
       <c r="D106" t="n">
-        <v>310550976138.8286</v>
+        <v>314560491902.6587</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B107" t="n">
-        <v>361491000000</v>
+        <v>365008000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8665511265164645</v>
+        <v>0.8573388203017832</v>
       </c>
       <c r="D107" t="n">
-        <v>313250433275.5633</v>
+        <v>312935528120.7133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B108" t="n">
-        <v>363223000000</v>
+        <v>367854000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8660258075690656</v>
+        <v>0.8588114050154585</v>
       </c>
       <c r="D108" t="n">
-        <v>314560491902.6587</v>
+        <v>315917210580.5565</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B109" t="n">
-        <v>365008000000</v>
+        <v>370572000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8573388203017832</v>
+        <v>0.8630361612151549</v>
       </c>
       <c r="D109" t="n">
-        <v>312935528120.7133</v>
+        <v>319817036333.8224</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B110" t="n">
-        <v>367854000000</v>
+        <v>373950000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8588114050154585</v>
+        <v>0.8600670852326481</v>
       </c>
       <c r="D110" t="n">
-        <v>315917210580.5565</v>
+        <v>321622086522.7487</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B111" t="n">
-        <v>370572000000</v>
+        <v>375786000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8630361612151549</v>
+        <v>0.8694140149539211</v>
       </c>
       <c r="D111" t="n">
-        <v>319817036333.8224</v>
+        <v>326713615023.4742</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B112" t="n">
-        <v>373950000000</v>
+        <v>378484000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8600670852326481</v>
+        <v>0.8637816360024186</v>
       </c>
       <c r="D112" t="n">
-        <v>321622086522.7487</v>
+        <v>326927528720.7394</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B113" t="n">
-        <v>375786000000</v>
+        <v>380380000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8694140149539211</v>
+        <v>0.8673779165582444</v>
       </c>
       <c r="D113" t="n">
-        <v>326713615023.4742</v>
+        <v>329933211900.425</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B114" t="n">
-        <v>378484000000</v>
+        <v>382614000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8637816360024186</v>
+        <v>0.8734387282732116</v>
       </c>
       <c r="D114" t="n">
-        <v>326927528720.7394</v>
+        <v>334189885579.5266</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B115" t="n">
-        <v>380380000000</v>
+        <v>381438000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8673779165582444</v>
+        <v>0.875733426744899</v>
       </c>
       <c r="D115" t="n">
-        <v>329933211900.425</v>
+        <v>334038006830.7208</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B116" t="n">
-        <v>382614000000</v>
+        <v>383166000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8734387282732116</v>
+        <v>0.8686587908269632</v>
       </c>
       <c r="D116" t="n">
-        <v>334189885579.5266</v>
+        <v>332840514246.0042</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B117" t="n">
-        <v>381438000000</v>
+        <v>383974000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.875733426744899</v>
+        <v>0.8761170492377782</v>
       </c>
       <c r="D117" t="n">
-        <v>334038006830.7208</v>
+        <v>336406167864.0267</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B118" t="n">
-        <v>383166000000</v>
+        <v>385573000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8686587908269632</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="D118" t="n">
-        <v>332840514246.0042</v>
+        <v>340612190812.7209</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B119" t="n">
-        <v>383974000000</v>
+        <v>385597000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8761170492377782</v>
+        <v>0.8907892392659896</v>
       </c>
       <c r="D119" t="n">
-        <v>336406167864.0267</v>
+        <v>343485658293.2478</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B120" t="n">
-        <v>385573000000</v>
+        <v>386166000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.88339222614841</v>
+        <v>0.8811349017534584</v>
       </c>
       <c r="D120" t="n">
-        <v>340612190812.7209</v>
+        <v>340264340470.526</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B121" t="n">
-        <v>385597000000</v>
+        <v>387836000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8907892392659896</v>
+        <v>0.8646779074794638</v>
       </c>
       <c r="D121" t="n">
-        <v>343485658293.2478</v>
+        <v>335353220925.2053</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B122" t="n">
-        <v>386166000000</v>
+        <v>390429000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8811349017534584</v>
+        <v>0.8512811781731505</v>
       </c>
       <c r="D122" t="n">
-        <v>340264340470.526</v>
+        <v>332364859112.965</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B123" t="n">
-        <v>387836000000</v>
+        <v>392338000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8646779074794638</v>
+        <v>0.8460952703274389</v>
       </c>
       <c r="D123" t="n">
-        <v>335353220925.2053</v>
+        <v>331955326169.7267</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B124" t="n">
-        <v>390429000000</v>
+        <v>392743000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8512811781731505</v>
+        <v>0.8407600470825626</v>
       </c>
       <c r="D124" t="n">
-        <v>332364859112.965</v>
+        <v>330202623171.3469</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B125" t="n">
-        <v>392338000000</v>
+        <v>394119000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8460952703274389</v>
+        <v>0.8394895903290799</v>
       </c>
       <c r="D125" t="n">
-        <v>331955326169.7267</v>
+        <v>330858797850.9066</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B126" t="n">
-        <v>392743000000</v>
+        <v>394350000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8407600470825626</v>
+        <v>0.8310479514667997</v>
       </c>
       <c r="D126" t="n">
-        <v>330202623171.3469</v>
+        <v>327723759660.9324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B127" t="n">
-        <v>394119000000</v>
+        <v>394189000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8394895903290799</v>
+        <v>0.8341675008341675</v>
       </c>
       <c r="D127" t="n">
-        <v>330858797850.9066</v>
+        <v>328819652986.3196</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B128" t="n">
-        <v>394350000000</v>
+        <v>397321000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8310479514667997</v>
+        <v>0.8453085376162299</v>
       </c>
       <c r="D128" t="n">
-        <v>327723759660.9324</v>
+        <v>335858833474.2181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B129" t="n">
-        <v>394189000000</v>
+        <v>398941000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8341675008341675</v>
+        <v>0.8371703641691085</v>
       </c>
       <c r="D129" t="n">
-        <v>328819652986.3196</v>
+        <v>333981582251.9883</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B130" t="n">
-        <v>397321000000</v>
+        <v>400892000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8453085376162299</v>
+        <v>0.8029548739360848</v>
       </c>
       <c r="D130" t="n">
-        <v>335858833474.2181</v>
+        <v>321898185321.9849</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B131" t="n">
-        <v>398941000000</v>
+        <v>398608000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8371703641691085</v>
+        <v>0.8081461128171973</v>
       </c>
       <c r="D131" t="n">
-        <v>333981582251.9883</v>
+        <v>322133505737.8374</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B132" t="n">
-        <v>400892000000</v>
+        <v>400520000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8029548739360848</v>
+        <v>0.7770007770007771</v>
       </c>
       <c r="D132" t="n">
-        <v>321898185321.9849</v>
+        <v>311204351204.3513</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B133" t="n">
-        <v>398608000000</v>
+        <v>400819000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8081461128171973</v>
+        <v>0.7867820613690009</v>
       </c>
       <c r="D133" t="n">
-        <v>322133505737.8374</v>
+        <v>315357199055.8616</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B134" t="n">
-        <v>400520000000</v>
+        <v>400221000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7770007770007771</v>
+        <v>0.7888301648655044</v>
       </c>
       <c r="D134" t="n">
-        <v>311204351204.3513</v>
+        <v>315706397412.637</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B135" t="n">
-        <v>400819000000</v>
+        <v>401587000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7867820613690009</v>
+        <v>0.8003201280512204</v>
       </c>
       <c r="D135" t="n">
-        <v>315357199055.8616</v>
+        <v>321398159263.7054</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B136" t="n">
-        <v>400221000000</v>
+        <v>402997000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7888301648655044</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D136" t="n">
-        <v>315706397412.637</v>
+        <v>320169222213.3948</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B137" t="n">
-        <v>401587000000</v>
+        <v>404748000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8003201280512204</v>
+        <v>0.7866582756450597</v>
       </c>
       <c r="D137" t="n">
-        <v>321398159263.7054</v>
+        <v>318398363750.7866</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B138" t="n">
-        <v>402997000000</v>
+        <v>406759000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.7869678130164477</v>
       </c>
       <c r="D138" t="n">
-        <v>320169222213.3948</v>
+        <v>320106240654.7573</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B139" t="n">
-        <v>404748000000</v>
+        <v>408895000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7866582756450597</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D139" t="n">
-        <v>318398363750.7866</v>
+        <v>318925980812.7291</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B140" t="n">
-        <v>406759000000</v>
+        <v>408308000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7869678130164477</v>
+        <v>0.7780284758422158</v>
       </c>
       <c r="D140" t="n">
-        <v>320106240654.7573</v>
+        <v>317675250914.1835</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B141" t="n">
-        <v>408895000000</v>
+        <v>409970000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.7580926389204761</v>
       </c>
       <c r="D141" t="n">
-        <v>318925980812.7291</v>
+        <v>310795239178.2276</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B142" t="n">
-        <v>408308000000</v>
+        <v>410678000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7780284758422158</v>
+        <v>0.749512816669165</v>
       </c>
       <c r="D142" t="n">
-        <v>317675250914.1835</v>
+        <v>307808424524.0593</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B143" t="n">
-        <v>409970000000</v>
+        <v>409567000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7580926389204761</v>
+        <v>0.7575183698204682</v>
       </c>
       <c r="D143" t="n">
-        <v>310795239178.2276</v>
+        <v>310254526172.2597</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B144" t="n">
-        <v>410678000000</v>
+        <v>409864000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.749512816669165</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D144" t="n">
-        <v>307808424524.0593</v>
+        <v>307060233742.8828</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B145" t="n">
-        <v>409567000000</v>
+        <v>411463000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7575183698204682</v>
+        <v>0.7566585956416464</v>
       </c>
       <c r="D145" t="n">
-        <v>310254526172.2597</v>
+        <v>311337015738.4988</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B146" t="n">
-        <v>409864000000</v>
+        <v>413157000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7522756337922215</v>
       </c>
       <c r="D146" t="n">
-        <v>307060233742.8828</v>
+        <v>310807944030.6929</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B147" t="n">
-        <v>411463000000</v>
+        <v>413596000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7566585956416464</v>
+        <v>0.7409602845287493</v>
       </c>
       <c r="D147" t="n">
-        <v>311337015738.4988</v>
+        <v>306458209839.9526</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B148" t="n">
-        <v>413157000000</v>
+        <v>409983000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7522756337922215</v>
+        <v>0.7227000072270001</v>
       </c>
       <c r="D148" t="n">
-        <v>310807944030.6929</v>
+        <v>296294717062.9472</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B149" t="n">
-        <v>413596000000</v>
+        <v>411390000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7409602845287493</v>
+        <v>0.7237984944991315</v>
       </c>
       <c r="D149" t="n">
-        <v>306458209839.9526</v>
+        <v>297763462651.9977</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B150" t="n">
-        <v>409983000000</v>
+        <v>411805000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7227000072270001</v>
+        <v>0.7231180851833104</v>
       </c>
       <c r="D150" t="n">
-        <v>296294717062.9472</v>
+        <v>297783643068.9131</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B151" t="n">
-        <v>411390000000</v>
+        <v>413228000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7237984944991315</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D151" t="n">
-        <v>297763462651.9977</v>
+        <v>298726234367.0932</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B152" t="n">
-        <v>411805000000</v>
+        <v>416310000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7231180851833104</v>
+        <v>0.7209285559801024</v>
       </c>
       <c r="D152" t="n">
-        <v>297783643068.9131</v>
+        <v>300129767140.0764</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B153" t="n">
-        <v>413228000000</v>
+        <v>418221000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7318501170960187</v>
       </c>
       <c r="D153" t="n">
-        <v>298726234367.0932</v>
+        <v>306075087822.014</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B154" t="n">
-        <v>416310000000</v>
+        <v>419884000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7209285559801024</v>
+        <v>0.7447125409591897</v>
       </c>
       <c r="D154" t="n">
-        <v>300129767140.0764</v>
+        <v>312692880548.1084</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B155" t="n">
-        <v>418221000000</v>
+        <v>420714000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7318501170960187</v>
+        <v>0.7389344565137073</v>
       </c>
       <c r="D155" t="n">
-        <v>306075087822.014</v>
+        <v>310880070937.7078</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B156" t="n">
-        <v>419884000000</v>
+        <v>420680000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7447125409591897</v>
+        <v>0.7269555103227683</v>
       </c>
       <c r="D156" t="n">
-        <v>312692880548.1084</v>
+        <v>305815644082.5822</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B157" t="n">
-        <v>420714000000</v>
+        <v>422101000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7389344565137073</v>
+        <v>0.7135212272565109</v>
       </c>
       <c r="D157" t="n">
-        <v>310880070937.7078</v>
+        <v>301178023546.2005</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B158" t="n">
-        <v>420680000000</v>
+        <v>425148000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7269555103227683</v>
+        <v>0.710580544304697</v>
       </c>
       <c r="D158" t="n">
-        <v>305815644082.5822</v>
+        <v>302101897250.0533</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B159" t="n">
-        <v>422101000000</v>
+        <v>426237000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7135212272565109</v>
+        <v>0.7194762213108857</v>
       </c>
       <c r="D159" t="n">
-        <v>301178023546.2005</v>
+        <v>306667386142.888</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B160" t="n">
-        <v>425148000000</v>
+        <v>427897000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.710580544304697</v>
+        <v>0.7147451933385748</v>
       </c>
       <c r="D160" t="n">
-        <v>302101897250.0533</v>
+        <v>305837323993.9962</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B161" t="n">
-        <v>426237000000</v>
+        <v>429643000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7194762213108857</v>
+        <v>0.7379529186037931</v>
       </c>
       <c r="D161" t="n">
-        <v>306667386142.888</v>
+        <v>317056305807.6895</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B162" t="n">
-        <v>427897000000</v>
+        <v>430736000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7147451933385748</v>
+        <v>0.7298737318443909</v>
       </c>
       <c r="D162" t="n">
-        <v>305837323993.9962</v>
+        <v>314382891759.7255</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B163" t="n">
-        <v>429643000000</v>
+        <v>433634000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7379529186037931</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D163" t="n">
-        <v>317056305807.6895</v>
+        <v>316128891156.9586</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B164" t="n">
-        <v>430736000000</v>
+        <v>434936000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7298737318443909</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D164" t="n">
-        <v>314382891759.7255</v>
+        <v>318727832331.8188</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B165" t="n">
-        <v>433634000000</v>
+        <v>436339000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7445461990916536</v>
       </c>
       <c r="D165" t="n">
-        <v>316128891156.9586</v>
+        <v>324874543965.4531</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B166" t="n">
-        <v>434936000000</v>
+        <v>439202000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D166" t="n">
-        <v>318727832331.8188</v>
+        <v>328105483340.8038</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B167" t="n">
-        <v>436339000000</v>
+        <v>438892000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7445461990916536</v>
+        <v>0.7438815740534107</v>
       </c>
       <c r="D167" t="n">
-        <v>324874543965.4531</v>
+        <v>326483671799.4495</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B168" t="n">
-        <v>439202000000</v>
+        <v>439931000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D168" t="n">
-        <v>328105483340.8038</v>
+        <v>323336028222.8428</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B169" t="n">
-        <v>438892000000</v>
+        <v>441103000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7438815740534107</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D169" t="n">
-        <v>326483671799.4495</v>
+        <v>323247105378.8656</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B170" t="n">
-        <v>439931000000</v>
+        <v>442368000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7279079924297569</v>
       </c>
       <c r="D170" t="n">
-        <v>323336028222.8428</v>
+        <v>322003202795.1667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B171" t="n">
-        <v>441103000000</v>
+        <v>444600000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7298204641658151</v>
       </c>
       <c r="D171" t="n">
-        <v>323247105378.8656</v>
+        <v>324478178368.1214</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B172" t="n">
-        <v>442368000000</v>
+        <v>446271000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7279079924297569</v>
+        <v>0.7357810315650063</v>
       </c>
       <c r="D172" t="n">
-        <v>322003202795.1667</v>
+        <v>328357736737.5469</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B173" t="n">
-        <v>444600000000</v>
+        <v>446482000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7298204641658151</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D173" t="n">
-        <v>324478178368.1214</v>
+        <v>328150815816.5515</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B174" t="n">
-        <v>446271000000</v>
+        <v>448033000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7357810315650063</v>
+        <v>0.7306202966318405</v>
       </c>
       <c r="D174" t="n">
-        <v>328357736737.5469</v>
+        <v>327342003360.8534</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B175" t="n">
-        <v>446482000000</v>
+        <v>449428000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7334604664808567</v>
       </c>
       <c r="D175" t="n">
-        <v>328150815816.5515</v>
+        <v>329637670529.5585</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B176" t="n">
-        <v>448033000000</v>
+        <v>447133000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7306202966318405</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D176" t="n">
-        <v>327342003360.8534</v>
+        <v>325211288093.6795</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B177" t="n">
-        <v>449428000000</v>
+        <v>447620000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7334604664808567</v>
+        <v>0.7310475911981871</v>
       </c>
       <c r="D177" t="n">
-        <v>329637670529.5585</v>
+        <v>327231522772.1325</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B178" t="n">
-        <v>447133000000</v>
+        <v>449024000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D178" t="n">
-        <v>325211288093.6795</v>
+        <v>329752515238.3051</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B179" t="n">
-        <v>447620000000</v>
+        <v>448985000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7310475911981871</v>
+        <v>0.7471049682480388</v>
       </c>
       <c r="D179" t="n">
-        <v>327231522772.1325</v>
+        <v>335438924168.8457</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B180" t="n">
-        <v>449024000000</v>
+        <v>447731000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7402472425790214</v>
       </c>
       <c r="D180" t="n">
-        <v>329752515238.3051</v>
+        <v>331431638167.1478</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B181" t="n">
-        <v>448985000000</v>
+        <v>448419000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7471049682480388</v>
+        <v>0.7297672042618404</v>
       </c>
       <c r="D181" t="n">
-        <v>335438924168.8457</v>
+        <v>327241479967.8902</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B182" t="n">
-        <v>447731000000</v>
+        <v>449269000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7402472425790214</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D182" t="n">
-        <v>331431638167.1478</v>
+        <v>333557799391.1946</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B183" t="n">
-        <v>448419000000</v>
+        <v>449193000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7297672042618404</v>
+        <v>0.7309407207075506</v>
       </c>
       <c r="D183" t="n">
-        <v>327241479967.8902</v>
+        <v>328333455156.7867</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B184" t="n">
-        <v>449269000000</v>
+        <v>447801000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7224911494834187</v>
       </c>
       <c r="D184" t="n">
-        <v>333557799391.1946</v>
+        <v>323532259229.8244</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B185" t="n">
-        <v>449193000000</v>
+        <v>448519000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7309407207075506</v>
+        <v>0.7156659271452086</v>
       </c>
       <c r="D185" t="n">
-        <v>328333455156.7867</v>
+        <v>320989765977.2418</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B186" t="n">
-        <v>447801000000</v>
+        <v>448940000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7224911494834187</v>
+        <v>0.7265857734505557</v>
       </c>
       <c r="D186" t="n">
-        <v>323532259229.8244</v>
+        <v>326193417132.8925</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B187" t="n">
-        <v>448519000000</v>
+        <v>449572000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7156659271452086</v>
+        <v>0.7240605314604301</v>
       </c>
       <c r="D187" t="n">
-        <v>320989765977.2418</v>
+        <v>325517341249.7285</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B188" t="n">
-        <v>448940000000</v>
+        <v>446917000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7265857734505557</v>
+        <v>0.7259001161440186</v>
       </c>
       <c r="D188" t="n">
-        <v>326193417132.8925</v>
+        <v>324417102206.7364</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B189" t="n">
-        <v>449572000000</v>
+        <v>446334000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7240605314604301</v>
+        <v>0.7202535292422932</v>
       </c>
       <c r="D189" t="n">
-        <v>325517341249.7285</v>
+        <v>321473638720.8297</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B190" t="n">
-        <v>446917000000</v>
+        <v>445831000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7259001161440186</v>
+        <v>0.7239032865209208</v>
       </c>
       <c r="D190" t="n">
-        <v>324417102206.7364</v>
+        <v>322738526132.9086</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B191" t="n">
-        <v>446334000000</v>
+        <v>445044000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7202535292422932</v>
+        <v>0.7102272727272728</v>
       </c>
       <c r="D191" t="n">
-        <v>321473638720.8297</v>
+        <v>316082386363.6364</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B192" t="n">
-        <v>445831000000</v>
+        <v>446053000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7239032865209208</v>
+        <v>0.7027900766041183</v>
       </c>
       <c r="D192" t="n">
-        <v>322738526132.9086</v>
+        <v>313481622039.4968</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B193" t="n">
-        <v>445044000000</v>
+        <v>445467000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.6996431819771917</v>
       </c>
       <c r="D193" t="n">
-        <v>316082386363.6364</v>
+        <v>311667949345.8336</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B194" t="n">
-        <v>446053000000</v>
+        <v>444813000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7027900766041183</v>
+        <v>0.6879471656576774</v>
       </c>
       <c r="D194" t="n">
-        <v>313481622039.4968</v>
+        <v>306007842597.6885</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B195" t="n">
-        <v>445467000000</v>
+        <v>442837000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6996431819771917</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D195" t="n">
-        <v>311667949345.8336</v>
+        <v>310981039325.8427</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B196" t="n">
-        <v>444813000000</v>
+        <v>440915000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6879471656576774</v>
+        <v>0.70482097547223</v>
       </c>
       <c r="D196" t="n">
-        <v>306007842597.6885</v>
+        <v>310766140400.3383</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B197" t="n">
-        <v>442837000000</v>
+        <v>440589000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.702247191011236</v>
+        <v>0.6988608568034104</v>
       </c>
       <c r="D197" t="n">
-        <v>310981039325.8427</v>
+        <v>307910406038.1578</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B198" t="n">
-        <v>440915000000</v>
+        <v>441843000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.70482097547223</v>
+        <v>0.6863417982155113</v>
       </c>
       <c r="D198" t="n">
-        <v>310766140400.3383</v>
+        <v>303255319148.9362</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B199" t="n">
-        <v>440589000000</v>
+        <v>441641000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6988608568034104</v>
+        <v>0.6815703380588877</v>
       </c>
       <c r="D199" t="n">
-        <v>307910406038.1578</v>
+        <v>301009405670.6652</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B200" t="n">
-        <v>441843000000</v>
+        <v>442493000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6863417982155113</v>
+        <v>0.6610259122157589</v>
       </c>
       <c r="D200" t="n">
-        <v>303255319148.9362</v>
+        <v>292499338974.0878</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B201" t="n">
-        <v>441641000000</v>
+        <v>444070000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6815703380588877</v>
+        <v>0.6389368091495752</v>
       </c>
       <c r="D201" t="n">
-        <v>301009405670.6652</v>
+        <v>283732668839.0519</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B202" t="n">
-        <v>442493000000</v>
+        <v>445748000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6610259122157589</v>
+        <v>0.6536374926465782</v>
       </c>
       <c r="D202" t="n">
-        <v>292499338974.0878</v>
+        <v>291357605072.2269</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B203" t="n">
-        <v>444070000000</v>
+        <v>447404000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6389368091495752</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="D203" t="n">
-        <v>283732668839.0519</v>
+        <v>289769430051.8135</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B204" t="n">
-        <v>445748000000</v>
+        <v>448114000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6536374926465782</v>
+        <v>0.6520605112154407</v>
       </c>
       <c r="D204" t="n">
-        <v>291357605072.2269</v>
+        <v>292197443922.796</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B205" t="n">
-        <v>447404000000</v>
+        <v>449236000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6476683937823834</v>
+        <v>0.6502796202367017</v>
       </c>
       <c r="D205" t="n">
-        <v>289769430051.8135</v>
+        <v>292129015476.6549</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B206" t="n">
-        <v>448114000000</v>
+        <v>452562000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6520605112154407</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D206" t="n">
-        <v>292197443922.796</v>
+        <v>299491760968.8306</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B207" t="n">
-        <v>449236000000</v>
+        <v>453707000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6502796202367017</v>
+        <v>0.6626466105625869</v>
       </c>
       <c r="D207" t="n">
-        <v>292129015476.6549</v>
+        <v>300647405738.5196</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B208" t="n">
-        <v>452562000000</v>
+        <v>455243000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6635259770420011</v>
       </c>
       <c r="D208" t="n">
-        <v>299491760968.8306</v>
+        <v>302065556366.5317</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B209" t="n">
-        <v>453707000000</v>
+        <v>457637000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6626466105625869</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D209" t="n">
-        <v>300647405738.5196</v>
+        <v>314181655911.0257</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B210" t="n">
-        <v>455243000000</v>
+        <v>459005000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6635259770420011</v>
+        <v>0.6783800284919612</v>
       </c>
       <c r="D210" t="n">
-        <v>302065556366.5317</v>
+        <v>311379824977.9526</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B211" t="n">
-        <v>457637000000</v>
+        <v>458636000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D211" t="n">
-        <v>314181655911.0257</v>
+        <v>313511518217.2397</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B212" t="n">
-        <v>459005000000</v>
+        <v>460383000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6783800284919612</v>
+        <v>0.6638343069569835</v>
       </c>
       <c r="D212" t="n">
-        <v>311379824977.9526</v>
+        <v>305618029739.777</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B213" t="n">
-        <v>458636000000</v>
+        <v>463862000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.6701065469409636</v>
       </c>
       <c r="D213" t="n">
-        <v>313511518217.2397</v>
+        <v>310836963077.1293</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B214" t="n">
-        <v>460383000000</v>
+        <v>465089000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6638343069569835</v>
+        <v>0.6816167950378297</v>
       </c>
       <c r="D214" t="n">
-        <v>305618029739.777</v>
+        <v>317012473587.3492</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B215" t="n">
-        <v>463862000000</v>
+        <v>467460000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6701065469409636</v>
+        <v>0.6802258349772125</v>
       </c>
       <c r="D215" t="n">
-        <v>310836963077.1293</v>
+        <v>317978368818.4478</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B216" t="n">
-        <v>465089000000</v>
+        <v>471223000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6816167950378297</v>
+        <v>0.6787023211619384</v>
       </c>
       <c r="D216" t="n">
-        <v>317012473587.3492</v>
+        <v>319820143884.8921</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B217" t="n">
-        <v>467460000000</v>
+        <v>476000000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6802258349772125</v>
+        <v>0.6907031357922365</v>
       </c>
       <c r="D217" t="n">
-        <v>317978368818.4478</v>
+        <v>328774692637.1046</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B218" t="n">
-        <v>471223000000</v>
+        <v>478777000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6787023211619384</v>
+        <v>0.6906554320049727</v>
       </c>
       <c r="D218" t="n">
-        <v>319820143884.8921</v>
+        <v>330669935769.0448</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B219" t="n">
-        <v>476000000000</v>
+        <v>483138000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6907031357922365</v>
+        <v>0.6894174422612892</v>
       </c>
       <c r="D219" t="n">
-        <v>328774692637.1046</v>
+        <v>333083764219.2347</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B220" t="n">
-        <v>478777000000</v>
+        <v>486889000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6906554320049727</v>
+        <v>0.689893066574681</v>
       </c>
       <c r="D220" t="n">
-        <v>330669935769.0448</v>
+        <v>335901345291.4799</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B221" t="n">
-        <v>483138000000</v>
+        <v>490793000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6894174422612892</v>
+        <v>0.6755387421468622</v>
       </c>
       <c r="D221" t="n">
-        <v>333083764219.2347</v>
+        <v>331549685874.4849</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B222" t="n">
-        <v>486889000000</v>
+        <v>491187000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.689893066574681</v>
+        <v>0.6680919294494923</v>
       </c>
       <c r="D222" t="n">
-        <v>335901345291.4799</v>
+        <v>328158070550.5078</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B223" t="n">
-        <v>490793000000</v>
+        <v>494850000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6755387421468622</v>
+        <v>0.6755843804891231</v>
       </c>
       <c r="D223" t="n">
-        <v>331549685874.4849</v>
+        <v>334312930685.0425</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B224" t="n">
-        <v>491187000000</v>
+        <v>497053000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6680919294494923</v>
+        <v>0.6725854183481302</v>
       </c>
       <c r="D224" t="n">
-        <v>328158070550.5078</v>
+        <v>334310599946.1932</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B225" t="n">
-        <v>494850000000</v>
+        <v>499188000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6755843804891231</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D225" t="n">
-        <v>334312930685.0425</v>
+        <v>338984109737.8786</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B226" t="n">
-        <v>497053000000</v>
+        <v>501894000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6725854183481302</v>
+        <v>0.6650704974727321</v>
       </c>
       <c r="D226" t="n">
-        <v>334310599946.1932</v>
+        <v>333794892258.5794</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B227" t="n">
-        <v>499188000000</v>
+        <v>504302000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.6562541015881349</v>
       </c>
       <c r="D227" t="n">
-        <v>338984109737.8786</v>
+        <v>330950255939.0996</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B228" t="n">
-        <v>501894000000</v>
+        <v>505093000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6650704974727321</v>
+        <v>0.6505334374186834</v>
       </c>
       <c r="D228" t="n">
-        <v>333794892258.5794</v>
+        <v>328579885506.1151</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B229" t="n">
-        <v>504302000000</v>
+        <v>510405000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6562541015881349</v>
+        <v>0.6673785371062467</v>
       </c>
       <c r="D229" t="n">
-        <v>330950255939.0996</v>
+        <v>340633342231.7139</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B230" t="n">
-        <v>505093000000</v>
+        <v>510442000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6505334374186834</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D230" t="n">
-        <v>328579885506.1151</v>
+        <v>340771747112.6244</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B231" t="n">
-        <v>510405000000</v>
+        <v>515321000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6673785371062467</v>
+        <v>0.6507027589796981</v>
       </c>
       <c r="D231" t="n">
-        <v>340633342231.7139</v>
+        <v>335320796460.177</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B232" t="n">
-        <v>510442000000</v>
+        <v>518685000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.634236062662523</v>
       </c>
       <c r="D232" t="n">
-        <v>340771747112.6244</v>
+        <v>328968732162.1107</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B233" t="n">
-        <v>515321000000</v>
+        <v>519198000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6507027589796981</v>
+        <v>0.6513385006187715</v>
       </c>
       <c r="D233" t="n">
-        <v>335320796460.177</v>
+        <v>338173646844.265</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B234" t="n">
-        <v>518685000000</v>
+        <v>521538000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.634236062662523</v>
+        <v>0.6500260010400416</v>
       </c>
       <c r="D234" t="n">
-        <v>328968732162.1107</v>
+        <v>339013260530.4212</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B235" t="n">
-        <v>519198000000</v>
+        <v>518020000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6513385006187715</v>
+        <v>0.6603711285742587</v>
       </c>
       <c r="D235" t="n">
-        <v>338173646844.265</v>
+        <v>342085452024.0375</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B236" t="n">
-        <v>521538000000</v>
+        <v>520335000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6500260010400416</v>
+        <v>0.6519754857217368</v>
       </c>
       <c r="D236" t="n">
-        <v>339013260530.4212</v>
+        <v>339245664363.0199</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B237" t="n">
-        <v>518020000000</v>
+        <v>520759000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6603711285742587</v>
+        <v>0.6452861844227915</v>
       </c>
       <c r="D237" t="n">
-        <v>342085452024.0375</v>
+        <v>336038588113.8285</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B238" t="n">
-        <v>520335000000</v>
+        <v>527610000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6519754857217368</v>
+        <v>0.6331919204710948</v>
       </c>
       <c r="D238" t="n">
-        <v>339245664363.0199</v>
+        <v>334078389159.7543</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B239" t="n">
-        <v>520759000000</v>
+        <v>531066000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.6452861844227915</v>
+        <v>0.629643621710112</v>
       </c>
       <c r="D239" t="n">
-        <v>336038588113.8285</v>
+        <v>334382319607.1024</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B240" t="n">
-        <v>527610000000</v>
+        <v>535473000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6331919204710948</v>
+        <v>0.6362537379907106</v>
       </c>
       <c r="D240" t="n">
-        <v>334078389159.7543</v>
+        <v>340696697843.0998</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B241" t="n">
-        <v>531066000000</v>
+        <v>537884000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.629643621710112</v>
+        <v>0.628693574751666</v>
       </c>
       <c r="D241" t="n">
-        <v>334382319607.1024</v>
+        <v>338164214761.7251</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B242" t="n">
-        <v>535473000000</v>
+        <v>538462000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6362537379907106</v>
+        <v>0.6291286568103177</v>
       </c>
       <c r="D242" t="n">
-        <v>340696697843.0998</v>
+        <v>338761874803.3973</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B243" t="n">
-        <v>537884000000</v>
+        <v>541449000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.628693574751666</v>
+        <v>0.6242197253433208</v>
       </c>
       <c r="D243" t="n">
-        <v>338164214761.7251</v>
+        <v>337983146067.4157</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B244" t="n">
-        <v>538462000000</v>
+        <v>543983000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.6291286568103177</v>
+        <v>0.6272345229881452</v>
       </c>
       <c r="D244" t="n">
-        <v>338761874803.3973</v>
+        <v>341204917518.6602</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B245" t="n">
-        <v>541449000000</v>
+        <v>545554000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6242197253433208</v>
+        <v>0.6381620931716656</v>
       </c>
       <c r="D245" t="n">
-        <v>337983146067.4157</v>
+        <v>348151882578.1749</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B246" t="n">
-        <v>543983000000</v>
+        <v>544635000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6272345229881452</v>
+        <v>0.654150585464774</v>
       </c>
       <c r="D246" t="n">
-        <v>341204917518.6602</v>
+        <v>356273304114.6072</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B247" t="n">
-        <v>545554000000</v>
+        <v>547075000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6381620931716656</v>
+        <v>0.6595435958316844</v>
       </c>
       <c r="D247" t="n">
-        <v>348151882578.1749</v>
+        <v>360819812689.6188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B248" t="n">
-        <v>544635000000</v>
+        <v>550448000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.654150585464774</v>
+        <v>0.631432720843594</v>
       </c>
       <c r="D248" t="n">
-        <v>356273304114.6072</v>
+        <v>347570878322.9147</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B249" t="n">
-        <v>547075000000</v>
+        <v>553147000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.6595435958316844</v>
+        <v>0.6415602745877975</v>
       </c>
       <c r="D249" t="n">
-        <v>360819812689.6188</v>
+        <v>354877141207.4164</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B250" t="n">
-        <v>550448000000</v>
+        <v>555860000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.631432720843594</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D250" t="n">
-        <v>347570878322.9147</v>
+        <v>350324573013.172</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B251" t="n">
-        <v>553147000000</v>
+        <v>560690000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6415602745877975</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D251" t="n">
-        <v>354877141207.4164</v>
+        <v>359739509816.502</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B252" t="n">
-        <v>555860000000</v>
+        <v>562379000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6390593047034765</v>
       </c>
       <c r="D252" t="n">
-        <v>350324573013.172</v>
+        <v>359393532719.8364</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B253" t="n">
-        <v>560690000000</v>
+        <v>563618000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6343567622430855</v>
       </c>
       <c r="D253" t="n">
-        <v>359739509816.502</v>
+        <v>357534889621.9233</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B254" t="n">
-        <v>562379000000</v>
+        <v>566685000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6390593047034765</v>
+        <v>0.6572461386789352</v>
       </c>
       <c r="D254" t="n">
-        <v>359393532719.8364</v>
+        <v>372451528097.2724</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B255" t="n">
-        <v>563618000000</v>
+        <v>569806000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.6343567622430855</v>
+        <v>0.6739906989283547</v>
       </c>
       <c r="D255" t="n">
-        <v>357534889621.9233</v>
+        <v>384043944193.5701</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B256" t="n">
-        <v>566685000000</v>
+        <v>571313000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.6572461386789352</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="D256" t="n">
-        <v>372451528097.2724</v>
+        <v>389310391822.8279</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B257" t="n">
-        <v>569806000000</v>
+        <v>573864000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6739906989283547</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D257" t="n">
-        <v>384043944193.5701</v>
+        <v>400435419719.4893</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B258" t="n">
-        <v>571313000000</v>
+        <v>575443000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.7311010381634743</v>
       </c>
       <c r="D258" t="n">
-        <v>389310391822.8279</v>
+        <v>420706974703.9041</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B259" t="n">
-        <v>573864000000</v>
+        <v>578862000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D259" t="n">
-        <v>400435419719.4893</v>
+        <v>429773554087.1631</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B260" t="n">
-        <v>575443000000</v>
+        <v>584715000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.7311010381634743</v>
+        <v>0.7121999857560003</v>
       </c>
       <c r="D260" t="n">
-        <v>420706974703.9041</v>
+        <v>416434014671.3197</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B261" t="n">
-        <v>578862000000</v>
+        <v>587823000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.721917412647993</v>
       </c>
       <c r="D261" t="n">
-        <v>429773554087.1631</v>
+        <v>424359659254.9812</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B262" t="n">
-        <v>584715000000</v>
+        <v>591013000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.7121999857560003</v>
+        <v>0.7398091292446549</v>
       </c>
       <c r="D262" t="n">
-        <v>416434014671.3197</v>
+        <v>437236812902.2712</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B263" t="n">
-        <v>587823000000</v>
+        <v>591443000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.721917412647993</v>
+        <v>0.7584951456310679</v>
       </c>
       <c r="D263" t="n">
-        <v>424359659254.9812</v>
+        <v>448606644417.4757</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B264" t="n">
-        <v>591013000000</v>
+        <v>594698000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.7398091292446549</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D264" t="n">
-        <v>437236812902.2712</v>
+        <v>457953180348.0671</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B265" t="n">
-        <v>591443000000</v>
+        <v>598107000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7584951456310679</v>
+        <v>0.7741136398823347</v>
       </c>
       <c r="D265" t="n">
-        <v>448606644417.4757</v>
+        <v>463002786809.1036</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B266" t="n">
-        <v>594698000000</v>
+        <v>603150000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7550018875047187</v>
       </c>
       <c r="D266" t="n">
-        <v>457953180348.0671</v>
+        <v>455379388448.4711</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B267" t="n">
-        <v>598107000000</v>
+        <v>604870000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7741136398823347</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D267" t="n">
-        <v>463002786809.1036</v>
+        <v>453018274415.8179</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B268" t="n">
-        <v>603150000000</v>
+        <v>609773000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7550018875047187</v>
+        <v>0.7639419404125287</v>
       </c>
       <c r="D268" t="n">
-        <v>455379388448.4711</v>
+        <v>465831168831.1689</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B269" t="n">
-        <v>604870000000</v>
+        <v>612585000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D269" t="n">
-        <v>453018274415.8179</v>
+        <v>446588175256.9804</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B270" t="n">
-        <v>609773000000</v>
+        <v>615387000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7639419404125287</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D270" t="n">
-        <v>465831168831.1689</v>
+        <v>451925534258.6473</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B271" t="n">
-        <v>612585000000</v>
+        <v>619665000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.75041272699985</v>
       </c>
       <c r="D271" t="n">
-        <v>446588175256.9804</v>
+        <v>465004502476.362</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B272" t="n">
-        <v>615387000000</v>
+        <v>621347000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D272" t="n">
-        <v>451925534258.6473</v>
+        <v>467353892440.7673</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B273" t="n">
-        <v>619665000000</v>
+        <v>623669000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.75041272699985</v>
+        <v>0.7618467164406522</v>
       </c>
       <c r="D273" t="n">
-        <v>465004502476.362</v>
+        <v>475140179795.8251</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B274" t="n">
-        <v>621347000000</v>
+        <v>623563000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7929585282689715</v>
       </c>
       <c r="D274" t="n">
-        <v>467353892440.7673</v>
+        <v>494459598762.9847</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B275" t="n">
-        <v>623669000000</v>
+        <v>626622000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7618467164406522</v>
+        <v>0.8211528986697323</v>
       </c>
       <c r="D275" t="n">
-        <v>475140179795.8251</v>
+        <v>514552471670.225</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B276" t="n">
-        <v>623563000000</v>
+        <v>629528000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7929585282689715</v>
+        <v>0.8423890152472412</v>
       </c>
       <c r="D276" t="n">
-        <v>494459598762.9847</v>
+        <v>530307471990.5652</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B277" t="n">
-        <v>626622000000</v>
+        <v>635233000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.8211528986697323</v>
+        <v>0.8309098462816784</v>
       </c>
       <c r="D277" t="n">
-        <v>514552471670.225</v>
+        <v>527821354383.0494</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B278" t="n">
-        <v>629528000000</v>
+        <v>640875000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.8423890152472412</v>
+        <v>0.8068420203324189</v>
       </c>
       <c r="D278" t="n">
-        <v>530307471990.5652</v>
+        <v>517084879780.539</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B279" t="n">
-        <v>635233000000</v>
+        <v>645747000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8309098462816784</v>
+        <v>0.8105698305909054</v>
       </c>
       <c r="D279" t="n">
-        <v>527821354383.0494</v>
+        <v>523423036394.5854</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B280" t="n">
-        <v>640875000000</v>
+        <v>647648000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8068420203324189</v>
+        <v>0.8262414277451872</v>
       </c>
       <c r="D280" t="n">
-        <v>517084879780.539</v>
+        <v>535113608196.315</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B281" t="n">
-        <v>645747000000</v>
+        <v>650004000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.8105698305909054</v>
+        <v>0.7948493760432398</v>
       </c>
       <c r="D281" t="n">
-        <v>523423036394.5854</v>
+        <v>516655273825.61</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B282" t="n">
-        <v>647648000000</v>
+        <v>653021000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8262414277451872</v>
+        <v>0.7970032677133977</v>
       </c>
       <c r="D282" t="n">
-        <v>535113608196.315</v>
+        <v>520459870885.4706</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B283" t="n">
-        <v>650004000000</v>
+        <v>653626000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.7948493760432398</v>
+        <v>0.8163931749530573</v>
       </c>
       <c r="D283" t="n">
-        <v>516655273825.61</v>
+        <v>533615805371.867</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B284" t="n">
-        <v>653021000000</v>
+        <v>653297000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7970032677133977</v>
+        <v>0.8170602173380178</v>
       </c>
       <c r="D284" t="n">
-        <v>520459870885.4706</v>
+        <v>533782988806.275</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B285" t="n">
-        <v>653626000000</v>
+        <v>655137000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8163931749530573</v>
+        <v>0.8419634587858887</v>
       </c>
       <c r="D285" t="n">
-        <v>533615805371.867</v>
+        <v>551601414498.6108</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B286" t="n">
-        <v>653297000000</v>
+        <v>659252000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8170602173380178</v>
+        <v>0.8605111436193099</v>
       </c>
       <c r="D286" t="n">
-        <v>533782988806.275</v>
+        <v>567293692453.3173</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B287" t="n">
-        <v>655137000000</v>
+        <v>663687000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8419634587858887</v>
+        <v>0.8459521191100584</v>
       </c>
       <c r="D287" t="n">
-        <v>551601414498.6108</v>
+        <v>561447424075.7974</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B288" t="n">
-        <v>659252000000</v>
+        <v>667046000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8605111436193099</v>
+        <v>0.8580744808649391</v>
       </c>
       <c r="D288" t="n">
-        <v>567293692453.3173</v>
+        <v>572375150163.0342</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B289" t="n">
-        <v>663687000000</v>
+        <v>671891000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8459521191100584</v>
+        <v>0.8604371020478404</v>
       </c>
       <c r="D289" t="n">
-        <v>561447424075.7974</v>
+        <v>578119944932.0255</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B290" t="n">
-        <v>667046000000</v>
+        <v>676375000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8580744808649391</v>
+        <v>0.8781173164734808</v>
       </c>
       <c r="D290" t="n">
-        <v>572375150163.0342</v>
+        <v>593936599929.7506</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B291" t="n">
-        <v>671891000000</v>
+        <v>683062000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8604371020478404</v>
+        <v>0.8796622097114708</v>
       </c>
       <c r="D291" t="n">
-        <v>578119944932.0255</v>
+        <v>600863828289.9366</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B292" t="n">
-        <v>676375000000</v>
+        <v>686912000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8781173164734808</v>
+        <v>0.8564576909900651</v>
       </c>
       <c r="D292" t="n">
-        <v>593936599929.7506</v>
+        <v>588311065433.3676</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B293" t="n">
-        <v>683062000000</v>
+        <v>690916000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8796622097114708</v>
+        <v>0.894534394847482</v>
       </c>
       <c r="D293" t="n">
-        <v>600863828289.9366</v>
+        <v>618048125950.4429</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B294" t="n">
-        <v>686912000000</v>
+        <v>692890000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8564576909900651</v>
+        <v>0.9078529278256923</v>
       </c>
       <c r="D294" t="n">
-        <v>588311065433.3676</v>
+        <v>629042215161.1439</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B295" t="n">
-        <v>690916000000</v>
+        <v>697101000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.894534394847482</v>
+        <v>0.8962179602079227</v>
       </c>
       <c r="D295" t="n">
-        <v>618048125950.4429</v>
+        <v>624754436278.9031</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B296" t="n">
-        <v>692890000000</v>
+        <v>702908000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9078529278256923</v>
+        <v>0.8840951286358413</v>
       </c>
       <c r="D296" t="n">
-        <v>629042215161.1439</v>
+        <v>621437538679.1619</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B297" t="n">
-        <v>697101000000</v>
+        <v>709202000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8962179602079227</v>
+        <v>0.9062075215224287</v>
       </c>
       <c r="D297" t="n">
-        <v>624754436278.9031</v>
+        <v>642684186678.7495</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B298" t="n">
-        <v>702908000000</v>
+        <v>715455000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8840951286358413</v>
+        <v>0.8950948800572861</v>
       </c>
       <c r="D298" t="n">
-        <v>621437538679.1619</v>
+        <v>640400107411.3856</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B299" t="n">
-        <v>709202000000</v>
+        <v>722293000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9062075215224287</v>
+        <v>0.89126559714795</v>
       </c>
       <c r="D299" t="n">
-        <v>642684186678.7495</v>
+        <v>643754901960.7842</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B300" t="n">
-        <v>715455000000</v>
+        <v>727459000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.8950948800572861</v>
+        <v>0.8770391159445711</v>
       </c>
       <c r="D300" t="n">
-        <v>640400107411.3856</v>
+        <v>638009998245.9218</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B301" t="n">
-        <v>722293000000</v>
+        <v>732122000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.89126559714795</v>
+        <v>0.8575593859874797</v>
       </c>
       <c r="D301" t="n">
-        <v>643754901960.7842</v>
+        <v>627838092787.9257</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B302" t="n">
-        <v>727459000000</v>
+        <v>736336000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8770391159445711</v>
+        <v>0.8498342823149485</v>
       </c>
       <c r="D302" t="n">
-        <v>638009998245.9218</v>
+        <v>625763576102.6599</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B303" t="n">
-        <v>732122000000</v>
+        <v>738881000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8575593859874797</v>
+        <v>0.8549200649739249</v>
       </c>
       <c r="D303" t="n">
-        <v>627838092787.9257</v>
+        <v>631684192527.9987</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B304" t="n">
-        <v>736336000000</v>
+        <v>743457000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.8498342823149485</v>
+        <v>0.8663259118080221</v>
       </c>
       <c r="D304" t="n">
-        <v>625763576102.6599</v>
+        <v>644076063415.0566</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B305" t="n">
-        <v>738881000000</v>
+        <v>746726000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.8549200649739249</v>
+        <v>0.9013068949977467</v>
       </c>
       <c r="D305" t="n">
-        <v>631684192527.9987</v>
+        <v>673029292474.0874</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B306" t="n">
-        <v>743457000000</v>
+        <v>747290000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.8663259118080221</v>
+        <v>0.9356287425149701</v>
       </c>
       <c r="D306" t="n">
-        <v>644076063415.0566</v>
+        <v>699186002994.012</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B307" t="n">
-        <v>746726000000</v>
+        <v>753228000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9013068949977467</v>
+        <v>0.9392317084624777</v>
       </c>
       <c r="D307" t="n">
-        <v>673029292474.0874</v>
+        <v>707455621301.7751</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B308" t="n">
-        <v>747290000000</v>
+        <v>762391000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9356287425149701</v>
+        <v>0.9377344336084021</v>
       </c>
       <c r="D308" t="n">
-        <v>699186002994.012</v>
+        <v>714920292573.1433</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B309" t="n">
-        <v>753228000000</v>
+        <v>767172000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9392317084624777</v>
+        <v>0.947059380623165</v>
       </c>
       <c r="D309" t="n">
-        <v>707455621301.7751</v>
+        <v>726557439151.4347</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B310" t="n">
-        <v>762391000000</v>
+        <v>771869000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9377344336084021</v>
+        <v>1.005429318318922</v>
       </c>
       <c r="D310" t="n">
-        <v>714920292573.1433</v>
+        <v>776059722501.5082</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B311" t="n">
-        <v>767172000000</v>
+        <v>770498000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.947059380623165</v>
+        <v>1.060670343657191</v>
       </c>
       <c r="D311" t="n">
-        <v>726557439151.4347</v>
+        <v>817244378447.1786</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B312" t="n">
-        <v>771869000000</v>
+        <v>773993000000</v>
       </c>
       <c r="C312" t="n">
-        <v>1.005429318318922</v>
+        <v>1.000100010001</v>
       </c>
       <c r="D312" t="n">
-        <v>776059722501.5082</v>
+        <v>774070407040.704</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B313" t="n">
-        <v>770498000000</v>
+        <v>780159000000</v>
       </c>
       <c r="C313" t="n">
-        <v>1.060670343657191</v>
+        <v>1.011265497643751</v>
       </c>
       <c r="D313" t="n">
-        <v>817244378447.1786</v>
+        <v>788947879376.2515</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B314" t="n">
-        <v>773993000000</v>
+        <v>789173000000</v>
       </c>
       <c r="C314" t="n">
-        <v>1.000100010001</v>
+        <v>0.9973072703700011</v>
       </c>
       <c r="D314" t="n">
-        <v>774070407040.704</v>
+        <v>787047970479.7048</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B315" t="n">
-        <v>780159000000</v>
+        <v>792462000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.011265497643751</v>
+        <v>1.016053647632595</v>
       </c>
       <c r="D315" t="n">
-        <v>788947879376.2515</v>
+        <v>805183905710.2214</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B316" t="n">
-        <v>789173000000</v>
+        <v>802004000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9973072703700011</v>
+        <v>0.9754384595875847</v>
       </c>
       <c r="D316" t="n">
-        <v>787047970479.7048</v>
+        <v>782305546343.0813</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B317" t="n">
-        <v>792462000000</v>
+        <v>808895000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.016053647632595</v>
+        <v>0.9923292945531045</v>
       </c>
       <c r="D317" t="n">
-        <v>805183905710.2214</v>
+        <v>802690204717.5334</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B318" t="n">
-        <v>802004000000</v>
+        <v>814551000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9754384595875847</v>
+        <v>1.006664116450905</v>
       </c>
       <c r="D318" t="n">
-        <v>782305546343.0813</v>
+        <v>819979262719.201</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B319" t="n">
-        <v>808895000000</v>
+        <v>820945000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9923292945531045</v>
+        <v>0.9789621043769395</v>
       </c>
       <c r="D319" t="n">
-        <v>802690204717.5334</v>
+        <v>803674044777.7267</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B320" t="n">
-        <v>814551000000</v>
+        <v>825736000000</v>
       </c>
       <c r="C320" t="n">
-        <v>1.006664116450905</v>
+        <v>0.9760477872996662</v>
       </c>
       <c r="D320" t="n">
-        <v>819979262719.201</v>
+        <v>805957795693.6772</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B321" t="n">
-        <v>820945000000</v>
+        <v>833368000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9789621043769395</v>
+        <v>0.9418146885418825</v>
       </c>
       <c r="D321" t="n">
-        <v>803674044777.7267</v>
+        <v>784878223360.7716</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B322" t="n">
-        <v>825736000000</v>
+        <v>844338000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9760477872996662</v>
+        <v>0.9397171451393131</v>
       </c>
       <c r="D322" t="n">
-        <v>805957795693.6772</v>
+        <v>793438894892.6373</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B323" t="n">
-        <v>833368000000</v>
+        <v>857769000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9418146885418825</v>
+        <v>0.8336807002917882</v>
       </c>
       <c r="D323" t="n">
-        <v>784878223360.7716</v>
+        <v>715105460608.5869</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B324" t="n">
-        <v>844338000000</v>
+        <v>874577000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9397171451393131</v>
+        <v>0.8091662351113412</v>
       </c>
       <c r="D324" t="n">
-        <v>793438894892.6373</v>
+        <v>707678178404.9714</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B325" t="n">
-        <v>857769000000</v>
+        <v>890217000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8336807002917882</v>
+        <v>0.8207013713919916</v>
       </c>
       <c r="D325" t="n">
-        <v>715105460608.5869</v>
+        <v>730602312736.4646</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B326" t="n">
-        <v>874577000000</v>
+        <v>903968000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.8091662351113412</v>
+        <v>0.8155875084617203</v>
       </c>
       <c r="D326" t="n">
-        <v>707678178404.9714</v>
+        <v>737265008849.1244</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B327" t="n">
-        <v>890217000000</v>
+        <v>911816000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8207013713919916</v>
+        <v>0.7861140808754166</v>
       </c>
       <c r="D327" t="n">
-        <v>730602312736.4646</v>
+        <v>716791396767.4988</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B328" t="n">
-        <v>903968000000</v>
+        <v>923083000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.8155875084617203</v>
+        <v>0.793751587503175</v>
       </c>
       <c r="D328" t="n">
-        <v>737265008849.1244</v>
+        <v>732698596647.1932</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B329" t="n">
-        <v>911816000000</v>
+        <v>929833000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.7861140808754166</v>
+        <v>0.8388276544701125</v>
       </c>
       <c r="D329" t="n">
-        <v>716791396767.4988</v>
+        <v>779969634438.9082</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B330" t="n">
-        <v>923083000000</v>
+        <v>933532000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.793751587503175</v>
+        <v>0.9159438343240793</v>
       </c>
       <c r="D330" t="n">
-        <v>732698596647.1932</v>
+        <v>855062879544.2264</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B331" t="n">
-        <v>929833000000</v>
+        <v>939155000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8388276544701125</v>
+        <v>0.8606814876018832</v>
       </c>
       <c r="D331" t="n">
-        <v>779969634438.9082</v>
+        <v>808313322488.7467</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B332" t="n">
-        <v>933532000000</v>
+        <v>947686000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9159438343240793</v>
+        <v>0.9284016636957813</v>
       </c>
       <c r="D332" t="n">
-        <v>855062879544.2264</v>
+        <v>879833259061.2002</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B333" t="n">
-        <v>939155000000</v>
+        <v>956161000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8606814876018832</v>
+        <v>0.914603473663993</v>
       </c>
       <c r="D333" t="n">
-        <v>808313322488.7467</v>
+        <v>874508171982.0372</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B334" t="n">
-        <v>947686000000</v>
+        <v>960900000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9284016636957813</v>
+        <v>0.9353924438998382</v>
       </c>
       <c r="D334" t="n">
-        <v>879833259061.2002</v>
+        <v>898818599343.3545</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B335" t="n">
-        <v>956161000000</v>
+        <v>965962000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.914603473663993</v>
+        <v>0.9244963805966701</v>
       </c>
       <c r="D335" t="n">
-        <v>874508171982.0372</v>
+        <v>893028372793.9207</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B336" t="n">
-        <v>960900000000</v>
+        <v>970851000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9353924438998382</v>
+        <v>0.9470414425335253</v>
       </c>
       <c r="D336" t="n">
-        <v>898818599343.3545</v>
+        <v>919436131525.1156</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B337" t="n">
-        <v>965962000000</v>
+        <v>973415000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9244963805966701</v>
+        <v>0.9557031585989393</v>
       </c>
       <c r="D337" t="n">
-        <v>893028372793.9207</v>
+        <v>930295790127.5864</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B338" t="n">
-        <v>970851000000</v>
+        <v>975773000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9470414425335253</v>
+        <v>0.9352437245146086</v>
       </c>
       <c r="D338" t="n">
-        <v>919436131525.1156</v>
+        <v>912585574800.7932</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B339" t="n">
-        <v>973415000000</v>
+        <v>983599000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9557031585989393</v>
+        <v>0.9504980609839557</v>
       </c>
       <c r="D339" t="n">
-        <v>930295790127.5864</v>
+        <v>934908942285.7578</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B340" t="n">
-        <v>975773000000</v>
+        <v>986502000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9352437245146086</v>
+        <v>0.9848044670730626</v>
       </c>
       <c r="D340" t="n">
-        <v>912585574800.7932</v>
+        <v>971511576376.5104</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B341" t="n">
-        <v>983599000000</v>
+        <v>989926000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9504980609839557</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="D341" t="n">
-        <v>934908942285.7578</v>
+        <v>974336614173.2284</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B342" t="n">
-        <v>986502000000</v>
+        <v>997332000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9848044670730626</v>
+        <v>0.9574783849254602</v>
       </c>
       <c r="D342" t="n">
-        <v>971511576376.5104</v>
+        <v>954923832594.4791</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B343" t="n">
-        <v>989926000000</v>
+        <v>1002970000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.984251968503937</v>
+        <v>0.9401412092096234</v>
       </c>
       <c r="D343" t="n">
-        <v>974336614173.2284</v>
+        <v>942933428600.976</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B344" t="n">
-        <v>997332000000</v>
+        <v>1007970000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9574783849254602</v>
+        <v>0.9730087376184637</v>
       </c>
       <c r="D344" t="n">
-        <v>954923832594.4791</v>
+        <v>980763617257.2828</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B345" t="n">
-        <v>1002970000000</v>
+        <v>1012078000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9401412092096234</v>
+        <v>0.9385441303450088</v>
       </c>
       <c r="D345" t="n">
-        <v>942933428600.976</v>
+        <v>949879866351.3158</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B346" t="n">
-        <v>1007970000000</v>
+        <v>1017370000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9730087376184637</v>
+        <v>0.9716945381050012</v>
       </c>
       <c r="D346" t="n">
-        <v>980763617257.2828</v>
+        <v>988572872231.885</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B347" t="n">
-        <v>1012078000000</v>
+        <v>1021701000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9385441303450088</v>
+        <v>0.9804978968320114</v>
       </c>
       <c r="D347" t="n">
-        <v>949879866351.3158</v>
+        <v>1001775681691.163</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B348" t="n">
-        <v>1017370000000</v>
+        <v>1021885000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9716945381050012</v>
+        <v>0.9743264968090807</v>
       </c>
       <c r="D348" t="n">
-        <v>988572872231.885</v>
+        <v>995649632191.7474</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B349" t="n">
-        <v>1021701000000</v>
+        <v>1026441000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9804978968320114</v>
+        <v>1.005338346620555</v>
       </c>
       <c r="D349" t="n">
-        <v>1001775681691.163</v>
+        <v>1031920497843.549</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B350" t="n">
-        <v>1021885000000</v>
+        <v>1030655000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9743264968090807</v>
+        <v>0.9990409207161125</v>
       </c>
       <c r="D350" t="n">
-        <v>995649632191.7474</v>
+        <v>1029666520140.665</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B351" t="n">
-        <v>1026441000000</v>
+        <v>1033383000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.005338346620555</v>
+        <v>1.029569228234906</v>
       </c>
       <c r="D351" t="n">
-        <v>1031920497843.549</v>
+        <v>1063939337781.072</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B352" t="n">
-        <v>1030655000000</v>
+        <v>1037827000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9990409207161125</v>
+        <v>1.030566605519715</v>
       </c>
       <c r="D352" t="n">
-        <v>1029666520140.665</v>
+        <v>1069549848506.709</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B353" t="n">
-        <v>1033383000000</v>
+        <v>1039526000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.029569228234906</v>
+        <v>1.057183030098001</v>
       </c>
       <c r="D353" t="n">
-        <v>1063939337781.072</v>
+        <v>1098969246545.654</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B354" t="n">
-        <v>1037827000000</v>
+        <v>1042253000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.030566605519715</v>
+        <v>1.032919132761096</v>
       </c>
       <c r="D354" t="n">
-        <v>1069549848506.709</v>
+        <v>1076563064877.651</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B355" t="n">
-        <v>1039526000000</v>
+        <v>1047329000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.057183030098001</v>
+        <v>1.037925809063168</v>
       </c>
       <c r="D355" t="n">
-        <v>1098969246545.654</v>
+        <v>1087049799680.319</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B356" t="n">
-        <v>1042253000000</v>
+        <v>1050254000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.032919132761096</v>
+        <v>1.046857334282484</v>
       </c>
       <c r="D356" t="n">
-        <v>1076563064877.651</v>
+        <v>1099466102759.516</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B357" t="n">
-        <v>1047329000000</v>
+        <v>1056451000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.037925809063168</v>
+        <v>1.022955112729653</v>
       </c>
       <c r="D357" t="n">
-        <v>1087049799680.319</v>
+        <v>1080701951798.355</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B358" t="n">
-        <v>1050254000000</v>
+        <v>1072342000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.046857334282484</v>
+        <v>0.9538435124333502</v>
       </c>
       <c r="D358" t="n">
-        <v>1099466102759.516</v>
+        <v>1022846459809.804</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B359" t="n">
-        <v>1056451000000</v>
+        <v>1081489000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.022955112729653</v>
+        <v>0.9993404353126936</v>
       </c>
       <c r="D359" t="n">
-        <v>1080701951798.355</v>
+        <v>1080775688045.89</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B360" t="n">
-        <v>1072342000000</v>
+        <v>1087142000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9538435124333502</v>
+        <v>0.9833711931242687</v>
       </c>
       <c r="D360" t="n">
-        <v>1022846459809.804</v>
+        <v>1069064125635.504</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B361" t="n">
-        <v>1081489000000</v>
+        <v>1092865000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9993404353126936</v>
+        <v>0.9793360101850946</v>
       </c>
       <c r="D361" t="n">
-        <v>1080775688045.89</v>
+        <v>1070282048770.933</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B362" t="n">
-        <v>1087142000000</v>
+        <v>1101467000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9833711931242687</v>
+        <v>0.9974962843263409</v>
       </c>
       <c r="D362" t="n">
-        <v>1069064125635.504</v>
+        <v>1098709239808.082</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B363" t="n">
-        <v>1092865000000</v>
+        <v>1097482000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9793360101850946</v>
+        <v>1.010315319411188</v>
       </c>
       <c r="D363" t="n">
-        <v>1070282048770.933</v>
+        <v>1108802877378.03</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B364" t="n">
-        <v>1101467000000</v>
+        <v>1102820000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9974962843263409</v>
+        <v>1.002154632459789</v>
       </c>
       <c r="D364" t="n">
-        <v>1098709239808.082</v>
+        <v>1105196171769.304</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B365" t="n">
-        <v>1097482000000</v>
+        <v>1109651000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.010315319411188</v>
+        <v>1.013037796440185</v>
       </c>
       <c r="D365" t="n">
-        <v>1108802877378.03</v>
+        <v>1124118403857.648</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B366" t="n">
-        <v>1102820000000</v>
+        <v>1116754000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.002154632459789</v>
+        <v>0.9683916950728231</v>
       </c>
       <c r="D366" t="n">
-        <v>1105196171769.304</v>
+        <v>1081455299039.355</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B367" t="n">
-        <v>1109651000000</v>
+        <v>1127759000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.013037796440185</v>
+        <v>0.9838936607731437</v>
       </c>
       <c r="D367" t="n">
-        <v>1124118403857.648</v>
+        <v>1109594930979.86</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B368" t="n">
-        <v>1116754000000</v>
+        <v>1135610000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9683916950728231</v>
+        <v>0.9969095803010666</v>
       </c>
       <c r="D368" t="n">
-        <v>1081455299039.355</v>
+        <v>1132100488485.694</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B369" t="n">
-        <v>1127759000000</v>
+        <v>1140742000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9838936607731437</v>
+        <v>1.014970819588937</v>
       </c>
       <c r="D369" t="n">
-        <v>1109594930979.86</v>
+        <v>1157819842679.523</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B370" t="n">
-        <v>1135610000000</v>
+        <v>1140167000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9969095803010666</v>
+        <v>1.016973284111826</v>
       </c>
       <c r="D370" t="n">
-        <v>1132100488485.694</v>
+        <v>1159519378425.929</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B371" t="n">
-        <v>1140742000000</v>
+        <v>1150318000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.014970819588937</v>
+        <v>1.000320102432779</v>
       </c>
       <c r="D371" t="n">
-        <v>1157819842679.523</v>
+        <v>1150686219590.269</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B372" t="n">
-        <v>1140167000000</v>
+        <v>1158280000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.016973284111826</v>
+        <v>1.005854070691424</v>
       </c>
       <c r="D372" t="n">
-        <v>1159519378425.929</v>
+        <v>1165060653000.463</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B373" t="n">
-        <v>1150318000000</v>
+        <v>1161595000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.000320102432779</v>
+        <v>1.005237286261422</v>
       </c>
       <c r="D373" t="n">
-        <v>1150686219590.269</v>
+        <v>1167678605534.837</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B374" t="n">
-        <v>1158280000000</v>
+        <v>1169988000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.005854070691424</v>
+        <v>1.002657041159072</v>
       </c>
       <c r="D374" t="n">
-        <v>1165060653000.463</v>
+        <v>1173096706271.62</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B375" t="n">
-        <v>1161595000000</v>
+        <v>1179367000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.005237286261422</v>
+        <v>0.9703273884608666</v>
       </c>
       <c r="D375" t="n">
-        <v>1167678605534.837</v>
+        <v>1144372101146.927</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B376" t="n">
-        <v>1169988000000</v>
+        <v>1189872000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.002657041159072</v>
+        <v>0.9827720067221605</v>
       </c>
       <c r="D376" t="n">
-        <v>1173096706271.62</v>
+        <v>1169372893182.51</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B377" t="n">
-        <v>1179367000000</v>
+        <v>1195531000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9703273884608666</v>
+        <v>0.9929007595690811</v>
       </c>
       <c r="D377" t="n">
-        <v>1144372101146.927</v>
+        <v>1187043637988.383</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B378" t="n">
-        <v>1189872000000</v>
+        <v>1194040000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9827720067221605</v>
+        <v>0.9647481042699751</v>
       </c>
       <c r="D378" t="n">
-        <v>1169372893182.51</v>
+        <v>1151947826422.521</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B379" t="n">
-        <v>1195531000000</v>
+        <v>1200066000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9929007595690811</v>
+        <v>0.9511580349074998</v>
       </c>
       <c r="D379" t="n">
-        <v>1187043637988.383</v>
+        <v>1141452418319.304</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B380" t="n">
-        <v>1194040000000</v>
+        <v>1205447000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9647481042699751</v>
+        <v>0.973093952221087</v>
       </c>
       <c r="D380" t="n">
-        <v>1151947826422.521</v>
+        <v>1173013185423.053</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B381" t="n">
-        <v>1200066000000</v>
+        <v>1216053000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9511580349074998</v>
+        <v>0.9494331883865331</v>
       </c>
       <c r="D381" t="n">
-        <v>1141452418319.304</v>
+        <v>1154561077037.009</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B382" t="n">
-        <v>1205447000000</v>
+        <v>1221461000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.973093952221087</v>
+        <v>0.9700732405296599</v>
       </c>
       <c r="D382" t="n">
-        <v>1173013185423.053</v>
+        <v>1184906630450.599</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B383" t="n">
-        <v>1216053000000</v>
+        <v>1226705000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9494331883865331</v>
+        <v>0.958873898493609</v>
       </c>
       <c r="D383" t="n">
-        <v>1154561077037.009</v>
+        <v>1176255405651.603</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B384" t="n">
-        <v>1221461000000</v>
+        <v>1235685000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9700732405296599</v>
+        <v>0.9426492213717431</v>
       </c>
       <c r="D384" t="n">
-        <v>1184906630450.599</v>
+        <v>1164817503110.742</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B385" t="n">
-        <v>1226705000000</v>
+        <v>1243567000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.958873898493609</v>
+        <v>0.9402561257686595</v>
       </c>
       <c r="D385" t="n">
-        <v>1176255405651.603</v>
+        <v>1169271489553.755</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B386" t="n">
-        <v>1235685000000</v>
+        <v>1251738000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9426492213717431</v>
+        <v>0.898787535614456</v>
       </c>
       <c r="D386" t="n">
-        <v>1164817503110.742</v>
+        <v>1125046512254.968</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B387" t="n">
-        <v>1243567000000</v>
+        <v>1251016000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9402561257686595</v>
+        <v>0.903750564844103</v>
       </c>
       <c r="D387" t="n">
-        <v>1169271489553.755</v>
+        <v>1130606416629.01</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B388" t="n">
-        <v>1251738000000</v>
+        <v>1254128000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.898787535614456</v>
+        <v>0.9050428990334143</v>
       </c>
       <c r="D388" t="n">
-        <v>1125046512254.968</v>
+        <v>1135039640878.978</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B389" t="n">
-        <v>1251016000000</v>
+        <v>1256512000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.903750564844103</v>
+        <v>0.9123421648054887</v>
       </c>
       <c r="D389" t="n">
-        <v>1130606416629.01</v>
+        <v>1146368878184.074</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B390" t="n">
-        <v>1254128000000</v>
+        <v>1261583000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9050428990334143</v>
+        <v>0.9224496573099522</v>
       </c>
       <c r="D390" t="n">
-        <v>1135039640878.978</v>
+        <v>1163746806018.062</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B391" t="n">
-        <v>1256512000000</v>
+        <v>1265809000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9123421648054887</v>
+        <v>0.9373037520269195</v>
       </c>
       <c r="D391" t="n">
-        <v>1146368878184.074</v>
+        <v>1186447525049.443</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B392" t="n">
-        <v>1261583000000</v>
+        <v>1270210000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9224496573099522</v>
+        <v>0.9170189547817954</v>
       </c>
       <c r="D392" t="n">
-        <v>1163746806018.062</v>
+        <v>1164806646553.384</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B393" t="n">
-        <v>1265809000000</v>
+        <v>1279946000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9373037520269195</v>
+        <v>0.9196163360645938</v>
       </c>
       <c r="D393" t="n">
-        <v>1186447525049.443</v>
+        <v>1177059250880.532</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B394" t="n">
-        <v>1270210000000</v>
+        <v>1289603000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9170189547817954</v>
+        <v>0.8932399599828498</v>
       </c>
       <c r="D394" t="n">
-        <v>1164806646553.384</v>
+        <v>1151924932113.763</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B395" t="n">
-        <v>1279946000000</v>
+        <v>1295199000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9196163360645938</v>
+        <v>0.8875398283497972</v>
       </c>
       <c r="D395" t="n">
-        <v>1177059250880.532</v>
+        <v>1149540698138.829</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B396" t="n">
-        <v>1289603000000</v>
+        <v>1296727000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8932399599828498</v>
+        <v>0.8762014912949383</v>
       </c>
       <c r="D396" t="n">
-        <v>1151924932113.763</v>
+        <v>1136194131202.411</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B397" t="n">
-        <v>1295199000000</v>
+        <v>1302464000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8875398283497972</v>
+        <v>0.8610816908200081</v>
       </c>
       <c r="D397" t="n">
-        <v>1149540698138.829</v>
+        <v>1121527903352.191</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B398" t="n">
-        <v>1296727000000</v>
+        <v>1306212000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8762014912949383</v>
+        <v>0.7863489816780687</v>
       </c>
       <c r="D398" t="n">
-        <v>1136194131202.411</v>
+        <v>1027138476055.673</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B399" t="n">
-        <v>1302464000000</v>
+        <v>1312747000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8610816908200081</v>
+        <v>0.8001984492154054</v>
       </c>
       <c r="D399" t="n">
-        <v>1121527903352.191</v>
+        <v>1050458113612.176</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B400" t="n">
-        <v>1306212000000</v>
+        <v>1316790000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7863489816780687</v>
+        <v>0.7884259076753262</v>
       </c>
       <c r="D400" t="n">
-        <v>1027138476055.673</v>
+        <v>1038191350967.793</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B401" t="n">
-        <v>1312747000000</v>
+        <v>1320890000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8001984492154054</v>
+        <v>0.8282259400364419</v>
       </c>
       <c r="D401" t="n">
-        <v>1050458113612.176</v>
+        <v>1093995361934.736</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B402" t="n">
-        <v>1316790000000</v>
+        <v>1322154000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7884259076753262</v>
+        <v>0.8035097305028364</v>
       </c>
       <c r="D402" t="n">
-        <v>1038191350967.793</v>
+        <v>1062363604223.247</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B403" t="n">
-        <v>1320890000000</v>
+        <v>1329858000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8282259400364419</v>
+        <v>0.8007495015334353</v>
       </c>
       <c r="D403" t="n">
-        <v>1093995361934.736</v>
+        <v>1064883130610.251</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B404" t="n">
-        <v>1322154000000</v>
+        <v>1345086000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.8035097305028364</v>
+        <v>0.7641988139634408</v>
       </c>
       <c r="D404" t="n">
-        <v>1062363604223.247</v>
+        <v>1027913125878.829</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B405" t="n">
-        <v>1329858000000</v>
+        <v>1356127000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8007495015334353</v>
+        <v>0.7610755519700441</v>
       </c>
       <c r="D405" t="n">
-        <v>1064883130610.251</v>
+        <v>1032115105066.48</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B406" t="n">
-        <v>1345086000000</v>
+        <v>1366811000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7641988139634408</v>
+        <v>0.7511906371598984</v>
       </c>
       <c r="D406" t="n">
-        <v>1027913125878.829</v>
+        <v>1026735625967.158</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B407" t="n">
-        <v>1356127000000</v>
+        <v>1368472000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7610755519700441</v>
+        <v>0.7650172893907402</v>
       </c>
       <c r="D407" t="n">
-        <v>1032115105066.48</v>
+        <v>1046904740047.125</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B408" t="n">
-        <v>1366811000000</v>
+        <v>1377121000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7511906371598984</v>
+        <v>0.7484245662879637</v>
       </c>
       <c r="D408" t="n">
-        <v>1026735625967.158</v>
+        <v>1030671187151.047</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B409" t="n">
-        <v>1368472000000</v>
+        <v>1380572000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7650172893907402</v>
+        <v>0.7232069890723424</v>
       </c>
       <c r="D409" t="n">
-        <v>1046904740047.125</v>
+        <v>998439319317.5819</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B410" t="n">
-        <v>1377121000000</v>
+        <v>1391381000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7484245662879637</v>
+        <v>0.7158862313601122</v>
       </c>
       <c r="D410" t="n">
-        <v>1030671187151.047</v>
+        <v>996070500476.0643</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B411" t="n">
-        <v>1380572000000</v>
+        <v>1400091000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7232069890723424</v>
+        <v>0.7387488549392749</v>
       </c>
       <c r="D411" t="n">
-        <v>998439319317.5819</v>
+        <v>1034315623060.784</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B412" t="n">
-        <v>1391381000000</v>
+        <v>1405027000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7158862313601122</v>
+        <v>0.7690710390918809</v>
       </c>
       <c r="D412" t="n">
-        <v>996070500476.0643</v>
+        <v>1080565574842.148</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B413" t="n">
-        <v>1400091000000</v>
+        <v>1412193000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7387488549392749</v>
+        <v>0.7968063999490044</v>
       </c>
       <c r="D413" t="n">
-        <v>1034315623060.784</v>
+        <v>1125244420363.184</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B414" t="n">
-        <v>1405027000000</v>
+        <v>1419809000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7690710390918809</v>
+        <v>0.7638135683842288</v>
       </c>
       <c r="D414" t="n">
-        <v>1080565574842.148</v>
+        <v>1084469378714.043</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B415" t="n">
-        <v>1412193000000</v>
+        <v>1428874000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7968063999490044</v>
+        <v>0.7737662297466689</v>
       </c>
       <c r="D415" t="n">
-        <v>1125244420363.184</v>
+        <v>1105614447763.042</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B416" t="n">
-        <v>1419809000000</v>
+        <v>1450911000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7638135683842288</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="D416" t="n">
-        <v>1084469378714.043</v>
+        <v>1112661809815.951</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B417" t="n">
-        <v>1428874000000</v>
+        <v>1461886000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7737662297466689</v>
+        <v>0.7631199395609007</v>
       </c>
       <c r="D417" t="n">
-        <v>1105614447763.042</v>
+        <v>1115594355964.927</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B418" t="n">
-        <v>1450911000000</v>
+        <v>1473602000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7620266861745498</v>
       </c>
       <c r="D418" t="n">
-        <v>1112661809815.951</v>
+        <v>1122924048800.189</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B419" t="n">
-        <v>1461886000000</v>
+        <v>1484308000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7631199395609007</v>
+        <v>0.7458567656667213</v>
       </c>
       <c r="D419" t="n">
-        <v>1115594355964.927</v>
+        <v>1107081164133.24</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B420" t="n">
-        <v>1473602000000</v>
+        <v>1495912000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7620266861745498</v>
+        <v>0.7442081996859442</v>
       </c>
       <c r="D420" t="n">
-        <v>1122924048800.189</v>
+        <v>1113269976408.6</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B421" t="n">
-        <v>1484308000000</v>
+        <v>1498820000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7458567656667213</v>
+        <v>0.7443356060380504</v>
       </c>
       <c r="D421" t="n">
-        <v>1107081164133.24</v>
+        <v>1115625093041.951</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B422" t="n">
-        <v>1495912000000</v>
+        <v>1515097000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7442081996859442</v>
+        <v>0.767589309016104</v>
       </c>
       <c r="D422" t="n">
-        <v>1113269976408.6</v>
+        <v>1162972259322.372</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B423" t="n">
-        <v>1498820000000</v>
+        <v>1513143000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7443356060380504</v>
+        <v>0.7519079664649048</v>
       </c>
       <c r="D423" t="n">
-        <v>1115625093041.951</v>
+        <v>1137744276100.605</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B424" t="n">
-        <v>1515097000000</v>
+        <v>1521199000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.767589309016104</v>
+        <v>0.7508860455337297</v>
       </c>
       <c r="D424" t="n">
-        <v>1162972259322.372</v>
+        <v>1142247101579.864</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B425" t="n">
-        <v>1513143000000</v>
+        <v>1532423000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7519079664649048</v>
+        <v>0.7324719463244558</v>
       </c>
       <c r="D425" t="n">
-        <v>1137744276100.605</v>
+        <v>1122456857402.362</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B426" t="n">
-        <v>1521199000000</v>
+        <v>1546176000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7508860455337297</v>
+        <v>0.7408230544134533</v>
       </c>
       <c r="D426" t="n">
-        <v>1142247101579.864</v>
+        <v>1145442826980.776</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B427" t="n">
-        <v>1532423000000</v>
+        <v>1551765000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7324719463244558</v>
+        <v>0.7714739781827159</v>
       </c>
       <c r="D427" t="n">
-        <v>1122456857402.362</v>
+        <v>1197146317754.702</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B428" t="n">
-        <v>1546176000000</v>
+        <v>1554451000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7408230544134533</v>
+        <v>0.8013526833294602</v>
       </c>
       <c r="D428" t="n">
-        <v>1145442826980.776</v>
+        <v>1245663479954.163</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B429" t="n">
-        <v>1551765000000</v>
+        <v>1555592000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7714739781827159</v>
+        <v>0.8012178511337232</v>
       </c>
       <c r="D429" t="n">
-        <v>1197146317754.702</v>
+        <v>1246368079480.811</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B430" t="n">
-        <v>1554451000000</v>
+        <v>1562476000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8013526833294602</v>
+        <v>0.8023492786879984</v>
       </c>
       <c r="D430" t="n">
-        <v>1245663479954.163</v>
+        <v>1253651491567.309</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B431" t="n">
-        <v>1555592000000</v>
+        <v>1570298000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8012178511337232</v>
+        <v>0.7759938541286753</v>
       </c>
       <c r="D431" t="n">
-        <v>1246368079480.811</v>
+        <v>1218541597150.551</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B432" t="n">
-        <v>1562476000000</v>
+        <v>1574987000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8023492786879984</v>
+        <v>0.7754823500217135</v>
       </c>
       <c r="D432" t="n">
-        <v>1253651491567.309</v>
+        <v>1221374620013.648</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B433" t="n">
-        <v>1570298000000</v>
+        <v>1585745000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7759938541286753</v>
+        <v>0.7949567940982407</v>
       </c>
       <c r="D433" t="n">
-        <v>1218541597150.551</v>
+        <v>1260598761457.315</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B434" t="n">
-        <v>1574987000000</v>
+        <v>1590269000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7754823500217135</v>
+        <v>0.8122091276061761</v>
       </c>
       <c r="D434" t="n">
-        <v>1221374620013.648</v>
+        <v>1291630997149.146</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B435" t="n">
-        <v>1585745000000</v>
+        <v>1593488000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7949567940982407</v>
+        <v>0.7795082861730821</v>
       </c>
       <c r="D435" t="n">
-        <v>1260598761457.315</v>
+        <v>1242137099917.372</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B436" t="n">
-        <v>1590269000000</v>
+        <v>1598398000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.8122091276061761</v>
+        <v>0.7754703227507483</v>
       </c>
       <c r="D436" t="n">
-        <v>1291630997149.146</v>
+        <v>1239510212944.151</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B437" t="n">
-        <v>1593488000000</v>
+        <v>1598364000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7795082861730821</v>
+        <v>0.7786645902277595</v>
       </c>
       <c r="D437" t="n">
-        <v>1242137099917.372</v>
+        <v>1244589449094.802</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B438" t="n">
-        <v>1598398000000</v>
+        <v>1598824000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7754703227507483</v>
+        <v>0.7718074186129077</v>
       </c>
       <c r="D438" t="n">
-        <v>1239510212944.151</v>
+        <v>1233984224256.364</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B439" t="n">
-        <v>1598364000000</v>
+        <v>1608465000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7786645902277595</v>
+        <v>0.7614290500411172</v>
       </c>
       <c r="D439" t="n">
-        <v>1244589449094.802</v>
+        <v>1224731976974.385</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B440" t="n">
-        <v>1598824000000</v>
+        <v>1616215000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7718074186129077</v>
+        <v>0.7689054630733151</v>
       </c>
       <c r="D440" t="n">
-        <v>1233984224256.364</v>
+        <v>1242716543001.038</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B441" t="n">
-        <v>1608465000000</v>
+        <v>1627432000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7614290500411172</v>
+        <v>0.7667712031406948</v>
       </c>
       <c r="D441" t="n">
-        <v>1224731976974.385</v>
+        <v>1247867992669.667</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B442" t="n">
-        <v>1616215000000</v>
+        <v>1637358000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7689054630733151</v>
+        <v>0.7747313619002612</v>
       </c>
       <c r="D442" t="n">
-        <v>1242716543001.038</v>
+        <v>1268512593258.288</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B443" t="n">
-        <v>1627432000000</v>
+        <v>1646237000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7667712031406948</v>
+        <v>0.7601036781416985</v>
       </c>
       <c r="D443" t="n">
-        <v>1247867992669.667</v>
+        <v>1251310798792.955</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B444" t="n">
-        <v>1637358000000</v>
+        <v>1656351000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7747313619002612</v>
+        <v>0.752683316021617</v>
       </c>
       <c r="D444" t="n">
-        <v>1268512593258.288</v>
+        <v>1246707763175.721</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B445" t="n">
-        <v>1646237000000</v>
+        <v>1668377000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7601036781416985</v>
+        <v>0.7328101069169946</v>
       </c>
       <c r="D445" t="n">
-        <v>1251310798792.955</v>
+        <v>1222603527747.855</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B446" t="n">
-        <v>1656351000000</v>
+        <v>1675220000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.752683316021617</v>
+        <v>0.7620034594957061</v>
       </c>
       <c r="D446" t="n">
-        <v>1246707763175.721</v>
+        <v>1276523435416.397</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B447" t="n">
-        <v>1668377000000</v>
+        <v>1682335000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7328101069169946</v>
+        <v>0.7591976798918902</v>
       </c>
       <c r="D447" t="n">
-        <v>1222603527747.855</v>
+        <v>1277224828800.923</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B448" t="n">
-        <v>1675220000000</v>
+        <v>1692733000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7620034594957061</v>
+        <v>0.7492769477454257</v>
       </c>
       <c r="D448" t="n">
-        <v>1276523435416.397</v>
+        <v>1268325815587.958</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B449" t="n">
-        <v>1682335000000</v>
+        <v>1705748000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7591976798918902</v>
+        <v>0.7469375560203168</v>
       </c>
       <c r="D449" t="n">
-        <v>1277224828800.923</v>
+        <v>1274087242306.543</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B450" t="n">
-        <v>1692733000000</v>
+        <v>1714043000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7492769477454257</v>
+        <v>0.739885761638403</v>
       </c>
       <c r="D450" t="n">
-        <v>1268325815587.958</v>
+        <v>1268196010535.973</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B451" t="n">
-        <v>1705748000000</v>
+        <v>1720945000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7469375560203168</v>
+        <v>0.7641229015274817</v>
       </c>
       <c r="D451" t="n">
-        <v>1274087242306.543</v>
+        <v>1315013486769.212</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B452" t="n">
-        <v>1714043000000</v>
+        <v>1737081000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.739885761638403</v>
+        <v>0.7581041331837342</v>
       </c>
       <c r="D452" t="n">
-        <v>1268196010535.973</v>
+        <v>1316888285774.934</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B453" t="n">
-        <v>1720945000000</v>
+        <v>1754608000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7641229015274817</v>
+        <v>0.7514390056959076</v>
       </c>
       <c r="D453" t="n">
-        <v>1315013486769.212</v>
+        <v>1318480890906.085</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B454" t="n">
-        <v>1737081000000</v>
+        <v>1768025000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7581041331837342</v>
+        <v>0.7552813045218693</v>
       </c>
       <c r="D454" t="n">
-        <v>1316888285774.934</v>
+        <v>1335356228427.278</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B455" t="n">
-        <v>1754608000000</v>
+        <v>1780400000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7514390056959076</v>
+        <v>0.7596590650116227</v>
       </c>
       <c r="D455" t="n">
-        <v>1318480890906.085</v>
+        <v>1352496999346.693</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B456" t="n">
-        <v>1768025000000</v>
+        <v>1788170000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.7552813045218693</v>
+        <v>0.7533524182612626</v>
       </c>
       <c r="D456" t="n">
-        <v>1335356228427.278</v>
+        <v>1347122193762.242</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B457" t="n">
-        <v>1780400000000</v>
+        <v>1797721000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.7596590650116227</v>
+        <v>0.7706950899015822</v>
       </c>
       <c r="D457" t="n">
-        <v>1352496999346.693</v>
+        <v>1385494747712.962</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B458" t="n">
-        <v>1788170000000</v>
+        <v>1801010000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7533524182612626</v>
+        <v>0.7554981376970905</v>
       </c>
       <c r="D458" t="n">
-        <v>1347122193762.242</v>
+        <v>1360659700973.837</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B459" t="n">
-        <v>1797721000000</v>
+        <v>1814298000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7706950899015822</v>
+        <v>0.7455064598134743</v>
       </c>
       <c r="D459" t="n">
-        <v>1385494747712.962</v>
+        <v>1352570879026.667</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B460" t="n">
-        <v>1801010000000</v>
+        <v>1855518000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7554981376970905</v>
+        <v>0.7113184999715473</v>
       </c>
       <c r="D460" t="n">
-        <v>1360659700973.837</v>
+        <v>1319864280430.206</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B461" t="n">
-        <v>1814298000000</v>
+        <v>1918181000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7455064598134743</v>
+        <v>0.7171286170174621</v>
       </c>
       <c r="D461" t="n">
-        <v>1352570879026.667</v>
+        <v>1375582487719.173</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B462" t="n">
-        <v>1855518000000</v>
+        <v>1963419000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7113184999715473</v>
+        <v>0.7263271813421074</v>
       </c>
       <c r="D462" t="n">
-        <v>1319864280430.206</v>
+        <v>1426084588063.539</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B463" t="n">
-        <v>1918181000000</v>
+        <v>2005979000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7171286170174621</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D463" t="n">
-        <v>1375582487719.173</v>
+        <v>1477809783409.459</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B464" t="n">
-        <v>1963419000000</v>
+        <v>2030544000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.7263271813421074</v>
+        <v>0.7459235279199177</v>
       </c>
       <c r="D464" t="n">
-        <v>1426084588063.539</v>
+        <v>1514630544076.621</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B465" t="n">
-        <v>2005979000000</v>
+        <v>2061892000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7665008469834359</v>
       </c>
       <c r="D465" t="n">
-        <v>1477809783409.459</v>
+        <v>1580441964388.371</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B466" t="n">
-        <v>2030544000000</v>
+        <v>2085360000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7459235279199177</v>
+        <v>0.7509706295386788</v>
       </c>
       <c r="D466" t="n">
-        <v>1514630544076.621</v>
+        <v>1566044112014.779</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B467" t="n">
-        <v>2061892000000</v>
+        <v>2105411000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7665008469834359</v>
+        <v>0.7510044684765874</v>
       </c>
       <c r="D467" t="n">
-        <v>1580441964388.371</v>
+        <v>1581173068979.76</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B468" t="n">
-        <v>2085360000000</v>
+        <v>2121396000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7509706295386788</v>
+        <v>0.7695148978084215</v>
       </c>
       <c r="D468" t="n">
-        <v>1566044112014.779</v>
+        <v>1632445826151.194</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B469" t="n">
-        <v>2105411000000</v>
+        <v>2120708000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7510044684765874</v>
+        <v>0.7839448102853559</v>
       </c>
       <c r="D469" t="n">
-        <v>1581173068979.76</v>
+        <v>1662518030730.636</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B470" t="n">
-        <v>2121396000000</v>
+        <v>2141765000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7695148978084215</v>
+        <v>0.7828156312625251</v>
       </c>
       <c r="D470" t="n">
-        <v>1632445826151.194</v>
+        <v>1676607120490.982</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B471" t="n">
-        <v>2120708000000</v>
+        <v>2177359000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7839448102853559</v>
+        <v>0.7849231952653433</v>
       </c>
       <c r="D471" t="n">
-        <v>1662518030730.636</v>
+        <v>1709059583519.752</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B472" t="n">
-        <v>2141765000000</v>
+        <v>2182624000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7828156312625251</v>
+        <v>0.7960769328747931</v>
       </c>
       <c r="D472" t="n">
-        <v>1676607120490.982</v>
+        <v>1737536619538.912</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B473" t="n">
-        <v>2177359000000</v>
+        <v>2199732000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7849231952653433</v>
+        <v>0.8144516297177111</v>
       </c>
       <c r="D473" t="n">
-        <v>1709059583519.752</v>
+        <v>1791575312342.2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B474" t="n">
-        <v>2182624000000</v>
+        <v>2225461000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7960769328747931</v>
+        <v>0.8293111741387604</v>
       </c>
       <c r="D474" t="n">
-        <v>1737536619538.912</v>
+        <v>1845599674910.02</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B475" t="n">
-        <v>2199732000000</v>
+        <v>2235219000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.8144516297177111</v>
+        <v>0.8067639086097844</v>
       </c>
       <c r="D475" t="n">
-        <v>1791575312342.2</v>
+        <v>1803294017038.854</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B476" t="n">
-        <v>2225461000000</v>
+        <v>2265475000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.8293111741387604</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D476" t="n">
-        <v>1845599674910.02</v>
+        <v>1816885876974.898</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B477" t="n">
-        <v>2235219000000</v>
+        <v>2283153000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.8067639086097844</v>
+        <v>0.7927259467129618</v>
       </c>
       <c r="D477" t="n">
-        <v>1803294017038.854</v>
+        <v>1809914623415.539</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B478" t="n">
-        <v>2265475000000</v>
+        <v>2286467000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.7889172899113257</v>
       </c>
       <c r="D478" t="n">
-        <v>1816885876974.898</v>
+        <v>1803833349111.679</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B479" t="n">
-        <v>2283153000000</v>
+        <v>2289771000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7927259467129618</v>
+        <v>0.8078588509015704</v>
       </c>
       <c r="D479" t="n">
-        <v>1809914623415.539</v>
+        <v>1849811768887.74</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B480" t="n">
-        <v>2286467000000</v>
+        <v>2310223000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7889172899113257</v>
+        <v>0.7826440847760073</v>
       </c>
       <c r="D480" t="n">
-        <v>1803833349111.679</v>
+        <v>1808082365463.482</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B481" t="n">
-        <v>2289771000000</v>
+        <v>2301433000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8078588509015704</v>
+        <v>0.7910954298417018</v>
       </c>
       <c r="D481" t="n">
-        <v>1849811768887.74</v>
+        <v>1820653128386.877</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B482" t="n">
-        <v>2310223000000</v>
+        <v>2317667000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7826440847760073</v>
+        <v>0.7870793061108837</v>
       </c>
       <c r="D482" t="n">
-        <v>1808082365463.482</v>
+        <v>1824187734156.094</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B483" t="n">
-        <v>2301433000000</v>
+        <v>2344869000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7910954298417018</v>
+        <v>0.7892036934732856</v>
       </c>
       <c r="D483" t="n">
-        <v>1820653128386.877</v>
+        <v>1850579275511.01</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B484" t="n">
-        <v>2317667000000</v>
+        <v>2348469000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7870793061108837</v>
+        <v>0.7998016491910006</v>
       </c>
       <c r="D484" t="n">
-        <v>1824187734156.094</v>
+        <v>1878309379273.94</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B485" t="n">
-        <v>2344869000000</v>
+        <v>2347490000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7892036934732856</v>
+        <v>0.7777924694133111</v>
       </c>
       <c r="D485" t="n">
-        <v>1850579275511.01</v>
+        <v>1825860044023.054</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B486" t="n">
-        <v>2348469000000</v>
+        <v>2349052000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7998016491910006</v>
+        <v>0.7907076042350298</v>
       </c>
       <c r="D486" t="n">
-        <v>1878309379273.94</v>
+        <v>1857413279143.505</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B487" t="n">
-        <v>2347490000000</v>
+        <v>2354170000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7777924694133111</v>
+        <v>0.7768559087660422</v>
       </c>
       <c r="D487" t="n">
-        <v>1825860044023.054</v>
+        <v>1828850874739.753</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B488" t="n">
-        <v>2349052000000</v>
+        <v>2367102000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7907076042350298</v>
+        <v>0.7816102734854348</v>
       </c>
       <c r="D488" t="n">
-        <v>1857413279143.505</v>
+        <v>1850151241587.92</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B489" t="n">
-        <v>2354170000000</v>
+        <v>2358110000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7768559087660422</v>
+        <v>0.7618409123806766</v>
       </c>
       <c r="D489" t="n">
-        <v>1828850874739.753</v>
+        <v>1796504673893.997</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B490" t="n">
-        <v>2367102000000</v>
+        <v>2374338000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7816102734854348</v>
+        <v>0.723222680263253</v>
       </c>
       <c r="D490" t="n">
-        <v>1850151241587.92</v>
+        <v>1717175092210.892</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B491" t="n">
-        <v>2358110000000</v>
+        <v>2376916000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7618409123806766</v>
+        <v>0.733998825601879</v>
       </c>
       <c r="D491" t="n">
-        <v>1796504673893.997</v>
+        <v>1744653552554.316</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B492" t="n">
-        <v>2374338000000</v>
+        <v>2384951000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.723222680263253</v>
+        <v>0.7450176941702366</v>
       </c>
       <c r="D492" t="n">
-        <v>1717175092210.892</v>
+        <v>1776830694729</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B493" t="n">
-        <v>2376916000000</v>
+        <v>2393203000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.733998825601879</v>
+        <v>0.7384706273307979</v>
       </c>
       <c r="D493" t="n">
-        <v>1744653552554.316</v>
+        <v>1767310120739.948</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B494" t="n">
-        <v>2384951000000</v>
+        <v>2420393000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.7450176941702366</v>
+        <v>0.7516649378373097</v>
       </c>
       <c r="D494" t="n">
-        <v>1776830694729</v>
+        <v>1819324553886.86</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B495" t="n">
-        <v>2393203000000</v>
+        <v>2432173000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7384706273307979</v>
+        <v>0.7327778876944609</v>
       </c>
       <c r="D495" t="n">
-        <v>1767310120739.948</v>
+        <v>1782242593447.5</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B496" t="n">
-        <v>2420393000000</v>
+        <v>2429503000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7516649378373097</v>
+        <v>0.7398967104192254</v>
       </c>
       <c r="D496" t="n">
-        <v>1819324553886.86</v>
+        <v>1797581277653.639</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B497" t="n">
-        <v>2432173000000</v>
+        <v>2419886000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7327778876944609</v>
+        <v>0.7384324555832879</v>
       </c>
       <c r="D497" t="n">
-        <v>1782242593447.5</v>
+        <v>1786922361211.62</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B498" t="n">
-        <v>2429503000000</v>
+        <v>2412202000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7398967104192254</v>
+        <v>0.7368816641735504</v>
       </c>
       <c r="D498" t="n">
-        <v>1797581277653.639</v>
+        <v>1777507424082.767</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="n">
-        <v>2419886000000</v>
+        <v>2410432000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.7384324555832879</v>
+        <v>0.7552299675251114</v>
       </c>
       <c r="D499" t="n">
-        <v>1786922361211.62</v>
+        <v>1820430481081.489</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B500" t="n">
-        <v>2412202000000</v>
+        <v>2423488000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7368816641735504</v>
+        <v>0.7581788543917509</v>
       </c>
       <c r="D500" t="n">
-        <v>1777507424082.767</v>
+        <v>1837437355472.156</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B501" t="n">
-        <v>2410432000000</v>
+        <v>2439979000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.7552299675251114</v>
+        <v>0.7403130043382341</v>
       </c>
       <c r="D501" t="n">
-        <v>1820430481081.489</v>
+        <v>1806348184012.2</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -458,6990 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B2" t="n">
-        <v>163705000000</v>
+        <v>165199000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B3" t="n">
-        <v>165199000000</v>
+        <v>166100000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B4" t="n">
-        <v>166100000000</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>167174000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8198737394441256</v>
+      </c>
+      <c r="D4" t="n">
+        <v>137061572517.8322</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B5" t="n">
-        <v>167174000000</v>
+        <v>168519000000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8198737394441256</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="D5" t="n">
-        <v>137061572517.8322</v>
+        <v>135465434083.6013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B6" t="n">
-        <v>168519000000</v>
+        <v>169410000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.7734550235903782</v>
       </c>
       <c r="D6" t="n">
-        <v>135465434083.6013</v>
+        <v>131031015546.446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B7" t="n">
-        <v>169410000000</v>
+        <v>169601000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7734550235903782</v>
+        <v>0.7964319847085058</v>
       </c>
       <c r="D7" t="n">
-        <v>131031015546.446</v>
+        <v>135075661038.5473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B8" t="n">
-        <v>169601000000</v>
+        <v>170129000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7964319847085058</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D8" t="n">
-        <v>135075661038.5473</v>
+        <v>137289380245.3195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B9" t="n">
-        <v>170129000000</v>
+        <v>170650000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D9" t="n">
-        <v>137289380245.3195</v>
+        <v>138032839925.5844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B10" t="n">
-        <v>170650000000</v>
+        <v>171675000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8155941603458119</v>
       </c>
       <c r="D10" t="n">
-        <v>138032839925.5844</v>
+        <v>140017127477.3672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B11" t="n">
-        <v>171675000000</v>
+        <v>173598000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8155941603458119</v>
+        <v>0.8082114281095935</v>
       </c>
       <c r="D11" t="n">
-        <v>140017127477.3672</v>
+        <v>140303887496.9692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B12" t="n">
-        <v>173598000000</v>
+        <v>173574000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8082114281095935</v>
+        <v>0.813206473123526</v>
       </c>
       <c r="D12" t="n">
-        <v>140303887496.9692</v>
+        <v>141151500365.9429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B13" t="n">
-        <v>173574000000</v>
+        <v>175486000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.813206473123526</v>
+        <v>0.8086035416835127</v>
       </c>
       <c r="D13" t="n">
-        <v>141151500365.9429</v>
+        <v>141898601115.8729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B14" t="n">
-        <v>175486000000</v>
+        <v>176731000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8086035416835127</v>
+        <v>0.8136696501220504</v>
       </c>
       <c r="D14" t="n">
-        <v>141898601115.8729</v>
+        <v>143800650935.7201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B15" t="n">
-        <v>176731000000</v>
+        <v>177360000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8136696501220504</v>
+        <v>0.810307106393323</v>
       </c>
       <c r="D15" t="n">
-        <v>143800650935.7201</v>
+        <v>143716068389.9198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B16" t="n">
-        <v>177360000000</v>
+        <v>178209000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.810307106393323</v>
+        <v>0.8155276463872125</v>
       </c>
       <c r="D16" t="n">
-        <v>143716068389.9198</v>
+        <v>145334366335.0188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B17" t="n">
-        <v>178209000000</v>
+        <v>178032000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8155276463872125</v>
+        <v>0.8130081300813008</v>
       </c>
       <c r="D17" t="n">
-        <v>145334366335.0188</v>
+        <v>144741463414.6342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B18" t="n">
-        <v>178032000000</v>
+        <v>178843000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8130081300813008</v>
+        <v>0.8145975887911372</v>
       </c>
       <c r="D18" t="n">
-        <v>144741463414.6342</v>
+        <v>145685076572.1733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B19" t="n">
-        <v>178843000000</v>
+        <v>179993000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8145975887911372</v>
+        <v>0.8103727714748784</v>
       </c>
       <c r="D19" t="n">
-        <v>145685076572.1733</v>
+        <v>145861426256.0778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B20" t="n">
-        <v>179993000000</v>
+        <v>181429000000</v>
       </c>
       <c r="C20" t="n">
         <v>0.8103727714748784</v>
       </c>
       <c r="D20" t="n">
-        <v>145861426256.0778</v>
+        <v>147025121555.9157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B21" t="n">
-        <v>181429000000</v>
+        <v>182607000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8103727714748784</v>
+        <v>0.8110300081103</v>
       </c>
       <c r="D21" t="n">
-        <v>147025121555.9157</v>
+        <v>148099756690.9976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B22" t="n">
-        <v>182607000000</v>
+        <v>183116000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8112932013629727</v>
       </c>
       <c r="D22" t="n">
-        <v>148099756690.9976</v>
+        <v>148560765860.7821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B23" t="n">
-        <v>183116000000</v>
+        <v>184078000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8112932013629727</v>
+        <v>0.8069722401549386</v>
       </c>
       <c r="D23" t="n">
-        <v>148560765860.7821</v>
+        <v>148545836023.2408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B24" t="n">
-        <v>184078000000</v>
+        <v>183902000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8069722401549386</v>
+        <v>0.8035355564483729</v>
       </c>
       <c r="D24" t="n">
-        <v>148545836023.2408</v>
+        <v>147771795901.9687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B25" t="n">
-        <v>183902000000</v>
+        <v>184450000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8035355564483729</v>
+        <v>0.8004482510205715</v>
       </c>
       <c r="D25" t="n">
-        <v>147771795901.9687</v>
+        <v>147642679900.7444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B26" t="n">
-        <v>184450000000</v>
+        <v>185166000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8004482510205715</v>
+        <v>0.7987858455148175</v>
       </c>
       <c r="D26" t="n">
-        <v>147642679900.7444</v>
+        <v>147907979870.5967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B27" t="n">
-        <v>185166000000</v>
+        <v>186527000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7987858455148175</v>
+        <v>0.7833307222309259</v>
       </c>
       <c r="D27" t="n">
-        <v>147907979870.5967</v>
+        <v>146112329625.5679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B28" t="n">
-        <v>186527000000</v>
+        <v>187527000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7833307222309259</v>
+        <v>0.7785130400934216</v>
       </c>
       <c r="D28" t="n">
-        <v>146112329625.5679</v>
+        <v>145992214869.5991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B29" t="n">
-        <v>187527000000</v>
+        <v>188986000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7785130400934216</v>
+        <v>0.7724393635099644</v>
       </c>
       <c r="D29" t="n">
-        <v>145992214869.5991</v>
+        <v>145980225552.2941</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B30" t="n">
-        <v>188986000000</v>
+        <v>190555000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7724393635099644</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D30" t="n">
-        <v>145980225552.2941</v>
+        <v>144370785665.5807</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B31" t="n">
-        <v>190555000000</v>
+        <v>191983000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7624857033930613</v>
       </c>
       <c r="D31" t="n">
-        <v>144370785665.5807</v>
+        <v>146384292794.5101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B32" t="n">
-        <v>191983000000</v>
+        <v>192900000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7624857033930613</v>
+        <v>0.7707723138584861</v>
       </c>
       <c r="D32" t="n">
-        <v>146384292794.5101</v>
+        <v>148681979343.302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B33" t="n">
-        <v>192900000000</v>
+        <v>194221000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7707723138584861</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D33" t="n">
-        <v>148681979343.302</v>
+        <v>147326860350.4513</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B34" t="n">
-        <v>194221000000</v>
+        <v>195997000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7604562737642586</v>
       </c>
       <c r="D34" t="n">
-        <v>147326860350.4513</v>
+        <v>149047148288.9734</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B35" t="n">
-        <v>195997000000</v>
+        <v>197099000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7604562737642586</v>
+        <v>0.7551729346020238</v>
       </c>
       <c r="D35" t="n">
-        <v>149047148288.9734</v>
+        <v>148843830237.1243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B36" t="n">
-        <v>197099000000</v>
+        <v>198799000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7551729346020238</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D36" t="n">
-        <v>148843830237.1243</v>
+        <v>150411591132.6322</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B37" t="n">
-        <v>198799000000</v>
+        <v>200776000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7534659433393611</v>
       </c>
       <c r="D37" t="n">
-        <v>150411591132.6322</v>
+        <v>151277878239.9036</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B38" t="n">
-        <v>200776000000</v>
+        <v>202240000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7534659433393611</v>
+        <v>0.7228044813877846</v>
       </c>
       <c r="D38" t="n">
-        <v>151277878239.9036</v>
+        <v>146179978315.8656</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B39" t="n">
-        <v>202240000000</v>
+        <v>203587000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7228044813877846</v>
+        <v>0.7312614259597806</v>
       </c>
       <c r="D39" t="n">
-        <v>146179978315.8656</v>
+        <v>148875319926.8738</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B40" t="n">
-        <v>203587000000</v>
+        <v>205233000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7312614259597806</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D40" t="n">
-        <v>148875319926.8738</v>
+        <v>150133869787.8566</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B41" t="n">
-        <v>205233000000</v>
+        <v>207225000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7275372862859221</v>
       </c>
       <c r="D41" t="n">
-        <v>150133869787.8566</v>
+        <v>150763914150.6002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B42" t="n">
-        <v>207225000000</v>
+        <v>208616000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7275372862859221</v>
+        <v>0.7357268981753973</v>
       </c>
       <c r="D42" t="n">
-        <v>150763914150.6002</v>
+        <v>153484402589.7587</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B43" t="n">
-        <v>208616000000</v>
+        <v>210378000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7357268981753973</v>
+        <v>0.7385524372230428</v>
       </c>
       <c r="D43" t="n">
-        <v>153484402589.7587</v>
+        <v>155375184638.1093</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B44" t="n">
-        <v>210378000000</v>
+        <v>212430000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7385524372230428</v>
+        <v>0.7321180174244089</v>
       </c>
       <c r="D44" t="n">
-        <v>155375184638.1093</v>
+        <v>155523830441.4672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B45" t="n">
-        <v>212430000000</v>
+        <v>214664000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7321180174244089</v>
+        <v>0.7293946024799417</v>
       </c>
       <c r="D45" t="n">
-        <v>155523830441.4672</v>
+        <v>156574762946.7542</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B46" t="n">
-        <v>214664000000</v>
+        <v>216619000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7293946024799417</v>
+        <v>0.7316359379572724</v>
       </c>
       <c r="D46" t="n">
-        <v>156574762946.7542</v>
+        <v>158486245244.3664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B47" t="n">
-        <v>216619000000</v>
+        <v>218971000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7316359379572724</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="D47" t="n">
-        <v>158486245244.3664</v>
+        <v>158216040462.4278</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B48" t="n">
-        <v>218971000000</v>
+        <v>219947000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7225433526011561</v>
+        <v>0.7150518412584912</v>
       </c>
       <c r="D48" t="n">
-        <v>158216040462.4278</v>
+        <v>157273507329.2814</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B49" t="n">
-        <v>219947000000</v>
+        <v>221320000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7150518412584912</v>
+        <v>0.7025925665706457</v>
       </c>
       <c r="D49" t="n">
-        <v>157273507329.2814</v>
+        <v>155497786833.4153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B50" t="n">
-        <v>221320000000</v>
+        <v>221317000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7025925665706457</v>
+        <v>0.7037297677691766</v>
       </c>
       <c r="D50" t="n">
-        <v>155497786833.4153</v>
+        <v>155747361013.3708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B51" t="n">
-        <v>221317000000</v>
+        <v>222244000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7037297677691766</v>
+        <v>0.7164350193437455</v>
       </c>
       <c r="D51" t="n">
-        <v>155747361013.3708</v>
+        <v>159223384439.0314</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B52" t="n">
-        <v>222244000000</v>
+        <v>225943000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7164350193437455</v>
+        <v>0.7262164124909223</v>
       </c>
       <c r="D52" t="n">
-        <v>159223384439.0314</v>
+        <v>164083514887.4365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B53" t="n">
-        <v>225943000000</v>
+        <v>228313000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7262164124909223</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D53" t="n">
-        <v>164083514887.4365</v>
+        <v>164906464427.5912</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B54" t="n">
-        <v>228313000000</v>
+        <v>230077000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7235890014471781</v>
       </c>
       <c r="D54" t="n">
-        <v>164906464427.5912</v>
+        <v>166481186685.9624</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B55" t="n">
-        <v>230077000000</v>
+        <v>232472000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7235890014471781</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D55" t="n">
-        <v>166481186685.9624</v>
+        <v>168360370799.5365</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B56" t="n">
-        <v>232472000000</v>
+        <v>234395000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7210845111047015</v>
       </c>
       <c r="D56" t="n">
-        <v>168360370799.5365</v>
+        <v>169018603980.3865</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B57" t="n">
-        <v>234395000000</v>
+        <v>236112000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7210845111047015</v>
+        <v>0.7205649228995533</v>
       </c>
       <c r="D57" t="n">
-        <v>169018603980.3865</v>
+        <v>170134025075.6593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B58" t="n">
-        <v>236112000000</v>
+        <v>238535000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7205649228995533</v>
+        <v>0.7189072609633357</v>
       </c>
       <c r="D58" t="n">
-        <v>170134025075.6593</v>
+        <v>171484543493.8893</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B59" t="n">
-        <v>238535000000</v>
+        <v>241918000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7189072609633357</v>
+        <v>0.7229612492770388</v>
       </c>
       <c r="D59" t="n">
-        <v>171484543493.8893</v>
+        <v>174897339502.6027</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B60" t="n">
-        <v>241918000000</v>
+        <v>244868000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7229612492770388</v>
+        <v>0.7242178447276941</v>
       </c>
       <c r="D60" t="n">
-        <v>174897339502.6027</v>
+        <v>177337775202.781</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B61" t="n">
-        <v>244868000000</v>
+        <v>248259000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7242178447276941</v>
+        <v>0.7462129691814043</v>
       </c>
       <c r="D61" t="n">
-        <v>177337775202.781</v>
+        <v>185254085516.0063</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B62" t="n">
-        <v>248259000000</v>
+        <v>252294000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7462129691814043</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D62" t="n">
-        <v>185254085516.0063</v>
+        <v>189012586155.2292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B63" t="n">
-        <v>252294000000</v>
+        <v>254413000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.765814060346148</v>
       </c>
       <c r="D63" t="n">
-        <v>189012586155.2292</v>
+        <v>194833052534.8445</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B64" t="n">
-        <v>254413000000</v>
+        <v>256778000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.765814060346148</v>
+        <v>0.7473841554559043</v>
       </c>
       <c r="D64" t="n">
-        <v>194833052534.8445</v>
+        <v>191911808669.6562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B65" t="n">
-        <v>256778000000</v>
+        <v>258482000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7473841554559043</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D65" t="n">
-        <v>191911808669.6562</v>
+        <v>193170913982.5125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B66" t="n">
-        <v>258482000000</v>
+        <v>260580000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7506943923128894</v>
       </c>
       <c r="D66" t="n">
-        <v>193170913982.5125</v>
+        <v>195615944748.8927</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B67" t="n">
-        <v>260580000000</v>
+        <v>262617000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7506943923128894</v>
+        <v>0.7534091765237702</v>
       </c>
       <c r="D67" t="n">
-        <v>195615944748.8927</v>
+        <v>197858057711.1429</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B68" t="n">
-        <v>262617000000</v>
+        <v>264017000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7534091765237702</v>
+        <v>0.7576331540268202</v>
       </c>
       <c r="D68" t="n">
-        <v>197858057711.1429</v>
+        <v>200028032426.699</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B69" t="n">
-        <v>264017000000</v>
+        <v>266094000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7576331540268202</v>
+        <v>0.7623694442326751</v>
       </c>
       <c r="D69" t="n">
-        <v>200028032426.699</v>
+        <v>202861934893.6494</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B70" t="n">
-        <v>266094000000</v>
+        <v>268159000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7623694442326751</v>
+        <v>0.7601672367920943</v>
       </c>
       <c r="D70" t="n">
-        <v>202861934893.6494</v>
+        <v>203845686050.9312</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B71" t="n">
-        <v>268159000000</v>
+        <v>263775000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7601672367920943</v>
+        <v>0.7633587786259541</v>
       </c>
       <c r="D71" t="n">
-        <v>203845686050.9312</v>
+        <v>201354961832.0611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B72" t="n">
-        <v>263775000000</v>
+        <v>265918000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.7698229407236336</v>
       </c>
       <c r="D72" t="n">
-        <v>201354961832.0611</v>
+        <v>204709776751.3472</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B73" t="n">
-        <v>265918000000</v>
+        <v>267370000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7698229407236336</v>
+        <v>0.7844983133286264</v>
       </c>
       <c r="D73" t="n">
-        <v>204709776751.3472</v>
+        <v>209751314034.6748</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B74" t="n">
-        <v>267370000000</v>
+        <v>269741000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7844983133286264</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D74" t="n">
-        <v>209751314034.6748</v>
+        <v>214301263208.0718</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B75" t="n">
-        <v>269741000000</v>
+        <v>272411000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="D75" t="n">
-        <v>214301263208.0718</v>
+        <v>220575708502.0243</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B76" t="n">
-        <v>272411000000</v>
+        <v>274765000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.8126777732629014</v>
       </c>
       <c r="D76" t="n">
-        <v>220575708502.0243</v>
+        <v>223295408370.5811</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B77" t="n">
-        <v>274765000000</v>
+        <v>277324000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8126777732629014</v>
+        <v>0.8100445524503849</v>
       </c>
       <c r="D77" t="n">
-        <v>223295408370.5811</v>
+        <v>224644795463.7505</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B78" t="n">
-        <v>277324000000</v>
+        <v>281544000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8100445524503849</v>
+        <v>0.8240626287597858</v>
       </c>
       <c r="D78" t="n">
-        <v>224644795463.7505</v>
+        <v>232009888751.5451</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B79" t="n">
-        <v>281544000000</v>
+        <v>284525000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8240626287597858</v>
+        <v>0.825559316436886</v>
       </c>
       <c r="D79" t="n">
-        <v>232009888751.5451</v>
+        <v>234892264509.205</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B80" t="n">
-        <v>284525000000</v>
+        <v>288402000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.825559316436886</v>
+        <v>0.8067769261799113</v>
       </c>
       <c r="D80" t="n">
-        <v>234892264509.205</v>
+        <v>232676079064.1388</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B81" t="n">
-        <v>288402000000</v>
+        <v>291439000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8067769261799113</v>
+        <v>0.8216926869350862</v>
       </c>
       <c r="D81" t="n">
-        <v>232676079064.1388</v>
+        <v>239473294987.6746</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B82" t="n">
-        <v>291439000000</v>
+        <v>293949000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8216926869350862</v>
+        <v>0.8146639511201629</v>
       </c>
       <c r="D82" t="n">
-        <v>239473294987.6746</v>
+        <v>239469653767.8208</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B83" t="n">
-        <v>293949000000</v>
+        <v>297392000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8146639511201629</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D83" t="n">
-        <v>239469653767.8208</v>
+        <v>250329966329.9663</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B84" t="n">
-        <v>297392000000</v>
+        <v>300374000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8417508417508418</v>
+        <v>0.8387854386847845</v>
       </c>
       <c r="D84" t="n">
-        <v>250329966329.9663</v>
+        <v>251949337359.5034</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B85" t="n">
-        <v>300374000000</v>
+        <v>303154000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8387854386847845</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D85" t="n">
-        <v>251949337359.5034</v>
+        <v>255869345037.1371</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B86" t="n">
-        <v>303154000000</v>
+        <v>305829000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="D86" t="n">
-        <v>255869345037.1371</v>
+        <v>255389561586.6388</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B87" t="n">
-        <v>305829000000</v>
+        <v>309219000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8350730688935282</v>
+        <v>0.8384338056510438</v>
       </c>
       <c r="D87" t="n">
-        <v>255389561586.6388</v>
+        <v>259259662949.6101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B88" t="n">
-        <v>309219000000</v>
+        <v>312149000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8384338056510438</v>
+        <v>0.8434547908232118</v>
       </c>
       <c r="D88" t="n">
-        <v>259259662949.6101</v>
+        <v>263283569500.6747</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B89" t="n">
-        <v>312149000000</v>
+        <v>316353000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8434547908232118</v>
+        <v>0.8282945415389712</v>
       </c>
       <c r="D89" t="n">
-        <v>263283569500.6747</v>
+        <v>262033463099.4781</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B90" t="n">
-        <v>316353000000</v>
+        <v>320688000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8282945415389712</v>
+        <v>0.8354916868577157</v>
       </c>
       <c r="D90" t="n">
-        <v>262033463099.4781</v>
+        <v>267932158075.0271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B91" t="n">
-        <v>320688000000</v>
+        <v>324232000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8354916868577157</v>
+        <v>0.8467400508044031</v>
       </c>
       <c r="D91" t="n">
-        <v>267932158075.0271</v>
+        <v>274540220152.4132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B92" t="n">
-        <v>324232000000</v>
+        <v>327718000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8467400508044031</v>
+        <v>0.8481764206955046</v>
       </c>
       <c r="D92" t="n">
-        <v>274540220152.4132</v>
+        <v>277962680237.4894</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B93" t="n">
-        <v>327718000000</v>
+        <v>331423000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8481764206955046</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D93" t="n">
-        <v>277962680237.4894</v>
+        <v>281463269639.0659</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B94" t="n">
-        <v>331423000000</v>
+        <v>334344000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8517162081594414</v>
       </c>
       <c r="D94" t="n">
-        <v>281463269639.0659</v>
+        <v>284766203900.8603</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B95" t="n">
-        <v>334344000000</v>
+        <v>339017000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8517162081594414</v>
+        <v>0.859106529209622</v>
       </c>
       <c r="D95" t="n">
-        <v>284766203900.8603</v>
+        <v>291251718213.0584</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B96" t="n">
-        <v>339017000000</v>
+        <v>342154000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8632596685082872</v>
       </c>
       <c r="D96" t="n">
-        <v>291251718213.0584</v>
+        <v>295367748618.7845</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B97" t="n">
-        <v>342154000000</v>
+        <v>346086000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8632596685082872</v>
+        <v>0.8428150021070374</v>
       </c>
       <c r="D97" t="n">
-        <v>295367748618.7845</v>
+        <v>291686472819.2161</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B98" t="n">
-        <v>346086000000</v>
+        <v>350540000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8428150021070374</v>
+        <v>0.8386447500838645</v>
       </c>
       <c r="D98" t="n">
-        <v>291686472819.2161</v>
+        <v>293978530694.3979</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B99" t="n">
-        <v>350540000000</v>
+        <v>352153000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8386447500838645</v>
+        <v>0.8551393877201984</v>
       </c>
       <c r="D99" t="n">
-        <v>293978530694.3979</v>
+        <v>301139900803.831</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B100" t="n">
-        <v>352153000000</v>
+        <v>353101000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8551393877201984</v>
+        <v>0.8587376556462</v>
       </c>
       <c r="D100" t="n">
-        <v>301139900803.831</v>
+        <v>303221124946.3289</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B101" t="n">
-        <v>353101000000</v>
+        <v>356116000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8587376556462</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="D101" t="n">
-        <v>303221124946.3289</v>
+        <v>303335604770.017</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B102" t="n">
-        <v>356116000000</v>
+        <v>356279000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8517887563884157</v>
+        <v>0.8578536501672815</v>
       </c>
       <c r="D102" t="n">
-        <v>303335604770.017</v>
+        <v>305635240627.9489</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B103" t="n">
-        <v>356279000000</v>
+        <v>357910000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8578536501672815</v>
+        <v>0.8676789587852494</v>
       </c>
       <c r="D103" t="n">
-        <v>305635240627.9489</v>
+        <v>310550976138.8286</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B104" t="n">
-        <v>357910000000</v>
+        <v>361491000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8676789587852494</v>
+        <v>0.8665511265164645</v>
       </c>
       <c r="D104" t="n">
-        <v>310550976138.8286</v>
+        <v>313250433275.5633</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B105" t="n">
-        <v>361491000000</v>
+        <v>363223000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8665511265164645</v>
+        <v>0.8660258075690656</v>
       </c>
       <c r="D105" t="n">
-        <v>313250433275.5633</v>
+        <v>314560491902.6587</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B106" t="n">
-        <v>363223000000</v>
+        <v>365008000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8660258075690656</v>
+        <v>0.8573388203017832</v>
       </c>
       <c r="D106" t="n">
-        <v>314560491902.6587</v>
+        <v>312935528120.7133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B107" t="n">
-        <v>365008000000</v>
+        <v>367854000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8573388203017832</v>
+        <v>0.8588114050154585</v>
       </c>
       <c r="D107" t="n">
-        <v>312935528120.7133</v>
+        <v>315917210580.5565</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B108" t="n">
-        <v>367854000000</v>
+        <v>370572000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8588114050154585</v>
+        <v>0.8630361612151549</v>
       </c>
       <c r="D108" t="n">
-        <v>315917210580.5565</v>
+        <v>319817036333.8224</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B109" t="n">
-        <v>370572000000</v>
+        <v>373950000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8630361612151549</v>
+        <v>0.8600670852326481</v>
       </c>
       <c r="D109" t="n">
-        <v>319817036333.8224</v>
+        <v>321622086522.7487</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B110" t="n">
-        <v>373950000000</v>
+        <v>375786000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8600670852326481</v>
+        <v>0.8694140149539211</v>
       </c>
       <c r="D110" t="n">
-        <v>321622086522.7487</v>
+        <v>326713615023.4742</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B111" t="n">
-        <v>375786000000</v>
+        <v>378484000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8694140149539211</v>
+        <v>0.8637816360024186</v>
       </c>
       <c r="D111" t="n">
-        <v>326713615023.4742</v>
+        <v>326927528720.7394</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B112" t="n">
-        <v>378484000000</v>
+        <v>380380000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8637816360024186</v>
+        <v>0.8673779165582444</v>
       </c>
       <c r="D112" t="n">
-        <v>326927528720.7394</v>
+        <v>329933211900.425</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B113" t="n">
-        <v>380380000000</v>
+        <v>382614000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8673779165582444</v>
+        <v>0.8734387282732116</v>
       </c>
       <c r="D113" t="n">
-        <v>329933211900.425</v>
+        <v>334189885579.5266</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B114" t="n">
-        <v>382614000000</v>
+        <v>381438000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8734387282732116</v>
+        <v>0.875733426744899</v>
       </c>
       <c r="D114" t="n">
-        <v>334189885579.5266</v>
+        <v>334038006830.7208</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B115" t="n">
-        <v>381438000000</v>
+        <v>383166000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.875733426744899</v>
+        <v>0.8686587908269632</v>
       </c>
       <c r="D115" t="n">
-        <v>334038006830.7208</v>
+        <v>332840514246.0042</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B116" t="n">
-        <v>383166000000</v>
+        <v>383974000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8686587908269632</v>
+        <v>0.8761170492377782</v>
       </c>
       <c r="D116" t="n">
-        <v>332840514246.0042</v>
+        <v>336406167864.0267</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B117" t="n">
-        <v>383974000000</v>
+        <v>385573000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8761170492377782</v>
+        <v>0.88339222614841</v>
       </c>
       <c r="D117" t="n">
-        <v>336406167864.0267</v>
+        <v>340612190812.7209</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B118" t="n">
-        <v>385573000000</v>
+        <v>385597000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.88339222614841</v>
+        <v>0.8907892392659896</v>
       </c>
       <c r="D118" t="n">
-        <v>340612190812.7209</v>
+        <v>343485658293.2478</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B119" t="n">
-        <v>385597000000</v>
+        <v>386166000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8907892392659896</v>
+        <v>0.8811349017534584</v>
       </c>
       <c r="D119" t="n">
-        <v>343485658293.2478</v>
+        <v>340264340470.526</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B120" t="n">
-        <v>386166000000</v>
+        <v>387836000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8811349017534584</v>
+        <v>0.8646779074794638</v>
       </c>
       <c r="D120" t="n">
-        <v>340264340470.526</v>
+        <v>335353220925.2053</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B121" t="n">
-        <v>387836000000</v>
+        <v>390429000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8646779074794638</v>
+        <v>0.8512811781731505</v>
       </c>
       <c r="D121" t="n">
-        <v>335353220925.2053</v>
+        <v>332364859112.965</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B122" t="n">
-        <v>390429000000</v>
+        <v>392338000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8512811781731505</v>
+        <v>0.8460952703274389</v>
       </c>
       <c r="D122" t="n">
-        <v>332364859112.965</v>
+        <v>331955326169.7267</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B123" t="n">
-        <v>392338000000</v>
+        <v>392743000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8460952703274389</v>
+        <v>0.8407600470825626</v>
       </c>
       <c r="D123" t="n">
-        <v>331955326169.7267</v>
+        <v>330202623171.3469</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B124" t="n">
-        <v>392743000000</v>
+        <v>394119000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8407600470825626</v>
+        <v>0.8394895903290799</v>
       </c>
       <c r="D124" t="n">
-        <v>330202623171.3469</v>
+        <v>330858797850.9066</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B125" t="n">
-        <v>394119000000</v>
+        <v>394350000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8394895903290799</v>
+        <v>0.8310479514667997</v>
       </c>
       <c r="D125" t="n">
-        <v>330858797850.9066</v>
+        <v>327723759660.9324</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B126" t="n">
-        <v>394350000000</v>
+        <v>394189000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8310479514667997</v>
+        <v>0.8341675008341675</v>
       </c>
       <c r="D126" t="n">
-        <v>327723759660.9324</v>
+        <v>328819652986.3196</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B127" t="n">
-        <v>394189000000</v>
+        <v>397321000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8341675008341675</v>
+        <v>0.8453085376162299</v>
       </c>
       <c r="D127" t="n">
-        <v>328819652986.3196</v>
+        <v>335858833474.2181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B128" t="n">
-        <v>397321000000</v>
+        <v>398941000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8453085376162299</v>
+        <v>0.8371703641691085</v>
       </c>
       <c r="D128" t="n">
-        <v>335858833474.2181</v>
+        <v>333981582251.9883</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B129" t="n">
-        <v>398941000000</v>
+        <v>400892000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8371703641691085</v>
+        <v>0.8029548739360848</v>
       </c>
       <c r="D129" t="n">
-        <v>333981582251.9883</v>
+        <v>321898185321.9849</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B130" t="n">
-        <v>400892000000</v>
+        <v>398608000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8029548739360848</v>
+        <v>0.8081461128171973</v>
       </c>
       <c r="D130" t="n">
-        <v>321898185321.9849</v>
+        <v>322133505737.8374</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B131" t="n">
-        <v>398608000000</v>
+        <v>400520000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8081461128171973</v>
+        <v>0.7770007770007771</v>
       </c>
       <c r="D131" t="n">
-        <v>322133505737.8374</v>
+        <v>311204351204.3513</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B132" t="n">
-        <v>400520000000</v>
+        <v>400819000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7770007770007771</v>
+        <v>0.7867820613690009</v>
       </c>
       <c r="D132" t="n">
-        <v>311204351204.3513</v>
+        <v>315357199055.8616</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B133" t="n">
-        <v>400819000000</v>
+        <v>400221000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7867820613690009</v>
+        <v>0.7888301648655044</v>
       </c>
       <c r="D133" t="n">
-        <v>315357199055.8616</v>
+        <v>315706397412.637</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B134" t="n">
-        <v>400221000000</v>
+        <v>401587000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7888301648655044</v>
+        <v>0.8003201280512204</v>
       </c>
       <c r="D134" t="n">
-        <v>315706397412.637</v>
+        <v>321398159263.7054</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B135" t="n">
-        <v>401587000000</v>
+        <v>402997000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8003201280512204</v>
+        <v>0.7944704854214666</v>
       </c>
       <c r="D135" t="n">
-        <v>321398159263.7054</v>
+        <v>320169222213.3948</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B136" t="n">
-        <v>402997000000</v>
+        <v>404748000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7944704854214666</v>
+        <v>0.7866582756450597</v>
       </c>
       <c r="D136" t="n">
-        <v>320169222213.3948</v>
+        <v>318398363750.7866</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B137" t="n">
-        <v>404748000000</v>
+        <v>406759000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7866582756450597</v>
+        <v>0.7869678130164477</v>
       </c>
       <c r="D137" t="n">
-        <v>318398363750.7866</v>
+        <v>320106240654.7573</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B138" t="n">
-        <v>406759000000</v>
+        <v>408895000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7869678130164477</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D138" t="n">
-        <v>320106240654.7573</v>
+        <v>318925980812.7291</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B139" t="n">
-        <v>408895000000</v>
+        <v>408308000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.7780284758422158</v>
       </c>
       <c r="D139" t="n">
-        <v>318925980812.7291</v>
+        <v>317675250914.1835</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B140" t="n">
-        <v>408308000000</v>
+        <v>409970000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7780284758422158</v>
+        <v>0.7580926389204761</v>
       </c>
       <c r="D140" t="n">
-        <v>317675250914.1835</v>
+        <v>310795239178.2276</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B141" t="n">
-        <v>409970000000</v>
+        <v>410678000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7580926389204761</v>
+        <v>0.749512816669165</v>
       </c>
       <c r="D141" t="n">
-        <v>310795239178.2276</v>
+        <v>307808424524.0593</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B142" t="n">
-        <v>410678000000</v>
+        <v>409567000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.749512816669165</v>
+        <v>0.7575183698204682</v>
       </c>
       <c r="D142" t="n">
-        <v>307808424524.0593</v>
+        <v>310254526172.2597</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B143" t="n">
-        <v>409567000000</v>
+        <v>409864000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7575183698204682</v>
+        <v>0.7491759065028468</v>
       </c>
       <c r="D143" t="n">
-        <v>310254526172.2597</v>
+        <v>307060233742.8828</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B144" t="n">
-        <v>409864000000</v>
+        <v>411463000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7491759065028468</v>
+        <v>0.7566585956416464</v>
       </c>
       <c r="D144" t="n">
-        <v>307060233742.8828</v>
+        <v>311337015738.4988</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B145" t="n">
-        <v>411463000000</v>
+        <v>413157000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7566585956416464</v>
+        <v>0.7522756337922215</v>
       </c>
       <c r="D145" t="n">
-        <v>311337015738.4988</v>
+        <v>310807944030.6929</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B146" t="n">
-        <v>413157000000</v>
+        <v>413596000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7522756337922215</v>
+        <v>0.7409602845287493</v>
       </c>
       <c r="D146" t="n">
-        <v>310807944030.6929</v>
+        <v>306458209839.9526</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B147" t="n">
-        <v>413596000000</v>
+        <v>409983000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7409602845287493</v>
+        <v>0.7227000072270001</v>
       </c>
       <c r="D147" t="n">
-        <v>306458209839.9526</v>
+        <v>296294717062.9472</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B148" t="n">
-        <v>409983000000</v>
+        <v>411390000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7227000072270001</v>
+        <v>0.7237984944991315</v>
       </c>
       <c r="D148" t="n">
-        <v>296294717062.9472</v>
+        <v>297763462651.9977</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B149" t="n">
-        <v>411390000000</v>
+        <v>411805000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7237984944991315</v>
+        <v>0.7231180851833104</v>
       </c>
       <c r="D149" t="n">
-        <v>297763462651.9977</v>
+        <v>297783643068.9131</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B150" t="n">
-        <v>411805000000</v>
+        <v>413228000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7231180851833104</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D150" t="n">
-        <v>297783643068.9131</v>
+        <v>298726234367.0932</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B151" t="n">
-        <v>413228000000</v>
+        <v>416310000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7209285559801024</v>
       </c>
       <c r="D151" t="n">
-        <v>298726234367.0932</v>
+        <v>300129767140.0764</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B152" t="n">
-        <v>416310000000</v>
+        <v>418221000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7209285559801024</v>
+        <v>0.7318501170960187</v>
       </c>
       <c r="D152" t="n">
-        <v>300129767140.0764</v>
+        <v>306075087822.014</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B153" t="n">
-        <v>418221000000</v>
+        <v>419884000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7318501170960187</v>
+        <v>0.7447125409591897</v>
       </c>
       <c r="D153" t="n">
-        <v>306075087822.014</v>
+        <v>312692880548.1084</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B154" t="n">
-        <v>419884000000</v>
+        <v>420714000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7447125409591897</v>
+        <v>0.7389344565137073</v>
       </c>
       <c r="D154" t="n">
-        <v>312692880548.1084</v>
+        <v>310880070937.7078</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B155" t="n">
-        <v>420714000000</v>
+        <v>420680000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7389344565137073</v>
+        <v>0.7269555103227683</v>
       </c>
       <c r="D155" t="n">
-        <v>310880070937.7078</v>
+        <v>305815644082.5822</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B156" t="n">
-        <v>420680000000</v>
+        <v>422101000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7269555103227683</v>
+        <v>0.7135212272565109</v>
       </c>
       <c r="D156" t="n">
-        <v>305815644082.5822</v>
+        <v>301178023546.2005</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B157" t="n">
-        <v>422101000000</v>
+        <v>425148000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7135212272565109</v>
+        <v>0.710580544304697</v>
       </c>
       <c r="D157" t="n">
-        <v>301178023546.2005</v>
+        <v>302101897250.0533</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B158" t="n">
-        <v>425148000000</v>
+        <v>426237000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.710580544304697</v>
+        <v>0.7194762213108857</v>
       </c>
       <c r="D158" t="n">
-        <v>302101897250.0533</v>
+        <v>306667386142.888</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B159" t="n">
-        <v>426237000000</v>
+        <v>427897000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7194762213108857</v>
+        <v>0.7147451933385748</v>
       </c>
       <c r="D159" t="n">
-        <v>306667386142.888</v>
+        <v>305837323993.9962</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B160" t="n">
-        <v>427897000000</v>
+        <v>429643000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7147451933385748</v>
+        <v>0.7379529186037931</v>
       </c>
       <c r="D160" t="n">
-        <v>305837323993.9962</v>
+        <v>317056305807.6895</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B161" t="n">
-        <v>429643000000</v>
+        <v>430736000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7379529186037931</v>
+        <v>0.7298737318443909</v>
       </c>
       <c r="D161" t="n">
-        <v>317056305807.6895</v>
+        <v>314382891759.7255</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B162" t="n">
-        <v>430736000000</v>
+        <v>433634000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7298737318443909</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D162" t="n">
-        <v>314382891759.7255</v>
+        <v>316128891156.9586</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B163" t="n">
-        <v>433634000000</v>
+        <v>434936000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D163" t="n">
-        <v>316128891156.9586</v>
+        <v>318727832331.8188</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B164" t="n">
-        <v>434936000000</v>
+        <v>436339000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7445461990916536</v>
       </c>
       <c r="D164" t="n">
-        <v>318727832331.8188</v>
+        <v>324874543965.4531</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B165" t="n">
-        <v>436339000000</v>
+        <v>439202000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7445461990916536</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D165" t="n">
-        <v>324874543965.4531</v>
+        <v>328105483340.8038</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B166" t="n">
-        <v>439202000000</v>
+        <v>438892000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7438815740534107</v>
       </c>
       <c r="D166" t="n">
-        <v>328105483340.8038</v>
+        <v>326483671799.4495</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B167" t="n">
-        <v>438892000000</v>
+        <v>439931000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7438815740534107</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D167" t="n">
-        <v>326483671799.4495</v>
+        <v>323336028222.8428</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B168" t="n">
-        <v>439931000000</v>
+        <v>441103000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7328154770628755</v>
       </c>
       <c r="D168" t="n">
-        <v>323336028222.8428</v>
+        <v>323247105378.8656</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B169" t="n">
-        <v>441103000000</v>
+        <v>442368000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7328154770628755</v>
+        <v>0.7279079924297569</v>
       </c>
       <c r="D169" t="n">
-        <v>323247105378.8656</v>
+        <v>322003202795.1667</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B170" t="n">
-        <v>442368000000</v>
+        <v>444600000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7279079924297569</v>
+        <v>0.7298204641658151</v>
       </c>
       <c r="D170" t="n">
-        <v>322003202795.1667</v>
+        <v>324478178368.1214</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B171" t="n">
-        <v>444600000000</v>
+        <v>446271000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7298204641658151</v>
+        <v>0.7357810315650063</v>
       </c>
       <c r="D171" t="n">
-        <v>324478178368.1214</v>
+        <v>328357736737.5469</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B172" t="n">
-        <v>446271000000</v>
+        <v>446482000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7357810315650063</v>
+        <v>0.7349698662354843</v>
       </c>
       <c r="D172" t="n">
-        <v>328357736737.5469</v>
+        <v>328150815816.5515</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B173" t="n">
-        <v>446482000000</v>
+        <v>448033000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7349698662354843</v>
+        <v>0.7306202966318405</v>
       </c>
       <c r="D173" t="n">
-        <v>328150815816.5515</v>
+        <v>327342003360.8534</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B174" t="n">
-        <v>448033000000</v>
+        <v>449428000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7306202966318405</v>
+        <v>0.7334604664808567</v>
       </c>
       <c r="D174" t="n">
-        <v>327342003360.8534</v>
+        <v>329637670529.5585</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B175" t="n">
-        <v>449428000000</v>
+        <v>447133000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7334604664808567</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D175" t="n">
-        <v>329637670529.5585</v>
+        <v>325211288093.6795</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B176" t="n">
-        <v>447133000000</v>
+        <v>447620000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7310475911981871</v>
       </c>
       <c r="D176" t="n">
-        <v>325211288093.6795</v>
+        <v>327231522772.1325</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B177" t="n">
-        <v>447620000000</v>
+        <v>449024000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7310475911981871</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D177" t="n">
-        <v>327231522772.1325</v>
+        <v>329752515238.3051</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B178" t="n">
-        <v>449024000000</v>
+        <v>448985000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.7471049682480388</v>
       </c>
       <c r="D178" t="n">
-        <v>329752515238.3051</v>
+        <v>335438924168.8457</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B179" t="n">
-        <v>448985000000</v>
+        <v>447731000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7471049682480388</v>
+        <v>0.7402472425790214</v>
       </c>
       <c r="D179" t="n">
-        <v>335438924168.8457</v>
+        <v>331431638167.1478</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B180" t="n">
-        <v>447731000000</v>
+        <v>448419000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7402472425790214</v>
+        <v>0.7297672042618404</v>
       </c>
       <c r="D180" t="n">
-        <v>331431638167.1478</v>
+        <v>327241479967.8902</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B181" t="n">
-        <v>448419000000</v>
+        <v>449269000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7297672042618404</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D181" t="n">
-        <v>327241479967.8902</v>
+        <v>333557799391.1946</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B182" t="n">
-        <v>449269000000</v>
+        <v>449193000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7309407207075506</v>
       </c>
       <c r="D182" t="n">
-        <v>333557799391.1946</v>
+        <v>328333455156.7867</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B183" t="n">
-        <v>449193000000</v>
+        <v>447801000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7309407207075506</v>
+        <v>0.7224911494834187</v>
       </c>
       <c r="D183" t="n">
-        <v>328333455156.7867</v>
+        <v>323532259229.8244</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B184" t="n">
-        <v>447801000000</v>
+        <v>448519000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7224911494834187</v>
+        <v>0.7156659271452086</v>
       </c>
       <c r="D184" t="n">
-        <v>323532259229.8244</v>
+        <v>320989765977.2418</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B185" t="n">
-        <v>448519000000</v>
+        <v>448940000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7156659271452086</v>
+        <v>0.7265857734505557</v>
       </c>
       <c r="D185" t="n">
-        <v>320989765977.2418</v>
+        <v>326193417132.8925</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B186" t="n">
-        <v>448940000000</v>
+        <v>449572000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7265857734505557</v>
+        <v>0.7240605314604301</v>
       </c>
       <c r="D186" t="n">
-        <v>326193417132.8925</v>
+        <v>325517341249.7285</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B187" t="n">
-        <v>449572000000</v>
+        <v>446917000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7240605314604301</v>
+        <v>0.7259001161440186</v>
       </c>
       <c r="D187" t="n">
-        <v>325517341249.7285</v>
+        <v>324417102206.7364</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B188" t="n">
-        <v>446917000000</v>
+        <v>446334000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7259001161440186</v>
+        <v>0.7202535292422932</v>
       </c>
       <c r="D188" t="n">
-        <v>324417102206.7364</v>
+        <v>321473638720.8297</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B189" t="n">
-        <v>446334000000</v>
+        <v>445831000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7202535292422932</v>
+        <v>0.7239032865209208</v>
       </c>
       <c r="D189" t="n">
-        <v>321473638720.8297</v>
+        <v>322738526132.9086</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B190" t="n">
-        <v>445831000000</v>
+        <v>445044000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7239032865209208</v>
+        <v>0.7102272727272728</v>
       </c>
       <c r="D190" t="n">
-        <v>322738526132.9086</v>
+        <v>316082386363.6364</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B191" t="n">
-        <v>445044000000</v>
+        <v>446053000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.7027900766041183</v>
       </c>
       <c r="D191" t="n">
-        <v>316082386363.6364</v>
+        <v>313481622039.4968</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B192" t="n">
-        <v>446053000000</v>
+        <v>445467000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7027900766041183</v>
+        <v>0.6996431819771917</v>
       </c>
       <c r="D192" t="n">
-        <v>313481622039.4968</v>
+        <v>311667949345.8336</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B193" t="n">
-        <v>445467000000</v>
+        <v>444813000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.6996431819771917</v>
+        <v>0.6879471656576774</v>
       </c>
       <c r="D193" t="n">
-        <v>311667949345.8336</v>
+        <v>306007842597.6885</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B194" t="n">
-        <v>444813000000</v>
+        <v>442837000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.6879471656576774</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="D194" t="n">
-        <v>306007842597.6885</v>
+        <v>310981039325.8427</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B195" t="n">
-        <v>442837000000</v>
+        <v>440915000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.702247191011236</v>
+        <v>0.70482097547223</v>
       </c>
       <c r="D195" t="n">
-        <v>310981039325.8427</v>
+        <v>310766140400.3383</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B196" t="n">
-        <v>440915000000</v>
+        <v>440589000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.70482097547223</v>
+        <v>0.6988608568034104</v>
       </c>
       <c r="D196" t="n">
-        <v>310766140400.3383</v>
+        <v>307910406038.1578</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B197" t="n">
-        <v>440589000000</v>
+        <v>441843000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6988608568034104</v>
+        <v>0.6863417982155113</v>
       </c>
       <c r="D197" t="n">
-        <v>307910406038.1578</v>
+        <v>303255319148.9362</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B198" t="n">
-        <v>441843000000</v>
+        <v>441641000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6863417982155113</v>
+        <v>0.6815703380588877</v>
       </c>
       <c r="D198" t="n">
-        <v>303255319148.9362</v>
+        <v>301009405670.6652</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B199" t="n">
-        <v>441641000000</v>
+        <v>442493000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6815703380588877</v>
+        <v>0.6610259122157589</v>
       </c>
       <c r="D199" t="n">
-        <v>301009405670.6652</v>
+        <v>292499338974.0878</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B200" t="n">
-        <v>442493000000</v>
+        <v>444070000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6610259122157589</v>
+        <v>0.6389368091495752</v>
       </c>
       <c r="D200" t="n">
-        <v>292499338974.0878</v>
+        <v>283732668839.0519</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B201" t="n">
-        <v>444070000000</v>
+        <v>445748000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6389368091495752</v>
+        <v>0.6536374926465782</v>
       </c>
       <c r="D201" t="n">
-        <v>283732668839.0519</v>
+        <v>291357605072.2269</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B202" t="n">
-        <v>445748000000</v>
+        <v>447404000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6536374926465782</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="D202" t="n">
-        <v>291357605072.2269</v>
+        <v>289769430051.8135</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B203" t="n">
-        <v>447404000000</v>
+        <v>448114000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6476683937823834</v>
+        <v>0.6520605112154407</v>
       </c>
       <c r="D203" t="n">
-        <v>289769430051.8135</v>
+        <v>292197443922.796</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B204" t="n">
-        <v>448114000000</v>
+        <v>449236000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6520605112154407</v>
+        <v>0.6502796202367017</v>
       </c>
       <c r="D204" t="n">
-        <v>292197443922.796</v>
+        <v>292129015476.6549</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B205" t="n">
-        <v>449236000000</v>
+        <v>452562000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6502796202367017</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D205" t="n">
-        <v>292129015476.6549</v>
+        <v>299491760968.8306</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B206" t="n">
-        <v>452562000000</v>
+        <v>453707000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6626466105625869</v>
       </c>
       <c r="D206" t="n">
-        <v>299491760968.8306</v>
+        <v>300647405738.5196</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B207" t="n">
-        <v>453707000000</v>
+        <v>455243000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6626466105625869</v>
+        <v>0.6635259770420011</v>
       </c>
       <c r="D207" t="n">
-        <v>300647405738.5196</v>
+        <v>302065556366.5317</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B208" t="n">
-        <v>455243000000</v>
+        <v>457637000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6635259770420011</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D208" t="n">
-        <v>302065556366.5317</v>
+        <v>314181655911.0257</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B209" t="n">
-        <v>457637000000</v>
+        <v>459005000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6783800284919612</v>
       </c>
       <c r="D209" t="n">
-        <v>314181655911.0257</v>
+        <v>311379824977.9526</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B210" t="n">
-        <v>459005000000</v>
+        <v>458636000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6783800284919612</v>
+        <v>0.6835737234260715</v>
       </c>
       <c r="D210" t="n">
-        <v>311379824977.9526</v>
+        <v>313511518217.2397</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B211" t="n">
-        <v>458636000000</v>
+        <v>460383000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6835737234260715</v>
+        <v>0.6638343069569835</v>
       </c>
       <c r="D211" t="n">
-        <v>313511518217.2397</v>
+        <v>305618029739.777</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B212" t="n">
-        <v>460383000000</v>
+        <v>463862000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6638343069569835</v>
+        <v>0.6701065469409636</v>
       </c>
       <c r="D212" t="n">
-        <v>305618029739.777</v>
+        <v>310836963077.1293</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B213" t="n">
-        <v>463862000000</v>
+        <v>465089000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6701065469409636</v>
+        <v>0.6816167950378297</v>
       </c>
       <c r="D213" t="n">
-        <v>310836963077.1293</v>
+        <v>317012473587.3492</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B214" t="n">
-        <v>465089000000</v>
+        <v>467460000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6816167950378297</v>
+        <v>0.6802258349772125</v>
       </c>
       <c r="D214" t="n">
-        <v>317012473587.3492</v>
+        <v>317978368818.4478</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B215" t="n">
-        <v>467460000000</v>
+        <v>471223000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6802258349772125</v>
+        <v>0.6787023211619384</v>
       </c>
       <c r="D215" t="n">
-        <v>317978368818.4478</v>
+        <v>319820143884.8921</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B216" t="n">
-        <v>471223000000</v>
+        <v>476000000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6787023211619384</v>
+        <v>0.6907031357922365</v>
       </c>
       <c r="D216" t="n">
-        <v>319820143884.8921</v>
+        <v>328774692637.1046</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B217" t="n">
-        <v>476000000000</v>
+        <v>478777000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6907031357922365</v>
+        <v>0.6906554320049727</v>
       </c>
       <c r="D217" t="n">
-        <v>328774692637.1046</v>
+        <v>330669935769.0448</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B218" t="n">
-        <v>478777000000</v>
+        <v>483138000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6906554320049727</v>
+        <v>0.6894174422612892</v>
       </c>
       <c r="D218" t="n">
-        <v>330669935769.0448</v>
+        <v>333083764219.2347</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B219" t="n">
-        <v>483138000000</v>
+        <v>486889000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6894174422612892</v>
+        <v>0.689893066574681</v>
       </c>
       <c r="D219" t="n">
-        <v>333083764219.2347</v>
+        <v>335901345291.4799</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B220" t="n">
-        <v>486889000000</v>
+        <v>490793000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.689893066574681</v>
+        <v>0.6755387421468622</v>
       </c>
       <c r="D220" t="n">
-        <v>335901345291.4799</v>
+        <v>331549685874.4849</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B221" t="n">
-        <v>490793000000</v>
+        <v>491187000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6755387421468622</v>
+        <v>0.6680919294494923</v>
       </c>
       <c r="D221" t="n">
-        <v>331549685874.4849</v>
+        <v>328158070550.5078</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B222" t="n">
-        <v>491187000000</v>
+        <v>494850000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6680919294494923</v>
+        <v>0.6755843804891231</v>
       </c>
       <c r="D222" t="n">
-        <v>328158070550.5078</v>
+        <v>334312930685.0425</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B223" t="n">
-        <v>494850000000</v>
+        <v>497053000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6755843804891231</v>
+        <v>0.6725854183481302</v>
       </c>
       <c r="D223" t="n">
-        <v>334312930685.0425</v>
+        <v>334310599946.1932</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B224" t="n">
-        <v>497053000000</v>
+        <v>499188000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6725854183481302</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D224" t="n">
-        <v>334310599946.1932</v>
+        <v>338984109737.8786</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B225" t="n">
-        <v>499188000000</v>
+        <v>501894000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.6650704974727321</v>
       </c>
       <c r="D225" t="n">
-        <v>338984109737.8786</v>
+        <v>333794892258.5794</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B226" t="n">
-        <v>501894000000</v>
+        <v>504302000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6650704974727321</v>
+        <v>0.6562541015881349</v>
       </c>
       <c r="D226" t="n">
-        <v>333794892258.5794</v>
+        <v>330950255939.0996</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B227" t="n">
-        <v>504302000000</v>
+        <v>505093000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6562541015881349</v>
+        <v>0.6505334374186834</v>
       </c>
       <c r="D227" t="n">
-        <v>330950255939.0996</v>
+        <v>328579885506.1151</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B228" t="n">
-        <v>505093000000</v>
+        <v>510405000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6505334374186834</v>
+        <v>0.6673785371062467</v>
       </c>
       <c r="D228" t="n">
-        <v>328579885506.1151</v>
+        <v>340633342231.7139</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B229" t="n">
-        <v>510405000000</v>
+        <v>510442000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6673785371062467</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D229" t="n">
-        <v>340633342231.7139</v>
+        <v>340771747112.6244</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B230" t="n">
-        <v>510442000000</v>
+        <v>515321000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6507027589796981</v>
       </c>
       <c r="D230" t="n">
-        <v>340771747112.6244</v>
+        <v>335320796460.177</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B231" t="n">
-        <v>515321000000</v>
+        <v>518685000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6507027589796981</v>
+        <v>0.634236062662523</v>
       </c>
       <c r="D231" t="n">
-        <v>335320796460.177</v>
+        <v>328968732162.1107</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B232" t="n">
-        <v>518685000000</v>
+        <v>519198000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.634236062662523</v>
+        <v>0.6513385006187715</v>
       </c>
       <c r="D232" t="n">
-        <v>328968732162.1107</v>
+        <v>338173646844.265</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B233" t="n">
-        <v>519198000000</v>
+        <v>521538000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6513385006187715</v>
+        <v>0.6500260010400416</v>
       </c>
       <c r="D233" t="n">
-        <v>338173646844.265</v>
+        <v>339013260530.4212</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B234" t="n">
-        <v>521538000000</v>
+        <v>518020000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.6500260010400416</v>
+        <v>0.6603711285742587</v>
       </c>
       <c r="D234" t="n">
-        <v>339013260530.4212</v>
+        <v>342085452024.0375</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B235" t="n">
-        <v>518020000000</v>
+        <v>520335000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6603711285742587</v>
+        <v>0.6519754857217368</v>
       </c>
       <c r="D235" t="n">
-        <v>342085452024.0375</v>
+        <v>339245664363.0199</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B236" t="n">
-        <v>520335000000</v>
+        <v>520759000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6519754857217368</v>
+        <v>0.6452861844227915</v>
       </c>
       <c r="D236" t="n">
-        <v>339245664363.0199</v>
+        <v>336038588113.8285</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B237" t="n">
-        <v>520759000000</v>
+        <v>527610000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6452861844227915</v>
+        <v>0.6331919204710948</v>
       </c>
       <c r="D237" t="n">
-        <v>336038588113.8285</v>
+        <v>334078389159.7543</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B238" t="n">
-        <v>527610000000</v>
+        <v>531066000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6331919204710948</v>
+        <v>0.629643621710112</v>
       </c>
       <c r="D238" t="n">
-        <v>334078389159.7543</v>
+        <v>334382319607.1024</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B239" t="n">
-        <v>531066000000</v>
+        <v>535473000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.629643621710112</v>
+        <v>0.6362537379907106</v>
       </c>
       <c r="D239" t="n">
-        <v>334382319607.1024</v>
+        <v>340696697843.0998</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B240" t="n">
-        <v>535473000000</v>
+        <v>537884000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6362537379907106</v>
+        <v>0.628693574751666</v>
       </c>
       <c r="D240" t="n">
-        <v>340696697843.0998</v>
+        <v>338164214761.7251</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B241" t="n">
-        <v>537884000000</v>
+        <v>538462000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.628693574751666</v>
+        <v>0.6291286568103177</v>
       </c>
       <c r="D241" t="n">
-        <v>338164214761.7251</v>
+        <v>338761874803.3973</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B242" t="n">
-        <v>538462000000</v>
+        <v>541449000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6291286568103177</v>
+        <v>0.6242197253433208</v>
       </c>
       <c r="D242" t="n">
-        <v>338761874803.3973</v>
+        <v>337983146067.4157</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B243" t="n">
-        <v>541449000000</v>
+        <v>543983000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6242197253433208</v>
+        <v>0.6272345229881452</v>
       </c>
       <c r="D243" t="n">
-        <v>337983146067.4157</v>
+        <v>341204917518.6602</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B244" t="n">
-        <v>543983000000</v>
+        <v>545554000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.6272345229881452</v>
+        <v>0.6381620931716656</v>
       </c>
       <c r="D244" t="n">
-        <v>341204917518.6602</v>
+        <v>348151882578.1749</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B245" t="n">
-        <v>545554000000</v>
+        <v>544635000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6381620931716656</v>
+        <v>0.654150585464774</v>
       </c>
       <c r="D245" t="n">
-        <v>348151882578.1749</v>
+        <v>356273304114.6072</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B246" t="n">
-        <v>544635000000</v>
+        <v>547075000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.654150585464774</v>
+        <v>0.6595435958316844</v>
       </c>
       <c r="D246" t="n">
-        <v>356273304114.6072</v>
+        <v>360819812689.6188</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B247" t="n">
-        <v>547075000000</v>
+        <v>550448000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6595435958316844</v>
+        <v>0.631432720843594</v>
       </c>
       <c r="D247" t="n">
-        <v>360819812689.6188</v>
+        <v>347570878322.9147</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B248" t="n">
-        <v>550448000000</v>
+        <v>553147000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.631432720843594</v>
+        <v>0.6415602745877975</v>
       </c>
       <c r="D248" t="n">
-        <v>347570878322.9147</v>
+        <v>354877141207.4164</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B249" t="n">
-        <v>553147000000</v>
+        <v>555860000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.6415602745877975</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D249" t="n">
-        <v>354877141207.4164</v>
+        <v>350324573013.172</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B250" t="n">
-        <v>555860000000</v>
+        <v>560690000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6416014371872193</v>
       </c>
       <c r="D250" t="n">
-        <v>350324573013.172</v>
+        <v>359739509816.502</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B251" t="n">
-        <v>560690000000</v>
+        <v>562379000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6416014371872193</v>
+        <v>0.6390593047034765</v>
       </c>
       <c r="D251" t="n">
-        <v>359739509816.502</v>
+        <v>359393532719.8364</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B252" t="n">
-        <v>562379000000</v>
+        <v>563618000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.6390593047034765</v>
+        <v>0.6343567622430855</v>
       </c>
       <c r="D252" t="n">
-        <v>359393532719.8364</v>
+        <v>357534889621.9233</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B253" t="n">
-        <v>563618000000</v>
+        <v>566685000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6343567622430855</v>
+        <v>0.6572461386789352</v>
       </c>
       <c r="D253" t="n">
-        <v>357534889621.9233</v>
+        <v>372451528097.2724</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B254" t="n">
-        <v>566685000000</v>
+        <v>569806000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.6572461386789352</v>
+        <v>0.6739906989283547</v>
       </c>
       <c r="D254" t="n">
-        <v>372451528097.2724</v>
+        <v>384043944193.5701</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B255" t="n">
-        <v>569806000000</v>
+        <v>571313000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.6739906989283547</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="D255" t="n">
-        <v>384043944193.5701</v>
+        <v>389310391822.8279</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B256" t="n">
-        <v>571313000000</v>
+        <v>573864000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.6977880120019538</v>
       </c>
       <c r="D256" t="n">
-        <v>389310391822.8279</v>
+        <v>400435419719.4893</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B257" t="n">
-        <v>573864000000</v>
+        <v>575443000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6977880120019538</v>
+        <v>0.7311010381634743</v>
       </c>
       <c r="D257" t="n">
-        <v>400435419719.4893</v>
+        <v>420706974703.9041</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B258" t="n">
-        <v>575443000000</v>
+        <v>578862000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.7311010381634743</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D258" t="n">
-        <v>420706974703.9041</v>
+        <v>429773554087.1631</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B259" t="n">
-        <v>578862000000</v>
+        <v>584715000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7121999857560003</v>
       </c>
       <c r="D259" t="n">
-        <v>429773554087.1631</v>
+        <v>416434014671.3197</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B260" t="n">
-        <v>584715000000</v>
+        <v>587823000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.7121999857560003</v>
+        <v>0.721917412647993</v>
       </c>
       <c r="D260" t="n">
-        <v>416434014671.3197</v>
+        <v>424359659254.9812</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B261" t="n">
-        <v>587823000000</v>
+        <v>591013000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.721917412647993</v>
+        <v>0.7398091292446549</v>
       </c>
       <c r="D261" t="n">
-        <v>424359659254.9812</v>
+        <v>437236812902.2712</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B262" t="n">
-        <v>591013000000</v>
+        <v>591443000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.7398091292446549</v>
+        <v>0.7584951456310679</v>
       </c>
       <c r="D262" t="n">
-        <v>437236812902.2712</v>
+        <v>448606644417.4757</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B263" t="n">
-        <v>591443000000</v>
+        <v>594698000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.7584951456310679</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D263" t="n">
-        <v>448606644417.4757</v>
+        <v>457953180348.0671</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B264" t="n">
-        <v>594698000000</v>
+        <v>598107000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7741136398823347</v>
       </c>
       <c r="D264" t="n">
-        <v>457953180348.0671</v>
+        <v>463002786809.1036</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B265" t="n">
-        <v>598107000000</v>
+        <v>603150000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7741136398823347</v>
+        <v>0.7550018875047187</v>
       </c>
       <c r="D265" t="n">
-        <v>463002786809.1036</v>
+        <v>455379388448.4711</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B266" t="n">
-        <v>603150000000</v>
+        <v>604870000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7550018875047187</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D266" t="n">
-        <v>455379388448.4711</v>
+        <v>453018274415.8179</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B267" t="n">
-        <v>604870000000</v>
+        <v>609773000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7639419404125287</v>
       </c>
       <c r="D267" t="n">
-        <v>453018274415.8179</v>
+        <v>465831168831.1689</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B268" t="n">
-        <v>609773000000</v>
+        <v>612585000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7639419404125287</v>
+        <v>0.7290223809870964</v>
       </c>
       <c r="D268" t="n">
-        <v>465831168831.1689</v>
+        <v>446588175256.9804</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B269" t="n">
-        <v>612585000000</v>
+        <v>615387000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7290223809870964</v>
+        <v>0.7343761474627305</v>
       </c>
       <c r="D269" t="n">
-        <v>446588175256.9804</v>
+        <v>451925534258.6473</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B270" t="n">
-        <v>615387000000</v>
+        <v>619665000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7343761474627305</v>
+        <v>0.75041272699985</v>
       </c>
       <c r="D270" t="n">
-        <v>451925534258.6473</v>
+        <v>465004502476.362</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B271" t="n">
-        <v>619665000000</v>
+        <v>621347000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.75041272699985</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D271" t="n">
-        <v>465004502476.362</v>
+        <v>467353892440.7673</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B272" t="n">
-        <v>621347000000</v>
+        <v>623669000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7618467164406522</v>
       </c>
       <c r="D272" t="n">
-        <v>467353892440.7673</v>
+        <v>475140179795.8251</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B273" t="n">
-        <v>623669000000</v>
+        <v>623563000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7618467164406522</v>
+        <v>0.7929585282689715</v>
       </c>
       <c r="D273" t="n">
-        <v>475140179795.8251</v>
+        <v>494459598762.9847</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B274" t="n">
-        <v>623563000000</v>
+        <v>626622000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7929585282689715</v>
+        <v>0.8211528986697323</v>
       </c>
       <c r="D274" t="n">
-        <v>494459598762.9847</v>
+        <v>514552471670.225</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B275" t="n">
-        <v>626622000000</v>
+        <v>629528000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.8211528986697323</v>
+        <v>0.8423890152472412</v>
       </c>
       <c r="D275" t="n">
-        <v>514552471670.225</v>
+        <v>530307471990.5652</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B276" t="n">
-        <v>629528000000</v>
+        <v>635233000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.8423890152472412</v>
+        <v>0.8309098462816784</v>
       </c>
       <c r="D276" t="n">
-        <v>530307471990.5652</v>
+        <v>527821354383.0494</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B277" t="n">
-        <v>635233000000</v>
+        <v>640875000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.8309098462816784</v>
+        <v>0.8068420203324189</v>
       </c>
       <c r="D277" t="n">
-        <v>527821354383.0494</v>
+        <v>517084879780.539</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B278" t="n">
-        <v>640875000000</v>
+        <v>645747000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.8068420203324189</v>
+        <v>0.8105698305909054</v>
       </c>
       <c r="D278" t="n">
-        <v>517084879780.539</v>
+        <v>523423036394.5854</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B279" t="n">
-        <v>645747000000</v>
+        <v>647648000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8105698305909054</v>
+        <v>0.8262414277451872</v>
       </c>
       <c r="D279" t="n">
-        <v>523423036394.5854</v>
+        <v>535113608196.315</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B280" t="n">
-        <v>647648000000</v>
+        <v>650004000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8262414277451872</v>
+        <v>0.7948493760432398</v>
       </c>
       <c r="D280" t="n">
-        <v>535113608196.315</v>
+        <v>516655273825.61</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B281" t="n">
-        <v>650004000000</v>
+        <v>653021000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7948493760432398</v>
+        <v>0.7970032677133977</v>
       </c>
       <c r="D281" t="n">
-        <v>516655273825.61</v>
+        <v>520459870885.4706</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B282" t="n">
-        <v>653021000000</v>
+        <v>653626000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7970032677133977</v>
+        <v>0.8163931749530573</v>
       </c>
       <c r="D282" t="n">
-        <v>520459870885.4706</v>
+        <v>533615805371.867</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B283" t="n">
-        <v>653626000000</v>
+        <v>653297000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8163931749530573</v>
+        <v>0.8170602173380178</v>
       </c>
       <c r="D283" t="n">
-        <v>533615805371.867</v>
+        <v>533782988806.275</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B284" t="n">
-        <v>653297000000</v>
+        <v>655137000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.8170602173380178</v>
+        <v>0.8419634587858887</v>
       </c>
       <c r="D284" t="n">
-        <v>533782988806.275</v>
+        <v>551601414498.6108</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B285" t="n">
-        <v>655137000000</v>
+        <v>659252000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8419634587858887</v>
+        <v>0.8605111436193099</v>
       </c>
       <c r="D285" t="n">
-        <v>551601414498.6108</v>
+        <v>567293692453.3173</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B286" t="n">
-        <v>659252000000</v>
+        <v>663687000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8605111436193099</v>
+        <v>0.8459521191100584</v>
       </c>
       <c r="D286" t="n">
-        <v>567293692453.3173</v>
+        <v>561447424075.7974</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B287" t="n">
-        <v>663687000000</v>
+        <v>667046000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8459521191100584</v>
+        <v>0.8580744808649391</v>
       </c>
       <c r="D287" t="n">
-        <v>561447424075.7974</v>
+        <v>572375150163.0342</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B288" t="n">
-        <v>667046000000</v>
+        <v>671891000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8580744808649391</v>
+        <v>0.8604371020478404</v>
       </c>
       <c r="D288" t="n">
-        <v>572375150163.0342</v>
+        <v>578119944932.0255</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B289" t="n">
-        <v>671891000000</v>
+        <v>676375000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8604371020478404</v>
+        <v>0.8781173164734808</v>
       </c>
       <c r="D289" t="n">
-        <v>578119944932.0255</v>
+        <v>593936599929.7506</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B290" t="n">
-        <v>676375000000</v>
+        <v>683062000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8781173164734808</v>
+        <v>0.8796622097114708</v>
       </c>
       <c r="D290" t="n">
-        <v>593936599929.7506</v>
+        <v>600863828289.9366</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B291" t="n">
-        <v>683062000000</v>
+        <v>686912000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8796622097114708</v>
+        <v>0.8564576909900651</v>
       </c>
       <c r="D291" t="n">
-        <v>600863828289.9366</v>
+        <v>588311065433.3676</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B292" t="n">
-        <v>686912000000</v>
+        <v>690916000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8564576909900651</v>
+        <v>0.894534394847482</v>
       </c>
       <c r="D292" t="n">
-        <v>588311065433.3676</v>
+        <v>618048125950.4429</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B293" t="n">
-        <v>690916000000</v>
+        <v>692890000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.894534394847482</v>
+        <v>0.9078529278256923</v>
       </c>
       <c r="D293" t="n">
-        <v>618048125950.4429</v>
+        <v>629042215161.1439</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B294" t="n">
-        <v>692890000000</v>
+        <v>697101000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9078529278256923</v>
+        <v>0.8962179602079227</v>
       </c>
       <c r="D294" t="n">
-        <v>629042215161.1439</v>
+        <v>624754436278.9031</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B295" t="n">
-        <v>697101000000</v>
+        <v>702908000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.8962179602079227</v>
+        <v>0.8840951286358413</v>
       </c>
       <c r="D295" t="n">
-        <v>624754436278.9031</v>
+        <v>621437538679.1619</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B296" t="n">
-        <v>702908000000</v>
+        <v>709202000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.8840951286358413</v>
+        <v>0.9062075215224287</v>
       </c>
       <c r="D296" t="n">
-        <v>621437538679.1619</v>
+        <v>642684186678.7495</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B297" t="n">
-        <v>709202000000</v>
+        <v>715455000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9062075215224287</v>
+        <v>0.8950948800572861</v>
       </c>
       <c r="D297" t="n">
-        <v>642684186678.7495</v>
+        <v>640400107411.3856</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B298" t="n">
-        <v>715455000000</v>
+        <v>722293000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8950948800572861</v>
+        <v>0.89126559714795</v>
       </c>
       <c r="D298" t="n">
-        <v>640400107411.3856</v>
+        <v>643754901960.7842</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B299" t="n">
-        <v>722293000000</v>
+        <v>727459000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.89126559714795</v>
+        <v>0.8770391159445711</v>
       </c>
       <c r="D299" t="n">
-        <v>643754901960.7842</v>
+        <v>638009998245.9218</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B300" t="n">
-        <v>727459000000</v>
+        <v>732122000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.8770391159445711</v>
+        <v>0.8575593859874797</v>
       </c>
       <c r="D300" t="n">
-        <v>638009998245.9218</v>
+        <v>627838092787.9257</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B301" t="n">
-        <v>732122000000</v>
+        <v>736336000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.8575593859874797</v>
+        <v>0.8498342823149485</v>
       </c>
       <c r="D301" t="n">
-        <v>627838092787.9257</v>
+        <v>625763576102.6599</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B302" t="n">
-        <v>736336000000</v>
+        <v>738881000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8498342823149485</v>
+        <v>0.8549200649739249</v>
       </c>
       <c r="D302" t="n">
-        <v>625763576102.6599</v>
+        <v>631684192527.9987</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B303" t="n">
-        <v>738881000000</v>
+        <v>743457000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8549200649739249</v>
+        <v>0.8663259118080221</v>
       </c>
       <c r="D303" t="n">
-        <v>631684192527.9987</v>
+        <v>644076063415.0566</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B304" t="n">
-        <v>743457000000</v>
+        <v>746726000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.8663259118080221</v>
+        <v>0.9013068949977467</v>
       </c>
       <c r="D304" t="n">
-        <v>644076063415.0566</v>
+        <v>673029292474.0874</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B305" t="n">
-        <v>746726000000</v>
+        <v>747290000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9013068949977467</v>
+        <v>0.9356287425149701</v>
       </c>
       <c r="D305" t="n">
-        <v>673029292474.0874</v>
+        <v>699186002994.012</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B306" t="n">
-        <v>747290000000</v>
+        <v>753228000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9356287425149701</v>
+        <v>0.9392317084624777</v>
       </c>
       <c r="D306" t="n">
-        <v>699186002994.012</v>
+        <v>707455621301.7751</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B307" t="n">
-        <v>753228000000</v>
+        <v>762391000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9392317084624777</v>
+        <v>0.9377344336084021</v>
       </c>
       <c r="D307" t="n">
-        <v>707455621301.7751</v>
+        <v>714920292573.1433</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B308" t="n">
-        <v>762391000000</v>
+        <v>767172000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9377344336084021</v>
+        <v>0.947059380623165</v>
       </c>
       <c r="D308" t="n">
-        <v>714920292573.1433</v>
+        <v>726557439151.4347</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B309" t="n">
-        <v>767172000000</v>
+        <v>771869000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.947059380623165</v>
+        <v>1.005429318318922</v>
       </c>
       <c r="D309" t="n">
-        <v>726557439151.4347</v>
+        <v>776059722501.5082</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B310" t="n">
-        <v>771869000000</v>
+        <v>770498000000</v>
       </c>
       <c r="C310" t="n">
-        <v>1.005429318318922</v>
+        <v>1.060670343657191</v>
       </c>
       <c r="D310" t="n">
-        <v>776059722501.5082</v>
+        <v>817244378447.1786</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B311" t="n">
-        <v>770498000000</v>
+        <v>773993000000</v>
       </c>
       <c r="C311" t="n">
-        <v>1.060670343657191</v>
+        <v>1.000100010001</v>
       </c>
       <c r="D311" t="n">
-        <v>817244378447.1786</v>
+        <v>774070407040.704</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B312" t="n">
-        <v>773993000000</v>
+        <v>780159000000</v>
       </c>
       <c r="C312" t="n">
-        <v>1.000100010001</v>
+        <v>1.011265497643751</v>
       </c>
       <c r="D312" t="n">
-        <v>774070407040.704</v>
+        <v>788947879376.2515</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B313" t="n">
-        <v>780159000000</v>
+        <v>789173000000</v>
       </c>
       <c r="C313" t="n">
-        <v>1.011265497643751</v>
+        <v>0.9973072703700011</v>
       </c>
       <c r="D313" t="n">
-        <v>788947879376.2515</v>
+        <v>787047970479.7048</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B314" t="n">
-        <v>789173000000</v>
+        <v>792462000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9973072703700011</v>
+        <v>1.016053647632595</v>
       </c>
       <c r="D314" t="n">
-        <v>787047970479.7048</v>
+        <v>805183905710.2214</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B315" t="n">
-        <v>792462000000</v>
+        <v>802004000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.016053647632595</v>
+        <v>0.9754384595875847</v>
       </c>
       <c r="D315" t="n">
-        <v>805183905710.2214</v>
+        <v>782305546343.0813</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B316" t="n">
-        <v>802004000000</v>
+        <v>808895000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9754384595875847</v>
+        <v>0.9923292945531045</v>
       </c>
       <c r="D316" t="n">
-        <v>782305546343.0813</v>
+        <v>802690204717.5334</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B317" t="n">
-        <v>808895000000</v>
+        <v>814551000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9923292945531045</v>
+        <v>1.006664116450905</v>
       </c>
       <c r="D317" t="n">
-        <v>802690204717.5334</v>
+        <v>819979262719.201</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B318" t="n">
-        <v>814551000000</v>
+        <v>820945000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.006664116450905</v>
+        <v>0.9789621043769395</v>
       </c>
       <c r="D318" t="n">
-        <v>819979262719.201</v>
+        <v>803674044777.7267</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B319" t="n">
-        <v>820945000000</v>
+        <v>825736000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9789621043769395</v>
+        <v>0.9760477872996662</v>
       </c>
       <c r="D319" t="n">
-        <v>803674044777.7267</v>
+        <v>805957795693.6772</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B320" t="n">
-        <v>825736000000</v>
+        <v>833368000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9760477872996662</v>
+        <v>0.9418146885418825</v>
       </c>
       <c r="D320" t="n">
-        <v>805957795693.6772</v>
+        <v>784878223360.7716</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B321" t="n">
-        <v>833368000000</v>
+        <v>844338000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9418146885418825</v>
+        <v>0.9397171451393131</v>
       </c>
       <c r="D321" t="n">
-        <v>784878223360.7716</v>
+        <v>793438894892.6373</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B322" t="n">
-        <v>844338000000</v>
+        <v>857769000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9397171451393131</v>
+        <v>0.8336807002917882</v>
       </c>
       <c r="D322" t="n">
-        <v>793438894892.6373</v>
+        <v>715105460608.5869</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B323" t="n">
-        <v>857769000000</v>
+        <v>874577000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.8336807002917882</v>
+        <v>0.8091662351113412</v>
       </c>
       <c r="D323" t="n">
-        <v>715105460608.5869</v>
+        <v>707678178404.9714</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B324" t="n">
-        <v>874577000000</v>
+        <v>890217000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.8091662351113412</v>
+        <v>0.8207013713919916</v>
       </c>
       <c r="D324" t="n">
-        <v>707678178404.9714</v>
+        <v>730602312736.4646</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B325" t="n">
-        <v>890217000000</v>
+        <v>903968000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8207013713919916</v>
+        <v>0.8155875084617203</v>
       </c>
       <c r="D325" t="n">
-        <v>730602312736.4646</v>
+        <v>737265008849.1244</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B326" t="n">
-        <v>903968000000</v>
+        <v>911816000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.8155875084617203</v>
+        <v>0.7861140808754166</v>
       </c>
       <c r="D326" t="n">
-        <v>737265008849.1244</v>
+        <v>716791396767.4988</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B327" t="n">
-        <v>911816000000</v>
+        <v>923083000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.7861140808754166</v>
+        <v>0.793751587503175</v>
       </c>
       <c r="D327" t="n">
-        <v>716791396767.4988</v>
+        <v>732698596647.1932</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B328" t="n">
-        <v>923083000000</v>
+        <v>929833000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.793751587503175</v>
+        <v>0.8388276544701125</v>
       </c>
       <c r="D328" t="n">
-        <v>732698596647.1932</v>
+        <v>779969634438.9082</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B329" t="n">
-        <v>929833000000</v>
+        <v>933532000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8388276544701125</v>
+        <v>0.9159438343240793</v>
       </c>
       <c r="D329" t="n">
-        <v>779969634438.9082</v>
+        <v>855062879544.2264</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B330" t="n">
-        <v>933532000000</v>
+        <v>939155000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9159438343240793</v>
+        <v>0.8606814876018832</v>
       </c>
       <c r="D330" t="n">
-        <v>855062879544.2264</v>
+        <v>808313322488.7467</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B331" t="n">
-        <v>939155000000</v>
+        <v>947686000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8606814876018832</v>
+        <v>0.9284016636957813</v>
       </c>
       <c r="D331" t="n">
-        <v>808313322488.7467</v>
+        <v>879833259061.2002</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B332" t="n">
-        <v>947686000000</v>
+        <v>956161000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9284016636957813</v>
+        <v>0.914603473663993</v>
       </c>
       <c r="D332" t="n">
-        <v>879833259061.2002</v>
+        <v>874508171982.0372</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B333" t="n">
-        <v>956161000000</v>
+        <v>960900000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.914603473663993</v>
+        <v>0.9353924438998382</v>
       </c>
       <c r="D333" t="n">
-        <v>874508171982.0372</v>
+        <v>898818599343.3545</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B334" t="n">
-        <v>960900000000</v>
+        <v>965962000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9353924438998382</v>
+        <v>0.9244963805966701</v>
       </c>
       <c r="D334" t="n">
-        <v>898818599343.3545</v>
+        <v>893028372793.9207</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B335" t="n">
-        <v>965962000000</v>
+        <v>970851000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9244963805966701</v>
+        <v>0.9470414425335253</v>
       </c>
       <c r="D335" t="n">
-        <v>893028372793.9207</v>
+        <v>919436131525.1156</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B336" t="n">
-        <v>970851000000</v>
+        <v>973415000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9470414425335253</v>
+        <v>0.9557031585989393</v>
       </c>
       <c r="D336" t="n">
-        <v>919436131525.1156</v>
+        <v>930295790127.5864</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B337" t="n">
-        <v>973415000000</v>
+        <v>975773000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9557031585989393</v>
+        <v>0.9352437245146086</v>
       </c>
       <c r="D337" t="n">
-        <v>930295790127.5864</v>
+        <v>912585574800.7932</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B338" t="n">
-        <v>975773000000</v>
+        <v>983599000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9352437245146086</v>
+        <v>0.9504980609839557</v>
       </c>
       <c r="D338" t="n">
-        <v>912585574800.7932</v>
+        <v>934908942285.7578</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B339" t="n">
-        <v>983599000000</v>
+        <v>986502000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9504980609839557</v>
+        <v>0.9848044670730626</v>
       </c>
       <c r="D339" t="n">
-        <v>934908942285.7578</v>
+        <v>971511576376.5104</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B340" t="n">
-        <v>986502000000</v>
+        <v>989926000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9848044670730626</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="D340" t="n">
-        <v>971511576376.5104</v>
+        <v>974336614173.2284</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B341" t="n">
-        <v>989926000000</v>
+        <v>997332000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.984251968503937</v>
+        <v>0.9574783849254602</v>
       </c>
       <c r="D341" t="n">
-        <v>974336614173.2284</v>
+        <v>954923832594.4791</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B342" t="n">
-        <v>997332000000</v>
+        <v>1002970000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9574783849254602</v>
+        <v>0.9401412092096234</v>
       </c>
       <c r="D342" t="n">
-        <v>954923832594.4791</v>
+        <v>942933428600.976</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B343" t="n">
-        <v>1002970000000</v>
+        <v>1007970000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9401412092096234</v>
+        <v>0.9730087376184637</v>
       </c>
       <c r="D343" t="n">
-        <v>942933428600.976</v>
+        <v>980763617257.2828</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B344" t="n">
-        <v>1007970000000</v>
+        <v>1012078000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9730087376184637</v>
+        <v>0.9385441303450088</v>
       </c>
       <c r="D344" t="n">
-        <v>980763617257.2828</v>
+        <v>949879866351.3158</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B345" t="n">
-        <v>1012078000000</v>
+        <v>1017370000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9385441303450088</v>
+        <v>0.9716945381050012</v>
       </c>
       <c r="D345" t="n">
-        <v>949879866351.3158</v>
+        <v>988572872231.885</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B346" t="n">
-        <v>1017370000000</v>
+        <v>1021701000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9716945381050012</v>
+        <v>0.9804978968320114</v>
       </c>
       <c r="D346" t="n">
-        <v>988572872231.885</v>
+        <v>1001775681691.163</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B347" t="n">
-        <v>1021701000000</v>
+        <v>1021885000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9804978968320114</v>
+        <v>0.9743264968090807</v>
       </c>
       <c r="D347" t="n">
-        <v>1001775681691.163</v>
+        <v>995649632191.7474</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B348" t="n">
-        <v>1021885000000</v>
+        <v>1026441000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9743264968090807</v>
+        <v>1.005338346620555</v>
       </c>
       <c r="D348" t="n">
-        <v>995649632191.7474</v>
+        <v>1031920497843.549</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B349" t="n">
-        <v>1026441000000</v>
+        <v>1030655000000</v>
       </c>
       <c r="C349" t="n">
-        <v>1.005338346620555</v>
+        <v>0.9990409207161125</v>
       </c>
       <c r="D349" t="n">
-        <v>1031920497843.549</v>
+        <v>1029666520140.665</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B350" t="n">
-        <v>1030655000000</v>
+        <v>1033383000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9990409207161125</v>
+        <v>1.029569228234906</v>
       </c>
       <c r="D350" t="n">
-        <v>1029666520140.665</v>
+        <v>1063939337781.072</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B351" t="n">
-        <v>1033383000000</v>
+        <v>1037827000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.029569228234906</v>
+        <v>1.030566605519715</v>
       </c>
       <c r="D351" t="n">
-        <v>1063939337781.072</v>
+        <v>1069549848506.709</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B352" t="n">
-        <v>1037827000000</v>
+        <v>1039526000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.030566605519715</v>
+        <v>1.057183030098001</v>
       </c>
       <c r="D352" t="n">
-        <v>1069549848506.709</v>
+        <v>1098969246545.654</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B353" t="n">
-        <v>1039526000000</v>
+        <v>1042253000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.057183030098001</v>
+        <v>1.032919132761096</v>
       </c>
       <c r="D353" t="n">
-        <v>1098969246545.654</v>
+        <v>1076563064877.651</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B354" t="n">
-        <v>1042253000000</v>
+        <v>1047329000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.032919132761096</v>
+        <v>1.037925809063168</v>
       </c>
       <c r="D354" t="n">
-        <v>1076563064877.651</v>
+        <v>1087049799680.319</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B355" t="n">
-        <v>1047329000000</v>
+        <v>1050254000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.037925809063168</v>
+        <v>1.046857334282484</v>
       </c>
       <c r="D355" t="n">
-        <v>1087049799680.319</v>
+        <v>1099466102759.516</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B356" t="n">
-        <v>1050254000000</v>
+        <v>1056451000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.046857334282484</v>
+        <v>1.022955112729653</v>
       </c>
       <c r="D356" t="n">
-        <v>1099466102759.516</v>
+        <v>1080701951798.355</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B357" t="n">
-        <v>1056451000000</v>
+        <v>1072342000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.022955112729653</v>
+        <v>0.9538435124333502</v>
       </c>
       <c r="D357" t="n">
-        <v>1080701951798.355</v>
+        <v>1022846459809.804</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B358" t="n">
-        <v>1072342000000</v>
+        <v>1081489000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9538435124333502</v>
+        <v>0.9993404353126936</v>
       </c>
       <c r="D358" t="n">
-        <v>1022846459809.804</v>
+        <v>1080775688045.89</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B359" t="n">
-        <v>1081489000000</v>
+        <v>1087142000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9993404353126936</v>
+        <v>0.9833711931242687</v>
       </c>
       <c r="D359" t="n">
-        <v>1080775688045.89</v>
+        <v>1069064125635.504</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B360" t="n">
-        <v>1087142000000</v>
+        <v>1092865000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9833711931242687</v>
+        <v>0.9793360101850946</v>
       </c>
       <c r="D360" t="n">
-        <v>1069064125635.504</v>
+        <v>1070282048770.933</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B361" t="n">
-        <v>1092865000000</v>
+        <v>1101467000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9793360101850946</v>
+        <v>0.9974962843263409</v>
       </c>
       <c r="D361" t="n">
-        <v>1070282048770.933</v>
+        <v>1098709239808.082</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B362" t="n">
-        <v>1101467000000</v>
+        <v>1097482000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9974962843263409</v>
+        <v>1.010315319411188</v>
       </c>
       <c r="D362" t="n">
-        <v>1098709239808.082</v>
+        <v>1108802877378.03</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B363" t="n">
-        <v>1097482000000</v>
+        <v>1102820000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.010315319411188</v>
+        <v>1.002154632459789</v>
       </c>
       <c r="D363" t="n">
-        <v>1108802877378.03</v>
+        <v>1105196171769.304</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B364" t="n">
-        <v>1102820000000</v>
+        <v>1109651000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.002154632459789</v>
+        <v>1.013037796440185</v>
       </c>
       <c r="D364" t="n">
-        <v>1105196171769.304</v>
+        <v>1124118403857.648</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B365" t="n">
-        <v>1109651000000</v>
+        <v>1116754000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.013037796440185</v>
+        <v>0.9683916950728231</v>
       </c>
       <c r="D365" t="n">
-        <v>1124118403857.648</v>
+        <v>1081455299039.355</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B366" t="n">
-        <v>1116754000000</v>
+        <v>1127759000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9683916950728231</v>
+        <v>0.9838936607731437</v>
       </c>
       <c r="D366" t="n">
-        <v>1081455299039.355</v>
+        <v>1109594930979.86</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B367" t="n">
-        <v>1127759000000</v>
+        <v>1135610000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9838936607731437</v>
+        <v>0.9969095803010666</v>
       </c>
       <c r="D367" t="n">
-        <v>1109594930979.86</v>
+        <v>1132100488485.694</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B368" t="n">
-        <v>1135610000000</v>
+        <v>1140742000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9969095803010666</v>
+        <v>1.014970819588937</v>
       </c>
       <c r="D368" t="n">
-        <v>1132100488485.694</v>
+        <v>1157819842679.523</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B369" t="n">
-        <v>1140742000000</v>
+        <v>1140167000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.014970819588937</v>
+        <v>1.016973284111826</v>
       </c>
       <c r="D369" t="n">
-        <v>1157819842679.523</v>
+        <v>1159519378425.929</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B370" t="n">
-        <v>1140167000000</v>
+        <v>1150318000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.016973284111826</v>
+        <v>1.000320102432779</v>
       </c>
       <c r="D370" t="n">
-        <v>1159519378425.929</v>
+        <v>1150686219590.269</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B371" t="n">
-        <v>1150318000000</v>
+        <v>1158280000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.000320102432779</v>
+        <v>1.005854070691424</v>
       </c>
       <c r="D371" t="n">
-        <v>1150686219590.269</v>
+        <v>1165060653000.463</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B372" t="n">
-        <v>1158280000000</v>
+        <v>1161595000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.005854070691424</v>
+        <v>1.005237286261422</v>
       </c>
       <c r="D372" t="n">
-        <v>1165060653000.463</v>
+        <v>1167678605534.837</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B373" t="n">
-        <v>1161595000000</v>
+        <v>1169988000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.005237286261422</v>
+        <v>1.002657041159072</v>
       </c>
       <c r="D373" t="n">
-        <v>1167678605534.837</v>
+        <v>1173096706271.62</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B374" t="n">
-        <v>1169988000000</v>
+        <v>1179367000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.002657041159072</v>
+        <v>0.9703273884608666</v>
       </c>
       <c r="D374" t="n">
-        <v>1173096706271.62</v>
+        <v>1144372101146.927</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B375" t="n">
-        <v>1179367000000</v>
+        <v>1189872000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9703273884608666</v>
+        <v>0.9827720067221605</v>
       </c>
       <c r="D375" t="n">
-        <v>1144372101146.927</v>
+        <v>1169372893182.51</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B376" t="n">
-        <v>1189872000000</v>
+        <v>1195531000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9827720067221605</v>
+        <v>0.9929007595690811</v>
       </c>
       <c r="D376" t="n">
-        <v>1169372893182.51</v>
+        <v>1187043637988.383</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B377" t="n">
-        <v>1195531000000</v>
+        <v>1194040000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9929007595690811</v>
+        <v>0.9647481042699751</v>
       </c>
       <c r="D377" t="n">
-        <v>1187043637988.383</v>
+        <v>1151947826422.521</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B378" t="n">
-        <v>1194040000000</v>
+        <v>1200066000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9647481042699751</v>
+        <v>0.9511580349074998</v>
       </c>
       <c r="D378" t="n">
-        <v>1151947826422.521</v>
+        <v>1141452418319.304</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B379" t="n">
-        <v>1200066000000</v>
+        <v>1205447000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9511580349074998</v>
+        <v>0.973093952221087</v>
       </c>
       <c r="D379" t="n">
-        <v>1141452418319.304</v>
+        <v>1173013185423.053</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B380" t="n">
-        <v>1205447000000</v>
+        <v>1216053000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.973093952221087</v>
+        <v>0.9494331883865331</v>
       </c>
       <c r="D380" t="n">
-        <v>1173013185423.053</v>
+        <v>1154561077037.009</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B381" t="n">
-        <v>1216053000000</v>
+        <v>1221461000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9494331883865331</v>
+        <v>0.9700732405296599</v>
       </c>
       <c r="D381" t="n">
-        <v>1154561077037.009</v>
+        <v>1184906630450.599</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B382" t="n">
-        <v>1221461000000</v>
+        <v>1226705000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9700732405296599</v>
+        <v>0.958873898493609</v>
       </c>
       <c r="D382" t="n">
-        <v>1184906630450.599</v>
+        <v>1176255405651.603</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B383" t="n">
-        <v>1226705000000</v>
+        <v>1235685000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.958873898493609</v>
+        <v>0.9426492213717431</v>
       </c>
       <c r="D383" t="n">
-        <v>1176255405651.603</v>
+        <v>1164817503110.742</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B384" t="n">
-        <v>1235685000000</v>
+        <v>1243567000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9426492213717431</v>
+        <v>0.9402561257686595</v>
       </c>
       <c r="D384" t="n">
-        <v>1164817503110.742</v>
+        <v>1169271489553.755</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B385" t="n">
-        <v>1243567000000</v>
+        <v>1251738000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9402561257686595</v>
+        <v>0.898787535614456</v>
       </c>
       <c r="D385" t="n">
-        <v>1169271489553.755</v>
+        <v>1125046512254.968</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B386" t="n">
-        <v>1251738000000</v>
+        <v>1251016000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.898787535614456</v>
+        <v>0.903750564844103</v>
       </c>
       <c r="D386" t="n">
-        <v>1125046512254.968</v>
+        <v>1130606416629.01</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B387" t="n">
-        <v>1251016000000</v>
+        <v>1254128000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.903750564844103</v>
+        <v>0.9050428990334143</v>
       </c>
       <c r="D387" t="n">
-        <v>1130606416629.01</v>
+        <v>1135039640878.978</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B388" t="n">
-        <v>1254128000000</v>
+        <v>1256512000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9050428990334143</v>
+        <v>0.9123421648054887</v>
       </c>
       <c r="D388" t="n">
-        <v>1135039640878.978</v>
+        <v>1146368878184.074</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B389" t="n">
-        <v>1256512000000</v>
+        <v>1261583000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9123421648054887</v>
+        <v>0.9224496573099522</v>
       </c>
       <c r="D389" t="n">
-        <v>1146368878184.074</v>
+        <v>1163746806018.062</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B390" t="n">
-        <v>1261583000000</v>
+        <v>1265809000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9224496573099522</v>
+        <v>0.9373037520269195</v>
       </c>
       <c r="D390" t="n">
-        <v>1163746806018.062</v>
+        <v>1186447525049.443</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B391" t="n">
-        <v>1265809000000</v>
+        <v>1270210000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9373037520269195</v>
+        <v>0.9170189547817954</v>
       </c>
       <c r="D391" t="n">
-        <v>1186447525049.443</v>
+        <v>1164806646553.384</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B392" t="n">
-        <v>1270210000000</v>
+        <v>1279946000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9170189547817954</v>
+        <v>0.9196163360645938</v>
       </c>
       <c r="D392" t="n">
-        <v>1164806646553.384</v>
+        <v>1177059250880.532</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B393" t="n">
-        <v>1279946000000</v>
+        <v>1289603000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9196163360645938</v>
+        <v>0.8932399599828498</v>
       </c>
       <c r="D393" t="n">
-        <v>1177059250880.532</v>
+        <v>1151924932113.763</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B394" t="n">
-        <v>1289603000000</v>
+        <v>1295199000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8932399599828498</v>
+        <v>0.8875398283497972</v>
       </c>
       <c r="D394" t="n">
-        <v>1151924932113.763</v>
+        <v>1149540698138.829</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B395" t="n">
-        <v>1295199000000</v>
+        <v>1296727000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8875398283497972</v>
+        <v>0.8762014912949383</v>
       </c>
       <c r="D395" t="n">
-        <v>1149540698138.829</v>
+        <v>1136194131202.411</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B396" t="n">
-        <v>1296727000000</v>
+        <v>1302464000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8762014912949383</v>
+        <v>0.8610816908200081</v>
       </c>
       <c r="D396" t="n">
-        <v>1136194131202.411</v>
+        <v>1121527903352.191</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B397" t="n">
-        <v>1302464000000</v>
+        <v>1306212000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8610816908200081</v>
+        <v>0.7863489816780687</v>
       </c>
       <c r="D397" t="n">
-        <v>1121527903352.191</v>
+        <v>1027138476055.673</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B398" t="n">
-        <v>1306212000000</v>
+        <v>1312747000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7863489816780687</v>
+        <v>0.8001984492154054</v>
       </c>
       <c r="D398" t="n">
-        <v>1027138476055.673</v>
+        <v>1050458113612.176</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B399" t="n">
-        <v>1312747000000</v>
+        <v>1316790000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8001984492154054</v>
+        <v>0.7884259076753262</v>
       </c>
       <c r="D399" t="n">
-        <v>1050458113612.176</v>
+        <v>1038191350967.793</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B400" t="n">
-        <v>1316790000000</v>
+        <v>1320890000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7884259076753262</v>
+        <v>0.8282259400364419</v>
       </c>
       <c r="D400" t="n">
-        <v>1038191350967.793</v>
+        <v>1093995361934.736</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B401" t="n">
-        <v>1320890000000</v>
+        <v>1322154000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8282259400364419</v>
+        <v>0.8035097305028364</v>
       </c>
       <c r="D401" t="n">
-        <v>1093995361934.736</v>
+        <v>1062363604223.247</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B402" t="n">
-        <v>1322154000000</v>
+        <v>1329858000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8035097305028364</v>
+        <v>0.8007495015334353</v>
       </c>
       <c r="D402" t="n">
-        <v>1062363604223.247</v>
+        <v>1064883130610.251</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B403" t="n">
-        <v>1329858000000</v>
+        <v>1345086000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8007495015334353</v>
+        <v>0.7641988139634408</v>
       </c>
       <c r="D403" t="n">
-        <v>1064883130610.251</v>
+        <v>1027913125878.829</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B404" t="n">
-        <v>1345086000000</v>
+        <v>1356127000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7641988139634408</v>
+        <v>0.7610755519700441</v>
       </c>
       <c r="D404" t="n">
-        <v>1027913125878.829</v>
+        <v>1032115105066.48</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B405" t="n">
-        <v>1356127000000</v>
+        <v>1366811000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7610755519700441</v>
+        <v>0.7511906371598984</v>
       </c>
       <c r="D405" t="n">
-        <v>1032115105066.48</v>
+        <v>1026735625967.158</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B406" t="n">
-        <v>1366811000000</v>
+        <v>1368472000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7511906371598984</v>
+        <v>0.7650172893907402</v>
       </c>
       <c r="D406" t="n">
-        <v>1026735625967.158</v>
+        <v>1046904740047.125</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B407" t="n">
-        <v>1368472000000</v>
+        <v>1377121000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7650172893907402</v>
+        <v>0.7484245662879637</v>
       </c>
       <c r="D407" t="n">
-        <v>1046904740047.125</v>
+        <v>1030671187151.047</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B408" t="n">
-        <v>1377121000000</v>
+        <v>1380572000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7484245662879637</v>
+        <v>0.7232069890723424</v>
       </c>
       <c r="D408" t="n">
-        <v>1030671187151.047</v>
+        <v>998439319317.5819</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B409" t="n">
-        <v>1380572000000</v>
+        <v>1391381000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7232069890723424</v>
+        <v>0.7158862313601122</v>
       </c>
       <c r="D409" t="n">
-        <v>998439319317.5819</v>
+        <v>996070500476.0643</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B410" t="n">
-        <v>1391381000000</v>
+        <v>1400091000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7158862313601122</v>
+        <v>0.7387488549392749</v>
       </c>
       <c r="D410" t="n">
-        <v>996070500476.0643</v>
+        <v>1034315623060.784</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B411" t="n">
-        <v>1400091000000</v>
+        <v>1405027000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7387488549392749</v>
+        <v>0.7690710390918809</v>
       </c>
       <c r="D411" t="n">
-        <v>1034315623060.784</v>
+        <v>1080565574842.148</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B412" t="n">
-        <v>1405027000000</v>
+        <v>1412193000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7690710390918809</v>
+        <v>0.7968063999490044</v>
       </c>
       <c r="D412" t="n">
-        <v>1080565574842.148</v>
+        <v>1125244420363.184</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B413" t="n">
-        <v>1412193000000</v>
+        <v>1419809000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7968063999490044</v>
+        <v>0.7638135683842288</v>
       </c>
       <c r="D413" t="n">
-        <v>1125244420363.184</v>
+        <v>1084469378714.043</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B414" t="n">
-        <v>1419809000000</v>
+        <v>1428874000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7638135683842288</v>
+        <v>0.7737662297466689</v>
       </c>
       <c r="D414" t="n">
-        <v>1084469378714.043</v>
+        <v>1105614447763.042</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B415" t="n">
-        <v>1428874000000</v>
+        <v>1450911000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7737662297466689</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="D415" t="n">
-        <v>1105614447763.042</v>
+        <v>1112661809815.951</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B416" t="n">
-        <v>1450911000000</v>
+        <v>1461886000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7631199395609007</v>
       </c>
       <c r="D416" t="n">
-        <v>1112661809815.951</v>
+        <v>1115594355964.927</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B417" t="n">
-        <v>1461886000000</v>
+        <v>1473602000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7631199395609007</v>
+        <v>0.7620266861745498</v>
       </c>
       <c r="D417" t="n">
-        <v>1115594355964.927</v>
+        <v>1122924048800.189</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B418" t="n">
-        <v>1473602000000</v>
+        <v>1484308000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7620266861745498</v>
+        <v>0.7458567656667213</v>
       </c>
       <c r="D418" t="n">
-        <v>1122924048800.189</v>
+        <v>1107081164133.24</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B419" t="n">
-        <v>1484308000000</v>
+        <v>1495912000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7458567656667213</v>
+        <v>0.7442081996859442</v>
       </c>
       <c r="D419" t="n">
-        <v>1107081164133.24</v>
+        <v>1113269976408.6</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B420" t="n">
-        <v>1495912000000</v>
+        <v>1498820000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7442081996859442</v>
+        <v>0.7443356060380504</v>
       </c>
       <c r="D420" t="n">
-        <v>1113269976408.6</v>
+        <v>1115625093041.951</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B421" t="n">
-        <v>1498820000000</v>
+        <v>1515097000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7443356060380504</v>
+        <v>0.767589309016104</v>
       </c>
       <c r="D421" t="n">
-        <v>1115625093041.951</v>
+        <v>1162972259322.372</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B422" t="n">
-        <v>1515097000000</v>
+        <v>1513143000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.767589309016104</v>
+        <v>0.7519079664649048</v>
       </c>
       <c r="D422" t="n">
-        <v>1162972259322.372</v>
+        <v>1137744276100.605</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B423" t="n">
-        <v>1513143000000</v>
+        <v>1521199000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7519079664649048</v>
+        <v>0.7508860455337297</v>
       </c>
       <c r="D423" t="n">
-        <v>1137744276100.605</v>
+        <v>1142247101579.864</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B424" t="n">
-        <v>1521199000000</v>
+        <v>1532423000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7508860455337297</v>
+        <v>0.7324719463244558</v>
       </c>
       <c r="D424" t="n">
-        <v>1142247101579.864</v>
+        <v>1122456857402.362</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B425" t="n">
-        <v>1532423000000</v>
+        <v>1546176000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7324719463244558</v>
+        <v>0.7408230544134533</v>
       </c>
       <c r="D425" t="n">
-        <v>1122456857402.362</v>
+        <v>1145442826980.776</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B426" t="n">
-        <v>1546176000000</v>
+        <v>1551765000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7408230544134533</v>
+        <v>0.7714739781827159</v>
       </c>
       <c r="D426" t="n">
-        <v>1145442826980.776</v>
+        <v>1197146317754.702</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B427" t="n">
-        <v>1551765000000</v>
+        <v>1554451000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7714739781827159</v>
+        <v>0.8013526833294602</v>
       </c>
       <c r="D427" t="n">
-        <v>1197146317754.702</v>
+        <v>1245663479954.163</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B428" t="n">
-        <v>1554451000000</v>
+        <v>1555592000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.8013526833294602</v>
+        <v>0.8012178511337232</v>
       </c>
       <c r="D428" t="n">
-        <v>1245663479954.163</v>
+        <v>1246368079480.811</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B429" t="n">
-        <v>1555592000000</v>
+        <v>1562476000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.8012178511337232</v>
+        <v>0.8023492786879984</v>
       </c>
       <c r="D429" t="n">
-        <v>1246368079480.811</v>
+        <v>1253651491567.309</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B430" t="n">
-        <v>1562476000000</v>
+        <v>1570298000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8023492786879984</v>
+        <v>0.7759938541286753</v>
       </c>
       <c r="D430" t="n">
-        <v>1253651491567.309</v>
+        <v>1218541597150.551</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B431" t="n">
-        <v>1570298000000</v>
+        <v>1574987000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7759938541286753</v>
+        <v>0.7754823500217135</v>
       </c>
       <c r="D431" t="n">
-        <v>1218541597150.551</v>
+        <v>1221374620013.648</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B432" t="n">
-        <v>1574987000000</v>
+        <v>1585745000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7754823500217135</v>
+        <v>0.7949567940982407</v>
       </c>
       <c r="D432" t="n">
-        <v>1221374620013.648</v>
+        <v>1260598761457.315</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B433" t="n">
-        <v>1585745000000</v>
+        <v>1590269000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7949567940982407</v>
+        <v>0.8122091276061761</v>
       </c>
       <c r="D433" t="n">
-        <v>1260598761457.315</v>
+        <v>1291630997149.146</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B434" t="n">
-        <v>1590269000000</v>
+        <v>1593488000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.8122091276061761</v>
+        <v>0.7795082861730821</v>
       </c>
       <c r="D434" t="n">
-        <v>1291630997149.146</v>
+        <v>1242137099917.372</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B435" t="n">
-        <v>1593488000000</v>
+        <v>1598398000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7795082861730821</v>
+        <v>0.7754703227507483</v>
       </c>
       <c r="D435" t="n">
-        <v>1242137099917.372</v>
+        <v>1239510212944.151</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B436" t="n">
-        <v>1598398000000</v>
+        <v>1598364000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7754703227507483</v>
+        <v>0.7786645902277595</v>
       </c>
       <c r="D436" t="n">
-        <v>1239510212944.151</v>
+        <v>1244589449094.802</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B437" t="n">
-        <v>1598364000000</v>
+        <v>1598824000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7786645902277595</v>
+        <v>0.7718074186129077</v>
       </c>
       <c r="D437" t="n">
-        <v>1244589449094.802</v>
+        <v>1233984224256.364</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B438" t="n">
-        <v>1598824000000</v>
+        <v>1608465000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7718074186129077</v>
+        <v>0.7614290500411172</v>
       </c>
       <c r="D438" t="n">
-        <v>1233984224256.364</v>
+        <v>1224731976974.385</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B439" t="n">
-        <v>1608465000000</v>
+        <v>1616215000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7614290500411172</v>
+        <v>0.7689054630733151</v>
       </c>
       <c r="D439" t="n">
-        <v>1224731976974.385</v>
+        <v>1242716543001.038</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B440" t="n">
-        <v>1616215000000</v>
+        <v>1627432000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7689054630733151</v>
+        <v>0.7667712031406948</v>
       </c>
       <c r="D440" t="n">
-        <v>1242716543001.038</v>
+        <v>1247867992669.667</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B441" t="n">
-        <v>1627432000000</v>
+        <v>1637358000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7667712031406948</v>
+        <v>0.7747313619002612</v>
       </c>
       <c r="D441" t="n">
-        <v>1247867992669.667</v>
+        <v>1268512593258.288</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B442" t="n">
-        <v>1637358000000</v>
+        <v>1646237000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7747313619002612</v>
+        <v>0.7601036781416985</v>
       </c>
       <c r="D442" t="n">
-        <v>1268512593258.288</v>
+        <v>1251310798792.955</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B443" t="n">
-        <v>1646237000000</v>
+        <v>1656351000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7601036781416985</v>
+        <v>0.752683316021617</v>
       </c>
       <c r="D443" t="n">
-        <v>1251310798792.955</v>
+        <v>1246707763175.721</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B444" t="n">
-        <v>1656351000000</v>
+        <v>1668377000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.752683316021617</v>
+        <v>0.7328101069169946</v>
       </c>
       <c r="D444" t="n">
-        <v>1246707763175.721</v>
+        <v>1222603527747.855</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B445" t="n">
-        <v>1668377000000</v>
+        <v>1675220000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7328101069169946</v>
+        <v>0.7620034594957061</v>
       </c>
       <c r="D445" t="n">
-        <v>1222603527747.855</v>
+        <v>1276523435416.397</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B446" t="n">
-        <v>1675220000000</v>
+        <v>1682335000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7620034594957061</v>
+        <v>0.7591976798918902</v>
       </c>
       <c r="D446" t="n">
-        <v>1276523435416.397</v>
+        <v>1277224828800.923</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B447" t="n">
-        <v>1682335000000</v>
+        <v>1692733000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7591976798918902</v>
+        <v>0.7492769477454257</v>
       </c>
       <c r="D447" t="n">
-        <v>1277224828800.923</v>
+        <v>1268325815587.958</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B448" t="n">
-        <v>1692733000000</v>
+        <v>1705748000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7492769477454257</v>
+        <v>0.7469375560203168</v>
       </c>
       <c r="D448" t="n">
-        <v>1268325815587.958</v>
+        <v>1274087242306.543</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B449" t="n">
-        <v>1705748000000</v>
+        <v>1714043000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7469375560203168</v>
+        <v>0.739885761638403</v>
       </c>
       <c r="D449" t="n">
-        <v>1274087242306.543</v>
+        <v>1268196010535.973</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B450" t="n">
-        <v>1714043000000</v>
+        <v>1720945000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.739885761638403</v>
+        <v>0.7641229015274817</v>
       </c>
       <c r="D450" t="n">
-        <v>1268196010535.973</v>
+        <v>1315013486769.212</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B451" t="n">
-        <v>1720945000000</v>
+        <v>1737081000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7641229015274817</v>
+        <v>0.7581041331837342</v>
       </c>
       <c r="D451" t="n">
-        <v>1315013486769.212</v>
+        <v>1316888285774.934</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B452" t="n">
-        <v>1737081000000</v>
+        <v>1754608000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7581041331837342</v>
+        <v>0.7514390056959076</v>
       </c>
       <c r="D452" t="n">
-        <v>1316888285774.934</v>
+        <v>1318480890906.085</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B453" t="n">
-        <v>1754608000000</v>
+        <v>1768025000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7514390056959076</v>
+        <v>0.7552813045218693</v>
       </c>
       <c r="D453" t="n">
-        <v>1318480890906.085</v>
+        <v>1335356228427.278</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B454" t="n">
-        <v>1768025000000</v>
+        <v>1780400000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7552813045218693</v>
+        <v>0.7596590650116227</v>
       </c>
       <c r="D454" t="n">
-        <v>1335356228427.278</v>
+        <v>1352496999346.693</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B455" t="n">
-        <v>1780400000000</v>
+        <v>1788170000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7596590650116227</v>
+        <v>0.7533524182612626</v>
       </c>
       <c r="D455" t="n">
-        <v>1352496999346.693</v>
+        <v>1347122193762.242</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B456" t="n">
-        <v>1788170000000</v>
+        <v>1797721000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.7533524182612626</v>
+        <v>0.7706950899015822</v>
       </c>
       <c r="D456" t="n">
-        <v>1347122193762.242</v>
+        <v>1385494747712.962</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B457" t="n">
-        <v>1797721000000</v>
+        <v>1801010000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.7706950899015822</v>
+        <v>0.7554981376970905</v>
       </c>
       <c r="D457" t="n">
-        <v>1385494747712.962</v>
+        <v>1360659700973.837</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B458" t="n">
-        <v>1801010000000</v>
+        <v>1814298000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7554981376970905</v>
+        <v>0.7455064598134743</v>
       </c>
       <c r="D458" t="n">
-        <v>1360659700973.837</v>
+        <v>1352570879026.667</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B459" t="n">
-        <v>1814298000000</v>
+        <v>1855518000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7455064598134743</v>
+        <v>0.7113184999715473</v>
       </c>
       <c r="D459" t="n">
-        <v>1352570879026.667</v>
+        <v>1319864280430.206</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B460" t="n">
-        <v>1855518000000</v>
+        <v>1918181000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7113184999715473</v>
+        <v>0.7171286170174621</v>
       </c>
       <c r="D460" t="n">
-        <v>1319864280430.206</v>
+        <v>1375582487719.173</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B461" t="n">
-        <v>1918181000000</v>
+        <v>1963419000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7171286170174621</v>
+        <v>0.7263271813421074</v>
       </c>
       <c r="D461" t="n">
-        <v>1375582487719.173</v>
+        <v>1426084588063.539</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B462" t="n">
-        <v>1963419000000</v>
+        <v>2005979000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7263271813421074</v>
+        <v>0.7367025195226168</v>
       </c>
       <c r="D462" t="n">
-        <v>1426084588063.539</v>
+        <v>1477809783409.459</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B463" t="n">
-        <v>2005979000000</v>
+        <v>2030544000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7367025195226168</v>
+        <v>0.7459235279199177</v>
       </c>
       <c r="D463" t="n">
-        <v>1477809783409.459</v>
+        <v>1514630544076.621</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B464" t="n">
-        <v>2030544000000</v>
+        <v>2061892000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.7459235279199177</v>
+        <v>0.7665008469834359</v>
       </c>
       <c r="D464" t="n">
-        <v>1514630544076.621</v>
+        <v>1580441964388.371</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B465" t="n">
-        <v>2061892000000</v>
+        <v>2085360000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7665008469834359</v>
+        <v>0.7509706295386788</v>
       </c>
       <c r="D465" t="n">
-        <v>1580441964388.371</v>
+        <v>1566044112014.779</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B466" t="n">
-        <v>2085360000000</v>
+        <v>2105411000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7509706295386788</v>
+        <v>0.7510044684765874</v>
       </c>
       <c r="D466" t="n">
-        <v>1566044112014.779</v>
+        <v>1581173068979.76</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B467" t="n">
-        <v>2105411000000</v>
+        <v>2121396000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7510044684765874</v>
+        <v>0.7695148978084215</v>
       </c>
       <c r="D467" t="n">
-        <v>1581173068979.76</v>
+        <v>1632445826151.194</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B468" t="n">
-        <v>2121396000000</v>
+        <v>2120708000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7695148978084215</v>
+        <v>0.7839448102853559</v>
       </c>
       <c r="D468" t="n">
-        <v>1632445826151.194</v>
+        <v>1662518030730.636</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B469" t="n">
-        <v>2120708000000</v>
+        <v>2141765000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7839448102853559</v>
+        <v>0.7828156312625251</v>
       </c>
       <c r="D469" t="n">
-        <v>1662518030730.636</v>
+        <v>1676607120490.982</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B470" t="n">
-        <v>2141765000000</v>
+        <v>2177359000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7828156312625251</v>
+        <v>0.7849231952653433</v>
       </c>
       <c r="D470" t="n">
-        <v>1676607120490.982</v>
+        <v>1709059583519.752</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B471" t="n">
-        <v>2177359000000</v>
+        <v>2182624000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7849231952653433</v>
+        <v>0.7960769328747931</v>
       </c>
       <c r="D471" t="n">
-        <v>1709059583519.752</v>
+        <v>1737536619538.912</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B472" t="n">
-        <v>2182624000000</v>
+        <v>2199732000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7960769328747931</v>
+        <v>0.8144516297177111</v>
       </c>
       <c r="D472" t="n">
-        <v>1737536619538.912</v>
+        <v>1791575312342.2</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B473" t="n">
-        <v>2199732000000</v>
+        <v>2225461000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.8144516297177111</v>
+        <v>0.8293111741387604</v>
       </c>
       <c r="D473" t="n">
-        <v>1791575312342.2</v>
+        <v>1845599674910.02</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B474" t="n">
-        <v>2225461000000</v>
+        <v>2235219000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.8293111741387604</v>
+        <v>0.8067639086097844</v>
       </c>
       <c r="D474" t="n">
-        <v>1845599674910.02</v>
+        <v>1803294017038.854</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B475" t="n">
-        <v>2235219000000</v>
+        <v>2265475000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.8067639086097844</v>
+        <v>0.8019889325527308</v>
       </c>
       <c r="D475" t="n">
-        <v>1803294017038.854</v>
+        <v>1816885876974.898</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B476" t="n">
-        <v>2265475000000</v>
+        <v>2283153000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.8019889325527308</v>
+        <v>0.7927259467129618</v>
       </c>
       <c r="D476" t="n">
-        <v>1816885876974.898</v>
+        <v>1809914623415.539</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B477" t="n">
-        <v>2283153000000</v>
+        <v>2286467000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7927259467129618</v>
+        <v>0.7889172899113257</v>
       </c>
       <c r="D477" t="n">
-        <v>1809914623415.539</v>
+        <v>1803833349111.679</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B478" t="n">
-        <v>2286467000000</v>
+        <v>2289771000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7889172899113257</v>
+        <v>0.8078588509015704</v>
       </c>
       <c r="D478" t="n">
-        <v>1803833349111.679</v>
+        <v>1849811768887.74</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B479" t="n">
-        <v>2289771000000</v>
+        <v>2310223000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.8078588509015704</v>
+        <v>0.7826440847760073</v>
       </c>
       <c r="D479" t="n">
-        <v>1849811768887.74</v>
+        <v>1808082365463.482</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B480" t="n">
-        <v>2310223000000</v>
+        <v>2301433000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7826440847760073</v>
+        <v>0.7910954298417018</v>
       </c>
       <c r="D480" t="n">
-        <v>1808082365463.482</v>
+        <v>1820653128386.877</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B481" t="n">
-        <v>2301433000000</v>
+        <v>2317667000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7910954298417018</v>
+        <v>0.7870793061108837</v>
       </c>
       <c r="D481" t="n">
-        <v>1820653128386.877</v>
+        <v>1824187734156.094</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B482" t="n">
-        <v>2317667000000</v>
+        <v>2344869000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7870793061108837</v>
+        <v>0.7892036934732856</v>
       </c>
       <c r="D482" t="n">
-        <v>1824187734156.094</v>
+        <v>1850579275511.01</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B483" t="n">
-        <v>2344869000000</v>
+        <v>2348469000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7892036934732856</v>
+        <v>0.7998016491910006</v>
       </c>
       <c r="D483" t="n">
-        <v>1850579275511.01</v>
+        <v>1878309379273.94</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B484" t="n">
-        <v>2348469000000</v>
+        <v>2347490000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7998016491910006</v>
+        <v>0.7777924694133111</v>
       </c>
       <c r="D484" t="n">
-        <v>1878309379273.94</v>
+        <v>1825860044023.054</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B485" t="n">
-        <v>2347490000000</v>
+        <v>2349052000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7777924694133111</v>
+        <v>0.7907076042350298</v>
       </c>
       <c r="D485" t="n">
-        <v>1825860044023.054</v>
+        <v>1857413279143.505</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B486" t="n">
-        <v>2349052000000</v>
+        <v>2354170000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7907076042350298</v>
+        <v>0.7768559087660422</v>
       </c>
       <c r="D486" t="n">
-        <v>1857413279143.505</v>
+        <v>1828850874739.753</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B487" t="n">
-        <v>2354170000000</v>
+        <v>2367102000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7768559087660422</v>
+        <v>0.7816102734854348</v>
       </c>
       <c r="D487" t="n">
-        <v>1828850874739.753</v>
+        <v>1850151241587.92</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B488" t="n">
-        <v>2367102000000</v>
+        <v>2358110000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7816102734854348</v>
+        <v>0.7618409123806766</v>
       </c>
       <c r="D488" t="n">
-        <v>1850151241587.92</v>
+        <v>1796504673893.997</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B489" t="n">
-        <v>2358110000000</v>
+        <v>2374338000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7618409123806766</v>
+        <v>0.723222680263253</v>
       </c>
       <c r="D489" t="n">
-        <v>1796504673893.997</v>
+        <v>1717175092210.892</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B490" t="n">
-        <v>2374338000000</v>
+        <v>2376916000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.723222680263253</v>
+        <v>0.733998825601879</v>
       </c>
       <c r="D490" t="n">
-        <v>1717175092210.892</v>
+        <v>1744653552554.316</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B491" t="n">
-        <v>2376916000000</v>
+        <v>2384951000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.733998825601879</v>
+        <v>0.7450176941702366</v>
       </c>
       <c r="D491" t="n">
-        <v>1744653552554.316</v>
+        <v>1776830694729</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B492" t="n">
-        <v>2384951000000</v>
+        <v>2393203000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7450176941702366</v>
+        <v>0.7384706273307979</v>
       </c>
       <c r="D492" t="n">
-        <v>1776830694729</v>
+        <v>1767310120739.948</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B493" t="n">
-        <v>2393203000000</v>
+        <v>2420393000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7384706273307979</v>
+        <v>0.7516649378373097</v>
       </c>
       <c r="D493" t="n">
-        <v>1767310120739.948</v>
+        <v>1819324553886.86</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B494" t="n">
-        <v>2420393000000</v>
+        <v>2432173000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.7516649378373097</v>
+        <v>0.7327778876944609</v>
       </c>
       <c r="D494" t="n">
-        <v>1819324553886.86</v>
+        <v>1782242593447.5</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B495" t="n">
-        <v>2432173000000</v>
+        <v>2429503000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7327778876944609</v>
+        <v>0.7398967104192254</v>
       </c>
       <c r="D495" t="n">
-        <v>1782242593447.5</v>
+        <v>1797581277653.639</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B496" t="n">
-        <v>2429503000000</v>
+        <v>2419886000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7398967104192254</v>
+        <v>0.7384324555832879</v>
       </c>
       <c r="D496" t="n">
-        <v>1797581277653.639</v>
+        <v>1786922361211.62</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B497" t="n">
-        <v>2419886000000</v>
+        <v>2412202000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7384324555832879</v>
+        <v>0.7368816641735504</v>
       </c>
       <c r="D497" t="n">
-        <v>1786922361211.62</v>
+        <v>1777507424082.767</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B498" t="n">
-        <v>2412202000000</v>
+        <v>2410432000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7368816641735504</v>
+        <v>0.7552299675251114</v>
       </c>
       <c r="D498" t="n">
-        <v>1777507424082.767</v>
+        <v>1820430481081.489</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B499" t="n">
-        <v>2410432000000</v>
+        <v>2423488000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.7552299675251114</v>
+        <v>0.7581788543917509</v>
       </c>
       <c r="D499" t="n">
-        <v>1820430481081.489</v>
+        <v>1837437355472.156</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B500" t="n">
-        <v>2423488000000</v>
+        <v>2439979000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7581788543917509</v>
+        <v>0.7403130043382341</v>
       </c>
       <c r="D500" t="n">
-        <v>1837437355472.156</v>
+        <v>1806348184012.2</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>2439979000000</v>
+        <v>2449812000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.7403130043382341</v>
+        <v>0.7365071883101578</v>
       </c>
       <c r="D501" t="n">
-        <v>1806348184012.2</v>
+        <v>1804304148008.484</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Canada_M2 (CAD)</t>
+  </si>
+  <si>
+    <t>Canada_FX (USD)</t>
+  </si>
+  <si>
+    <t>Canada_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7029 +385,7013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_M2 (CAD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>29983</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>165199000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30011</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>166100000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30042</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>167174000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.8198737394441256</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>137061572517.8322</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30072</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>168519000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.8038585209003215</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>135465434083.6013</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30103</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>169410000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.7734550235903782</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>131031015546.446</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30133</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>169601000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.7964319847085058</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>135075661038.5473</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>170129000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>137289380245.3195</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30195</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>170650000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>138032839925.5844</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30225</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>171675000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.8155941603458119</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>140017127477.3672</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30256</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>173598000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8082114281095935</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>140303887496.9692</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30286</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>173574000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.813206473123526</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>141151500365.9429</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30317</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>175486000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.8086035416835127</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>141898601115.8729</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30348</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>176731000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.8136696501220504</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>143800650935.7201</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30376</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>177360000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.810307106393323</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>143716068389.9198</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30407</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>178209000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8155276463872125</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>145334366335.0188</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30437</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>178032000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.8130081300813008</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>144741463414.6342</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30468</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>178843000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.8145975887911372</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>145685076572.1733</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30498</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>179993000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>145861426256.0778</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30529</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>181429000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>147025121555.9157</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>182607000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.8110300081103</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>148099756690.9976</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30590</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>183116000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.8112932013629727</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>148560765860.7821</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30621</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>184078000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>148545836023.2408</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30651</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>183902000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.8035355564483729</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>147771795901.9687</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30682</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>184450000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.8004482510205715</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>147642679900.7444</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30713</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>185166000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.7987858455148175</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>147907979870.5967</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30742</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>186527000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.7833307222309259</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>146112329625.5679</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30773</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>187527000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.7785130400934216</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>145992214869.5991</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>188986000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.7724393635099644</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>145980225552.2941</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30834</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>190555000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>144370785665.5807</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30864</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>191983000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.7624857033930613</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>146384292794.5101</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30895</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>192900000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.7707723138584861</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>148681979343.302</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>30926</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>194221000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.758552681483729</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>147326860350.4513</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>30956</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>195997000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.7604562737642586</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>149047148288.9734</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>30987</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>197099000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.7551729346020238</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>148843830237.1243</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31017</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>198799000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>150411591132.6322</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31048</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>200776000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.7534659433393611</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>151277878239.9036</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31079</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>202240000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.7228044813877846</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>146179978315.8656</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31107</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>203587000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.7312614259597806</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>148875319926.8738</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31138</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>205233000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.731528895391368</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>150133869787.8566</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31168</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>207225000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.7275372862859221</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>150763914150.6002</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31199</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>208616000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.7357268981753973</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>153484402589.7587</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31229</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>210378000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.7385524372230428</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>155375184638.1093</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31260</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>212430000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7321180174244089</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>155523830441.4672</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31291</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>214664000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.7293946024799417</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>156574762946.7542</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31321</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>216619000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.7316359379572724</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>158486245244.3664</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31352</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>218971000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.7225433526011561</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>158216040462.4278</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31382</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>219947000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.7150518412584912</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>157273507329.2814</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31413</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>221320000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.7025925665706457</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>155497786833.4153</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31444</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>221317000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>155747361013.3708</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31472</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>222244000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>159223384439.0314</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>225943000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.7262164124909223</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>164083514887.4365</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31533</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>228313000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>164906464427.5912</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31564</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>230077000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>166481186685.9624</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31594</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>232472000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>168360370799.5365</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31625</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>234395000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.7210845111047015</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>169018603980.3865</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31656</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>236112000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.7205649228995533</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>170134025075.6593</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31686</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>238535000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.7189072609633357</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>171484543493.8893</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31717</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>241918000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.7229612492770388</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>174897339502.6027</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31747</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>244868000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>177337775202.781</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31778</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>248259000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.7462129691814043</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>185254085516.0063</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31809</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>252294000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>189012586155.2292</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31837</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>254413000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.765814060346148</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>194833052534.8445</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31868</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>256778000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.7473841554559043</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>191911808669.6562</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31898</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>258482000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>193170913982.5125</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>31929</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>260580000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.7506943923128894</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>195615944748.8927</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>31959</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>262617000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>197858057711.1429</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>31990</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>264017000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>200028032426.699</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32021</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>266094000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.7623694442326751</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>202861934893.6494</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32051</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>268159000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.7601672367920943</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>203845686050.9312</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32082</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>263775000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.7633587786259541</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>201354961832.0611</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32112</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>265918000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.7698229407236336</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>204709776751.3472</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>267370000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.7844983133286264</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>209751314034.6748</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32174</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>269741000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>214301263208.0718</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32203</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>272411000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.8097165991902834</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>220575708502.0243</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32234</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>274765000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.8126777732629014</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>223295408370.5811</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32264</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>277324000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.8100445524503849</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>224644795463.7505</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32295</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>281544000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.8240626287597858</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>232009888751.5451</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32325</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>284525000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.825559316436886</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>234892264509.205</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32356</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>288402000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.8067769261799113</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>232676079064.1388</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32387</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>291439000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.8216926869350862</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>239473294987.6746</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32417</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>293949000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.8146639511201629</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>239469653767.8208</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32448</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>297392000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.8417508417508418</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>250329966329.9663</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32478</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>300374000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.8387854386847845</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>251949337359.5034</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32509</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>303154000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>255869345037.1371</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32540</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>305829000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.8350730688935282</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>255389561586.6388</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32568</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>309219000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.8384338056510438</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>259259662949.6101</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32599</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>312149000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.8434547908232118</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>263283569500.6747</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32629</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>316353000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.8282945415389712</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>262033463099.4781</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32660</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>320688000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.8354916868577157</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>267932158075.0271</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32690</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>324232000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.8467400508044031</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>274540220152.4132</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32721</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>327718000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.8481764206955046</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>277962680237.4894</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32752</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>331423000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>281463269639.0659</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32782</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>334344000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.8517162081594414</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>284766203900.8603</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32813</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>339017000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.859106529209622</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>291251718213.0584</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32843</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>342154000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.8632596685082872</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>295367748618.7845</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32874</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>346086000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.8428150021070374</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>291686472819.2161</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32905</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>350540000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.8386447500838645</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>293978530694.3979</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>32933</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>352153000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.8551393877201984</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>301139900803.831</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>32964</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>353101000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.8587376556462</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>303221124946.3289</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>32994</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>356116000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.8517887563884157</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>303335604770.017</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33025</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>356279000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.8578536501672815</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>305635240627.9489</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33055</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>357910000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.8676789587852494</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>310550976138.8286</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33086</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>361491000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.8665511265164645</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>313250433275.5633</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33117</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>363223000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.8660258075690656</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>314560491902.6587</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33147</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>365008000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.8573388203017832</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>312935528120.7133</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33178</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>367854000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.8588114050154585</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>315917210580.5565</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33208</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>370572000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.8630361612151549</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>319817036333.8224</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33239</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>373950000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.8600670852326481</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>321622086522.7487</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33270</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>375786000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.8694140149539211</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>326713615023.4742</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33298</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>378484000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.8637816360024186</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>326927528720.7394</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33329</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>380380000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.8673779165582444</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>329933211900.425</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33359</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>382614000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.8734387282732116</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>334189885579.5266</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33390</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>381438000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.875733426744899</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>334038006830.7208</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33420</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>383166000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.8686587908269632</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>332840514246.0042</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33451</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>383974000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.8761170492377782</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>336406167864.0267</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33482</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>385573000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.88339222614841</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>340612190812.7209</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33512</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>385597000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.8907892392659896</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>343485658293.2478</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33543</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>386166000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.8811349017534584</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>340264340470.526</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33573</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>387836000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.8646779074794638</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>335353220925.2053</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33604</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>390429000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.8512811781731505</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>332364859112.965</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33635</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>392338000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.8460952703274389</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>331955326169.7267</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>392743000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.8407600470825626</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>330202623171.3469</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33695</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>394119000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.8394895903290799</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>330858797850.9066</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33725</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>394350000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.8310479514667997</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>327723759660.9324</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33756</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>394189000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.8341675008341675</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>328819652986.3196</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33786</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>397321000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.8453085376162299</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>335858833474.2181</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33817</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>398941000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.8371703641691085</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>333981582251.9883</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33848</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>400892000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.8029548739360848</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>321898185321.9849</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33878</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>398608000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.8081461128171973</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>322133505737.8374</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>33909</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>400520000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.7770007770007771</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>311204351204.3513</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>33939</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>400819000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.7867820613690009</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>315357199055.8616</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>33970</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>400221000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.7888301648655044</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>315706397412.637</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34001</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>401587000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.8003201280512204</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>321398159263.7054</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34029</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>402997000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>320169222213.3948</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34060</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>404748000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.7866582756450597</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>318398363750.7866</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34090</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>406759000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.7869678130164477</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>320106240654.7573</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34121</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>408895000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>318925980812.7291</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34151</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>408308000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.7780284758422158</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>317675250914.1835</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34182</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>409970000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.7580926389204761</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>310795239178.2276</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34213</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>410678000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.749512816669165</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>307808424524.0593</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34243</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>409567000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.7575183698204682</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>310254526172.2597</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34274</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>409864000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>307060233742.8828</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34304</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>411463000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.7566585956416464</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>311337015738.4988</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34335</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>413157000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.7522756337922215</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>310807944030.6929</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34366</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>413596000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.7409602845287493</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>306458209839.9526</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34394</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>409983000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.7227000072270001</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>296294717062.9472</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34425</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>411390000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.7237984944991315</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>297763462651.9977</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34455</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>411805000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.7231180851833104</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>297783643068.9131</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34486</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>413228000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.722908985758693</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>298726234367.0932</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34516</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>416310000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.7209285559801024</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>300129767140.0764</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34547</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>418221000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.7318501170960187</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>306075087822.014</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34578</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>419884000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.7447125409591897</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>312692880548.1084</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34608</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>420714000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.7389344565137073</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>310880070937.7078</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34639</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>420680000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.7269555103227683</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>305815644082.5822</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34669</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>422101000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.7135212272565109</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>301178023546.2005</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34700</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>425148000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.710580544304697</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>302101897250.0533</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34731</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>426237000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.7194762213108857</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>306667386142.888</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34759</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>427897000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.7147451933385748</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>305837323993.9962</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34790</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>429643000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.7379529186037931</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>317056305807.6895</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34820</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>430736000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.7298737318443909</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>314382891759.7255</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34851</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>433634000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>316128891156.9586</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34881</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>434936000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>318727832331.8188</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>34912</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>436339000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.7445461990916536</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>324874543965.4531</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>34943</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>439202000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>328105483340.8038</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>34973</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>438892000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.7438815740534107</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>326483671799.4495</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35004</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>439931000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>323336028222.8428</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35034</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>441103000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>323247105378.8656</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35065</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>442368000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.7279079924297569</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>322003202795.1667</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35096</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>444600000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.7298204641658151</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>324478178368.1214</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35125</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>446271000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.7357810315650063</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>328357736737.5469</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35156</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>446482000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>328150815816.5515</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35186</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>448033000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.7306202966318405</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>327342003360.8534</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35217</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>449428000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.7334604664808567</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>329637670529.5585</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35247</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>447133000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>325211288093.6795</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35278</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>447620000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.7310475911981871</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>327231522772.1325</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35309</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>449024000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>329752515238.3051</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35339</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>448985000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.7471049682480388</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>335438924168.8457</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35370</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>447731000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.7402472425790214</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>331431638167.1478</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35400</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>448419000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.7297672042618404</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>327241479967.8902</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35431</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>449269000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>333557799391.1946</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35462</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>449193000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.7309407207075506</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>328333455156.7867</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35490</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>447801000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.7224911494834187</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>323532259229.8244</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35521</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>448519000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.7156659271452086</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>320989765977.2418</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35551</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>448940000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.7265857734505557</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>326193417132.8925</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35582</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>449572000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.7240605314604301</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>325517341249.7285</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35612</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>446917000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.7259001161440186</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>324417102206.7364</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35643</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>446334000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.7202535292422932</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>321473638720.8297</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35674</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>445831000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.7239032865209208</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>322738526132.9086</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35704</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>445044000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.7102272727272728</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>316082386363.6364</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35735</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>446053000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.7027900766041183</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>313481622039.4968</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35765</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>445467000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.6996431819771917</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>311667949345.8336</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35796</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>444813000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.6879471656576774</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>306007842597.6885</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35827</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>442837000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.702247191011236</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>310981039325.8427</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35855</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>440915000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.70482097547223</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>310766140400.3383</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35886</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>440589000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.6988608568034104</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>307910406038.1578</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35916</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>441843000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.6863417982155113</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>303255319148.9362</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>35947</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>441641000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.6815703380588877</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>301009405670.6652</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>35977</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>442493000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.6610259122157589</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>292499338974.0878</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36008</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>444070000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.6389368091495752</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>283732668839.0519</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36039</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>445748000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.6536374926465782</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>291357605072.2269</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36069</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>447404000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.6476683937823834</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>289769430051.8135</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36100</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>448114000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.6520605112154407</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>292197443922.796</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36130</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>449236000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.6502796202367017</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>292129015476.6549</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36161</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>452562000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.661769571835087</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>299491760968.8306</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36192</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>453707000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.6626466105625869</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>300647405738.5196</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36220</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>455243000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.6635259770420011</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>302065556366.5317</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36251</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>457637000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.686530275985171</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>314181655911.0257</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36281</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>459005000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.6783800284919612</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>311379824977.9526</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36312</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>458636000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>313511518217.2397</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36342</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>460383000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.6638343069569835</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>305618029739.777</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36373</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>463862000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.6701065469409636</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>310836963077.1293</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36404</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>465089000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.6816167950378297</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>317012473587.3492</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36434</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>467460000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.6802258349772125</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>317978368818.4478</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36465</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>471223000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.6787023211619384</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>319820143884.8921</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36495</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>476000000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.6907031357922365</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>328774692637.1046</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36526</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>478777000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.6906554320049727</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>330669935769.0448</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36557</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>483138000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.6894174422612892</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>333083764219.2347</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36586</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>486889000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.689893066574681</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>335901345291.4799</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36617</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>490793000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.6755387421468622</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>331549685874.4849</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36647</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>491187000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.6680919294494923</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>328158070550.5078</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36678</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>494850000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.6755843804891231</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>334312930685.0425</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36708</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>497053000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.6725854183481302</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>334310599946.1932</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36739</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>499188000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>338984109737.8786</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36770</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>501894000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.6650704974727321</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>333794892258.5794</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36800</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>504302000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.6562541015881349</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>330950255939.0996</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>505093000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.6505334374186834</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>328579885506.1151</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36861</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>510405000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.6673785371062467</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>340633342231.7139</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36892</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>510442000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>340771747112.6244</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36923</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>515321000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.6507027589796981</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>335320796460.177</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>36951</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>518685000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.634236062662523</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>328968732162.1107</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>36982</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>519198000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.6513385006187715</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>338173646844.265</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37012</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>521538000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.6500260010400416</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>339013260530.4212</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37043</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>518020000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.6603711285742587</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>342085452024.0375</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37073</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>520335000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.6519754857217368</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>339245664363.0199</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37104</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>520759000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.6452861844227915</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>336038588113.8285</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37135</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>527610000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.6331919204710948</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>334078389159.7543</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37165</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>531066000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.629643621710112</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>334382319607.1024</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37196</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>535473000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.6362537379907106</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>340696697843.0998</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37226</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>537884000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.628693574751666</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>338164214761.7251</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37257</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>538462000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.6291286568103177</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>338761874803.3973</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37288</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>541449000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.6242197253433208</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>337983146067.4157</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37316</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>543983000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.6272345229881452</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>341204917518.6602</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37347</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>545554000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.6381620931716656</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>348151882578.1749</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37377</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>544635000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.654150585464774</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>356273304114.6072</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37408</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>547075000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.6595435958316844</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>360819812689.6188</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37438</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>550448000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.631432720843594</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>347570878322.9147</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37469</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>553147000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.6415602745877975</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>354877141207.4164</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37500</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>555860000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>350324573013.172</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37530</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>560690000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>359739509816.502</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37561</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>562379000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.6390593047034765</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>359393532719.8364</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37591</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>563618000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.6343567622430855</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>357534889621.9233</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37622</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>566685000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.6572461386789352</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>372451528097.2724</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37653</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>569806000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.6739906989283547</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>384043944193.5701</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37681</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>571313000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.6814310051107325</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>389310391822.8279</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37712</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>573864000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>400435419719.4893</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37742</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>575443000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.7311010381634743</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>420706974703.9041</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37773</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>578862000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>429773554087.1631</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37803</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>584715000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.7121999857560003</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>416434014671.3197</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37834</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>587823000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.721917412647993</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>424359659254.9812</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>591013000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.7398091292446549</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>437236812902.2712</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37895</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>591443000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.7584951456310679</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>448606644417.4757</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37926</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>594698000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>457953180348.0671</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>37956</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>598107000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.7741136398823347</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>463002786809.1036</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>37987</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>603150000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.7550018875047187</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>455379388448.4711</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38018</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>604870000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>453018274415.8179</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38047</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>609773000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.7639419404125287</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>465831168831.1689</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38078</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>612585000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>446588175256.9804</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38108</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>615387000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>451925534258.6473</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38139</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>619665000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.75041272699985</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>465004502476.362</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38169</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>621347000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>467353892440.7673</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38200</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>623669000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.7618467164406522</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>475140179795.8251</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38231</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>623563000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.7929585282689715</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>494459598762.9847</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38261</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>626622000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.8211528986697323</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>514552471670.225</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38292</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>629528000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.8423890152472412</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>530307471990.5652</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38322</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>635233000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.8309098462816784</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>527821354383.0494</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38353</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>640875000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.8068420203324189</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>517084879780.539</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38384</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>645747000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.8105698305909054</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>523423036394.5854</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38412</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>647648000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.8262414277451872</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>535113608196.315</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>650004000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.7948493760432398</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>516655273825.61</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38473</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>653021000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.7970032677133977</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>520459870885.4706</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38504</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>653626000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.8163931749530573</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>533615805371.867</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38534</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>653297000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.8170602173380178</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>533782988806.275</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38565</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>655137000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.8419634587858887</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>551601414498.6108</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38596</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>659252000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.8605111436193099</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>567293692453.3173</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38626</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>663687000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.8459521191100584</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>561447424075.7974</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38657</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>667046000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.8580744808649391</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>572375150163.0342</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38687</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>671891000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.8604371020478404</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>578119944932.0255</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38718</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>676375000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.8781173164734808</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>593936599929.7506</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38749</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>683062000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.8796622097114708</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>600863828289.9366</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38777</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>686912000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.8564576909900651</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>588311065433.3676</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38808</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>690916000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.894534394847482</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>618048125950.4429</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38838</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>692890000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.9078529278256923</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>629042215161.1439</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38869</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>697101000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.8962179602079227</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>624754436278.9031</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38899</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>702908000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.8840951286358413</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>621437538679.1619</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38930</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>709202000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.9062075215224287</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>642684186678.7495</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38961</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>715455000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.8950948800572861</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>640400107411.3856</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>38991</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>722293000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.89126559714795</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>643754901960.7842</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39022</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>727459000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.8770391159445711</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>638009998245.9218</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39052</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>732122000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.8575593859874797</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>627838092787.9257</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39083</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>736336000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.8498342823149485</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>625763576102.6599</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39114</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>738881000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.8549200649739249</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>631684192527.9987</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39142</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>743457000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.8663259118080221</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>644076063415.0566</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39173</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>746726000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.9013068949977467</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>673029292474.0874</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39203</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>747290000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.9356287425149701</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>699186002994.012</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39234</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>753228000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.9392317084624777</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>707455621301.7751</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39264</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>762391000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.9377344336084021</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>714920292573.1433</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39295</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>767172000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.947059380623165</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>726557439151.4347</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39326</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>771869000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>1.005429318318922</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>776059722501.5082</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39356</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>770498000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>1.060670343657191</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>817244378447.1786</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39387</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>773993000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>1.000100010001</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>774070407040.704</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39417</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>780159000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>1.011265497643751</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>788947879376.2515</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39448</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>789173000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.9973072703700011</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>787047970479.7048</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39479</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>792462000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>1.016053647632595</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>805183905710.2214</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39508</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>802004000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.9754384595875847</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>782305546343.0813</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39539</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>808895000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.9923292945531045</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>802690204717.5334</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39569</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>814551000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>1.006664116450905</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>819979262719.201</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39600</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>820945000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.9789621043769395</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>803674044777.7267</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39630</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>825736000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.9760477872996662</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>805957795693.6772</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39661</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>833368000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.9418146885418825</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>784878223360.7716</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39692</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>844338000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.9397171451393131</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>793438894892.6373</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39722</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>857769000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.8336807002917882</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>715105460608.5869</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39753</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>874577000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.8091662351113412</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>707678178404.9714</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39783</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>890217000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.8207013713919916</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>730602312736.4646</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39814</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>903968000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.8155875084617203</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>737265008849.1244</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39845</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>911816000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.7861140808754166</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>716791396767.4988</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39873</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>923083000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.793751587503175</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>732698596647.1932</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39904</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>929833000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.8388276544701125</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>779969634438.9082</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39934</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>933532000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.9159438343240793</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>855062879544.2264</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39965</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>939155000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.8606814876018832</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>808313322488.7467</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>39995</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>947686000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.9284016636957813</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>879833259061.2002</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40026</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>956161000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.914603473663993</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>874508171982.0372</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40057</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>960900000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.9353924438998382</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>898818599343.3545</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40087</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>965962000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.9244963805966701</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>893028372793.9207</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40118</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>970851000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.9470414425335253</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>919436131525.1156</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40148</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>973415000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.9557031585989393</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>930295790127.5864</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40179</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>975773000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.9352437245146086</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>912585574800.7932</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40210</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>983599000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.9504980609839557</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>934908942285.7578</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40238</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>986502000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.9848044670730626</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>971511576376.5104</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40269</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>989926000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.984251968503937</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>974336614173.2284</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40299</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>997332000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.9574783849254602</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>954923832594.4791</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40330</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1002970000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.9401412092096234</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>942933428600.976</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40360</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1007970000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.9730087376184637</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>980763617257.2828</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40391</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1012078000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.9385441303450088</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>949879866351.3158</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40422</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1017370000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.9716945381050012</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>988572872231.885</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40452</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1021701000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.9804978968320114</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>1001775681691.163</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40483</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1021885000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.9743264968090807</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>995649632191.7474</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40513</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1026441000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>1.005338346620555</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>1031920497843.549</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40544</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1030655000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.9990409207161125</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>1029666520140.665</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40575</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1033383000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>1.029569228234906</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>1063939337781.072</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40603</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1037827000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>1.030566605519715</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>1069549848506.709</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40634</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>1039526000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>1.057183030098001</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>1098969246545.654</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40664</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1042253000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>1.032919132761096</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>1076563064877.651</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40695</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>1047329000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>1.037925809063168</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>1087049799680.319</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40725</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>1050254000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>1.046857334282484</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>1099466102759.516</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40756</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>1056451000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>1.022955112729653</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>1080701951798.355</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40787</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>1072342000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.9538435124333502</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>1022846459809.804</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40817</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>1081489000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.9993404353126936</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>1080775688045.89</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40848</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1087142000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.9833711931242687</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>1069064125635.504</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40878</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>1092865000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.9793360101850946</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>1070282048770.933</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40909</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>1101467000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.9974962843263409</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>1098709239808.082</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40940</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>1097482000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>1.010315319411188</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>1108802877378.03</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>40969</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>1102820000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>1.002154632459789</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>1105196171769.304</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41000</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>1109651000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>1.013037796440185</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>1124118403857.648</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41030</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>1116754000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.9683916950728231</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>1081455299039.355</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41061</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>1127759000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.9838936607731437</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>1109594930979.86</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41091</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>1135610000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.9969095803010666</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>1132100488485.694</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41122</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>1140742000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>1.014970819588937</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>1157819842679.523</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41153</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>1140167000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>1.016973284111826</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>1159519378425.929</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41183</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>1150318000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>1.000320102432779</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>1150686219590.269</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41214</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>1158280000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>1.005854070691424</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>1165060653000.463</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41244</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>1161595000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>1.005237286261422</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>1167678605534.837</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41275</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>1169988000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>1.002657041159072</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>1173096706271.62</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41306</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>1179367000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.9703273884608666</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>1144372101146.927</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41334</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>1189872000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.9827720067221605</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>1169372893182.51</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41365</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>1195531000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.9929007595690811</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>1187043637988.383</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41395</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>1194040000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.9647481042699751</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>1151947826422.521</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41426</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>1200066000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.9511580349074998</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>1141452418319.304</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41456</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>1205447000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.973093952221087</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>1173013185423.053</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41487</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>1216053000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.9494331883865331</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>1154561077037.009</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41518</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>1221461000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.9700732405296599</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>1184906630450.599</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>1226705000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.958873898493609</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>1176255405651.603</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41579</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>1235685000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.9426492213717431</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>1164817503110.742</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41609</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>1243567000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.9402561257686595</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>1169271489553.755</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41640</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>1251738000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.898787535614456</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>1125046512254.968</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41671</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>1251016000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.903750564844103</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>1130606416629.01</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41699</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>1254128000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.9050428990334143</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>1135039640878.978</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41730</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>1256512000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.9123421648054887</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>1146368878184.074</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41760</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>1261583000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.9224496573099522</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>1163746806018.062</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41791</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>1265809000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.9373037520269195</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>1186447525049.443</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41821</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>1270210000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.9170189547817954</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>1164806646553.384</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41852</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>1279946000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.9196163360645938</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>1177059250880.532</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41883</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>1289603000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.8932399599828498</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>1151924932113.763</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41913</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>1295199000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.8875398283497972</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>1149540698138.829</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41944</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>1296727000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.8762014912949383</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>1136194131202.411</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>41974</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>1302464000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.8610816908200081</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>1121527903352.191</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42005</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>1306212000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.7863489816780687</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>1027138476055.673</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42036</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>1312747000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.8001984492154054</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>1050458113612.176</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42064</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>1316790000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.7884259076753262</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>1038191350967.793</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42095</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>1320890000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.8282259400364419</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>1093995361934.736</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42125</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>1322154000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.8035097305028364</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>1062363604223.247</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42156</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>1329858000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.8007495015334353</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>1064883130610.251</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42186</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>1345086000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.7641988139634408</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>1027913125878.829</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42217</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>1356127000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.7610755519700441</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>1032115105066.48</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42248</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>1366811000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.7511906371598984</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>1026735625967.158</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42278</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>1368472000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.7650172893907402</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>1046904740047.125</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42309</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>1377121000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.7484245662879637</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>1030671187151.047</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42339</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>1380572000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.7232069890723424</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>998439319317.5819</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42370</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>1391381000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.7158862313601122</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>996070500476.0643</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42401</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>1400091000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.7387488549392749</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>1034315623060.784</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42430</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>1405027000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.7690710390918809</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>1080565574842.148</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42461</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1412193000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.7968063999490044</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>1125244420363.184</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42491</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>1419809000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.7638135683842288</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>1084469378714.043</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42522</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>1428874000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.7737662297466689</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>1105614447763.042</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42552</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>1450911000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.7668711656441718</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>1112661809815.951</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42583</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>1461886000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.7631199395609007</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>1115594355964.927</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42614</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>1473602000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.7620266861745498</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>1122924048800.189</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42644</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>1484308000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.7458567656667213</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>1107081164133.24</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42675</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>1495912000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.7442081996859442</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>1113269976408.6</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42705</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1498820000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.7443356060380504</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>1115625093041.951</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42736</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1515097000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.767589309016104</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>1162972259322.372</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42767</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>1513143000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.7519079664649048</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>1137744276100.605</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42795</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>1521199000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.7508860455337297</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>1142247101579.864</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42826</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>1532423000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.7324719463244558</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>1122456857402.362</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42856</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>1546176000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.7408230544134533</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>1145442826980.776</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42887</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>1551765000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.7714739781827159</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>1197146317754.702</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42917</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>1554451000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.8013526833294602</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>1245663479954.163</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42948</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>1555592000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.8012178511337232</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>1246368079480.811</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>42979</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>1562476000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.8023492786879984</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>1253651491567.309</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43009</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>1570298000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.7759938541286753</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>1218541597150.551</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43040</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>1574987000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.7754823500217135</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>1221374620013.648</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43070</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>1585745000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.7949567940982407</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>1260598761457.315</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43101</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>1590269000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.8122091276061761</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>1291630997149.146</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43132</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>1593488000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.7795082861730821</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>1242137099917.372</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43160</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>1598398000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.7754703227507483</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>1239510212944.151</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43191</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>1598364000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.7786645902277595</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>1244589449094.802</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43221</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>1598824000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.7718074186129077</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>1233984224256.364</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43252</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>1608465000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.7614290500411172</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>1224731976974.385</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43282</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1616215000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.7689054630733151</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>1242716543001.038</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43313</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1627432000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.7667712031406948</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>1247867992669.667</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43344</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1637358000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.7747313619002612</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>1268512593258.288</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43374</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1646237000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.7601036781416985</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>1251310798792.955</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43405</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1656351000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.752683316021617</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>1246707763175.721</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43435</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1668377000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.7328101069169946</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>1222603527747.855</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43466</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1675220000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.7620034594957061</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>1276523435416.397</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43497</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>1682335000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.7591976798918902</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>1277224828800.923</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43525</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>1692733000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.7492769477454257</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>1268325815587.958</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43556</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>1705748000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.7469375560203168</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>1274087242306.543</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43586</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1714043000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.739885761638403</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>1268196010535.973</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43617</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1720945000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.7641229015274817</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>1315013486769.212</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43647</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1737081000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.7581041331837342</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>1316888285774.934</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43678</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1754608000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.7514390056959076</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>1318480890906.085</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43709</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1768025000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.7552813045218693</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>1335356228427.278</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43739</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1780400000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.7596590650116227</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>1352496999346.693</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43770</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1788170000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.7533524182612626</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>1347122193762.242</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43800</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1797721000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.7706950899015822</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>1385494747712.962</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43831</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>1801010000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.7554981376970905</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>1360659700973.837</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43862</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>1814298000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.7455064598134743</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>1352570879026.667</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43891</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>1855518000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.7113184999715473</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>1319864280430.206</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>1918181000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.7171286170174621</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>1375582487719.173</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43952</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>1963419000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.7263271813421074</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>1426084588063.539</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>43983</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>2005979000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>1477809783409.459</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44013</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>2030544000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.7459235279199177</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>1514630544076.621</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44044</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>2061892000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.7665008469834359</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>1580441964388.371</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44075</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>2085360000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.7509706295386788</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>1566044112014.779</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44105</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>2105411000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.7510044684765874</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>1581173068979.76</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44136</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>2121396000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.7695148978084215</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>1632445826151.194</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44166</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>2120708000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.7839448102853559</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>1662518030730.636</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44197</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>2141765000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.7828156312625251</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>1676607120490.982</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44228</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>2177359000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.7849231952653433</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>1709059583519.752</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44256</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>2182624000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.7960769328747931</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>1737536619538.912</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44287</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>2199732000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.8144516297177111</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>1791575312342.2</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44317</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>2225461000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.8293111741387604</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>1845599674910.02</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44348</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>2235219000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.8067639086097844</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>1803294017038.854</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44378</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>2265475000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>1816885876974.898</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44409</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>2283153000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.7927259467129618</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>1809914623415.539</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44440</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>2286467000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.7889172899113257</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>1803833349111.679</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44470</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>2289771000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.8078588509015704</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>1849811768887.74</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44501</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>2310223000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.7826440847760073</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>1808082365463.482</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44531</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>2301433000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.7910954298417018</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>1820653128386.877</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44562</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>2317667000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.7870793061108837</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>1824187734156.094</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44593</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>2344869000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.7892036934732856</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>1850579275511.01</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44621</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>2348469000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.7998016491910006</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>1878309379273.94</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44652</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>2347490000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.7777924694133111</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>1825860044023.054</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44682</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>2349052000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.7907076042350298</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>1857413279143.505</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44713</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>2354170000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.7768559087660422</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>1828850874739.753</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44743</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>2367102000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.7816102734854348</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>1850151241587.92</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44774</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>2358110000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.7618409123806766</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>1796504673893.997</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44805</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>2374338000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.723222680263253</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>1717175092210.892</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44835</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>2376916000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.733998825601879</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>1744653552554.316</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44866</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>2384951000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.7450176941702366</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>1776830694729</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44896</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>2393203000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.7384706273307979</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>1767310120739.948</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44927</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>2420393000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.7516649378373097</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>1819324553886.86</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44958</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>2432173000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.7327778876944609</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>1782242593447.5</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>44986</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>2429503000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.7398967104192254</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>1797581277653.639</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45017</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>2419886000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.7384324555832879</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>1786922361211.62</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45047</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>2412202000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.7368816641735504</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>1777507424082.767</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45078</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>2410432000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.7552299675251114</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>1820430481081.489</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45108</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>2423488000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.7581788543917509</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>1837437355472.156</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45139</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>2439979000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>0.7403130043382341</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D500">
         <v>1806348184012.2</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
         <v>45170</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>2449812000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>0.7365071883101578</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D501">
         <v>1804304148008.484</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -426,12 +426,6 @@
       <c r="B4">
         <v>167174000000</v>
       </c>
-      <c r="C4">
-        <v>0.8198737394441256</v>
-      </c>
-      <c r="D4">
-        <v>137061572517.8322</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">

--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Canada_M2 (CAD)</t>
-  </si>
-  <si>
-    <t>Canada_FX (USD)</t>
-  </si>
-  <si>
-    <t>Canada_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,7007 +426,7025 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>29983</v>
-      </c>
-      <c r="B2">
-        <v>165199000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Canada_M2 (CAD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canada_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Canada_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30011</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
         <v>166100000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B4">
+      <c r="B3" t="n">
         <v>167174000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30072</v>
       </c>
-      <c r="B5">
+      <c r="B4" t="n">
         <v>168519000000</v>
       </c>
-      <c r="C5">
-        <v>0.8038585209003215</v>
-      </c>
-      <c r="D5">
-        <v>135465434083.6013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="B6">
+      <c r="B5" t="n">
         <v>169410000000</v>
       </c>
-      <c r="C6">
+      <c r="C5" t="n">
         <v>0.7734550235903782</v>
       </c>
-      <c r="D6">
+      <c r="D5" t="n">
         <v>131031015546.446</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B7">
+      <c r="B6" t="n">
         <v>169601000000</v>
       </c>
-      <c r="C7">
+      <c r="C6" t="n">
         <v>0.7964319847085058</v>
       </c>
-      <c r="D7">
+      <c r="D6" t="n">
         <v>135075661038.5473</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="B8">
+      <c r="B7" t="n">
         <v>170129000000</v>
       </c>
-      <c r="C8">
+      <c r="C7" t="n">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D8">
+      <c r="D7" t="n">
         <v>137289380245.3195</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="B9">
+      <c r="B8" t="n">
         <v>170650000000</v>
       </c>
-      <c r="C9">
+      <c r="C8" t="n">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D9">
+      <c r="D8" t="n">
         <v>138032839925.5844</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B10">
+      <c r="B9" t="n">
         <v>171675000000</v>
       </c>
-      <c r="C10">
+      <c r="C9" t="n">
         <v>0.8155941603458119</v>
       </c>
-      <c r="D10">
+      <c r="D9" t="n">
         <v>140017127477.3672</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="n">
         <v>173598000000</v>
       </c>
-      <c r="C11">
+      <c r="C10" t="n">
         <v>0.8082114281095935</v>
       </c>
-      <c r="D11">
+      <c r="D10" t="n">
         <v>140303887496.9692</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="B12">
+      <c r="B11" t="n">
         <v>173574000000</v>
       </c>
-      <c r="C12">
+      <c r="C11" t="n">
         <v>0.813206473123526</v>
       </c>
-      <c r="D12">
+      <c r="D11" t="n">
         <v>141151500365.9429</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B13">
+      <c r="B12" t="n">
         <v>175486000000</v>
       </c>
-      <c r="C13">
+      <c r="C12" t="n">
         <v>0.8086035416835127</v>
       </c>
-      <c r="D13">
+      <c r="D12" t="n">
         <v>141898601115.8729</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="B14">
+      <c r="B13" t="n">
         <v>176731000000</v>
       </c>
-      <c r="C14">
+      <c r="C13" t="n">
         <v>0.8136696501220504</v>
       </c>
-      <c r="D14">
+      <c r="D13" t="n">
         <v>143800650935.7201</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="B15">
+      <c r="B14" t="n">
         <v>177360000000</v>
       </c>
-      <c r="C15">
+      <c r="C14" t="n">
         <v>0.810307106393323</v>
       </c>
-      <c r="D15">
+      <c r="D14" t="n">
         <v>143716068389.9198</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B16">
+      <c r="B15" t="n">
         <v>178209000000</v>
       </c>
-      <c r="C16">
+      <c r="C15" t="n">
         <v>0.8155276463872125</v>
       </c>
-      <c r="D16">
+      <c r="D15" t="n">
         <v>145334366335.0188</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="B17">
+      <c r="B16" t="n">
         <v>178032000000</v>
       </c>
-      <c r="C17">
+      <c r="C16" t="n">
         <v>0.8130081300813008</v>
       </c>
-      <c r="D17">
+      <c r="D16" t="n">
         <v>144741463414.6342</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="B18">
+      <c r="B17" t="n">
         <v>178843000000</v>
       </c>
-      <c r="C18">
+      <c r="C17" t="n">
         <v>0.8145975887911372</v>
       </c>
-      <c r="D18">
+      <c r="D17" t="n">
         <v>145685076572.1733</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B19">
+      <c r="B18" t="n">
         <v>179993000000</v>
       </c>
-      <c r="C19">
+      <c r="C18" t="n">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D19">
+      <c r="D18" t="n">
         <v>145861426256.0778</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="B20">
+      <c r="B19" t="n">
         <v>181429000000</v>
       </c>
-      <c r="C20">
+      <c r="C19" t="n">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D20">
+      <c r="D19" t="n">
         <v>147025121555.9157</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="B21">
+      <c r="B20" t="n">
         <v>182607000000</v>
       </c>
-      <c r="C21">
+      <c r="C20" t="n">
         <v>0.8110300081103</v>
       </c>
-      <c r="D21">
+      <c r="D20" t="n">
         <v>148099756690.9976</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B22">
+      <c r="B21" t="n">
         <v>183116000000</v>
       </c>
-      <c r="C22">
+      <c r="C21" t="n">
         <v>0.8112932013629727</v>
       </c>
-      <c r="D22">
+      <c r="D21" t="n">
         <v>148560765860.7821</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="B23">
+      <c r="B22" t="n">
         <v>184078000000</v>
       </c>
-      <c r="C23">
+      <c r="C22" t="n">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D23">
+      <c r="D22" t="n">
         <v>148545836023.2408</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="B24">
+      <c r="B23" t="n">
         <v>183902000000</v>
       </c>
-      <c r="C24">
+      <c r="C23" t="n">
         <v>0.8035355564483729</v>
       </c>
-      <c r="D24">
+      <c r="D23" t="n">
         <v>147771795901.9687</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B25">
+      <c r="B24" t="n">
         <v>184450000000</v>
       </c>
-      <c r="C25">
+      <c r="C24" t="n">
         <v>0.8004482510205715</v>
       </c>
-      <c r="D25">
+      <c r="D24" t="n">
         <v>147642679900.7444</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="B26">
+      <c r="B25" t="n">
         <v>185166000000</v>
       </c>
-      <c r="C26">
+      <c r="C25" t="n">
         <v>0.7987858455148175</v>
       </c>
-      <c r="D26">
+      <c r="D25" t="n">
         <v>147907979870.5967</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="B27">
+      <c r="B26" t="n">
         <v>186527000000</v>
       </c>
-      <c r="C27">
+      <c r="C26" t="n">
         <v>0.7833307222309259</v>
       </c>
-      <c r="D27">
+      <c r="D26" t="n">
         <v>146112329625.5679</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B28">
+      <c r="B27" t="n">
         <v>187527000000</v>
       </c>
-      <c r="C28">
+      <c r="C27" t="n">
         <v>0.7785130400934216</v>
       </c>
-      <c r="D28">
+      <c r="D27" t="n">
         <v>145992214869.5991</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="B29">
+      <c r="B28" t="n">
         <v>188986000000</v>
       </c>
-      <c r="C29">
+      <c r="C28" t="n">
         <v>0.7724393635099644</v>
       </c>
-      <c r="D29">
+      <c r="D28" t="n">
         <v>145980225552.2941</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B30">
+      <c r="B29" t="n">
         <v>190555000000</v>
       </c>
-      <c r="C30">
+      <c r="C29" t="n">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D30">
+      <c r="D29" t="n">
         <v>144370785665.5807</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B31">
+      <c r="B30" t="n">
         <v>191983000000</v>
       </c>
-      <c r="C31">
+      <c r="C30" t="n">
         <v>0.7624857033930613</v>
       </c>
-      <c r="D31">
+      <c r="D30" t="n">
         <v>146384292794.5101</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B32">
+      <c r="B31" t="n">
         <v>192900000000</v>
       </c>
-      <c r="C32">
+      <c r="C31" t="n">
         <v>0.7707723138584861</v>
       </c>
-      <c r="D32">
+      <c r="D31" t="n">
         <v>148681979343.302</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B33">
+      <c r="B32" t="n">
         <v>194221000000</v>
       </c>
-      <c r="C33">
+      <c r="C32" t="n">
         <v>0.758552681483729</v>
       </c>
-      <c r="D33">
+      <c r="D32" t="n">
         <v>147326860350.4513</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B34">
+      <c r="B33" t="n">
         <v>195997000000</v>
       </c>
-      <c r="C34">
+      <c r="C33" t="n">
         <v>0.7604562737642586</v>
       </c>
-      <c r="D34">
+      <c r="D33" t="n">
         <v>149047148288.9734</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B35">
+      <c r="B34" t="n">
         <v>197099000000</v>
       </c>
-      <c r="C35">
+      <c r="C34" t="n">
         <v>0.7551729346020238</v>
       </c>
-      <c r="D35">
+      <c r="D34" t="n">
         <v>148843830237.1243</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B36">
+      <c r="B35" t="n">
         <v>198799000000</v>
       </c>
-      <c r="C36">
+      <c r="C35" t="n">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D36">
+      <c r="D35" t="n">
         <v>150411591132.6322</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B37">
+      <c r="B36" t="n">
         <v>200776000000</v>
       </c>
-      <c r="C37">
+      <c r="C36" t="n">
         <v>0.7534659433393611</v>
       </c>
-      <c r="D37">
+      <c r="D36" t="n">
         <v>151277878239.9036</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B38">
+      <c r="B37" t="n">
         <v>202240000000</v>
       </c>
-      <c r="C38">
+      <c r="C37" t="n">
         <v>0.7228044813877846</v>
       </c>
-      <c r="D38">
+      <c r="D37" t="n">
         <v>146179978315.8656</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B39">
+      <c r="B38" t="n">
         <v>203587000000</v>
       </c>
-      <c r="C39">
+      <c r="C38" t="n">
         <v>0.7312614259597806</v>
       </c>
-      <c r="D39">
+      <c r="D38" t="n">
         <v>148875319926.8738</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B40">
+      <c r="B39" t="n">
         <v>205233000000</v>
       </c>
-      <c r="C40">
+      <c r="C39" t="n">
         <v>0.731528895391368</v>
       </c>
-      <c r="D40">
+      <c r="D39" t="n">
         <v>150133869787.8566</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B41">
+      <c r="B40" t="n">
         <v>207225000000</v>
       </c>
-      <c r="C41">
+      <c r="C40" t="n">
         <v>0.7275372862859221</v>
       </c>
-      <c r="D41">
+      <c r="D40" t="n">
         <v>150763914150.6002</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B42">
+      <c r="B41" t="n">
         <v>208616000000</v>
       </c>
-      <c r="C42">
+      <c r="C41" t="n">
         <v>0.7357268981753973</v>
       </c>
-      <c r="D42">
+      <c r="D41" t="n">
         <v>153484402589.7587</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B43">
+      <c r="B42" t="n">
         <v>210378000000</v>
       </c>
-      <c r="C43">
+      <c r="C42" t="n">
         <v>0.7385524372230428</v>
       </c>
-      <c r="D43">
+      <c r="D42" t="n">
         <v>155375184638.1093</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B44">
+      <c r="B43" t="n">
         <v>212430000000</v>
       </c>
-      <c r="C44">
+      <c r="C43" t="n">
         <v>0.7321180174244089</v>
       </c>
-      <c r="D44">
+      <c r="D43" t="n">
         <v>155523830441.4672</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B45">
+      <c r="B44" t="n">
         <v>214664000000</v>
       </c>
-      <c r="C45">
+      <c r="C44" t="n">
         <v>0.7293946024799417</v>
       </c>
-      <c r="D45">
+      <c r="D44" t="n">
         <v>156574762946.7542</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B46">
+      <c r="B45" t="n">
         <v>216619000000</v>
       </c>
-      <c r="C46">
+      <c r="C45" t="n">
         <v>0.7316359379572724</v>
       </c>
-      <c r="D46">
+      <c r="D45" t="n">
         <v>158486245244.3664</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B47">
+      <c r="B46" t="n">
         <v>218971000000</v>
       </c>
-      <c r="C47">
+      <c r="C46" t="n">
         <v>0.7225433526011561</v>
       </c>
-      <c r="D47">
+      <c r="D46" t="n">
         <v>158216040462.4278</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B48">
+      <c r="B47" t="n">
         <v>219947000000</v>
       </c>
-      <c r="C48">
+      <c r="C47" t="n">
         <v>0.7150518412584912</v>
       </c>
-      <c r="D48">
+      <c r="D47" t="n">
         <v>157273507329.2814</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B49">
+      <c r="B48" t="n">
         <v>221320000000</v>
       </c>
-      <c r="C49">
+      <c r="C48" t="n">
         <v>0.7025925665706457</v>
       </c>
-      <c r="D49">
+      <c r="D48" t="n">
         <v>155497786833.4153</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B50">
+      <c r="B49" t="n">
         <v>221317000000</v>
       </c>
-      <c r="C50">
+      <c r="C49" t="n">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D50">
+      <c r="D49" t="n">
         <v>155747361013.3708</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B51">
+      <c r="B50" t="n">
         <v>222244000000</v>
       </c>
-      <c r="C51">
+      <c r="C50" t="n">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D51">
+      <c r="D50" t="n">
         <v>159223384439.0314</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B52">
+      <c r="B51" t="n">
         <v>225943000000</v>
       </c>
-      <c r="C52">
+      <c r="C51" t="n">
         <v>0.7262164124909223</v>
       </c>
-      <c r="D52">
+      <c r="D51" t="n">
         <v>164083514887.4365</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B53">
+      <c r="B52" t="n">
         <v>228313000000</v>
       </c>
-      <c r="C53">
+      <c r="C52" t="n">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D53">
+      <c r="D52" t="n">
         <v>164906464427.5912</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B54">
+      <c r="B53" t="n">
         <v>230077000000</v>
       </c>
-      <c r="C54">
+      <c r="C53" t="n">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D54">
+      <c r="D53" t="n">
         <v>166481186685.9624</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B55">
+      <c r="B54" t="n">
         <v>232472000000</v>
       </c>
-      <c r="C55">
+      <c r="C54" t="n">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D55">
+      <c r="D54" t="n">
         <v>168360370799.5365</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B56">
+      <c r="B55" t="n">
         <v>234395000000</v>
       </c>
-      <c r="C56">
+      <c r="C55" t="n">
         <v>0.7210845111047015</v>
       </c>
-      <c r="D56">
+      <c r="D55" t="n">
         <v>169018603980.3865</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>236112000000</v>
       </c>
-      <c r="C57">
+      <c r="C56" t="n">
         <v>0.7205649228995533</v>
       </c>
-      <c r="D57">
+      <c r="D56" t="n">
         <v>170134025075.6593</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>238535000000</v>
       </c>
-      <c r="C58">
+      <c r="C57" t="n">
         <v>0.7189072609633357</v>
       </c>
-      <c r="D58">
+      <c r="D57" t="n">
         <v>171484543493.8893</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>241918000000</v>
       </c>
-      <c r="C59">
+      <c r="C58" t="n">
         <v>0.7229612492770388</v>
       </c>
-      <c r="D59">
+      <c r="D58" t="n">
         <v>174897339502.6027</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>244868000000</v>
       </c>
-      <c r="C60">
+      <c r="C59" t="n">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D60">
+      <c r="D59" t="n">
         <v>177337775202.781</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>248259000000</v>
       </c>
-      <c r="C61">
+      <c r="C60" t="n">
         <v>0.7462129691814043</v>
       </c>
-      <c r="D61">
+      <c r="D60" t="n">
         <v>185254085516.0063</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>252294000000</v>
       </c>
-      <c r="C62">
+      <c r="C61" t="n">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D62">
+      <c r="D61" t="n">
         <v>189012586155.2292</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>254413000000</v>
       </c>
-      <c r="C63">
+      <c r="C62" t="n">
         <v>0.765814060346148</v>
       </c>
-      <c r="D63">
+      <c r="D62" t="n">
         <v>194833052534.8445</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>256778000000</v>
       </c>
-      <c r="C64">
+      <c r="C63" t="n">
         <v>0.7473841554559043</v>
       </c>
-      <c r="D64">
+      <c r="D63" t="n">
         <v>191911808669.6562</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>258482000000</v>
       </c>
-      <c r="C65">
+      <c r="C64" t="n">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D65">
+      <c r="D64" t="n">
         <v>193170913982.5125</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>260580000000</v>
       </c>
-      <c r="C66">
+      <c r="C65" t="n">
         <v>0.7506943923128894</v>
       </c>
-      <c r="D66">
+      <c r="D65" t="n">
         <v>195615944748.8927</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>262617000000</v>
       </c>
-      <c r="C67">
+      <c r="C66" t="n">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D67">
+      <c r="D66" t="n">
         <v>197858057711.1429</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>264017000000</v>
       </c>
-      <c r="C68">
+      <c r="C67" t="n">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D68">
+      <c r="D67" t="n">
         <v>200028032426.699</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>266094000000</v>
       </c>
-      <c r="C69">
+      <c r="C68" t="n">
         <v>0.7623694442326751</v>
       </c>
-      <c r="D69">
+      <c r="D68" t="n">
         <v>202861934893.6494</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>268159000000</v>
       </c>
-      <c r="C70">
+      <c r="C69" t="n">
         <v>0.7601672367920943</v>
       </c>
-      <c r="D70">
+      <c r="D69" t="n">
         <v>203845686050.9312</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>263775000000</v>
       </c>
-      <c r="C71">
+      <c r="C70" t="n">
         <v>0.7633587786259541</v>
       </c>
-      <c r="D71">
+      <c r="D70" t="n">
         <v>201354961832.0611</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>265918000000</v>
       </c>
-      <c r="C72">
+      <c r="C71" t="n">
         <v>0.7698229407236336</v>
       </c>
-      <c r="D72">
+      <c r="D71" t="n">
         <v>204709776751.3472</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>267370000000</v>
       </c>
-      <c r="C73">
+      <c r="C72" t="n">
         <v>0.7844983133286264</v>
       </c>
-      <c r="D73">
+      <c r="D72" t="n">
         <v>209751314034.6748</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>269741000000</v>
       </c>
-      <c r="C74">
+      <c r="C73" t="n">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D74">
+      <c r="D73" t="n">
         <v>214301263208.0718</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>272411000000</v>
       </c>
-      <c r="C75">
+      <c r="C74" t="n">
         <v>0.8097165991902834</v>
       </c>
-      <c r="D75">
+      <c r="D74" t="n">
         <v>220575708502.0243</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>274765000000</v>
       </c>
-      <c r="C76">
+      <c r="C75" t="n">
         <v>0.8126777732629014</v>
       </c>
-      <c r="D76">
+      <c r="D75" t="n">
         <v>223295408370.5811</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>277324000000</v>
       </c>
-      <c r="C77">
+      <c r="C76" t="n">
         <v>0.8100445524503849</v>
       </c>
-      <c r="D77">
+      <c r="D76" t="n">
         <v>224644795463.7505</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>281544000000</v>
       </c>
-      <c r="C78">
+      <c r="C77" t="n">
         <v>0.8240626287597858</v>
       </c>
-      <c r="D78">
+      <c r="D77" t="n">
         <v>232009888751.5451</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>284525000000</v>
       </c>
-      <c r="C79">
+      <c r="C78" t="n">
         <v>0.825559316436886</v>
       </c>
-      <c r="D79">
+      <c r="D78" t="n">
         <v>234892264509.205</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>288402000000</v>
       </c>
-      <c r="C80">
+      <c r="C79" t="n">
         <v>0.8067769261799113</v>
       </c>
-      <c r="D80">
+      <c r="D79" t="n">
         <v>232676079064.1388</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>291439000000</v>
       </c>
-      <c r="C81">
+      <c r="C80" t="n">
         <v>0.8216926869350862</v>
       </c>
-      <c r="D81">
+      <c r="D80" t="n">
         <v>239473294987.6746</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>293949000000</v>
       </c>
-      <c r="C82">
+      <c r="C81" t="n">
         <v>0.8146639511201629</v>
       </c>
-      <c r="D82">
+      <c r="D81" t="n">
         <v>239469653767.8208</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>297392000000</v>
       </c>
-      <c r="C83">
+      <c r="C82" t="n">
         <v>0.8417508417508418</v>
       </c>
-      <c r="D83">
+      <c r="D82" t="n">
         <v>250329966329.9663</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>300374000000</v>
       </c>
-      <c r="C84">
+      <c r="C83" t="n">
         <v>0.8387854386847845</v>
       </c>
-      <c r="D84">
+      <c r="D83" t="n">
         <v>251949337359.5034</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>303154000000</v>
       </c>
-      <c r="C85">
+      <c r="C84" t="n">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D85">
+      <c r="D84" t="n">
         <v>255869345037.1371</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>305829000000</v>
       </c>
-      <c r="C86">
+      <c r="C85" t="n">
         <v>0.8350730688935282</v>
       </c>
-      <c r="D86">
+      <c r="D85" t="n">
         <v>255389561586.6388</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>309219000000</v>
       </c>
-      <c r="C87">
+      <c r="C86" t="n">
         <v>0.8384338056510438</v>
       </c>
-      <c r="D87">
+      <c r="D86" t="n">
         <v>259259662949.6101</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>312149000000</v>
       </c>
-      <c r="C88">
+      <c r="C87" t="n">
         <v>0.8434547908232118</v>
       </c>
-      <c r="D88">
+      <c r="D87" t="n">
         <v>263283569500.6747</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>316353000000</v>
       </c>
-      <c r="C89">
+      <c r="C88" t="n">
         <v>0.8282945415389712</v>
       </c>
-      <c r="D89">
+      <c r="D88" t="n">
         <v>262033463099.4781</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>320688000000</v>
       </c>
-      <c r="C90">
+      <c r="C89" t="n">
         <v>0.8354916868577157</v>
       </c>
-      <c r="D90">
+      <c r="D89" t="n">
         <v>267932158075.0271</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>324232000000</v>
       </c>
-      <c r="C91">
+      <c r="C90" t="n">
         <v>0.8467400508044031</v>
       </c>
-      <c r="D91">
+      <c r="D90" t="n">
         <v>274540220152.4132</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>327718000000</v>
       </c>
-      <c r="C92">
+      <c r="C91" t="n">
         <v>0.8481764206955046</v>
       </c>
-      <c r="D92">
+      <c r="D91" t="n">
         <v>277962680237.4894</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>331423000000</v>
       </c>
-      <c r="C93">
+      <c r="C92" t="n">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D93">
+      <c r="D92" t="n">
         <v>281463269639.0659</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>334344000000</v>
       </c>
-      <c r="C94">
+      <c r="C93" t="n">
         <v>0.8517162081594414</v>
       </c>
-      <c r="D94">
+      <c r="D93" t="n">
         <v>284766203900.8603</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>339017000000</v>
       </c>
-      <c r="C95">
+      <c r="C94" t="n">
         <v>0.859106529209622</v>
       </c>
-      <c r="D95">
+      <c r="D94" t="n">
         <v>291251718213.0584</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>342154000000</v>
       </c>
-      <c r="C96">
+      <c r="C95" t="n">
         <v>0.8632596685082872</v>
       </c>
-      <c r="D96">
+      <c r="D95" t="n">
         <v>295367748618.7845</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>346086000000</v>
       </c>
-      <c r="C97">
+      <c r="C96" t="n">
         <v>0.8428150021070374</v>
       </c>
-      <c r="D97">
+      <c r="D96" t="n">
         <v>291686472819.2161</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>350540000000</v>
       </c>
-      <c r="C98">
+      <c r="C97" t="n">
         <v>0.8386447500838645</v>
       </c>
-      <c r="D98">
+      <c r="D97" t="n">
         <v>293978530694.3979</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>352153000000</v>
       </c>
-      <c r="C99">
+      <c r="C98" t="n">
         <v>0.8551393877201984</v>
       </c>
-      <c r="D99">
+      <c r="D98" t="n">
         <v>301139900803.831</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>353101000000</v>
       </c>
-      <c r="C100">
+      <c r="C99" t="n">
         <v>0.8587376556462</v>
       </c>
-      <c r="D100">
+      <c r="D99" t="n">
         <v>303221124946.3289</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>356116000000</v>
       </c>
-      <c r="C101">
+      <c r="C100" t="n">
         <v>0.8517887563884157</v>
       </c>
-      <c r="D101">
+      <c r="D100" t="n">
         <v>303335604770.017</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>356279000000</v>
       </c>
-      <c r="C102">
+      <c r="C101" t="n">
         <v>0.8578536501672815</v>
       </c>
-      <c r="D102">
+      <c r="D101" t="n">
         <v>305635240627.9489</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>357910000000</v>
       </c>
-      <c r="C103">
+      <c r="C102" t="n">
         <v>0.8676789587852494</v>
       </c>
-      <c r="D103">
+      <c r="D102" t="n">
         <v>310550976138.8286</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>361491000000</v>
       </c>
-      <c r="C104">
+      <c r="C103" t="n">
         <v>0.8665511265164645</v>
       </c>
-      <c r="D104">
+      <c r="D103" t="n">
         <v>313250433275.5633</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>363223000000</v>
       </c>
-      <c r="C105">
+      <c r="C104" t="n">
         <v>0.8660258075690656</v>
       </c>
-      <c r="D105">
+      <c r="D104" t="n">
         <v>314560491902.6587</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>365008000000</v>
       </c>
-      <c r="C106">
+      <c r="C105" t="n">
         <v>0.8573388203017832</v>
       </c>
-      <c r="D106">
+      <c r="D105" t="n">
         <v>312935528120.7133</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>367854000000</v>
       </c>
-      <c r="C107">
+      <c r="C106" t="n">
         <v>0.8588114050154585</v>
       </c>
-      <c r="D107">
+      <c r="D106" t="n">
         <v>315917210580.5565</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>370572000000</v>
       </c>
-      <c r="C108">
+      <c r="C107" t="n">
         <v>0.8630361612151549</v>
       </c>
-      <c r="D108">
+      <c r="D107" t="n">
         <v>319817036333.8224</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>373950000000</v>
       </c>
-      <c r="C109">
+      <c r="C108" t="n">
         <v>0.8600670852326481</v>
       </c>
-      <c r="D109">
+      <c r="D108" t="n">
         <v>321622086522.7487</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>375786000000</v>
       </c>
-      <c r="C110">
+      <c r="C109" t="n">
         <v>0.8694140149539211</v>
       </c>
-      <c r="D110">
+      <c r="D109" t="n">
         <v>326713615023.4742</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>378484000000</v>
       </c>
-      <c r="C111">
+      <c r="C110" t="n">
         <v>0.8637816360024186</v>
       </c>
-      <c r="D111">
+      <c r="D110" t="n">
         <v>326927528720.7394</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>380380000000</v>
       </c>
-      <c r="C112">
+      <c r="C111" t="n">
         <v>0.8673779165582444</v>
       </c>
-      <c r="D112">
+      <c r="D111" t="n">
         <v>329933211900.425</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>382614000000</v>
       </c>
-      <c r="C113">
+      <c r="C112" t="n">
         <v>0.8734387282732116</v>
       </c>
-      <c r="D113">
+      <c r="D112" t="n">
         <v>334189885579.5266</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>381438000000</v>
       </c>
-      <c r="C114">
+      <c r="C113" t="n">
         <v>0.875733426744899</v>
       </c>
-      <c r="D114">
+      <c r="D113" t="n">
         <v>334038006830.7208</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>383166000000</v>
       </c>
-      <c r="C115">
+      <c r="C114" t="n">
         <v>0.8686587908269632</v>
       </c>
-      <c r="D115">
+      <c r="D114" t="n">
         <v>332840514246.0042</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>383974000000</v>
       </c>
-      <c r="C116">
+      <c r="C115" t="n">
         <v>0.8761170492377782</v>
       </c>
-      <c r="D116">
+      <c r="D115" t="n">
         <v>336406167864.0267</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>385573000000</v>
       </c>
-      <c r="C117">
+      <c r="C116" t="n">
         <v>0.88339222614841</v>
       </c>
-      <c r="D117">
+      <c r="D116" t="n">
         <v>340612190812.7209</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>385597000000</v>
       </c>
-      <c r="C118">
+      <c r="C117" t="n">
         <v>0.8907892392659896</v>
       </c>
-      <c r="D118">
+      <c r="D117" t="n">
         <v>343485658293.2478</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>386166000000</v>
       </c>
-      <c r="C119">
+      <c r="C118" t="n">
         <v>0.8811349017534584</v>
       </c>
-      <c r="D119">
+      <c r="D118" t="n">
         <v>340264340470.526</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>387836000000</v>
       </c>
-      <c r="C120">
+      <c r="C119" t="n">
         <v>0.8646779074794638</v>
       </c>
-      <c r="D120">
+      <c r="D119" t="n">
         <v>335353220925.2053</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>390429000000</v>
       </c>
-      <c r="C121">
+      <c r="C120" t="n">
         <v>0.8512811781731505</v>
       </c>
-      <c r="D121">
+      <c r="D120" t="n">
         <v>332364859112.965</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>392338000000</v>
       </c>
-      <c r="C122">
+      <c r="C121" t="n">
         <v>0.8460952703274389</v>
       </c>
-      <c r="D122">
+      <c r="D121" t="n">
         <v>331955326169.7267</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>392743000000</v>
       </c>
-      <c r="C123">
+      <c r="C122" t="n">
         <v>0.8407600470825626</v>
       </c>
-      <c r="D123">
+      <c r="D122" t="n">
         <v>330202623171.3469</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>394119000000</v>
       </c>
-      <c r="C124">
+      <c r="C123" t="n">
         <v>0.8394895903290799</v>
       </c>
-      <c r="D124">
+      <c r="D123" t="n">
         <v>330858797850.9066</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>394350000000</v>
       </c>
-      <c r="C125">
+      <c r="C124" t="n">
         <v>0.8310479514667997</v>
       </c>
-      <c r="D125">
+      <c r="D124" t="n">
         <v>327723759660.9324</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>394189000000</v>
       </c>
-      <c r="C126">
+      <c r="C125" t="n">
         <v>0.8341675008341675</v>
       </c>
-      <c r="D126">
+      <c r="D125" t="n">
         <v>328819652986.3196</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>397321000000</v>
       </c>
-      <c r="C127">
+      <c r="C126" t="n">
         <v>0.8453085376162299</v>
       </c>
-      <c r="D127">
+      <c r="D126" t="n">
         <v>335858833474.2181</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>398941000000</v>
       </c>
-      <c r="C128">
+      <c r="C127" t="n">
         <v>0.8371703641691085</v>
       </c>
-      <c r="D128">
+      <c r="D127" t="n">
         <v>333981582251.9883</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>400892000000</v>
       </c>
-      <c r="C129">
+      <c r="C128" t="n">
         <v>0.8029548739360848</v>
       </c>
-      <c r="D129">
+      <c r="D128" t="n">
         <v>321898185321.9849</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>398608000000</v>
       </c>
-      <c r="C130">
+      <c r="C129" t="n">
         <v>0.8081461128171973</v>
       </c>
-      <c r="D130">
+      <c r="D129" t="n">
         <v>322133505737.8374</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>400520000000</v>
       </c>
-      <c r="C131">
+      <c r="C130" t="n">
         <v>0.7770007770007771</v>
       </c>
-      <c r="D131">
+      <c r="D130" t="n">
         <v>311204351204.3513</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>400819000000</v>
       </c>
-      <c r="C132">
+      <c r="C131" t="n">
         <v>0.7867820613690009</v>
       </c>
-      <c r="D132">
+      <c r="D131" t="n">
         <v>315357199055.8616</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>400221000000</v>
       </c>
-      <c r="C133">
+      <c r="C132" t="n">
         <v>0.7888301648655044</v>
       </c>
-      <c r="D133">
+      <c r="D132" t="n">
         <v>315706397412.637</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>401587000000</v>
       </c>
-      <c r="C134">
+      <c r="C133" t="n">
         <v>0.8003201280512204</v>
       </c>
-      <c r="D134">
+      <c r="D133" t="n">
         <v>321398159263.7054</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>402997000000</v>
       </c>
-      <c r="C135">
+      <c r="C134" t="n">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D135">
+      <c r="D134" t="n">
         <v>320169222213.3948</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>404748000000</v>
       </c>
-      <c r="C136">
+      <c r="C135" t="n">
         <v>0.7866582756450597</v>
       </c>
-      <c r="D136">
+      <c r="D135" t="n">
         <v>318398363750.7866</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>406759000000</v>
       </c>
-      <c r="C137">
+      <c r="C136" t="n">
         <v>0.7869678130164477</v>
       </c>
-      <c r="D137">
+      <c r="D136" t="n">
         <v>320106240654.7573</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>408895000000</v>
       </c>
-      <c r="C138">
+      <c r="C137" t="n">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D138">
+      <c r="D137" t="n">
         <v>318925980812.7291</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>408308000000</v>
       </c>
-      <c r="C139">
+      <c r="C138" t="n">
         <v>0.7780284758422158</v>
       </c>
-      <c r="D139">
+      <c r="D138" t="n">
         <v>317675250914.1835</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>409970000000</v>
       </c>
-      <c r="C140">
+      <c r="C139" t="n">
         <v>0.7580926389204761</v>
       </c>
-      <c r="D140">
+      <c r="D139" t="n">
         <v>310795239178.2276</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>410678000000</v>
       </c>
-      <c r="C141">
+      <c r="C140" t="n">
         <v>0.749512816669165</v>
       </c>
-      <c r="D141">
+      <c r="D140" t="n">
         <v>307808424524.0593</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>409567000000</v>
       </c>
-      <c r="C142">
+      <c r="C141" t="n">
         <v>0.7575183698204682</v>
       </c>
-      <c r="D142">
+      <c r="D141" t="n">
         <v>310254526172.2597</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>409864000000</v>
       </c>
-      <c r="C143">
+      <c r="C142" t="n">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D143">
+      <c r="D142" t="n">
         <v>307060233742.8828</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>411463000000</v>
       </c>
-      <c r="C144">
+      <c r="C143" t="n">
         <v>0.7566585956416464</v>
       </c>
-      <c r="D144">
+      <c r="D143" t="n">
         <v>311337015738.4988</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>413157000000</v>
       </c>
-      <c r="C145">
+      <c r="C144" t="n">
         <v>0.7522756337922215</v>
       </c>
-      <c r="D145">
+      <c r="D144" t="n">
         <v>310807944030.6929</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>413596000000</v>
       </c>
-      <c r="C146">
+      <c r="C145" t="n">
         <v>0.7409602845287493</v>
       </c>
-      <c r="D146">
+      <c r="D145" t="n">
         <v>306458209839.9526</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>409983000000</v>
       </c>
-      <c r="C147">
+      <c r="C146" t="n">
         <v>0.7227000072270001</v>
       </c>
-      <c r="D147">
+      <c r="D146" t="n">
         <v>296294717062.9472</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>411390000000</v>
       </c>
-      <c r="C148">
+      <c r="C147" t="n">
         <v>0.7237984944991315</v>
       </c>
-      <c r="D148">
+      <c r="D147" t="n">
         <v>297763462651.9977</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>411805000000</v>
       </c>
-      <c r="C149">
+      <c r="C148" t="n">
         <v>0.7231180851833104</v>
       </c>
-      <c r="D149">
+      <c r="D148" t="n">
         <v>297783643068.9131</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>413228000000</v>
       </c>
-      <c r="C150">
+      <c r="C149" t="n">
         <v>0.722908985758693</v>
       </c>
-      <c r="D150">
+      <c r="D149" t="n">
         <v>298726234367.0932</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>416310000000</v>
       </c>
-      <c r="C151">
+      <c r="C150" t="n">
         <v>0.7209285559801024</v>
       </c>
-      <c r="D151">
+      <c r="D150" t="n">
         <v>300129767140.0764</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>418221000000</v>
       </c>
-      <c r="C152">
+      <c r="C151" t="n">
         <v>0.7318501170960187</v>
       </c>
-      <c r="D152">
+      <c r="D151" t="n">
         <v>306075087822.014</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>419884000000</v>
       </c>
-      <c r="C153">
+      <c r="C152" t="n">
         <v>0.7447125409591897</v>
       </c>
-      <c r="D153">
+      <c r="D152" t="n">
         <v>312692880548.1084</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>420714000000</v>
       </c>
-      <c r="C154">
+      <c r="C153" t="n">
         <v>0.7389344565137073</v>
       </c>
-      <c r="D154">
+      <c r="D153" t="n">
         <v>310880070937.7078</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>420680000000</v>
       </c>
-      <c r="C155">
+      <c r="C154" t="n">
         <v>0.7269555103227683</v>
       </c>
-      <c r="D155">
+      <c r="D154" t="n">
         <v>305815644082.5822</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>422101000000</v>
       </c>
-      <c r="C156">
+      <c r="C155" t="n">
         <v>0.7135212272565109</v>
       </c>
-      <c r="D156">
+      <c r="D155" t="n">
         <v>301178023546.2005</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>425148000000</v>
       </c>
-      <c r="C157">
+      <c r="C156" t="n">
         <v>0.710580544304697</v>
       </c>
-      <c r="D157">
+      <c r="D156" t="n">
         <v>302101897250.0533</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>426237000000</v>
       </c>
-      <c r="C158">
+      <c r="C157" t="n">
         <v>0.7194762213108857</v>
       </c>
-      <c r="D158">
+      <c r="D157" t="n">
         <v>306667386142.888</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>427897000000</v>
       </c>
-      <c r="C159">
+      <c r="C158" t="n">
         <v>0.7147451933385748</v>
       </c>
-      <c r="D159">
+      <c r="D158" t="n">
         <v>305837323993.9962</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>429643000000</v>
       </c>
-      <c r="C160">
+      <c r="C159" t="n">
         <v>0.7379529186037931</v>
       </c>
-      <c r="D160">
+      <c r="D159" t="n">
         <v>317056305807.6895</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>430736000000</v>
       </c>
-      <c r="C161">
+      <c r="C160" t="n">
         <v>0.7298737318443909</v>
       </c>
-      <c r="D161">
+      <c r="D160" t="n">
         <v>314382891759.7255</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>433634000000</v>
       </c>
-      <c r="C162">
+      <c r="C161" t="n">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D162">
+      <c r="D161" t="n">
         <v>316128891156.9586</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>434936000000</v>
       </c>
-      <c r="C163">
+      <c r="C162" t="n">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D163">
+      <c r="D162" t="n">
         <v>318727832331.8188</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>436339000000</v>
       </c>
-      <c r="C164">
+      <c r="C163" t="n">
         <v>0.7445461990916536</v>
       </c>
-      <c r="D164">
+      <c r="D163" t="n">
         <v>324874543965.4531</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>439202000000</v>
       </c>
-      <c r="C165">
+      <c r="C164" t="n">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D165">
+      <c r="D164" t="n">
         <v>328105483340.8038</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>438892000000</v>
       </c>
-      <c r="C166">
+      <c r="C165" t="n">
         <v>0.7438815740534107</v>
       </c>
-      <c r="D166">
+      <c r="D165" t="n">
         <v>326483671799.4495</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>439931000000</v>
       </c>
-      <c r="C167">
+      <c r="C166" t="n">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D167">
+      <c r="D166" t="n">
         <v>323336028222.8428</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>441103000000</v>
       </c>
-      <c r="C168">
+      <c r="C167" t="n">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D168">
+      <c r="D167" t="n">
         <v>323247105378.8656</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>442368000000</v>
       </c>
-      <c r="C169">
+      <c r="C168" t="n">
         <v>0.7279079924297569</v>
       </c>
-      <c r="D169">
+      <c r="D168" t="n">
         <v>322003202795.1667</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>444600000000</v>
       </c>
-      <c r="C170">
+      <c r="C169" t="n">
         <v>0.7298204641658151</v>
       </c>
-      <c r="D170">
+      <c r="D169" t="n">
         <v>324478178368.1214</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>446271000000</v>
       </c>
-      <c r="C171">
+      <c r="C170" t="n">
         <v>0.7357810315650063</v>
       </c>
-      <c r="D171">
+      <c r="D170" t="n">
         <v>328357736737.5469</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>446482000000</v>
       </c>
-      <c r="C172">
+      <c r="C171" t="n">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D172">
+      <c r="D171" t="n">
         <v>328150815816.5515</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>448033000000</v>
       </c>
-      <c r="C173">
+      <c r="C172" t="n">
         <v>0.7306202966318405</v>
       </c>
-      <c r="D173">
+      <c r="D172" t="n">
         <v>327342003360.8534</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>449428000000</v>
       </c>
-      <c r="C174">
+      <c r="C173" t="n">
         <v>0.7334604664808567</v>
       </c>
-      <c r="D174">
+      <c r="D173" t="n">
         <v>329637670529.5585</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>447133000000</v>
       </c>
-      <c r="C175">
+      <c r="C174" t="n">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D175">
+      <c r="D174" t="n">
         <v>325211288093.6795</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>447620000000</v>
       </c>
-      <c r="C176">
+      <c r="C175" t="n">
         <v>0.7310475911981871</v>
       </c>
-      <c r="D176">
+      <c r="D175" t="n">
         <v>327231522772.1325</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>449024000000</v>
       </c>
-      <c r="C177">
+      <c r="C176" t="n">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D177">
+      <c r="D176" t="n">
         <v>329752515238.3051</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>448985000000</v>
       </c>
-      <c r="C178">
+      <c r="C177" t="n">
         <v>0.7471049682480388</v>
       </c>
-      <c r="D178">
+      <c r="D177" t="n">
         <v>335438924168.8457</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>447731000000</v>
       </c>
-      <c r="C179">
+      <c r="C178" t="n">
         <v>0.7402472425790214</v>
       </c>
-      <c r="D179">
+      <c r="D178" t="n">
         <v>331431638167.1478</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>448419000000</v>
       </c>
-      <c r="C180">
+      <c r="C179" t="n">
         <v>0.7297672042618404</v>
       </c>
-      <c r="D180">
+      <c r="D179" t="n">
         <v>327241479967.8902</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>449269000000</v>
       </c>
-      <c r="C181">
+      <c r="C180" t="n">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D181">
+      <c r="D180" t="n">
         <v>333557799391.1946</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>449193000000</v>
       </c>
-      <c r="C182">
+      <c r="C181" t="n">
         <v>0.7309407207075506</v>
       </c>
-      <c r="D182">
+      <c r="D181" t="n">
         <v>328333455156.7867</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>447801000000</v>
       </c>
-      <c r="C183">
+      <c r="C182" t="n">
         <v>0.7224911494834187</v>
       </c>
-      <c r="D183">
+      <c r="D182" t="n">
         <v>323532259229.8244</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>448519000000</v>
       </c>
-      <c r="C184">
+      <c r="C183" t="n">
         <v>0.7156659271452086</v>
       </c>
-      <c r="D184">
+      <c r="D183" t="n">
         <v>320989765977.2418</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>448940000000</v>
       </c>
-      <c r="C185">
+      <c r="C184" t="n">
         <v>0.7265857734505557</v>
       </c>
-      <c r="D185">
+      <c r="D184" t="n">
         <v>326193417132.8925</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>449572000000</v>
       </c>
-      <c r="C186">
+      <c r="C185" t="n">
         <v>0.7240605314604301</v>
       </c>
-      <c r="D186">
+      <c r="D185" t="n">
         <v>325517341249.7285</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>446917000000</v>
       </c>
-      <c r="C187">
+      <c r="C186" t="n">
         <v>0.7259001161440186</v>
       </c>
-      <c r="D187">
+      <c r="D186" t="n">
         <v>324417102206.7364</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>446334000000</v>
       </c>
-      <c r="C188">
+      <c r="C187" t="n">
         <v>0.7202535292422932</v>
       </c>
-      <c r="D188">
+      <c r="D187" t="n">
         <v>321473638720.8297</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>445831000000</v>
       </c>
-      <c r="C189">
+      <c r="C188" t="n">
         <v>0.7239032865209208</v>
       </c>
-      <c r="D189">
+      <c r="D188" t="n">
         <v>322738526132.9086</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>445044000000</v>
       </c>
-      <c r="C190">
+      <c r="C189" t="n">
         <v>0.7102272727272728</v>
       </c>
-      <c r="D190">
+      <c r="D189" t="n">
         <v>316082386363.6364</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>446053000000</v>
       </c>
-      <c r="C191">
+      <c r="C190" t="n">
         <v>0.7027900766041183</v>
       </c>
-      <c r="D191">
+      <c r="D190" t="n">
         <v>313481622039.4968</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>445467000000</v>
       </c>
-      <c r="C192">
+      <c r="C191" t="n">
         <v>0.6996431819771917</v>
       </c>
-      <c r="D192">
+      <c r="D191" t="n">
         <v>311667949345.8336</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>444813000000</v>
       </c>
-      <c r="C193">
+      <c r="C192" t="n">
         <v>0.6879471656576774</v>
       </c>
-      <c r="D193">
+      <c r="D192" t="n">
         <v>306007842597.6885</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>442837000000</v>
       </c>
-      <c r="C194">
+      <c r="C193" t="n">
         <v>0.702247191011236</v>
       </c>
-      <c r="D194">
+      <c r="D193" t="n">
         <v>310981039325.8427</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>440915000000</v>
       </c>
-      <c r="C195">
+      <c r="C194" t="n">
         <v>0.70482097547223</v>
       </c>
-      <c r="D195">
+      <c r="D194" t="n">
         <v>310766140400.3383</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>440589000000</v>
       </c>
-      <c r="C196">
+      <c r="C195" t="n">
         <v>0.6988608568034104</v>
       </c>
-      <c r="D196">
+      <c r="D195" t="n">
         <v>307910406038.1578</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>441843000000</v>
       </c>
-      <c r="C197">
+      <c r="C196" t="n">
         <v>0.6863417982155113</v>
       </c>
-      <c r="D197">
+      <c r="D196" t="n">
         <v>303255319148.9362</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>441641000000</v>
       </c>
-      <c r="C198">
+      <c r="C197" t="n">
         <v>0.6815703380588877</v>
       </c>
-      <c r="D198">
+      <c r="D197" t="n">
         <v>301009405670.6652</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>442493000000</v>
       </c>
-      <c r="C199">
+      <c r="C198" t="n">
         <v>0.6610259122157589</v>
       </c>
-      <c r="D199">
+      <c r="D198" t="n">
         <v>292499338974.0878</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>444070000000</v>
       </c>
-      <c r="C200">
+      <c r="C199" t="n">
         <v>0.6389368091495752</v>
       </c>
-      <c r="D200">
+      <c r="D199" t="n">
         <v>283732668839.0519</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>445748000000</v>
       </c>
-      <c r="C201">
+      <c r="C200" t="n">
         <v>0.6536374926465782</v>
       </c>
-      <c r="D201">
+      <c r="D200" t="n">
         <v>291357605072.2269</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>447404000000</v>
       </c>
-      <c r="C202">
+      <c r="C201" t="n">
         <v>0.6476683937823834</v>
       </c>
-      <c r="D202">
+      <c r="D201" t="n">
         <v>289769430051.8135</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>448114000000</v>
       </c>
-      <c r="C203">
+      <c r="C202" t="n">
         <v>0.6520605112154407</v>
       </c>
-      <c r="D203">
+      <c r="D202" t="n">
         <v>292197443922.796</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>449236000000</v>
       </c>
-      <c r="C204">
+      <c r="C203" t="n">
         <v>0.6502796202367017</v>
       </c>
-      <c r="D204">
+      <c r="D203" t="n">
         <v>292129015476.6549</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>452562000000</v>
       </c>
-      <c r="C205">
+      <c r="C204" t="n">
         <v>0.661769571835087</v>
       </c>
-      <c r="D205">
+      <c r="D204" t="n">
         <v>299491760968.8306</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>453707000000</v>
       </c>
-      <c r="C206">
+      <c r="C205" t="n">
         <v>0.6626466105625869</v>
       </c>
-      <c r="D206">
+      <c r="D205" t="n">
         <v>300647405738.5196</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>455243000000</v>
       </c>
-      <c r="C207">
+      <c r="C206" t="n">
         <v>0.6635259770420011</v>
       </c>
-      <c r="D207">
+      <c r="D206" t="n">
         <v>302065556366.5317</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>457637000000</v>
       </c>
-      <c r="C208">
+      <c r="C207" t="n">
         <v>0.686530275985171</v>
       </c>
-      <c r="D208">
+      <c r="D207" t="n">
         <v>314181655911.0257</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>459005000000</v>
       </c>
-      <c r="C209">
+      <c r="C208" t="n">
         <v>0.6783800284919612</v>
       </c>
-      <c r="D209">
+      <c r="D208" t="n">
         <v>311379824977.9526</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>458636000000</v>
       </c>
-      <c r="C210">
+      <c r="C209" t="n">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D210">
+      <c r="D209" t="n">
         <v>313511518217.2397</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>460383000000</v>
       </c>
-      <c r="C211">
+      <c r="C210" t="n">
         <v>0.6638343069569835</v>
       </c>
-      <c r="D211">
+      <c r="D210" t="n">
         <v>305618029739.777</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>463862000000</v>
       </c>
-      <c r="C212">
+      <c r="C211" t="n">
         <v>0.6701065469409636</v>
       </c>
-      <c r="D212">
+      <c r="D211" t="n">
         <v>310836963077.1293</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>465089000000</v>
       </c>
-      <c r="C213">
+      <c r="C212" t="n">
         <v>0.6816167950378297</v>
       </c>
-      <c r="D213">
+      <c r="D212" t="n">
         <v>317012473587.3492</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>467460000000</v>
       </c>
-      <c r="C214">
+      <c r="C213" t="n">
         <v>0.6802258349772125</v>
       </c>
-      <c r="D214">
+      <c r="D213" t="n">
         <v>317978368818.4478</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>471223000000</v>
       </c>
-      <c r="C215">
+      <c r="C214" t="n">
         <v>0.6787023211619384</v>
       </c>
-      <c r="D215">
+      <c r="D214" t="n">
         <v>319820143884.8921</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>476000000000</v>
       </c>
-      <c r="C216">
+      <c r="C215" t="n">
         <v>0.6907031357922365</v>
       </c>
-      <c r="D216">
+      <c r="D215" t="n">
         <v>328774692637.1046</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>478777000000</v>
       </c>
-      <c r="C217">
+      <c r="C216" t="n">
         <v>0.6906554320049727</v>
       </c>
-      <c r="D217">
+      <c r="D216" t="n">
         <v>330669935769.0448</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>483138000000</v>
       </c>
-      <c r="C218">
+      <c r="C217" t="n">
         <v>0.6894174422612892</v>
       </c>
-      <c r="D218">
+      <c r="D217" t="n">
         <v>333083764219.2347</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>486889000000</v>
       </c>
-      <c r="C219">
+      <c r="C218" t="n">
         <v>0.689893066574681</v>
       </c>
-      <c r="D219">
+      <c r="D218" t="n">
         <v>335901345291.4799</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>490793000000</v>
       </c>
-      <c r="C220">
+      <c r="C219" t="n">
         <v>0.6755387421468622</v>
       </c>
-      <c r="D220">
+      <c r="D219" t="n">
         <v>331549685874.4849</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>491187000000</v>
       </c>
-      <c r="C221">
+      <c r="C220" t="n">
         <v>0.6680919294494923</v>
       </c>
-      <c r="D221">
+      <c r="D220" t="n">
         <v>328158070550.5078</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>494850000000</v>
       </c>
-      <c r="C222">
+      <c r="C221" t="n">
         <v>0.6755843804891231</v>
       </c>
-      <c r="D222">
+      <c r="D221" t="n">
         <v>334312930685.0425</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>497053000000</v>
       </c>
-      <c r="C223">
+      <c r="C222" t="n">
         <v>0.6725854183481302</v>
       </c>
-      <c r="D223">
+      <c r="D222" t="n">
         <v>334310599946.1932</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>499188000000</v>
       </c>
-      <c r="C224">
+      <c r="C223" t="n">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D224">
+      <c r="D223" t="n">
         <v>338984109737.8786</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>501894000000</v>
       </c>
-      <c r="C225">
+      <c r="C224" t="n">
         <v>0.6650704974727321</v>
       </c>
-      <c r="D225">
+      <c r="D224" t="n">
         <v>333794892258.5794</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>504302000000</v>
       </c>
-      <c r="C226">
+      <c r="C225" t="n">
         <v>0.6562541015881349</v>
       </c>
-      <c r="D226">
+      <c r="D225" t="n">
         <v>330950255939.0996</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>505093000000</v>
       </c>
-      <c r="C227">
+      <c r="C226" t="n">
         <v>0.6505334374186834</v>
       </c>
-      <c r="D227">
+      <c r="D226" t="n">
         <v>328579885506.1151</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>510405000000</v>
       </c>
-      <c r="C228">
+      <c r="C227" t="n">
         <v>0.6673785371062467</v>
       </c>
-      <c r="D228">
+      <c r="D227" t="n">
         <v>340633342231.7139</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>510442000000</v>
       </c>
-      <c r="C229">
+      <c r="C228" t="n">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D229">
+      <c r="D228" t="n">
         <v>340771747112.6244</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>515321000000</v>
       </c>
-      <c r="C230">
+      <c r="C229" t="n">
         <v>0.6507027589796981</v>
       </c>
-      <c r="D230">
+      <c r="D229" t="n">
         <v>335320796460.177</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>518685000000</v>
       </c>
-      <c r="C231">
+      <c r="C230" t="n">
         <v>0.634236062662523</v>
       </c>
-      <c r="D231">
+      <c r="D230" t="n">
         <v>328968732162.1107</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>519198000000</v>
       </c>
-      <c r="C232">
+      <c r="C231" t="n">
         <v>0.6513385006187715</v>
       </c>
-      <c r="D232">
+      <c r="D231" t="n">
         <v>338173646844.265</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>521538000000</v>
       </c>
-      <c r="C233">
+      <c r="C232" t="n">
         <v>0.6500260010400416</v>
       </c>
-      <c r="D233">
+      <c r="D232" t="n">
         <v>339013260530.4212</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>518020000000</v>
       </c>
-      <c r="C234">
+      <c r="C233" t="n">
         <v>0.6603711285742587</v>
       </c>
-      <c r="D234">
+      <c r="D233" t="n">
         <v>342085452024.0375</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>520335000000</v>
       </c>
-      <c r="C235">
+      <c r="C234" t="n">
         <v>0.6519754857217368</v>
       </c>
-      <c r="D235">
+      <c r="D234" t="n">
         <v>339245664363.0199</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>520759000000</v>
       </c>
-      <c r="C236">
+      <c r="C235" t="n">
         <v>0.6452861844227915</v>
       </c>
-      <c r="D236">
+      <c r="D235" t="n">
         <v>336038588113.8285</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>527610000000</v>
       </c>
-      <c r="C237">
+      <c r="C236" t="n">
         <v>0.6331919204710948</v>
       </c>
-      <c r="D237">
+      <c r="D236" t="n">
         <v>334078389159.7543</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>531066000000</v>
       </c>
-      <c r="C238">
+      <c r="C237" t="n">
         <v>0.629643621710112</v>
       </c>
-      <c r="D238">
+      <c r="D237" t="n">
         <v>334382319607.1024</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>535473000000</v>
       </c>
-      <c r="C239">
+      <c r="C238" t="n">
         <v>0.6362537379907106</v>
       </c>
-      <c r="D239">
+      <c r="D238" t="n">
         <v>340696697843.0998</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>537884000000</v>
       </c>
-      <c r="C240">
+      <c r="C239" t="n">
         <v>0.628693574751666</v>
       </c>
-      <c r="D240">
+      <c r="D239" t="n">
         <v>338164214761.7251</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>538462000000</v>
       </c>
-      <c r="C241">
+      <c r="C240" t="n">
         <v>0.6291286568103177</v>
       </c>
-      <c r="D241">
+      <c r="D240" t="n">
         <v>338761874803.3973</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>541449000000</v>
       </c>
-      <c r="C242">
+      <c r="C241" t="n">
         <v>0.6242197253433208</v>
       </c>
-      <c r="D242">
+      <c r="D241" t="n">
         <v>337983146067.4157</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>543983000000</v>
       </c>
-      <c r="C243">
+      <c r="C242" t="n">
         <v>0.6272345229881452</v>
       </c>
-      <c r="D243">
+      <c r="D242" t="n">
         <v>341204917518.6602</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>545554000000</v>
       </c>
-      <c r="C244">
+      <c r="C243" t="n">
         <v>0.6381620931716656</v>
       </c>
-      <c r="D244">
+      <c r="D243" t="n">
         <v>348151882578.1749</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>544635000000</v>
       </c>
-      <c r="C245">
+      <c r="C244" t="n">
         <v>0.654150585464774</v>
       </c>
-      <c r="D245">
+      <c r="D244" t="n">
         <v>356273304114.6072</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>547075000000</v>
       </c>
-      <c r="C246">
+      <c r="C245" t="n">
         <v>0.6595435958316844</v>
       </c>
-      <c r="D246">
+      <c r="D245" t="n">
         <v>360819812689.6188</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>550448000000</v>
       </c>
-      <c r="C247">
+      <c r="C246" t="n">
         <v>0.631432720843594</v>
       </c>
-      <c r="D247">
+      <c r="D246" t="n">
         <v>347570878322.9147</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>553147000000</v>
       </c>
-      <c r="C248">
+      <c r="C247" t="n">
         <v>0.6415602745877975</v>
       </c>
-      <c r="D248">
+      <c r="D247" t="n">
         <v>354877141207.4164</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>555860000000</v>
       </c>
-      <c r="C249">
+      <c r="C248" t="n">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D249">
+      <c r="D248" t="n">
         <v>350324573013.172</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>560690000000</v>
       </c>
-      <c r="C250">
+      <c r="C249" t="n">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D250">
+      <c r="D249" t="n">
         <v>359739509816.502</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>562379000000</v>
       </c>
-      <c r="C251">
+      <c r="C250" t="n">
         <v>0.6390593047034765</v>
       </c>
-      <c r="D251">
+      <c r="D250" t="n">
         <v>359393532719.8364</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>563618000000</v>
       </c>
-      <c r="C252">
+      <c r="C251" t="n">
         <v>0.6343567622430855</v>
       </c>
-      <c r="D252">
+      <c r="D251" t="n">
         <v>357534889621.9233</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>566685000000</v>
       </c>
-      <c r="C253">
+      <c r="C252" t="n">
         <v>0.6572461386789352</v>
       </c>
-      <c r="D253">
+      <c r="D252" t="n">
         <v>372451528097.2724</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>569806000000</v>
       </c>
-      <c r="C254">
+      <c r="C253" t="n">
         <v>0.6739906989283547</v>
       </c>
-      <c r="D254">
+      <c r="D253" t="n">
         <v>384043944193.5701</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>571313000000</v>
       </c>
-      <c r="C255">
+      <c r="C254" t="n">
         <v>0.6814310051107325</v>
       </c>
-      <c r="D255">
+      <c r="D254" t="n">
         <v>389310391822.8279</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>573864000000</v>
       </c>
-      <c r="C256">
+      <c r="C255" t="n">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D256">
+      <c r="D255" t="n">
         <v>400435419719.4893</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>575443000000</v>
       </c>
-      <c r="C257">
+      <c r="C256" t="n">
         <v>0.7311010381634743</v>
       </c>
-      <c r="D257">
+      <c r="D256" t="n">
         <v>420706974703.9041</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>578862000000</v>
       </c>
-      <c r="C258">
+      <c r="C257" t="n">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D258">
+      <c r="D257" t="n">
         <v>429773554087.1631</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>584715000000</v>
       </c>
-      <c r="C259">
+      <c r="C258" t="n">
         <v>0.7121999857560003</v>
       </c>
-      <c r="D259">
+      <c r="D258" t="n">
         <v>416434014671.3197</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>587823000000</v>
       </c>
-      <c r="C260">
+      <c r="C259" t="n">
         <v>0.721917412647993</v>
       </c>
-      <c r="D260">
+      <c r="D259" t="n">
         <v>424359659254.9812</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>591013000000</v>
       </c>
-      <c r="C261">
+      <c r="C260" t="n">
         <v>0.7398091292446549</v>
       </c>
-      <c r="D261">
+      <c r="D260" t="n">
         <v>437236812902.2712</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>591443000000</v>
       </c>
-      <c r="C262">
+      <c r="C261" t="n">
         <v>0.7584951456310679</v>
       </c>
-      <c r="D262">
+      <c r="D261" t="n">
         <v>448606644417.4757</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>594698000000</v>
       </c>
-      <c r="C263">
+      <c r="C262" t="n">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D263">
+      <c r="D262" t="n">
         <v>457953180348.0671</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>598107000000</v>
       </c>
-      <c r="C264">
+      <c r="C263" t="n">
         <v>0.7741136398823347</v>
       </c>
-      <c r="D264">
+      <c r="D263" t="n">
         <v>463002786809.1036</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>603150000000</v>
       </c>
-      <c r="C265">
+      <c r="C264" t="n">
         <v>0.7550018875047187</v>
       </c>
-      <c r="D265">
+      <c r="D264" t="n">
         <v>455379388448.4711</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>604870000000</v>
       </c>
-      <c r="C266">
+      <c r="C265" t="n">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D266">
+      <c r="D265" t="n">
         <v>453018274415.8179</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>609773000000</v>
       </c>
-      <c r="C267">
+      <c r="C266" t="n">
         <v>0.7639419404125287</v>
       </c>
-      <c r="D267">
+      <c r="D266" t="n">
         <v>465831168831.1689</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>612585000000</v>
       </c>
-      <c r="C268">
+      <c r="C267" t="n">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D268">
+      <c r="D267" t="n">
         <v>446588175256.9804</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>615387000000</v>
       </c>
-      <c r="C269">
+      <c r="C268" t="n">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D269">
+      <c r="D268" t="n">
         <v>451925534258.6473</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>619665000000</v>
       </c>
-      <c r="C270">
+      <c r="C269" t="n">
         <v>0.75041272699985</v>
       </c>
-      <c r="D270">
+      <c r="D269" t="n">
         <v>465004502476.362</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>621347000000</v>
       </c>
-      <c r="C271">
+      <c r="C270" t="n">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D271">
+      <c r="D270" t="n">
         <v>467353892440.7673</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>623669000000</v>
       </c>
-      <c r="C272">
+      <c r="C271" t="n">
         <v>0.7618467164406522</v>
       </c>
-      <c r="D272">
+      <c r="D271" t="n">
         <v>475140179795.8251</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>623563000000</v>
       </c>
-      <c r="C273">
+      <c r="C272" t="n">
         <v>0.7929585282689715</v>
       </c>
-      <c r="D273">
+      <c r="D272" t="n">
         <v>494459598762.9847</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>626622000000</v>
       </c>
-      <c r="C274">
+      <c r="C273" t="n">
         <v>0.8211528986697323</v>
       </c>
-      <c r="D274">
+      <c r="D273" t="n">
         <v>514552471670.225</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>629528000000</v>
       </c>
-      <c r="C275">
+      <c r="C274" t="n">
         <v>0.8423890152472412</v>
       </c>
-      <c r="D275">
+      <c r="D274" t="n">
         <v>530307471990.5652</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>635233000000</v>
       </c>
-      <c r="C276">
+      <c r="C275" t="n">
         <v>0.8309098462816784</v>
       </c>
-      <c r="D276">
+      <c r="D275" t="n">
         <v>527821354383.0494</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>640875000000</v>
       </c>
-      <c r="C277">
+      <c r="C276" t="n">
         <v>0.8068420203324189</v>
       </c>
-      <c r="D277">
+      <c r="D276" t="n">
         <v>517084879780.539</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>645747000000</v>
       </c>
-      <c r="C278">
+      <c r="C277" t="n">
         <v>0.8105698305909054</v>
       </c>
-      <c r="D278">
+      <c r="D277" t="n">
         <v>523423036394.5854</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>647648000000</v>
       </c>
-      <c r="C279">
+      <c r="C278" t="n">
         <v>0.8262414277451872</v>
       </c>
-      <c r="D279">
+      <c r="D278" t="n">
         <v>535113608196.315</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>650004000000</v>
       </c>
-      <c r="C280">
+      <c r="C279" t="n">
         <v>0.7948493760432398</v>
       </c>
-      <c r="D280">
+      <c r="D279" t="n">
         <v>516655273825.61</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>653021000000</v>
       </c>
-      <c r="C281">
+      <c r="C280" t="n">
         <v>0.7970032677133977</v>
       </c>
-      <c r="D281">
+      <c r="D280" t="n">
         <v>520459870885.4706</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>653626000000</v>
       </c>
-      <c r="C282">
+      <c r="C281" t="n">
         <v>0.8163931749530573</v>
       </c>
-      <c r="D282">
+      <c r="D281" t="n">
         <v>533615805371.867</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>653297000000</v>
       </c>
-      <c r="C283">
+      <c r="C282" t="n">
         <v>0.8170602173380178</v>
       </c>
-      <c r="D283">
+      <c r="D282" t="n">
         <v>533782988806.275</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>655137000000</v>
       </c>
-      <c r="C284">
+      <c r="C283" t="n">
         <v>0.8419634587858887</v>
       </c>
-      <c r="D284">
+      <c r="D283" t="n">
         <v>551601414498.6108</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>659252000000</v>
       </c>
-      <c r="C285">
+      <c r="C284" t="n">
         <v>0.8605111436193099</v>
       </c>
-      <c r="D285">
+      <c r="D284" t="n">
         <v>567293692453.3173</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>663687000000</v>
       </c>
-      <c r="C286">
+      <c r="C285" t="n">
         <v>0.8459521191100584</v>
       </c>
-      <c r="D286">
+      <c r="D285" t="n">
         <v>561447424075.7974</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>667046000000</v>
       </c>
-      <c r="C287">
+      <c r="C286" t="n">
         <v>0.8580744808649391</v>
       </c>
-      <c r="D287">
+      <c r="D286" t="n">
         <v>572375150163.0342</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>671891000000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>0.8604371020478404</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>578119944932.0255</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>676375000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>0.8781173164734808</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>593936599929.7506</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>683062000000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>0.8796622097114708</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>600863828289.9366</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>686912000000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>0.8564576909900651</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>588311065433.3676</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>690916000000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>0.894534394847482</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>618048125950.4429</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>692890000000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>0.9078529278256923</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>629042215161.1439</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>697101000000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>0.8962179602079227</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>624754436278.9031</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>702908000000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>0.8840951286358413</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>621437538679.1619</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>709202000000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>0.9062075215224287</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>642684186678.7495</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>715455000000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>0.8950948800572861</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>640400107411.3856</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>722293000000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>0.89126559714795</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>643754901960.7842</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>727459000000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>0.8770391159445711</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>638009998245.9218</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>732122000000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>0.8575593859874797</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>627838092787.9257</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>736336000000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>0.8498342823149485</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>625763576102.6599</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>738881000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>0.8549200649739249</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>631684192527.9987</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>743457000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>0.8663259118080221</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>644076063415.0566</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>746726000000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>0.9013068949977467</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>673029292474.0874</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>747290000000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>0.9356287425149701</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>699186002994.012</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>753228000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>0.9392317084624777</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>707455621301.7751</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>762391000000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>0.9377344336084021</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>714920292573.1433</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>767172000000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>0.947059380623165</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>726557439151.4347</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>771869000000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>1.005429318318922</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>776059722501.5082</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>770498000000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>1.060670343657191</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>817244378447.1786</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>773993000000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>1.000100010001</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>774070407040.704</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>780159000000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>1.011265497643751</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>788947879376.2515</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>789173000000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>0.9973072703700011</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>787047970479.7048</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>792462000000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>1.016053647632595</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>805183905710.2214</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>802004000000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>0.9754384595875847</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>782305546343.0813</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>808895000000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>0.9923292945531045</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>802690204717.5334</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>814551000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>1.006664116450905</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>819979262719.201</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>820945000000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>0.9789621043769395</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>803674044777.7267</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>825736000000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>0.9760477872996662</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>805957795693.6772</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>833368000000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>0.9418146885418825</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>784878223360.7716</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>844338000000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>0.9397171451393131</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>793438894892.6373</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>857769000000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>0.8336807002917882</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>715105460608.5869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>874577000000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>0.8091662351113412</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>707678178404.9714</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>890217000000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>0.8207013713919916</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>730602312736.4646</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>903968000000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>0.8155875084617203</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>737265008849.1244</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>911816000000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>0.7861140808754166</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>716791396767.4988</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>923083000000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>0.793751587503175</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>732698596647.1932</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>929833000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>0.8388276544701125</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>779969634438.9082</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>933532000000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>0.9159438343240793</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>855062879544.2264</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>939155000000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>0.8606814876018832</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>808313322488.7467</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>947686000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>0.9284016636957813</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>879833259061.2002</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>956161000000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>0.914603473663993</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>874508171982.0372</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>960900000000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>0.9353924438998382</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>898818599343.3545</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>965962000000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>0.9244963805966701</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>893028372793.9207</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>970851000000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>0.9470414425335253</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>919436131525.1156</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>973415000000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>0.9557031585989393</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>930295790127.5864</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>975773000000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>0.9352437245146086</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>912585574800.7932</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>983599000000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>0.9504980609839557</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>934908942285.7578</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>986502000000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>0.9848044670730626</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>971511576376.5104</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>989926000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>0.984251968503937</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>974336614173.2284</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>997332000000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>0.9574783849254602</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>954923832594.4791</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>1002970000000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>0.9401412092096234</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>942933428600.976</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>1007970000000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>0.9730087376184637</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>980763617257.2828</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>1012078000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>0.9385441303450088</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>949879866351.3158</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>1017370000000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>0.9716945381050012</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>988572872231.885</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>1021701000000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>0.9804978968320114</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>1001775681691.163</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>1021885000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>0.9743264968090807</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>995649632191.7474</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>1026441000000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>1.005338346620555</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>1031920497843.549</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>1030655000000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>0.9990409207161125</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>1029666520140.665</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>1033383000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>1.029569228234906</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>1063939337781.072</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>1037827000000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>1.030566605519715</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>1069549848506.709</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>1039526000000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>1.057183030098001</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>1098969246545.654</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>1042253000000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>1.032919132761096</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>1076563064877.651</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>1047329000000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>1.037925809063168</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>1087049799680.319</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>1050254000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>1.046857334282484</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>1099466102759.516</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>1056451000000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>1.022955112729653</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>1080701951798.355</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>1072342000000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>0.9538435124333502</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>1022846459809.804</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>1081489000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>0.9993404353126936</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>1080775688045.89</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>1087142000000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>0.9833711931242687</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>1069064125635.504</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>1092865000000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>0.9793360101850946</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>1070282048770.933</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>1101467000000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>0.9974962843263409</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>1098709239808.082</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>1097482000000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>1.010315319411188</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>1108802877378.03</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>1102820000000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>1.002154632459789</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>1105196171769.304</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>1109651000000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>1.013037796440185</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>1124118403857.648</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>1116754000000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>0.9683916950728231</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>1081455299039.355</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>1127759000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>0.9838936607731437</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>1109594930979.86</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>1135610000000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>0.9969095803010666</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>1132100488485.694</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>1140742000000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>1.014970819588937</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>1157819842679.523</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>1140167000000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>1.016973284111826</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>1159519378425.929</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>1150318000000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>1.000320102432779</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>1150686219590.269</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>1158280000000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>1.005854070691424</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>1165060653000.463</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>1161595000000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>1.005237286261422</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>1167678605534.837</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>1169988000000</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>1.002657041159072</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>1173096706271.62</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>1179367000000</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>0.9703273884608666</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>1144372101146.927</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>1189872000000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>0.9827720067221605</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>1169372893182.51</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>1195531000000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>0.9929007595690811</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>1187043637988.383</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>1194040000000</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>0.9647481042699751</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>1151947826422.521</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>1200066000000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>0.9511580349074998</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>1141452418319.304</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>1205447000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>0.973093952221087</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>1173013185423.053</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>1216053000000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>0.9494331883865331</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>1154561077037.009</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>1221461000000</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>0.9700732405296599</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>1184906630450.599</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>1226705000000</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>0.958873898493609</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>1176255405651.603</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>1235685000000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>0.9426492213717431</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>1164817503110.742</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>1243567000000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>0.9402561257686595</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>1169271489553.755</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>1251738000000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>0.898787535614456</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>1125046512254.968</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>1251016000000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>0.903750564844103</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>1130606416629.01</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>1254128000000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>0.9050428990334143</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>1135039640878.978</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>1256512000000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>0.9123421648054887</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>1146368878184.074</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>1261583000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>0.9224496573099522</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>1163746806018.062</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>1265809000000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>0.9373037520269195</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>1186447525049.443</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>1270210000000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>0.9170189547817954</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>1164806646553.384</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>1279946000000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>0.9196163360645938</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>1177059250880.532</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>1289603000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>0.8932399599828498</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>1151924932113.763</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>1295199000000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>0.8875398283497972</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>1149540698138.829</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>1296727000000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>0.8762014912949383</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>1136194131202.411</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>1302464000000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>0.8610816908200081</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>1121527903352.191</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>1306212000000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>0.7863489816780687</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>1027138476055.673</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>1312747000000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>0.8001984492154054</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>1050458113612.176</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>1316790000000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>0.7884259076753262</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>1038191350967.793</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>1320890000000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>0.8282259400364419</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>1093995361934.736</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>1322154000000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>0.8035097305028364</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>1062363604223.247</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>1329858000000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>0.8007495015334353</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>1064883130610.251</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>1345086000000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>0.7641988139634408</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>1027913125878.829</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>1356127000000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>0.7610755519700441</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>1032115105066.48</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>1366811000000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>0.7511906371598984</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>1026735625967.158</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>1368472000000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>0.7650172893907402</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>1046904740047.125</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>1377121000000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>0.7484245662879637</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>1030671187151.047</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>1380572000000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>0.7232069890723424</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>998439319317.5819</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>1391381000000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>0.7158862313601122</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>996070500476.0643</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>1400091000000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>0.7387488549392749</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>1034315623060.784</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>1405027000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>0.7690710390918809</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>1080565574842.148</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>1412193000000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>0.7968063999490044</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>1125244420363.184</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>1419809000000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>0.7638135683842288</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>1084469378714.043</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>1428874000000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>0.7737662297466689</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>1105614447763.042</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>1450911000000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>0.7668711656441718</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>1112661809815.951</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>1461886000000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>0.7631199395609007</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>1115594355964.927</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>1473602000000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>0.7620266861745498</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>1122924048800.189</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>1484308000000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>0.7458567656667213</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>1107081164133.24</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>1495912000000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>0.7442081996859442</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>1113269976408.6</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>1498820000000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>0.7443356060380504</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>1115625093041.951</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>1515097000000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>0.767589309016104</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>1162972259322.372</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>1513143000000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>0.7519079664649048</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>1137744276100.605</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>1521199000000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>0.7508860455337297</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>1142247101579.864</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>1532423000000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>0.7324719463244558</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>1122456857402.362</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>1546176000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>0.7408230544134533</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>1145442826980.776</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>1551765000000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>0.7714739781827159</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>1197146317754.702</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>1554451000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>0.8013526833294602</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>1245663479954.163</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>1555592000000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>0.8012178511337232</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>1246368079480.811</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>1562476000000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>0.8023492786879984</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>1253651491567.309</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>1570298000000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>0.7759938541286753</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>1218541597150.551</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>1574987000000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>0.7754823500217135</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>1221374620013.648</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>1585745000000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>0.7949567940982407</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>1260598761457.315</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>1590269000000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>0.8122091276061761</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>1291630997149.146</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>1593488000000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>0.7795082861730821</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>1242137099917.372</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>1598398000000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>0.7754703227507483</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>1239510212944.151</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>1598364000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>0.7786645902277595</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>1244589449094.802</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>1598824000000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>0.7718074186129077</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>1233984224256.364</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>1608465000000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>0.7614290500411172</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>1224731976974.385</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>1616215000000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>0.7689054630733151</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>1242716543001.038</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>1627432000000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>0.7667712031406948</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>1247867992669.667</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>1637358000000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>0.7747313619002612</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>1268512593258.288</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>1646237000000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>0.7601036781416985</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>1251310798792.955</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>1656351000000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>0.752683316021617</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>1246707763175.721</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>1668377000000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>0.7328101069169946</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>1222603527747.855</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>1675220000000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>0.7620034594957061</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>1276523435416.397</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>1682335000000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>0.7591976798918902</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>1277224828800.923</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>1692733000000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>0.7492769477454257</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>1268325815587.958</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>1705748000000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>0.7469375560203168</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>1274087242306.543</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>1714043000000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>0.739885761638403</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>1268196010535.973</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>1720945000000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>0.7641229015274817</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>1315013486769.212</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>1737081000000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>0.7581041331837342</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>1316888285774.934</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>1754608000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>0.7514390056959076</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>1318480890906.085</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>1768025000000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>0.7552813045218693</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>1335356228427.278</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>1780400000000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>0.7596590650116227</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>1352496999346.693</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>1788170000000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>0.7533524182612626</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>1347122193762.242</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>1797721000000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>0.7706950899015822</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>1385494747712.962</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>1801010000000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>0.7554981376970905</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>1360659700973.837</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>1814298000000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>0.7455064598134743</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>1352570879026.667</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>1855518000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>0.7113184999715473</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>1319864280430.206</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>1918181000000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>0.7171286170174621</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>1375582487719.173</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>1963419000000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>0.7263271813421074</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>1426084588063.539</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>2005979000000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>1477809783409.459</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>2030544000000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>0.7459235279199177</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>1514630544076.621</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>2061892000000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>0.7665008469834359</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>1580441964388.371</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>2085360000000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>0.7509706295386788</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>1566044112014.779</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>2105411000000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>0.7510044684765874</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>1581173068979.76</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>2121396000000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>0.7695148978084215</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>1632445826151.194</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>2120708000000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>0.7839448102853559</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>1662518030730.636</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>2141765000000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>0.7828156312625251</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>1676607120490.982</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>2177359000000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>0.7849231952653433</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>1709059583519.752</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>2182624000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>0.7960769328747931</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>1737536619538.912</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>2199732000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>0.8144516297177111</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>1791575312342.2</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>2225461000000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>0.8293111741387604</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>1845599674910.02</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>2235219000000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>0.8067639086097844</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>1803294017038.854</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>2265475000000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>1816885876974.898</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>2283153000000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>0.7927259467129618</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>1809914623415.539</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>2286467000000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>0.7889172899113257</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>1803833349111.679</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>2289771000000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>0.8078588509015704</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>1849811768887.74</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>2310223000000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>0.7826440847760073</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>1808082365463.482</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>2301433000000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>0.7910954298417018</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>1820653128386.877</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>2317667000000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>0.7870793061108837</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>1824187734156.094</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>2344869000000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>0.7892036934732856</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>1850579275511.01</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>2348469000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>0.7998016491910006</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>1878309379273.94</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>2347490000000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>0.7777924694133111</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>1825860044023.054</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>2349052000000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>0.7907076042350298</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>1857413279143.505</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>2354170000000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>0.7768559087660422</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>1828850874739.753</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>2367102000000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>0.7816102734854348</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>1850151241587.92</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>2358110000000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>0.7618409123806766</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>1796504673893.997</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>2374338000000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>0.723222680263253</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>1717175092210.892</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>2376916000000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>0.733998825601879</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>1744653552554.316</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>2384951000000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>0.7450176941702366</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>1776830694729</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>2393203000000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>0.7384706273307979</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>1767310120739.948</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>2420393000000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>0.7516649378373097</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>1819324553886.86</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>2432173000000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>0.7327778876944609</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>1782242593447.5</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>2429503000000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>0.7398967104192254</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>1797581277653.639</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>2419886000000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>0.7384324555832879</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>1786922361211.62</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>2412202000000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>0.7368816641735504</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>1777507424082.767</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>2410432000000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>0.7552299675251114</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>1820430481081.489</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B499">
+      <c r="B498" t="n">
         <v>2423488000000</v>
       </c>
-      <c r="C499">
+      <c r="C498" t="n">
         <v>0.7581788543917509</v>
       </c>
-      <c r="D499">
+      <c r="D498" t="n">
         <v>1837437355472.156</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
+    <row r="499">
+      <c r="A499" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B500">
+      <c r="B499" t="n">
         <v>2439979000000</v>
       </c>
-      <c r="C500">
+      <c r="C499" t="n">
         <v>0.7403130043382341</v>
       </c>
-      <c r="D500">
+      <c r="D499" t="n">
         <v>1806348184012.2</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B501">
-        <v>2449812000000</v>
-      </c>
-      <c r="C501">
+      <c r="B500" t="n">
+        <v>2449753000000</v>
+      </c>
+      <c r="C500" t="n">
         <v>0.7365071883101578</v>
       </c>
-      <c r="D501">
-        <v>1804304148008.484</v>
+      <c r="D500" t="n">
+        <v>1804260694084.374</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B501" t="n">
+        <v>2469621000000</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.7208090360620761</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1780125132448.661</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Canada.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Canada.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Canada_M2 (CAD)</t>
+  </si>
+  <si>
+    <t>Canada_FX (USD)</t>
+  </si>
+  <si>
+    <t>Canada_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7025 +385,7007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_M2 (CAD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Canada_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30011</v>
-      </c>
-      <c r="B2" t="n">
-        <v>166100000000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30042</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>167174000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30072</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>168519000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30103</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B4">
         <v>169410000000</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7734550235903782</v>
-      </c>
-      <c r="D5" t="n">
-        <v>131031015546.446</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30133</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5">
         <v>169601000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C5">
         <v>0.7964319847085058</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D5">
         <v>135075661038.5473</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30164</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>170129000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C6">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D6">
         <v>137289380245.3195</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30195</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B7">
         <v>170650000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C7">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7">
         <v>138032839925.5844</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30225</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B8">
         <v>171675000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C8">
         <v>0.8155941603458119</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D8">
         <v>140017127477.3672</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30256</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B9">
         <v>173598000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C9">
         <v>0.8082114281095935</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D9">
         <v>140303887496.9692</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30286</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B10">
         <v>173574000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C10">
         <v>0.813206473123526</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D10">
         <v>141151500365.9429</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30317</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B11">
         <v>175486000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C11">
         <v>0.8086035416835127</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D11">
         <v>141898601115.8729</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30348</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B12">
         <v>176731000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C12">
         <v>0.8136696501220504</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D12">
         <v>143800650935.7201</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30376</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B13">
         <v>177360000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C13">
         <v>0.810307106393323</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D13">
         <v>143716068389.9198</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30407</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B14">
         <v>178209000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C14">
         <v>0.8155276463872125</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14">
         <v>145334366335.0188</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30437</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B15">
         <v>178032000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C15">
         <v>0.8130081300813008</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D15">
         <v>144741463414.6342</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30468</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B16">
         <v>178843000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C16">
         <v>0.8145975887911372</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D16">
         <v>145685076572.1733</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30498</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B17">
         <v>179993000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C17">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D17">
         <v>145861426256.0778</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30529</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B18">
         <v>181429000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C18">
         <v>0.8103727714748784</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D18">
         <v>147025121555.9157</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30560</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B19">
         <v>182607000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C19">
         <v>0.8110300081103</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D19">
         <v>148099756690.9976</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30590</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B20">
         <v>183116000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C20">
         <v>0.8112932013629727</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D20">
         <v>148560765860.7821</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30621</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B21">
         <v>184078000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C21">
         <v>0.8069722401549386</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D21">
         <v>148545836023.2408</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30651</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B22">
         <v>183902000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C22">
         <v>0.8035355564483729</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D22">
         <v>147771795901.9687</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30682</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B23">
         <v>184450000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C23">
         <v>0.8004482510205715</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D23">
         <v>147642679900.7444</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30713</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B24">
         <v>185166000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C24">
         <v>0.7987858455148175</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D24">
         <v>147907979870.5967</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30742</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B25">
         <v>186527000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C25">
         <v>0.7833307222309259</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D25">
         <v>146112329625.5679</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30773</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B26">
         <v>187527000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C26">
         <v>0.7785130400934216</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D26">
         <v>145992214869.5991</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30803</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B27">
         <v>188986000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C27">
         <v>0.7724393635099644</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D27">
         <v>145980225552.2941</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30834</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B28">
         <v>190555000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C28">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D28">
         <v>144370785665.5807</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30864</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B29">
         <v>191983000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C29">
         <v>0.7624857033930613</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D29">
         <v>146384292794.5101</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30895</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B30">
         <v>192900000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C30">
         <v>0.7707723138584861</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D30">
         <v>148681979343.302</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30926</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B31">
         <v>194221000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C31">
         <v>0.758552681483729</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D31">
         <v>147326860350.4513</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30956</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B32">
         <v>195997000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C32">
         <v>0.7604562737642586</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D32">
         <v>149047148288.9734</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>30987</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B33">
         <v>197099000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C33">
         <v>0.7551729346020238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D33">
         <v>148843830237.1243</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>31017</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B34">
         <v>198799000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C34">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D34">
         <v>150411591132.6322</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>31048</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B35">
         <v>200776000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C35">
         <v>0.7534659433393611</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D35">
         <v>151277878239.9036</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31079</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B36">
         <v>202240000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C36">
         <v>0.7228044813877846</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D36">
         <v>146179978315.8656</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31107</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B37">
         <v>203587000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C37">
         <v>0.7312614259597806</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D37">
         <v>148875319926.8738</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31138</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B38">
         <v>205233000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C38">
         <v>0.731528895391368</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D38">
         <v>150133869787.8566</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31168</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B39">
         <v>207225000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C39">
         <v>0.7275372862859221</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D39">
         <v>150763914150.6002</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31199</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B40">
         <v>208616000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C40">
         <v>0.7357268981753973</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D40">
         <v>153484402589.7587</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31229</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B41">
         <v>210378000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C41">
         <v>0.7385524372230428</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D41">
         <v>155375184638.1093</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31260</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B42">
         <v>212430000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C42">
         <v>0.7321180174244089</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D42">
         <v>155523830441.4672</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31291</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B43">
         <v>214664000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C43">
         <v>0.7293946024799417</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D43">
         <v>156574762946.7542</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31321</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B44">
         <v>216619000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C44">
         <v>0.7316359379572724</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D44">
         <v>158486245244.3664</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31352</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B45">
         <v>218971000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C45">
         <v>0.7225433526011561</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D45">
         <v>158216040462.4278</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31382</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B46">
         <v>219947000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C46">
         <v>0.7150518412584912</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D46">
         <v>157273507329.2814</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31413</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B47">
         <v>221320000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C47">
         <v>0.7025925665706457</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D47">
         <v>155497786833.4153</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31444</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B48">
         <v>221317000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C48">
         <v>0.7037297677691766</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D48">
         <v>155747361013.3708</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31472</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B49">
         <v>222244000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C49">
         <v>0.7164350193437455</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D49">
         <v>159223384439.0314</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31503</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B50">
         <v>225943000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C50">
         <v>0.7262164124909223</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D50">
         <v>164083514887.4365</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31533</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B51">
         <v>228313000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C51">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D51">
         <v>164906464427.5912</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31564</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B52">
         <v>230077000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C52">
         <v>0.7235890014471781</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D52">
         <v>166481186685.9624</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31594</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B53">
         <v>232472000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C53">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D53">
         <v>168360370799.5365</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31625</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B54">
         <v>234395000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C54">
         <v>0.7210845111047015</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D54">
         <v>169018603980.3865</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31656</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B55">
         <v>236112000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C55">
         <v>0.7205649228995533</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D55">
         <v>170134025075.6593</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31686</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B56">
         <v>238535000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C56">
         <v>0.7189072609633357</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D56">
         <v>171484543493.8893</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31717</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B57">
         <v>241918000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C57">
         <v>0.7229612492770388</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D57">
         <v>174897339502.6027</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31747</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B58">
         <v>244868000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C58">
         <v>0.7242178447276941</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D58">
         <v>177337775202.781</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31778</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B59">
         <v>248259000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C59">
         <v>0.7462129691814043</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D59">
         <v>185254085516.0063</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31809</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B60">
         <v>252294000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C60">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D60">
         <v>189012586155.2292</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31837</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B61">
         <v>254413000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C61">
         <v>0.765814060346148</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D61">
         <v>194833052534.8445</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31868</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B62">
         <v>256778000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C62">
         <v>0.7473841554559043</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D62">
         <v>191911808669.6562</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31898</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B63">
         <v>258482000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C63">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D63">
         <v>193170913982.5125</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31929</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B64">
         <v>260580000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C64">
         <v>0.7506943923128894</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D64">
         <v>195615944748.8927</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31959</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B65">
         <v>262617000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C65">
         <v>0.7534091765237702</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D65">
         <v>197858057711.1429</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>31990</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B66">
         <v>264017000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C66">
         <v>0.7576331540268202</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D66">
         <v>200028032426.699</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>32021</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B67">
         <v>266094000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C67">
         <v>0.7623694442326751</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D67">
         <v>202861934893.6494</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>32051</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B68">
         <v>268159000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C68">
         <v>0.7601672367920943</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D68">
         <v>203845686050.9312</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32082</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B69">
         <v>263775000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C69">
         <v>0.7633587786259541</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D69">
         <v>201354961832.0611</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32112</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B70">
         <v>265918000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C70">
         <v>0.7698229407236336</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D70">
         <v>204709776751.3472</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32143</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B71">
         <v>267370000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C71">
         <v>0.7844983133286264</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D71">
         <v>209751314034.6748</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32174</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B72">
         <v>269741000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C72">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D72">
         <v>214301263208.0718</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32203</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B73">
         <v>272411000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C73">
         <v>0.8097165991902834</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D73">
         <v>220575708502.0243</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32234</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B74">
         <v>274765000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C74">
         <v>0.8126777732629014</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D74">
         <v>223295408370.5811</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32264</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B75">
         <v>277324000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C75">
         <v>0.8100445524503849</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D75">
         <v>224644795463.7505</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32295</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B76">
         <v>281544000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C76">
         <v>0.8240626287597858</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D76">
         <v>232009888751.5451</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32325</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B77">
         <v>284525000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C77">
         <v>0.825559316436886</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D77">
         <v>234892264509.205</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32356</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B78">
         <v>288402000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C78">
         <v>0.8067769261799113</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D78">
         <v>232676079064.1388</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32387</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B79">
         <v>291439000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C79">
         <v>0.8216926869350862</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D79">
         <v>239473294987.6746</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32417</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B80">
         <v>293949000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C80">
         <v>0.8146639511201629</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D80">
         <v>239469653767.8208</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32448</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B81">
         <v>297392000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C81">
         <v>0.8417508417508418</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D81">
         <v>250329966329.9663</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32478</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B82">
         <v>300374000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C82">
         <v>0.8387854386847845</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D82">
         <v>251949337359.5034</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32509</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B83">
         <v>303154000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C83">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D83">
         <v>255869345037.1371</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32540</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B84">
         <v>305829000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C84">
         <v>0.8350730688935282</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D84">
         <v>255389561586.6388</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32568</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B85">
         <v>309219000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C85">
         <v>0.8384338056510438</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D85">
         <v>259259662949.6101</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32599</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B86">
         <v>312149000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C86">
         <v>0.8434547908232118</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D86">
         <v>263283569500.6747</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32629</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B87">
         <v>316353000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C87">
         <v>0.8282945415389712</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D87">
         <v>262033463099.4781</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32660</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B88">
         <v>320688000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C88">
         <v>0.8354916868577157</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D88">
         <v>267932158075.0271</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32690</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B89">
         <v>324232000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C89">
         <v>0.8467400508044031</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D89">
         <v>274540220152.4132</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32721</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B90">
         <v>327718000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C90">
         <v>0.8481764206955046</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D90">
         <v>277962680237.4894</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32752</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B91">
         <v>331423000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C91">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D91">
         <v>281463269639.0659</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32782</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B92">
         <v>334344000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C92">
         <v>0.8517162081594414</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D92">
         <v>284766203900.8603</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32813</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B93">
         <v>339017000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C93">
         <v>0.859106529209622</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D93">
         <v>291251718213.0584</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32843</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B94">
         <v>342154000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C94">
         <v>0.8632596685082872</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D94">
         <v>295367748618.7845</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32874</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B95">
         <v>346086000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C95">
         <v>0.8428150021070374</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D95">
         <v>291686472819.2161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32905</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B96">
         <v>350540000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C96">
         <v>0.8386447500838645</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D96">
         <v>293978530694.3979</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32933</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B97">
         <v>352153000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C97">
         <v>0.8551393877201984</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D97">
         <v>301139900803.831</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32964</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B98">
         <v>353101000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C98">
         <v>0.8587376556462</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D98">
         <v>303221124946.3289</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>32994</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B99">
         <v>356116000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C99">
         <v>0.8517887563884157</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D99">
         <v>303335604770.017</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>33025</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B100">
         <v>356279000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C100">
         <v>0.8578536501672815</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D100">
         <v>305635240627.9489</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>33055</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B101">
         <v>357910000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C101">
         <v>0.8676789587852494</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D101">
         <v>310550976138.8286</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33086</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B102">
         <v>361491000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C102">
         <v>0.8665511265164645</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D102">
         <v>313250433275.5633</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33117</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B103">
         <v>363223000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C103">
         <v>0.8660258075690656</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D103">
         <v>314560491902.6587</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33147</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B104">
         <v>365008000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C104">
         <v>0.8573388203017832</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D104">
         <v>312935528120.7133</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33178</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B105">
         <v>367854000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C105">
         <v>0.8588114050154585</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D105">
         <v>315917210580.5565</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33208</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B106">
         <v>370572000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C106">
         <v>0.8630361612151549</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D106">
         <v>319817036333.8224</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33239</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B107">
         <v>373950000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C107">
         <v>0.8600670852326481</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D107">
         <v>321622086522.7487</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33270</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B108">
         <v>375786000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C108">
         <v>0.8694140149539211</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D108">
         <v>326713615023.4742</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33298</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B109">
         <v>378484000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C109">
         <v>0.8637816360024186</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D109">
         <v>326927528720.7394</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33329</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B110">
         <v>380380000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C110">
         <v>0.8673779165582444</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D110">
         <v>329933211900.425</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33359</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B111">
         <v>382614000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C111">
         <v>0.8734387282732116</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D111">
         <v>334189885579.5266</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33390</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B112">
         <v>381438000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C112">
         <v>0.875733426744899</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D112">
         <v>334038006830.7208</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33420</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B113">
         <v>383166000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C113">
         <v>0.8686587908269632</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D113">
         <v>332840514246.0042</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33451</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B114">
         <v>383974000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C114">
         <v>0.8761170492377782</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D114">
         <v>336406167864.0267</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33482</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B115">
         <v>385573000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C115">
         <v>0.88339222614841</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D115">
         <v>340612190812.7209</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33512</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B116">
         <v>385597000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C116">
         <v>0.8907892392659896</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D116">
         <v>343485658293.2478</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33543</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B117">
         <v>386166000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C117">
         <v>0.8811349017534584</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D117">
         <v>340264340470.526</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33573</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B118">
         <v>387836000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C118">
         <v>0.8646779074794638</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D118">
         <v>335353220925.2053</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33604</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B119">
         <v>390429000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C119">
         <v>0.8512811781731505</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D119">
         <v>332364859112.965</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33635</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B120">
         <v>392338000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C120">
         <v>0.8460952703274389</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D120">
         <v>331955326169.7267</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33664</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B121">
         <v>392743000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C121">
         <v>0.8407600470825626</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D121">
         <v>330202623171.3469</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33695</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B122">
         <v>394119000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C122">
         <v>0.8394895903290799</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D122">
         <v>330858797850.9066</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33725</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B123">
         <v>394350000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C123">
         <v>0.8310479514667997</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D123">
         <v>327723759660.9324</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33756</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B124">
         <v>394189000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C124">
         <v>0.8341675008341675</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D124">
         <v>328819652986.3196</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33786</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B125">
         <v>397321000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C125">
         <v>0.8453085376162299</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D125">
         <v>335858833474.2181</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33817</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B126">
         <v>398941000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C126">
         <v>0.8371703641691085</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D126">
         <v>333981582251.9883</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33848</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B127">
         <v>400892000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C127">
         <v>0.8029548739360848</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D127">
         <v>321898185321.9849</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33878</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B128">
         <v>398608000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C128">
         <v>0.8081461128171973</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D128">
         <v>322133505737.8374</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33909</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B129">
         <v>400520000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C129">
         <v>0.7770007770007771</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D129">
         <v>311204351204.3513</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33939</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B130">
         <v>400819000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C130">
         <v>0.7867820613690009</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D130">
         <v>315357199055.8616</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>33970</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B131">
         <v>400221000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C131">
         <v>0.7888301648655044</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D131">
         <v>315706397412.637</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>34001</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B132">
         <v>401587000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C132">
         <v>0.8003201280512204</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D132">
         <v>321398159263.7054</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>34029</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B133">
         <v>402997000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C133">
         <v>0.7944704854214666</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D133">
         <v>320169222213.3948</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34060</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B134">
         <v>404748000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C134">
         <v>0.7866582756450597</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D134">
         <v>318398363750.7866</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34090</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B135">
         <v>406759000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C135">
         <v>0.7869678130164477</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D135">
         <v>320106240654.7573</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34121</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B136">
         <v>408895000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C136">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D136">
         <v>318925980812.7291</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34151</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B137">
         <v>408308000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C137">
         <v>0.7780284758422158</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D137">
         <v>317675250914.1835</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34182</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B138">
         <v>409970000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C138">
         <v>0.7580926389204761</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D138">
         <v>310795239178.2276</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34213</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B139">
         <v>410678000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C139">
         <v>0.749512816669165</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D139">
         <v>307808424524.0593</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34243</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B140">
         <v>409567000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C140">
         <v>0.7575183698204682</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D140">
         <v>310254526172.2597</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34274</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B141">
         <v>409864000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C141">
         <v>0.7491759065028468</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D141">
         <v>307060233742.8828</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34304</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B142">
         <v>411463000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C142">
         <v>0.7566585956416464</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D142">
         <v>311337015738.4988</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34335</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B143">
         <v>413157000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C143">
         <v>0.7522756337922215</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D143">
         <v>310807944030.6929</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34366</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B144">
         <v>413596000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C144">
         <v>0.7409602845287493</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D144">
         <v>306458209839.9526</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34394</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B145">
         <v>409983000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C145">
         <v>0.7227000072270001</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D145">
         <v>296294717062.9472</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34425</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B146">
         <v>411390000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C146">
         <v>0.7237984944991315</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D146">
         <v>297763462651.9977</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34455</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B147">
         <v>411805000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C147">
         <v>0.7231180851833104</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D147">
         <v>297783643068.9131</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34486</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B148">
         <v>413228000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C148">
         <v>0.722908985758693</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D148">
         <v>298726234367.0932</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34516</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B149">
         <v>416310000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C149">
         <v>0.7209285559801024</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D149">
         <v>300129767140.0764</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34547</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B150">
         <v>418221000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C150">
         <v>0.7318501170960187</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D150">
         <v>306075087822.014</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34578</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B151">
         <v>419884000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C151">
         <v>0.7447125409591897</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D151">
         <v>312692880548.1084</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34608</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B152">
         <v>420714000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C152">
         <v>0.7389344565137073</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D152">
         <v>310880070937.7078</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34639</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B153">
         <v>420680000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C153">
         <v>0.7269555103227683</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D153">
         <v>305815644082.5822</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34669</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B154">
         <v>422101000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C154">
         <v>0.7135212272565109</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D154">
         <v>301178023546.2005</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34700</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B155">
         <v>425148000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C155">
         <v>0.710580544304697</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D155">
         <v>302101897250.0533</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34731</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B156">
         <v>426237000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C156">
         <v>0.7194762213108857</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D156">
         <v>306667386142.888</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34759</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B157">
         <v>427897000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C157">
         <v>0.7147451933385748</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D157">
         <v>305837323993.9962</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34790</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B158">
         <v>429643000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C158">
         <v>0.7379529186037931</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D158">
         <v>317056305807.6895</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34820</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B159">
         <v>430736000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C159">
         <v>0.7298737318443909</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D159">
         <v>314382891759.7255</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34851</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B160">
         <v>433634000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C160">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D160">
         <v>316128891156.9586</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34881</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B161">
         <v>434936000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C161">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D161">
         <v>318727832331.8188</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34912</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B162">
         <v>436339000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C162">
         <v>0.7445461990916536</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D162">
         <v>324874543965.4531</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34943</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B163">
         <v>439202000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C163">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D163">
         <v>328105483340.8038</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>34973</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B164">
         <v>438892000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C164">
         <v>0.7438815740534107</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D164">
         <v>326483671799.4495</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35004</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B165">
         <v>439931000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C165">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D165">
         <v>323336028222.8428</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35034</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B166">
         <v>441103000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C166">
         <v>0.7328154770628755</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D166">
         <v>323247105378.8656</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35065</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B167">
         <v>442368000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C167">
         <v>0.7279079924297569</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D167">
         <v>322003202795.1667</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35096</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B168">
         <v>444600000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C168">
         <v>0.7298204641658151</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D168">
         <v>324478178368.1214</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35125</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B169">
         <v>446271000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C169">
         <v>0.7357810315650063</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D169">
         <v>328357736737.5469</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35156</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B170">
         <v>446482000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C170">
         <v>0.7349698662354843</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D170">
         <v>328150815816.5515</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35186</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B171">
         <v>448033000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C171">
         <v>0.7306202966318405</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D171">
         <v>327342003360.8534</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35217</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B172">
         <v>449428000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C172">
         <v>0.7334604664808567</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D172">
         <v>329637670529.5585</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35247</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B173">
         <v>447133000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C173">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D173">
         <v>325211288093.6795</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35278</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B174">
         <v>447620000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C174">
         <v>0.7310475911981871</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D174">
         <v>327231522772.1325</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35309</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B175">
         <v>449024000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C175">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D175">
         <v>329752515238.3051</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35339</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B176">
         <v>448985000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C176">
         <v>0.7471049682480388</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D176">
         <v>335438924168.8457</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35370</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B177">
         <v>447731000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C177">
         <v>0.7402472425790214</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D177">
         <v>331431638167.1478</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35400</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B178">
         <v>448419000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C178">
         <v>0.7297672042618404</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D178">
         <v>327241479967.8902</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35431</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B179">
         <v>449269000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C179">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D179">
         <v>333557799391.1946</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35462</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B180">
         <v>449193000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C180">
         <v>0.7309407207075506</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D180">
         <v>328333455156.7867</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35490</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B181">
         <v>447801000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C181">
         <v>0.7224911494834187</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D181">
         <v>323532259229.8244</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35521</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B182">
         <v>448519000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C182">
         <v>0.7156659271452086</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D182">
         <v>320989765977.2418</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35551</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B183">
         <v>448940000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C183">
         <v>0.7265857734505557</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D183">
         <v>326193417132.8925</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35582</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B184">
         <v>449572000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C184">
         <v>0.7240605314604301</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D184">
         <v>325517341249.7285</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35612</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B185">
         <v>446917000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C185">
         <v>0.7259001161440186</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D185">
         <v>324417102206.7364</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35643</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B186">
         <v>446334000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C186">
         <v>0.7202535292422932</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D186">
         <v>321473638720.8297</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35674</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B187">
         <v>445831000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C187">
         <v>0.7239032865209208</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D187">
         <v>322738526132.9086</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35704</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>445044000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C188">
         <v>0.7102272727272728</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D188">
         <v>316082386363.6364</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35735</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>446053000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C189">
         <v>0.7027900766041183</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D189">
         <v>313481622039.4968</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35765</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>445467000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C190">
         <v>0.6996431819771917</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D190">
         <v>311667949345.8336</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35796</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>444813000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C191">
         <v>0.6879471656576774</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D191">
         <v>306007842597.6885</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35827</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>442837000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C192">
         <v>0.702247191011236</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D192">
         <v>310981039325.8427</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35855</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>440915000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C193">
         <v>0.70482097547223</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D193">
         <v>310766140400.3383</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35886</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>440589000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C194">
         <v>0.6988608568034104</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D194">
         <v>307910406038.1578</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35916</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>441843000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C195">
         <v>0.6863417982155113</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D195">
         <v>303255319148.9362</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35947</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>441641000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C196">
         <v>0.6815703380588877</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D196">
         <v>301009405670.6652</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35977</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>442493000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C197">
         <v>0.6610259122157589</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D197">
         <v>292499338974.0878</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36008</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>444070000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C198">
         <v>0.6389368091495752</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D198">
         <v>283732668839.0519</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36039</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>445748000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C199">
         <v>0.6536374926465782</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D199">
         <v>291357605072.2269</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36069</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>447404000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C200">
         <v>0.6476683937823834</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D200">
         <v>289769430051.8135</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36100</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>448114000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C201">
         <v>0.6520605112154407</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D201">
         <v>292197443922.796</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36130</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>449236000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C202">
         <v>0.6502796202367017</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D202">
         <v>292129015476.6549</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36161</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>452562000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C203">
         <v>0.661769571835087</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D203">
         <v>299491760968.8306</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36192</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>453707000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C204">
         <v>0.6626466105625869</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D204">
         <v>300647405738.5196</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36220</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>455243000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C205">
         <v>0.6635259770420011</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D205">
         <v>302065556366.5317</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36251</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>457637000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C206">
         <v>0.686530275985171</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D206">
         <v>314181655911.0257</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36281</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>459005000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C207">
         <v>0.6783800284919612</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D207">
         <v>311379824977.9526</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36312</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>458636000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C208">
         <v>0.6835737234260715</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D208">
         <v>313511518217.2397</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36342</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>460383000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C209">
         <v>0.6638343069569835</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D209">
         <v>305618029739.777</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36373</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>463862000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C210">
         <v>0.6701065469409636</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D210">
         <v>310836963077.1293</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36404</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>465089000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C211">
         <v>0.6816167950378297</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D211">
         <v>317012473587.3492</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36434</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>467460000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C212">
         <v>0.6802258349772125</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D212">
         <v>317978368818.4478</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36465</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>471223000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C213">
         <v>0.6787023211619384</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D213">
         <v>319820143884.8921</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36495</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>476000000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C214">
         <v>0.6907031357922365</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D214">
         <v>328774692637.1046</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36526</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>478777000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C215">
         <v>0.6906554320049727</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D215">
         <v>330669935769.0448</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36557</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>483138000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C216">
         <v>0.6894174422612892</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D216">
         <v>333083764219.2347</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36586</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>486889000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C217">
         <v>0.689893066574681</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D217">
         <v>335901345291.4799</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36617</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>490793000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C218">
         <v>0.6755387421468622</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D218">
         <v>331549685874.4849</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36647</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>491187000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C219">
         <v>0.6680919294494923</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D219">
         <v>328158070550.5078</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36678</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>494850000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C220">
         <v>0.6755843804891231</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D220">
         <v>334312930685.0425</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36708</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>497053000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C221">
         <v>0.6725854183481302</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D221">
         <v>334310599946.1932</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36739</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>499188000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C222">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D222">
         <v>338984109737.8786</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36770</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>501894000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C223">
         <v>0.6650704974727321</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D223">
         <v>333794892258.5794</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36800</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>504302000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C224">
         <v>0.6562541015881349</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D224">
         <v>330950255939.0996</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36831</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>505093000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C225">
         <v>0.6505334374186834</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D225">
         <v>328579885506.1151</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36861</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>510405000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C226">
         <v>0.6673785371062467</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D226">
         <v>340633342231.7139</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36892</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>510442000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C227">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D227">
         <v>340771747112.6244</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36923</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>515321000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C228">
         <v>0.6507027589796981</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D228">
         <v>335320796460.177</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36951</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>518685000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C229">
         <v>0.634236062662523</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D229">
         <v>328968732162.1107</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36982</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>519198000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C230">
         <v>0.6513385006187715</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D230">
         <v>338173646844.265</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37012</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>521538000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C231">
         <v>0.6500260010400416</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D231">
         <v>339013260530.4212</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37043</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>518020000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C232">
         <v>0.6603711285742587</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D232">
         <v>342085452024.0375</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37073</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>520335000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C233">
         <v>0.6519754857217368</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D233">
         <v>339245664363.0199</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37104</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>520759000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C234">
         <v>0.6452861844227915</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D234">
         <v>336038588113.8285</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37135</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>527610000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C235">
         <v>0.6331919204710948</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D235">
         <v>334078389159.7543</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37165</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>531066000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C236">
         <v>0.629643621710112</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D236">
         <v>334382319607.1024</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37196</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>535473000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C237">
         <v>0.6362537379907106</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D237">
         <v>340696697843.0998</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37226</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>537884000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C238">
         <v>0.628693574751666</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D238">
         <v>338164214761.7251</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37257</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>538462000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C239">
         <v>0.6291286568103177</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D239">
         <v>338761874803.3973</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37288</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>541449000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C240">
         <v>0.6242197253433208</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D240">
         <v>337983146067.4157</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37316</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>543983000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C241">
         <v>0.6272345229881452</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D241">
         <v>341204917518.6602</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37347</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>545554000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C242">
         <v>0.6381620931716656</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D242">
         <v>348151882578.1749</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37377</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>544635000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C243">
         <v>0.654150585464774</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D243">
         <v>356273304114.6072</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37408</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>547075000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C244">
         <v>0.6595435958316844</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D244">
         <v>360819812689.6188</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37438</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>550448000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C245">
         <v>0.631432720843594</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D245">
         <v>347570878322.9147</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37469</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>553147000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C246">
         <v>0.6415602745877975</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D246">
         <v>354877141207.4164</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37500</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>555860000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C247">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D247">
         <v>350324573013.172</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37530</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>560690000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C248">
         <v>0.6416014371872193</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D248">
         <v>359739509816.502</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37561</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>562379000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C249">
         <v>0.6390593047034765</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D249">
         <v>359393532719.8364</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37591</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>563618000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C250">
         <v>0.6343567622430855</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D250">
         <v>357534889621.9233</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37622</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>566685000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C251">
         <v>0.6572461386789352</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D251">
         <v>372451528097.2724</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37653</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>569806000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C252">
         <v>0.6739906989283547</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D252">
         <v>384043944193.5701</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37681</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>571313000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C253">
         <v>0.6814310051107325</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D253">
         <v>389310391822.8279</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37712</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>573864000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C254">
         <v>0.6977880120019538</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D254">
         <v>400435419719.4893</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37742</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>575443000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C255">
         <v>0.7311010381634743</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D255">
         <v>420706974703.9041</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37773</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>578862000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C256">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D256">
         <v>429773554087.1631</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37803</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>584715000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C257">
         <v>0.7121999857560003</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D257">
         <v>416434014671.3197</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37834</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>587823000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C258">
         <v>0.721917412647993</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D258">
         <v>424359659254.9812</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37865</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>591013000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C259">
         <v>0.7398091292446549</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D259">
         <v>437236812902.2712</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37895</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>591443000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C260">
         <v>0.7584951456310679</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D260">
         <v>448606644417.4757</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37926</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>594698000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C261">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D261">
         <v>457953180348.0671</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37956</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>598107000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C262">
         <v>0.7741136398823347</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D262">
         <v>463002786809.1036</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37987</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>603150000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C263">
         <v>0.7550018875047187</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D263">
         <v>455379388448.4711</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38018</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>604870000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C264">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D264">
         <v>453018274415.8179</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38047</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>609773000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C265">
         <v>0.7639419404125287</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D265">
         <v>465831168831.1689</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38078</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>612585000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C266">
         <v>0.7290223809870964</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D266">
         <v>446588175256.9804</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38108</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>615387000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267">
         <v>0.7343761474627305</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D267">
         <v>451925534258.6473</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38139</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>619665000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C268">
         <v>0.75041272699985</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D268">
         <v>465004502476.362</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38169</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>621347000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C269">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D269">
         <v>467353892440.7673</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38200</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>623669000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C270">
         <v>0.7618467164406522</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D270">
         <v>475140179795.8251</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38231</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>623563000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C271">
         <v>0.7929585282689715</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D271">
         <v>494459598762.9847</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38261</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>626622000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C272">
         <v>0.8211528986697323</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D272">
         <v>514552471670.225</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38292</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>629528000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C273">
         <v>0.8423890152472412</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D273">
         <v>530307471990.5652</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38322</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>635233000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C274">
         <v>0.8309098462816784</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D274">
         <v>527821354383.0494</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38353</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>640875000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C275">
         <v>0.8068420203324189</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D275">
         <v>517084879780.539</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38384</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>645747000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C276">
         <v>0.8105698305909054</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D276">
         <v>523423036394.5854</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38412</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>647648000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C277">
         <v>0.8262414277451872</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D277">
         <v>535113608196.315</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38443</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>650004000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C278">
         <v>0.7948493760432398</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D278">
         <v>516655273825.61</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38473</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>653021000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C279">
         <v>0.7970032677133977</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D279">
         <v>520459870885.4706</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38504</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>653626000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C280">
         <v>0.8163931749530573</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D280">
         <v>533615805371.867</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38534</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>653297000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C281">
         <v>0.8170602173380178</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D281">
         <v>533782988806.275</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38565</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>655137000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C282">
         <v>0.8419634587858887</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D282">
         <v>551601414498.6108</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38596</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>659252000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C283">
         <v>0.8605111436193099</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D283">
         <v>567293692453.3173</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38626</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>663687000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C284">
         <v>0.8459521191100584</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D284">
         <v>561447424075.7974</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38657</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>667046000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C285">
         <v>0.8580744808649391</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D285">
         <v>572375150163.0342</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38687</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>671891000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.8604371020478404</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>578119944932.0255</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38718</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>676375000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.8781173164734808</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>593936599929.7506</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38749</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>683062000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.8796622097114708</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>600863828289.9366</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38777</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>686912000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.8564576909900651</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>588311065433.3676</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38808</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>690916000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.894534394847482</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>618048125950.4429</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38838</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>692890000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.9078529278256923</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>629042215161.1439</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38869</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>697101000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.8962179602079227</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>624754436278.9031</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38899</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>702908000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.8840951286358413</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>621437538679.1619</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38930</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>709202000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.9062075215224287</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>642684186678.7495</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38961</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>715455000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.8950948800572861</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>640400107411.3856</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38991</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>722293000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.89126559714795</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>643754901960.7842</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39022</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>727459000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.8770391159445711</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>638009998245.9218</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39052</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>732122000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.8575593859874797</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>627838092787.9257</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39083</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>736336000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.8498342823149485</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>625763576102.6599</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39114</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>738881000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.8549200649739249</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>631684192527.9987</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39142</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>743457000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.8663259118080221</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>644076063415.0566</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39173</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>746726000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.9013068949977467</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>673029292474.0874</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39203</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>747290000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.9356287425149701</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>699186002994.012</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39234</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>753228000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.9392317084624777</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>707455621301.7751</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39264</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>762391000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.9377344336084021</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>714920292573.1433</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39295</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>767172000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.947059380623165</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>726557439151.4347</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39326</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>771869000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>1.005429318318922</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>776059722501.5082</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39356</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>770498000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>1.060670343657191</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>817244378447.1786</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39387</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>773993000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>1.000100010001</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>774070407040.704</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39417</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>780159000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>1.011265497643751</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>788947879376.2515</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39448</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>789173000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.9973072703700011</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>787047970479.7048</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39479</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>792462000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>1.016053647632595</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>805183905710.2214</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39508</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>802004000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.9754384595875847</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>782305546343.0813</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39539</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>808895000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.9923292945531045</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>802690204717.5334</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39569</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>814551000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>1.006664116450905</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>819979262719.201</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39600</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>820945000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.9789621043769395</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>803674044777.7267</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39630</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>825736000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.9760477872996662</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>805957795693.6772</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39661</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>833368000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.9418146885418825</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>784878223360.7716</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39692</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>844338000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.9397171451393131</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>793438894892.6373</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39722</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>857769000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.8336807002917882</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>715105460608.5869</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39753</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>874577000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.8091662351113412</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>707678178404.9714</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39783</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>890217000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.8207013713919916</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>730602312736.4646</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39814</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>903968000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.8155875084617203</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>737265008849.1244</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39845</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>911816000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.7861140808754166</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>716791396767.4988</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39873</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>923083000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.793751587503175</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>732698596647.1932</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39904</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>929833000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.8388276544701125</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>779969634438.9082</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39934</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>933532000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.9159438343240793</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>855062879544.2264</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39965</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>939155000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.8606814876018832</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>808313322488.7467</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39995</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>947686000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.9284016636957813</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>879833259061.2002</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40026</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>956161000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.914603473663993</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>874508171982.0372</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40057</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>960900000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.9353924438998382</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>898818599343.3545</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40087</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>965962000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.9244963805966701</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>893028372793.9207</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40118</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>970851000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.9470414425335253</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>919436131525.1156</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40148</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>973415000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.9557031585989393</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>930295790127.5864</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40179</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>975773000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.9352437245146086</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>912585574800.7932</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40210</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>983599000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.9504980609839557</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>934908942285.7578</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40238</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>986502000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.9848044670730626</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>971511576376.5104</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40269</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>989926000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.984251968503937</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>974336614173.2284</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40299</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>997332000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.9574783849254602</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>954923832594.4791</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40330</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>1002970000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.9401412092096234</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>942933428600.976</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40360</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>1007970000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.9730087376184637</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>980763617257.2828</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40391</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>1012078000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.9385441303450088</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>949879866351.3158</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40422</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>1017370000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.9716945381050012</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>988572872231.885</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40452</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>1021701000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.9804978968320114</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>1001775681691.163</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40483</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>1021885000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>0.9743264968090807</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>995649632191.7474</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40513</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>1026441000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>1.005338346620555</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>1031920497843.549</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40544</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>1030655000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>0.9990409207161125</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>1029666520140.665</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40575</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>1033383000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>1.029569228234906</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>1063939337781.072</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40603</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>1037827000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>1.030566605519715</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>1069549848506.709</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40634</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>1039526000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>1.057183030098001</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>1098969246545.654</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40664</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>1042253000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>1.032919132761096</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>1076563064877.651</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40695</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>1047329000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>1.037925809063168</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>1087049799680.319</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40725</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>1050254000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>1.046857334282484</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>1099466102759.516</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40756</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>1056451000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>1.022955112729653</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>1080701951798.355</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40787</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>1072342000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>0.9538435124333502</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>1022846459809.804</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40817</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>1081489000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>0.9993404353126936</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>1080775688045.89</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40848</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>1087142000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>0.9833711931242687</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>1069064125635.504</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40878</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>1092865000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>0.9793360101850946</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>1070282048770.933</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40909</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>1101467000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>0.9974962843263409</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>1098709239808.082</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40940</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>1097482000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>1.010315319411188</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>1108802877378.03</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40969</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>1102820000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>1.002154632459789</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>1105196171769.304</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41000</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>1109651000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>1.013037796440185</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>1124118403857.648</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41030</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>1116754000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>0.9683916950728231</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>1081455299039.355</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41061</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>1127759000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>0.9838936607731437</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>1109594930979.86</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41091</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>1135610000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>0.9969095803010666</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>1132100488485.694</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41122</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>1140742000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>1.014970819588937</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>1157819842679.523</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41153</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>1140167000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>1.016973284111826</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>1159519378425.929</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41183</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>1150318000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>1.000320102432779</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>1150686219590.269</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41214</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>1158280000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>1.005854070691424</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>1165060653000.463</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41244</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>1161595000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>1.005237286261422</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>1167678605534.837</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41275</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>1169988000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>1.002657041159072</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>1173096706271.62</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41306</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>1179367000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>0.9703273884608666</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>1144372101146.927</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41334</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>1189872000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>0.9827720067221605</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>1169372893182.51</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41365</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>1195531000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.9929007595690811</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>1187043637988.383</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41395</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>1194040000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.9647481042699751</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>1151947826422.521</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41426</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>1200066000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.9511580349074998</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>1141452418319.304</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41456</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>1205447000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.973093952221087</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>1173013185423.053</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41487</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>1216053000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.9494331883865331</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>1154561077037.009</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41518</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>1221461000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.9700732405296599</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>1184906630450.599</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41548</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>1226705000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.958873898493609</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>1176255405651.603</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41579</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>1235685000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.9426492213717431</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>1164817503110.742</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41609</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>1243567000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.9402561257686595</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>1169271489553.755</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41640</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>1251738000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.898787535614456</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>1125046512254.968</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41671</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>1251016000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.903750564844103</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>1130606416629.01</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41699</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>1254128000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.9050428990334143</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>1135039640878.978</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41730</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>1256512000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.9123421648054887</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>1146368878184.074</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41760</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>1261583000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.9224496573099522</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>1163746806018.062</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41791</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>1265809000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.9373037520269195</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>1186447525049.443</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41821</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>1270210000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.9170189547817954</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>1164806646553.384</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41852</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>1279946000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.9196163360645938</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>1177059250880.532</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41883</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>1289603000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.8932399599828498</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>1151924932113.763</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41913</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>1295199000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.8875398283497972</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>1149540698138.829</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41944</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>1296727000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.8762014912949383</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>1136194131202.411</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41974</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>1302464000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.8610816908200081</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>1121527903352.191</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42005</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>1306212000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.7863489816780687</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>1027138476055.673</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42036</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>1312747000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.8001984492154054</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>1050458113612.176</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42064</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>1316790000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.7884259076753262</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>1038191350967.793</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42095</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>1320890000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.8282259400364419</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>1093995361934.736</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42125</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>1322154000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.8035097305028364</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>1062363604223.247</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42156</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>1329858000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.8007495015334353</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>1064883130610.251</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42186</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>1345086000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.7641988139634408</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>1027913125878.829</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42217</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>1356127000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.7610755519700441</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>1032115105066.48</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42248</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>1366811000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.7511906371598984</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>1026735625967.158</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42278</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>1368472000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.7650172893907402</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>1046904740047.125</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42309</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>1377121000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.7484245662879637</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>1030671187151.047</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42339</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>1380572000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.7232069890723424</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>998439319317.5819</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42370</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>1391381000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.7158862313601122</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>996070500476.0643</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42401</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>1400091000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.7387488549392749</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>1034315623060.784</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42430</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>1405027000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.7690710390918809</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>1080565574842.148</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42461</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>1412193000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.7968063999490044</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>1125244420363.184</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42491</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>1419809000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.7638135683842288</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>1084469378714.043</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42522</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>1428874000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.7737662297466689</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>1105614447763.042</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42552</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>1450911000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.7668711656441718</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>1112661809815.951</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42583</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>1461886000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.7631199395609007</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>1115594355964.927</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42614</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>1473602000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.7620266861745498</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>1122924048800.189</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42644</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>1484308000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.7458567656667213</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>1107081164133.24</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42675</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>1495912000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.7442081996859442</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>1113269976408.6</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42705</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>1498820000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.7443356060380504</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>1115625093041.951</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42736</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>1515097000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.767589309016104</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>1162972259322.372</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42767</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>1513143000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.7519079664649048</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>1137744276100.605</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42795</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>1521199000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.7508860455337297</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>1142247101579.864</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42826</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>1532423000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.7324719463244558</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>1122456857402.362</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42856</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>1546176000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.7408230544134533</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>1145442826980.776</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42887</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>1551765000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.7714739781827159</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>1197146317754.702</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42917</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>1554451000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.8013526833294602</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>1245663479954.163</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42948</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>1555592000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.8012178511337232</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>1246368079480.811</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42979</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>1562476000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.8023492786879984</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>1253651491567.309</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43009</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>1570298000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.7759938541286753</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>1218541597150.551</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43040</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>1574987000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.7754823500217135</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>1221374620013.648</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43070</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>1585745000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.7949567940982407</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>1260598761457.315</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43101</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>1590269000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.8122091276061761</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>1291630997149.146</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43132</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>1593488000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.7795082861730821</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>1242137099917.372</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43160</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>1598398000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.7754703227507483</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>1239510212944.151</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43191</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>1598364000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.7786645902277595</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>1244589449094.802</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43221</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>1598824000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.7718074186129077</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>1233984224256.364</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43252</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>1608465000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.7614290500411172</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>1224731976974.385</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43282</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>1616215000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.7689054630733151</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>1242716543001.038</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43313</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>1627432000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.7667712031406948</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>1247867992669.667</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43344</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>1637358000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.7747313619002612</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>1268512593258.288</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43374</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>1646237000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.7601036781416985</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>1251310798792.955</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43405</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>1656351000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.752683316021617</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>1246707763175.721</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43435</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>1668377000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.7328101069169946</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>1222603527747.855</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43466</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>1675220000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.7620034594957061</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>1276523435416.397</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43497</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>1682335000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.7591976798918902</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>1277224828800.923</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43525</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>1692733000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.7492769477454257</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>1268325815587.958</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43556</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>1705748000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.7469375560203168</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>1274087242306.543</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43586</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>1714043000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.739885761638403</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>1268196010535.973</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43617</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>1720945000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.7641229015274817</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>1315013486769.212</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43647</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>1737081000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.7581041331837342</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>1316888285774.934</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43678</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>1754608000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.7514390056959076</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>1318480890906.085</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43709</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>1768025000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.7552813045218693</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>1335356228427.278</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43739</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>1780400000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.7596590650116227</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>1352496999346.693</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43770</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>1788170000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.7533524182612626</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>1347122193762.242</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43800</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>1797721000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.7706950899015822</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>1385494747712.962</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43831</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>1801010000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.7554981376970905</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>1360659700973.837</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43862</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>1814298000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.7455064598134743</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>1352570879026.667</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43891</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>1855518000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.7113184999715473</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>1319864280430.206</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43922</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>1918181000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.7171286170174621</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>1375582487719.173</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43952</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>1963419000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.7263271813421074</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>1426084588063.539</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43983</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>2005979000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.7367025195226168</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>1477809783409.459</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44013</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>2030544000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.7459235279199177</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>1514630544076.621</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44044</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>2061892000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.7665008469834359</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>1580441964388.371</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44075</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>2085360000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.7509706295386788</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>1566044112014.779</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44105</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>2105411000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.7510044684765874</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>1581173068979.76</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44136</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>2121396000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.7695148978084215</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>1632445826151.194</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44166</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>2120708000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.7839448102853559</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>1662518030730.636</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44197</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>2141765000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.7828156312625251</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>1676607120490.982</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44228</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>2177359000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.7849231952653433</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>1709059583519.752</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44256</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>2182624000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.7960769328747931</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>1737536619538.912</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44287</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>2199732000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.8144516297177111</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>1791575312342.2</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44317</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>2225461000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.8293111741387604</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>1845599674910.02</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44348</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>2235219000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.8067639086097844</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>1803294017038.854</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44378</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>2265475000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.8019889325527308</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>1816885876974.898</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44409</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>2283153000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.7927259467129618</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>1809914623415.539</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44440</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>2286467000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.7889172899113257</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>1803833349111.679</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44470</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>2289771000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.8078588509015704</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>1849811768887.74</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44501</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>2310223000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.7826440847760073</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>1808082365463.482</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44531</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>2301433000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.7910954298417018</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>1820653128386.877</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44562</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>2317667000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.7870793061108837</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>1824187734156.094</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44593</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>2344869000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.7892036934732856</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>1850579275511.01</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44621</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>2348469000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.7998016491910006</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>1878309379273.94</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44652</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>2347490000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.7777924694133111</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>1825860044023.054</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44682</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>2349052000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.7907076042350298</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>1857413279143.505</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44713</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>2354170000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.7768559087660422</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>1828850874739.753</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44743</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>2367102000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.7816102734854348</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>1850151241587.92</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44774</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>2358110000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.7618409123806766</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>1796504673893.997</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44805</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>2374338000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.723222680263253</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>1717175092210.892</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44835</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>2376916000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.733998825601879</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>1744653552554.316</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44866</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>2384951000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.7450176941702366</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>1776830694729</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44896</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>2393203000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.7384706273307979</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>1767310120739.948</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44927</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>2420393000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.7516649378373097</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>1819324553886.86</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44958</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>2432173000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.7327778876944609</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>1782242593447.5</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44986</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>2429503000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.7398967104192254</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>1797581277653.639</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45017</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>2419886000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.7384324555832879</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>1786922361211.62</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45047</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>2412202000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.7368816641735504</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>1777507424082.767</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45078</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>2410432000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.7552299675251114</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>1820430481081.489</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45108</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>2423488000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.7581788543917509</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>1837437355472.156</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45139</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>2439979000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.7403130043382341</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>1806348184012.2</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45170</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B499">
         <v>2449753000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C499">
         <v>0.7365071883101578</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D499">
         <v>1804260694084.374</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45200</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B500">
         <v>2469621000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C500">
         <v>0.7208090360620761</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D500">
         <v>1780125132448.661</v>
       </c>
     </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B501">
+        <v>2491053000000</v>
+      </c>
+      <c r="C501">
+        <v>0.737425059178361</v>
+      </c>
+      <c r="D501">
+        <v>1836964905941.434</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>